--- a/Data/conductivity_field.xlsx
+++ b/Data/conductivity_field.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linne\Box Sync\Chloride Research\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E8BE98-C094-4BD1-B691-BB8826349F3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CDA04A6-3A16-4429-A9FC-BD634C86F943}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loggers" sheetId="12" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>datetime</t>
   </si>
@@ -1136,10 +1136,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0CDB741-3836-4FA9-9852-A8110C8A5241}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1190,6 +1190,34 @@
       </c>
       <c r="D3">
         <v>1.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>43922.40625</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>325.10000000000002</v>
+      </c>
+      <c r="D4">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>43922.40625</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>317.8</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1265,7 +1293,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>

--- a/Data/conductivity_field.xlsx
+++ b/Data/conductivity_field.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linne\Box Sync\Chloride Research\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CDA04A6-3A16-4429-A9FC-BD634C86F943}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D517E0-783B-4103-9778-E7D350BF1966}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24120" yWindow="-1860" windowWidth="24240" windowHeight="13140" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loggers" sheetId="12" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="25">
   <si>
     <t>datetime</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>depth</t>
-  </si>
-  <si>
-    <t>surface</t>
   </si>
   <si>
     <t>Logger S/N</t>
@@ -597,9 +594,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -961,58 +959,58 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="18.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>20758340</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1">
         <v>43833.614583333336</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>20758345</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1">
         <v>43833.614583333336</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>20758339</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1">
         <v>43832.604166666664</v>
@@ -1024,100 +1022,100 @@
         <v>43851.697916666664</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>20758341</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1">
         <v>43826.53125</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>20758346</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1">
         <v>43826.53125</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>20758338</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1">
         <v>43818.5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>20758344</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1">
         <v>43818.5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>20378151</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="1">
         <v>43818</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>20758342</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="1">
         <v>43818</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>20758343</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="1">
         <v>43818</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>20758347</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="1">
         <v>43818</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>20758348</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="1">
         <v>43818</v>
@@ -1138,23 +1136,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0CDB741-3836-4FA9-9852-A8110C8A5241}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C1" t="s">
@@ -1164,12 +1162,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43826.536111111112</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
+      <c r="B2" s="2">
+        <v>1.5</v>
       </c>
       <c r="C2">
         <v>294</v>
@@ -1178,12 +1176,12 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43826.534722222219</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
+      <c r="B3" s="2">
+        <v>24</v>
       </c>
       <c r="C3">
         <v>297.5</v>
@@ -1192,12 +1190,12 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43922.40625</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
+      <c r="B4" s="2">
+        <v>1.5</v>
       </c>
       <c r="C4">
         <v>325.10000000000002</v>
@@ -1206,12 +1204,12 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43922.40625</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
+      <c r="B5" s="2">
+        <v>24</v>
       </c>
       <c r="C5">
         <v>317.8</v>
@@ -1227,25 +1225,25 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{588D9C27-B403-4DE5-8B68-B5C4B22BE996}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C1" t="s">
@@ -1255,12 +1253,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43833.604861111111</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
+      <c r="B2" s="2">
+        <v>20</v>
       </c>
       <c r="C2">
         <v>311.10000000000002</v>
@@ -1269,18 +1267,102 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43833.605555555558</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
+      <c r="B3" s="2">
+        <v>1.5</v>
       </c>
       <c r="C3">
         <v>304.7</v>
       </c>
       <c r="D3">
         <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>43988.668055555558</v>
+      </c>
+      <c r="B4" s="2">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>239.7</v>
+      </c>
+      <c r="D4">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>43988.672222222223</v>
+      </c>
+      <c r="B5" s="2">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>238.7</v>
+      </c>
+      <c r="D5">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>43988.676388888889</v>
+      </c>
+      <c r="B6" s="2">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>238.6</v>
+      </c>
+      <c r="D6">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>43988.679861111108</v>
+      </c>
+      <c r="B7" s="2">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>250.2</v>
+      </c>
+      <c r="D7">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>43988.681250000001</v>
+      </c>
+      <c r="B8" s="2">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>277.3</v>
+      </c>
+      <c r="D8">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>43988.681944444441</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>298.10000000000002</v>
+      </c>
+      <c r="D9">
+        <v>24.3</v>
       </c>
     </row>
   </sheetData>
@@ -1297,14 +1379,14 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1315,7 +1397,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43818.686111111114</v>
       </c>
@@ -1326,7 +1408,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43830.505555555559</v>
       </c>
@@ -1337,7 +1419,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43836.398611111108</v>
       </c>
@@ -1348,7 +1430,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43844.568055555559</v>
       </c>
@@ -1359,7 +1441,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43851.578472222223</v>
       </c>
@@ -1370,7 +1452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43858.57708333333</v>
       </c>
@@ -1381,7 +1463,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43864.621527777781</v>
       </c>
@@ -1392,7 +1474,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43865.577777777777</v>
       </c>
@@ -1403,7 +1485,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43872.574999999997</v>
       </c>
@@ -1414,7 +1496,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43879.581250000003</v>
       </c>
@@ -1425,7 +1507,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43886.572222222225</v>
       </c>
@@ -1436,7 +1518,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43893.57708333333</v>
       </c>
@@ -1447,7 +1529,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43900.530555555553</v>
       </c>
@@ -1458,7 +1540,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43906.355555555558</v>
       </c>
@@ -1483,14 +1565,14 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1501,7 +1583,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43818.667361111111</v>
       </c>
@@ -1512,7 +1594,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43830.530555555553</v>
       </c>
@@ -1523,7 +1605,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43836.398611111108</v>
       </c>
@@ -1534,7 +1616,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43844.586111111108</v>
       </c>
@@ -1545,7 +1627,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43851.604166666664</v>
       </c>
@@ -1556,7 +1638,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43858.595138888886</v>
       </c>
@@ -1567,7 +1649,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43864.65625</v>
       </c>
@@ -1578,7 +1660,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43865.592361111114</v>
       </c>
@@ -1589,7 +1671,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43872.594444444447</v>
       </c>
@@ -1600,7 +1682,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43879.600694444445</v>
       </c>
@@ -1611,7 +1693,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43886.588888888888</v>
       </c>
@@ -1622,7 +1704,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43893.597916666666</v>
       </c>
@@ -1633,7 +1715,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43900.546527777777</v>
       </c>
@@ -1644,7 +1726,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43906.375694444447</v>
       </c>
@@ -1668,14 +1750,14 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1686,7 +1768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43818.652777777781</v>
       </c>
@@ -1697,7 +1779,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43830.57708333333</v>
       </c>
@@ -1708,7 +1790,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43836.429861111108</v>
       </c>
@@ -1719,7 +1801,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43844.600694444445</v>
       </c>
@@ -1730,7 +1812,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43851.118750000001</v>
       </c>
@@ -1741,7 +1823,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43858.609722222223</v>
       </c>
@@ -1752,7 +1834,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43865.606944444444</v>
       </c>
@@ -1763,7 +1845,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43872.607638888891</v>
       </c>
@@ -1774,7 +1856,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43879.617361111108</v>
       </c>
@@ -1785,7 +1867,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43886.603472222225</v>
       </c>
@@ -1796,7 +1878,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43893.614583333336</v>
       </c>
@@ -1807,7 +1889,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43900.560416666667</v>
       </c>
@@ -1818,7 +1900,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43906.38958333333</v>
       </c>
@@ -1842,14 +1924,14 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1860,7 +1942,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43818.638888888891</v>
       </c>
@@ -1871,7 +1953,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43830.6</v>
       </c>
@@ -1882,7 +1964,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43836.447222222225</v>
       </c>
@@ -1893,7 +1975,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43844.600694444445</v>
       </c>
@@ -1904,7 +1986,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43851.635416666664</v>
       </c>
@@ -1915,7 +1997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43858.625</v>
       </c>
@@ -1926,7 +2008,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43865.629166666666</v>
       </c>
@@ -1937,7 +2019,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43872.621527777781</v>
       </c>
@@ -1948,7 +2030,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43879.131249999999</v>
       </c>
@@ -1959,7 +2041,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43886.615972222222</v>
       </c>
@@ -1970,7 +2052,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43893.629166666666</v>
       </c>
@@ -1981,7 +2063,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43900.574305555558</v>
       </c>
@@ -1992,7 +2074,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43906.40625</v>
       </c>
@@ -2016,14 +2098,14 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2034,7 +2116,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43818.631249999999</v>
       </c>
@@ -2045,7 +2127,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43830.619444444441</v>
       </c>
@@ -2056,7 +2138,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43836.461111111108</v>
       </c>
@@ -2067,7 +2149,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43844.62777777778</v>
       </c>
@@ -2078,18 +2160,18 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43851.649305555555</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6">
         <v>-0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43858.634027777778</v>
       </c>
@@ -2100,7 +2182,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43865.643055555556</v>
       </c>
@@ -2111,7 +2193,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43872.629861111112</v>
       </c>
@@ -2122,7 +2204,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43879.640277777777</v>
       </c>
@@ -2133,7 +2215,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43886.625</v>
       </c>
@@ -2144,7 +2226,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43893.638888888891</v>
       </c>
@@ -2155,7 +2237,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43900.582638888889</v>
       </c>
@@ -2166,7 +2248,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43906.416666666664</v>
       </c>
@@ -2190,14 +2272,14 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2208,7 +2290,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43818.62222222222</v>
       </c>
@@ -2219,7 +2301,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43830.627083333333</v>
       </c>
@@ -2230,7 +2312,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43836.46875</v>
       </c>
@@ -2241,7 +2323,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43844.637499999997</v>
       </c>
@@ -2252,7 +2334,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43851.659722222219</v>
       </c>
@@ -2263,7 +2345,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43858.642361111109</v>
       </c>
@@ -2274,7 +2356,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43865.654166666667</v>
       </c>
@@ -2285,7 +2367,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43872.634722222225</v>
       </c>
@@ -2296,7 +2378,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43879.645833333336</v>
       </c>
@@ -2307,7 +2389,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43886.631249999999</v>
       </c>
@@ -2318,7 +2400,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43893.652777777781</v>
       </c>
@@ -2329,7 +2411,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43900.59097222222</v>
       </c>
@@ -2340,7 +2422,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43906.427083333336</v>
       </c>
@@ -2364,14 +2446,14 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2382,7 +2464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43818.609722222223</v>
       </c>
@@ -2393,7 +2475,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43830.63958333333</v>
       </c>
@@ -2404,7 +2486,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43836.481249999997</v>
       </c>
@@ -2415,7 +2497,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43844.65</v>
       </c>
@@ -2426,7 +2508,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43851.674305555556</v>
       </c>
@@ -2437,7 +2519,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43858.654166666667</v>
       </c>
@@ -2448,7 +2530,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43864.706250000003</v>
       </c>
@@ -2459,7 +2541,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43865.670138888891</v>
       </c>
@@ -2470,7 +2552,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43872.647222222222</v>
       </c>
@@ -2481,7 +2563,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43879.65902777778</v>
       </c>
@@ -2492,7 +2574,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43886.644444444442</v>
       </c>
@@ -2503,7 +2585,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43893.671527777777</v>
       </c>
@@ -2514,7 +2596,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43900.603472222225</v>
       </c>
@@ -2525,7 +2607,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43906.441666666666</v>
       </c>
@@ -2549,14 +2631,14 @@
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2567,7 +2649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43818.599305555559</v>
       </c>
@@ -2578,7 +2660,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43830.648611111108</v>
       </c>
@@ -2589,7 +2671,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43832.605555555558</v>
       </c>
@@ -2600,7 +2682,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43836.488888888889</v>
       </c>
@@ -2611,7 +2693,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43844.65902777778</v>
       </c>
@@ -2622,7 +2704,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43845.571527777778</v>
       </c>
@@ -2633,7 +2715,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43851.684027777781</v>
       </c>
@@ -2644,7 +2726,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43858.664583333331</v>
       </c>
@@ -2655,7 +2737,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43865.676388888889</v>
       </c>
@@ -2666,7 +2748,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43872.654166666667</v>
       </c>
@@ -2677,7 +2759,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43879.666666666664</v>
       </c>
@@ -2688,7 +2770,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43886.65</v>
       </c>
@@ -2699,7 +2781,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43893.677777777775</v>
       </c>
@@ -2710,7 +2792,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43900.611805555556</v>
       </c>
@@ -2721,7 +2803,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43906.451388888891</v>
       </c>

--- a/Data/conductivity_field.xlsx
+++ b/Data/conductivity_field.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linne\Box Sync\Chloride Research\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D517E0-783B-4103-9778-E7D350BF1966}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B33AEAD-EFB9-4B63-B59C-78E5A36B2F64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="-1860" windowWidth="24240" windowHeight="13140" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loggers" sheetId="12" r:id="rId1"/>
-    <sheet name="YS" sheetId="1" r:id="rId2"/>
-    <sheet name="SW" sheetId="2" r:id="rId3"/>
-    <sheet name="YI" sheetId="3" r:id="rId4"/>
-    <sheet name="YN" sheetId="4" r:id="rId5"/>
-    <sheet name="6MC" sheetId="5" r:id="rId6"/>
-    <sheet name="DC" sheetId="6" r:id="rId7"/>
-    <sheet name="PBMS" sheetId="7" r:id="rId8"/>
-    <sheet name="PBSF" sheetId="8" r:id="rId9"/>
-    <sheet name="ME" sheetId="10" r:id="rId10"/>
-    <sheet name="MO" sheetId="11" r:id="rId11"/>
+    <sheet name="WC" sheetId="13" r:id="rId2"/>
+    <sheet name="YS" sheetId="1" r:id="rId3"/>
+    <sheet name="SW" sheetId="2" r:id="rId4"/>
+    <sheet name="YI" sheetId="3" r:id="rId5"/>
+    <sheet name="YN" sheetId="4" r:id="rId6"/>
+    <sheet name="6MC" sheetId="5" r:id="rId7"/>
+    <sheet name="DC" sheetId="6" r:id="rId8"/>
+    <sheet name="PBMS" sheetId="7" r:id="rId9"/>
+    <sheet name="PBSF" sheetId="8" r:id="rId10"/>
+    <sheet name="ME" sheetId="10" r:id="rId11"/>
+    <sheet name="MO" sheetId="11" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">loggers!$A$1:$C$13</definedName>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="24">
   <si>
     <t>datetime</t>
   </si>
@@ -60,9 +61,6 @@
   </si>
   <si>
     <t>Location</t>
-  </si>
-  <si>
-    <t>datetime start</t>
   </si>
   <si>
     <t>MO - surface</t>
@@ -101,13 +99,13 @@
     <t>YS</t>
   </si>
   <si>
-    <t>datetime out</t>
+    <t>240.7**</t>
   </si>
   <si>
-    <t>datetime restart</t>
+    <t>datetime start (original)</t>
   </si>
   <si>
-    <t>240.7**</t>
+    <t>WC</t>
   </si>
 </sst>
 </file>
@@ -253,7 +251,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -431,6 +429,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -594,10 +598,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -953,20 +958,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E111E348-178D-4A81-8338-72F6E909D9F1}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -974,151 +980,150 @@
         <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>20758340</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1">
         <v>43833.614583333336</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>20758345</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1">
         <v>43833.614583333336</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>20758339</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1">
         <v>43832.604166666664</v>
       </c>
-      <c r="D4" s="1">
-        <v>43845.572916666664</v>
-      </c>
-      <c r="E4" s="1">
-        <v>43851.697916666664</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>20758341</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1">
         <v>43826.53125</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>20758346</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1">
         <v>43826.53125</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>20758338</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1">
         <v>43818.5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>20758344</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="1">
         <v>43818.5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>20378151</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="1">
         <v>43818</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>20758342</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="1">
         <v>43818</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>20758343</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="1">
         <v>43818</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>20758347</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="1">
         <v>43818</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>20758348</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="1">
         <v>43818</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>20758345</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="1">
+        <v>43999.708333333336</v>
       </c>
     </row>
   </sheetData>
@@ -1133,6 +1138,213 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>43818.599305555559</v>
+      </c>
+      <c r="B2">
+        <v>1503</v>
+      </c>
+      <c r="C2">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>43830.648611111108</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>43832.605555555558</v>
+      </c>
+      <c r="B4">
+        <v>429.6</v>
+      </c>
+      <c r="C4">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>43836.488888888889</v>
+      </c>
+      <c r="B5">
+        <v>631.29999999999995</v>
+      </c>
+      <c r="C5">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>43844.65902777778</v>
+      </c>
+      <c r="B6">
+        <v>1427</v>
+      </c>
+      <c r="C6">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>43845.571527777778</v>
+      </c>
+      <c r="B7">
+        <v>1442</v>
+      </c>
+      <c r="C7">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>43851.684027777781</v>
+      </c>
+      <c r="B8">
+        <v>1271</v>
+      </c>
+      <c r="C8">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>43858.664583333331</v>
+      </c>
+      <c r="B9">
+        <v>1479</v>
+      </c>
+      <c r="C9">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>43865.676388888889</v>
+      </c>
+      <c r="B10">
+        <v>1472</v>
+      </c>
+      <c r="C10">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>43872.654166666667</v>
+      </c>
+      <c r="B11">
+        <v>1860</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>43879.666666666664</v>
+      </c>
+      <c r="B12">
+        <v>2592</v>
+      </c>
+      <c r="C12">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>43886.65</v>
+      </c>
+      <c r="B13">
+        <v>1988</v>
+      </c>
+      <c r="C13">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>43893.677777777775</v>
+      </c>
+      <c r="B14">
+        <v>2046</v>
+      </c>
+      <c r="C14">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>43900.611805555556</v>
+      </c>
+      <c r="B15">
+        <v>1227</v>
+      </c>
+      <c r="C15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>43906.451388888891</v>
+      </c>
+      <c r="B16">
+        <v>1326</v>
+      </c>
+      <c r="C16">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>43999.413888888892</v>
+      </c>
+      <c r="B17">
+        <v>777.5</v>
+      </c>
+      <c r="C17">
+        <v>23.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0CDB741-3836-4FA9-9852-A8110C8A5241}">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -1223,11 +1435,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{588D9C27-B403-4DE5-8B68-B5C4B22BE996}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
@@ -1372,8 +1584,50 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE7E974B-BCA0-45B0-95FE-63AB262733E9}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>43999.654861111114</v>
+      </c>
+      <c r="B2">
+        <v>754.5</v>
+      </c>
+      <c r="C2">
+        <v>25.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
@@ -1551,15 +1805,26 @@
         <v>2.9</v>
       </c>
     </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>43999.611111111109</v>
+      </c>
+      <c r="B16">
+        <v>597.20000000000005</v>
+      </c>
+      <c r="C16">
+        <v>25.4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
@@ -1737,14 +2002,25 @@
         <v>3.7</v>
       </c>
     </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>43999.588888888888</v>
+      </c>
+      <c r="B16">
+        <v>1116</v>
+      </c>
+      <c r="C16">
+        <v>23.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
@@ -1911,14 +2187,25 @@
         <v>2.8</v>
       </c>
     </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>43999.572916666664</v>
+      </c>
+      <c r="B15">
+        <v>557</v>
+      </c>
+      <c r="C15">
+        <v>25.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
@@ -2085,14 +2372,25 @@
         <v>3.2</v>
       </c>
     </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>43999.487500000003</v>
+      </c>
+      <c r="B15">
+        <v>487.5</v>
+      </c>
+      <c r="C15">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
@@ -2165,7 +2463,7 @@
         <v>43851.649305555555</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>-0.1</v>
@@ -2257,6 +2555,17 @@
       </c>
       <c r="C14">
         <v>3.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>43999.46875</v>
+      </c>
+      <c r="B15">
+        <v>708.6</v>
+      </c>
+      <c r="C15">
+        <v>22.4</v>
       </c>
     </row>
   </sheetData>
@@ -2264,9 +2573,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
@@ -2433,17 +2742,28 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>43999.447916666664</v>
+      </c>
+      <c r="B15">
+        <v>716.6</v>
+      </c>
+      <c r="C15">
+        <v>20.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2618,200 +2938,15 @@
         <v>4.5</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:C16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>43818.599305555559</v>
-      </c>
-      <c r="B2">
-        <v>1503</v>
-      </c>
-      <c r="C2">
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>43830.648611111108</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>43832.605555555558</v>
-      </c>
-      <c r="B4">
-        <v>429.6</v>
-      </c>
-      <c r="C4">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>43836.488888888889</v>
-      </c>
-      <c r="B5">
-        <v>631.29999999999995</v>
-      </c>
-      <c r="C5">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>43844.65902777778</v>
-      </c>
-      <c r="B6">
-        <v>1427</v>
-      </c>
-      <c r="C6">
-        <v>5.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>43845.571527777778</v>
-      </c>
-      <c r="B7">
-        <v>1442</v>
-      </c>
-      <c r="C7">
-        <v>6.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>43851.684027777781</v>
-      </c>
-      <c r="B8">
-        <v>1271</v>
-      </c>
-      <c r="C8">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>43858.664583333331</v>
-      </c>
-      <c r="B9">
-        <v>1479</v>
-      </c>
-      <c r="C9">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>43865.676388888889</v>
-      </c>
-      <c r="B10">
-        <v>1472</v>
-      </c>
-      <c r="C10">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>43872.654166666667</v>
-      </c>
-      <c r="B11">
-        <v>1860</v>
-      </c>
-      <c r="C11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>43879.666666666664</v>
-      </c>
-      <c r="B12">
-        <v>2592</v>
-      </c>
-      <c r="C12">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>43886.65</v>
-      </c>
-      <c r="B13">
-        <v>1988</v>
-      </c>
-      <c r="C13">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>43893.677777777775</v>
-      </c>
-      <c r="B14">
-        <v>2046</v>
-      </c>
-      <c r="C14">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>43900.611805555556</v>
-      </c>
-      <c r="B15">
-        <v>1227</v>
-      </c>
-      <c r="C15">
-        <v>8</v>
-      </c>
-    </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>43906.451388888891</v>
+        <v>43999.427777777775</v>
       </c>
       <c r="B16">
-        <v>1326</v>
+        <v>951.3</v>
       </c>
       <c r="C16">
-        <v>4.5999999999999996</v>
+        <v>24.9</v>
       </c>
     </row>
   </sheetData>

--- a/Data/conductivity_field.xlsx
+++ b/Data/conductivity_field.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linne\Box Sync\Chloride Research\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B33AEAD-EFB9-4B63-B59C-78E5A36B2F64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580A7825-4794-485D-814A-858D63BA47BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loggers" sheetId="12" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="36">
   <si>
     <t>datetime</t>
   </si>
@@ -90,9 +90,6 @@
     <t>YN</t>
   </si>
   <si>
-    <t>Y6MC</t>
-  </si>
-  <si>
     <t>YI</t>
   </si>
   <si>
@@ -106,16 +103,56 @@
   </si>
   <si>
     <t>WC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stop </t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>LEVEL LOGGER</t>
+  </si>
+  <si>
+    <t>2020-03-16 10:30:00 </t>
+  </si>
+  <si>
+    <t>Stop</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>2020-02-03  15:00:00</t>
+  </si>
+  <si>
+    <t>2020-02-03  15:30:00</t>
+  </si>
+  <si>
+    <t>2020-03-16 9:30:00 </t>
+  </si>
+  <si>
+    <t>2020-02-03  16:00:00</t>
+  </si>
+  <si>
+    <t>6MC</t>
+  </si>
+  <si>
+    <t>2020-02-03  17:00:00</t>
+  </si>
+  <si>
+    <t>2020-02-03  17:30:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mm\-dd\-yyyy\ hh:mm:ss"/>
+    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,6 +283,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -598,11 +642,33 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -958,172 +1024,391 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E111E348-178D-4A81-8338-72F6E909D9F1}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.21875" style="3" customWidth="1"/>
+    <col min="7" max="9" width="19.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="18.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>20758340</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3">
+        <v>43833.614583333336</v>
+      </c>
+      <c r="D2" s="7">
+        <v>43963.53125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="9">
+        <v>20758345</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3">
+        <v>43833.614583333336</v>
+      </c>
+      <c r="D3" s="7">
+        <v>43963.53125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>20758339</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3">
+        <v>43832.604166666664</v>
+      </c>
+      <c r="D4" s="10">
+        <v>43845.5625</v>
+      </c>
+      <c r="E4" s="12">
+        <v>43851.697916666664</v>
+      </c>
+      <c r="F4" s="10">
+        <v>43865.677083333336</v>
+      </c>
+      <c r="G4" s="10">
+        <v>43865.6875</v>
+      </c>
+      <c r="H4" s="10">
+        <v>43906.4375</v>
+      </c>
+      <c r="I4" s="10">
+        <v>43906.458333333336</v>
+      </c>
+      <c r="J4" s="3">
+        <v>43999.416666666664</v>
+      </c>
+      <c r="K4" s="3">
+        <v>43999.9375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>20758341</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3">
+        <v>43826.53125</v>
+      </c>
+      <c r="D5" s="7">
+        <v>43922.40625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>20758346</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="3">
+        <v>43826.53125</v>
+      </c>
+      <c r="D6" s="7">
+        <v>43922.40625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>20758338</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="3">
+        <v>43818.5</v>
+      </c>
+      <c r="D7" s="10">
+        <v>43865.645833333336</v>
+      </c>
+      <c r="E7" s="12">
+        <v>43865.666666666664</v>
+      </c>
+      <c r="F7" s="10">
+        <v>43906.458333333336</v>
+      </c>
+      <c r="G7" s="10">
+        <v>43906.4375</v>
+      </c>
+      <c r="H7" s="3">
+        <v>43999.4375</v>
+      </c>
+      <c r="I7" s="3">
+        <v>43999.458333333336</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>20758344</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="3">
+        <v>43818.5</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="10">
+        <v>43906.479166666664</v>
+      </c>
+      <c r="G8" s="10">
+        <v>43906.458333333336</v>
+      </c>
+      <c r="H8" s="3">
+        <v>43999.416666666664</v>
+      </c>
+      <c r="I8" s="3">
+        <v>43999.4375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>20378151</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="3">
+        <v>43818</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="10">
+        <v>43906.416666666664</v>
+      </c>
+      <c r="G9" s="10">
+        <v>43906.395833333336</v>
+      </c>
+      <c r="H9" s="3">
+        <v>43999.583333333336</v>
+      </c>
+      <c r="I9" s="3">
+        <v>43999.604166666664</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>20758342</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="3">
+        <v>43818</v>
+      </c>
+      <c r="D10" s="10">
+        <v>43865.645833333336</v>
+      </c>
+      <c r="E10" s="12">
+        <v>43865.666666666664</v>
+      </c>
+      <c r="F10" s="10">
+        <v>43906.458333333336</v>
+      </c>
+      <c r="G10" s="10">
+        <v>43906.4375</v>
+      </c>
+      <c r="H10" s="3">
+        <v>43999.458333333336</v>
+      </c>
+      <c r="I10" s="3">
+        <v>43999.479166666664</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>20758343</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="3">
+        <v>43818</v>
+      </c>
+      <c r="D11" s="10">
+        <v>43865.625</v>
+      </c>
+      <c r="E11" s="12">
+        <v>43865.645833333336</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="10">
+        <v>43906.416666666664</v>
+      </c>
+      <c r="H11" s="3">
+        <v>43999.479166666664</v>
+      </c>
+      <c r="I11" s="3">
+        <v>43999.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>20758347</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="3">
+        <v>43818</v>
+      </c>
+      <c r="D12" s="10">
+        <v>43865.604166666664</v>
+      </c>
+      <c r="E12" s="12">
+        <v>43865.625</v>
+      </c>
+      <c r="F12" s="10">
+        <v>43906.416666666664</v>
+      </c>
+      <c r="G12" s="10">
+        <v>43906.395833333336</v>
+      </c>
+      <c r="H12" s="3">
+        <v>43999.5625</v>
+      </c>
+      <c r="I12" s="3">
+        <v>43999.583333333336</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>20758348</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="3">
+        <v>43818</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="10">
+        <v>43906.375</v>
+      </c>
+      <c r="H13" s="3">
+        <v>43999.604166666664</v>
+      </c>
+      <c r="I13" s="3">
+        <v>43999.625</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="9">
+        <v>20758345</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>20758340</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1">
-        <v>43833.614583333336</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>20758345</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1">
-        <v>43833.614583333336</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>20758339</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1">
-        <v>43832.604166666664</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>20758341</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1">
-        <v>43826.53125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>20758346</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="1">
-        <v>43826.53125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>20758338</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="1">
-        <v>43818.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>20758344</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="1">
-        <v>43818.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>20378151</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="1">
-        <v>43818</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>20758342</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="1">
-        <v>43818</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>20758343</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="1">
-        <v>43818</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>20758347</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="C14" s="3">
+        <v>43999.666666666664</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="11">
+        <v>20484276</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="1">
-        <v>43818</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>20758348</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="1">
-        <v>43818</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>20758345</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="1">
-        <v>43999.708333333336</v>
+      <c r="C17" s="7">
+        <v>43893.583333333336</v>
+      </c>
+      <c r="D17" s="7">
+        <v>43906.364583333336</v>
+      </c>
+      <c r="E17" s="13">
+        <v>43906.375</v>
+      </c>
+      <c r="F17" s="3">
+        <v>43999.604166666664</v>
+      </c>
+      <c r="G17" s="3">
+        <v>43999.625</v>
       </c>
     </row>
   </sheetData>
@@ -1141,18 +1426,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1163,7 +1448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43818.599305555559</v>
       </c>
@@ -1174,7 +1459,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43830.648611111108</v>
       </c>
@@ -1185,7 +1470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43832.605555555558</v>
       </c>
@@ -1196,7 +1481,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43836.488888888889</v>
       </c>
@@ -1207,7 +1492,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43844.65902777778</v>
       </c>
@@ -1218,7 +1503,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43845.571527777778</v>
       </c>
@@ -1229,7 +1514,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>43851.684027777781</v>
       </c>
@@ -1240,7 +1525,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>43858.664583333331</v>
       </c>
@@ -1251,7 +1536,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>43865.676388888889</v>
       </c>
@@ -1262,7 +1547,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>43872.654166666667</v>
       </c>
@@ -1273,7 +1558,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>43879.666666666664</v>
       </c>
@@ -1284,7 +1569,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>43886.65</v>
       </c>
@@ -1295,7 +1580,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>43893.677777777775</v>
       </c>
@@ -1306,7 +1591,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>43900.611805555556</v>
       </c>
@@ -1317,7 +1602,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>43906.451388888891</v>
       </c>
@@ -1328,7 +1613,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>43999.413888888892</v>
       </c>
@@ -1352,15 +1637,15 @@
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1374,7 +1659,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43826.536111111112</v>
       </c>
@@ -1388,7 +1673,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43826.534722222219</v>
       </c>
@@ -1402,7 +1687,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43922.40625</v>
       </c>
@@ -1416,7 +1701,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43922.40625</v>
       </c>
@@ -1443,15 +1728,15 @@
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1465,7 +1750,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43833.604861111111</v>
       </c>
@@ -1479,7 +1764,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43833.605555555558</v>
       </c>
@@ -1493,7 +1778,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43988.668055555558</v>
       </c>
@@ -1507,7 +1792,7 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43988.672222222223</v>
       </c>
@@ -1521,7 +1806,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43988.676388888889</v>
       </c>
@@ -1535,7 +1820,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43988.679861111108</v>
       </c>
@@ -1549,7 +1834,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>43988.681250000001</v>
       </c>
@@ -1563,7 +1848,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>43988.681944444441</v>
       </c>
@@ -1591,14 +1876,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1609,7 +1894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43999.654861111114</v>
       </c>
@@ -1633,14 +1918,14 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1651,7 +1936,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43818.686111111114</v>
       </c>
@@ -1662,7 +1947,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43830.505555555559</v>
       </c>
@@ -1673,7 +1958,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43836.398611111108</v>
       </c>
@@ -1684,7 +1969,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43844.568055555559</v>
       </c>
@@ -1695,7 +1980,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43851.578472222223</v>
       </c>
@@ -1706,7 +1991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43858.57708333333</v>
       </c>
@@ -1717,7 +2002,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>43864.621527777781</v>
       </c>
@@ -1728,7 +2013,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>43865.577777777777</v>
       </c>
@@ -1739,7 +2024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>43872.574999999997</v>
       </c>
@@ -1750,7 +2035,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>43879.581250000003</v>
       </c>
@@ -1761,7 +2046,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>43886.572222222225</v>
       </c>
@@ -1772,7 +2057,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>43893.57708333333</v>
       </c>
@@ -1783,7 +2068,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>43900.530555555553</v>
       </c>
@@ -1794,7 +2079,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>43906.355555555558</v>
       </c>
@@ -1805,7 +2090,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>43999.611111111109</v>
       </c>
@@ -1830,14 +2115,14 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1848,7 +2133,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43818.667361111111</v>
       </c>
@@ -1859,7 +2144,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43830.530555555553</v>
       </c>
@@ -1870,7 +2155,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43836.398611111108</v>
       </c>
@@ -1881,7 +2166,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43844.586111111108</v>
       </c>
@@ -1892,7 +2177,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43851.604166666664</v>
       </c>
@@ -1903,7 +2188,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43858.595138888886</v>
       </c>
@@ -1914,7 +2199,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>43864.65625</v>
       </c>
@@ -1925,7 +2210,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>43865.592361111114</v>
       </c>
@@ -1936,7 +2221,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>43872.594444444447</v>
       </c>
@@ -1947,7 +2232,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>43879.600694444445</v>
       </c>
@@ -1958,7 +2243,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>43886.588888888888</v>
       </c>
@@ -1969,7 +2254,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>43893.597916666666</v>
       </c>
@@ -1980,7 +2265,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>43900.546527777777</v>
       </c>
@@ -1991,7 +2276,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>43906.375694444447</v>
       </c>
@@ -2002,7 +2287,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>43999.588888888888</v>
       </c>
@@ -2026,14 +2311,14 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2044,7 +2329,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43818.652777777781</v>
       </c>
@@ -2055,7 +2340,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43830.57708333333</v>
       </c>
@@ -2066,7 +2351,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43836.429861111108</v>
       </c>
@@ -2077,7 +2362,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43844.600694444445</v>
       </c>
@@ -2088,7 +2373,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43851.118750000001</v>
       </c>
@@ -2099,7 +2384,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43858.609722222223</v>
       </c>
@@ -2110,7 +2395,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>43865.606944444444</v>
       </c>
@@ -2121,7 +2406,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>43872.607638888891</v>
       </c>
@@ -2132,7 +2417,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>43879.617361111108</v>
       </c>
@@ -2143,7 +2428,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>43886.603472222225</v>
       </c>
@@ -2154,7 +2439,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>43893.614583333336</v>
       </c>
@@ -2165,7 +2450,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>43900.560416666667</v>
       </c>
@@ -2176,7 +2461,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>43906.38958333333</v>
       </c>
@@ -2187,7 +2472,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>43999.572916666664</v>
       </c>
@@ -2211,14 +2496,14 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2229,7 +2514,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43818.638888888891</v>
       </c>
@@ -2240,7 +2525,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43830.6</v>
       </c>
@@ -2251,7 +2536,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43836.447222222225</v>
       </c>
@@ -2262,7 +2547,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43844.600694444445</v>
       </c>
@@ -2273,7 +2558,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43851.635416666664</v>
       </c>
@@ -2284,7 +2569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43858.625</v>
       </c>
@@ -2295,7 +2580,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>43865.629166666666</v>
       </c>
@@ -2306,7 +2591,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>43872.621527777781</v>
       </c>
@@ -2317,7 +2602,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>43879.131249999999</v>
       </c>
@@ -2328,7 +2613,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>43886.615972222222</v>
       </c>
@@ -2339,7 +2624,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>43893.629166666666</v>
       </c>
@@ -2350,7 +2635,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>43900.574305555558</v>
       </c>
@@ -2361,7 +2646,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>43906.40625</v>
       </c>
@@ -2372,7 +2657,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>43999.487500000003</v>
       </c>
@@ -2396,14 +2681,14 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2414,7 +2699,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43818.631249999999</v>
       </c>
@@ -2425,7 +2710,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43830.619444444441</v>
       </c>
@@ -2436,7 +2721,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43836.461111111108</v>
       </c>
@@ -2447,7 +2732,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43844.62777777778</v>
       </c>
@@ -2458,18 +2743,18 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43851.649305555555</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <v>-0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43858.634027777778</v>
       </c>
@@ -2480,7 +2765,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>43865.643055555556</v>
       </c>
@@ -2491,7 +2776,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>43872.629861111112</v>
       </c>
@@ -2502,7 +2787,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>43879.640277777777</v>
       </c>
@@ -2513,7 +2798,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>43886.625</v>
       </c>
@@ -2524,7 +2809,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>43893.638888888891</v>
       </c>
@@ -2535,7 +2820,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>43900.582638888889</v>
       </c>
@@ -2546,7 +2831,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>43906.416666666664</v>
       </c>
@@ -2557,7 +2842,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>43999.46875</v>
       </c>
@@ -2581,14 +2866,14 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2599,7 +2884,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43818.62222222222</v>
       </c>
@@ -2610,7 +2895,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43830.627083333333</v>
       </c>
@@ -2621,7 +2906,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43836.46875</v>
       </c>
@@ -2632,7 +2917,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43844.637499999997</v>
       </c>
@@ -2643,7 +2928,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43851.659722222219</v>
       </c>
@@ -2654,7 +2939,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43858.642361111109</v>
       </c>
@@ -2665,7 +2950,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>43865.654166666667</v>
       </c>
@@ -2676,7 +2961,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>43872.634722222225</v>
       </c>
@@ -2687,7 +2972,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>43879.645833333336</v>
       </c>
@@ -2698,7 +2983,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>43886.631249999999</v>
       </c>
@@ -2709,7 +2994,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>43893.652777777781</v>
       </c>
@@ -2720,7 +3005,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>43900.59097222222</v>
       </c>
@@ -2731,7 +3016,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>43906.427083333336</v>
       </c>
@@ -2742,7 +3027,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>43999.447916666664</v>
       </c>
@@ -2766,14 +3051,14 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2784,7 +3069,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43818.609722222223</v>
       </c>
@@ -2795,7 +3080,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43830.63958333333</v>
       </c>
@@ -2806,7 +3091,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43836.481249999997</v>
       </c>
@@ -2817,7 +3102,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43844.65</v>
       </c>
@@ -2828,7 +3113,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43851.674305555556</v>
       </c>
@@ -2839,7 +3124,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43858.654166666667</v>
       </c>
@@ -2850,7 +3135,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>43864.706250000003</v>
       </c>
@@ -2861,7 +3146,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>43865.670138888891</v>
       </c>
@@ -2872,7 +3157,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>43872.647222222222</v>
       </c>
@@ -2883,7 +3168,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>43879.65902777778</v>
       </c>
@@ -2894,7 +3179,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>43886.644444444442</v>
       </c>
@@ -2905,7 +3190,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>43893.671527777777</v>
       </c>
@@ -2916,7 +3201,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>43900.603472222225</v>
       </c>
@@ -2927,7 +3212,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>43906.441666666666</v>
       </c>
@@ -2938,7 +3223,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>43999.427777777775</v>
       </c>

--- a/Data/conductivity_field.xlsx
+++ b/Data/conductivity_field.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linne\Box Sync\Chloride Research\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580A7825-4794-485D-814A-858D63BA47BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F60A30-E56D-428C-85B2-EC7518047A9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loggers" sheetId="12" r:id="rId1"/>
@@ -150,7 +150,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mm\-dd\-yyyy\ hh:mm:ss"/>
-    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -646,27 +646,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="169" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="169" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="169" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1026,8 +1026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E111E348-178D-4A81-8338-72F6E909D9F1}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1308,7 +1308,7 @@
         <v>43906.416666666664</v>
       </c>
       <c r="H11" s="3">
-        <v>43999.479166666664</v>
+        <v>43999.458333333336</v>
       </c>
       <c r="I11" s="3">
         <v>43999.5</v>

--- a/Data/conductivity_field.xlsx
+++ b/Data/conductivity_field.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linne\Box Sync\Chloride Research\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linne\Box Sync\CL_BUD\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F60A30-E56D-428C-85B2-EC7518047A9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA591595-3C42-49C0-84EB-B394059BA546}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loggers" sheetId="12" r:id="rId1"/>
@@ -1026,24 +1026,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E111E348-178D-4A81-8338-72F6E909D9F1}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.21875" style="3" customWidth="1"/>
-    <col min="7" max="9" width="19.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="18.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="13.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="3" customWidth="1"/>
+    <col min="7" max="9" width="19.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="18.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>20758340</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>43963.53125</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>20758345</v>
       </c>
@@ -1106,7 +1106,7 @@
         <v>43963.53125</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>20758339</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>43999.9375</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>20758341</v>
       </c>
@@ -1155,7 +1155,7 @@
         <v>43922.40625</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>20758346</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>43922.40625</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>20758338</v>
       </c>
@@ -1198,7 +1198,7 @@
         <v>43999.458333333336</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>20758344</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>43999.4375</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>20378151</v>
       </c>
@@ -1256,7 +1256,7 @@
         <v>43999.604166666664</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>20758342</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>43999.479166666664</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>20758343</v>
       </c>
@@ -1314,7 +1314,7 @@
         <v>43999.5</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>20758347</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>43999.583333333336</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>20758348</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>43999.625</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>20758345</v>
       </c>
@@ -1383,12 +1383,12 @@
         <v>43999.666666666664</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>20484276</v>
       </c>
@@ -1424,20 +1424,20 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1448,7 +1448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43818.599305555559</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43830.648611111108</v>
       </c>
@@ -1470,7 +1470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43832.605555555558</v>
       </c>
@@ -1481,7 +1481,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43836.488888888889</v>
       </c>
@@ -1492,7 +1492,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43844.65902777778</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43845.571527777778</v>
       </c>
@@ -1514,7 +1514,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43851.684027777781</v>
       </c>
@@ -1525,7 +1525,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43858.664583333331</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43865.676388888889</v>
       </c>
@@ -1547,7 +1547,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43872.654166666667</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43879.666666666664</v>
       </c>
@@ -1569,7 +1569,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43886.65</v>
       </c>
@@ -1580,7 +1580,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43893.677777777775</v>
       </c>
@@ -1591,7 +1591,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43900.611805555556</v>
       </c>
@@ -1602,7 +1602,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43906.451388888891</v>
       </c>
@@ -1613,7 +1613,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43999.413888888892</v>
       </c>
@@ -1622,6 +1622,17 @@
       </c>
       <c r="C17">
         <v>23.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>44012.489583333336</v>
+      </c>
+      <c r="B18">
+        <v>96.77</v>
+      </c>
+      <c r="C18">
+        <v>25.7</v>
       </c>
     </row>
   </sheetData>
@@ -1637,15 +1648,15 @@
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1659,7 +1670,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43826.536111111112</v>
       </c>
@@ -1673,7 +1684,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43826.534722222219</v>
       </c>
@@ -1687,7 +1698,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43922.40625</v>
       </c>
@@ -1701,7 +1712,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43922.40625</v>
       </c>
@@ -1728,15 +1739,15 @@
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1750,7 +1761,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43833.604861111111</v>
       </c>
@@ -1764,7 +1775,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43833.605555555558</v>
       </c>
@@ -1778,7 +1789,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43988.668055555558</v>
       </c>
@@ -1792,7 +1803,7 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43988.672222222223</v>
       </c>
@@ -1806,7 +1817,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43988.676388888889</v>
       </c>
@@ -1820,7 +1831,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43988.679861111108</v>
       </c>
@@ -1834,7 +1845,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43988.681250000001</v>
       </c>
@@ -1848,7 +1859,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43988.681944444441</v>
       </c>
@@ -1870,20 +1881,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE7E974B-BCA0-45B0-95FE-63AB262733E9}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1894,7 +1905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43999.654861111114</v>
       </c>
@@ -1902,6 +1913,17 @@
         <v>754.5</v>
       </c>
       <c r="C2">
+        <v>25.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>44012.369444444441</v>
+      </c>
+      <c r="B3">
+        <v>648.29999999999995</v>
+      </c>
+      <c r="C3">
         <v>25.2</v>
       </c>
     </row>
@@ -1912,20 +1934,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1936,7 +1958,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43818.686111111114</v>
       </c>
@@ -1947,7 +1969,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43830.505555555559</v>
       </c>
@@ -1958,7 +1980,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43836.398611111108</v>
       </c>
@@ -1969,7 +1991,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43844.568055555559</v>
       </c>
@@ -1980,7 +2002,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43851.578472222223</v>
       </c>
@@ -1991,7 +2013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43858.57708333333</v>
       </c>
@@ -2002,7 +2024,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43864.621527777781</v>
       </c>
@@ -2013,7 +2035,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43865.577777777777</v>
       </c>
@@ -2024,7 +2046,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43872.574999999997</v>
       </c>
@@ -2035,7 +2057,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43879.581250000003</v>
       </c>
@@ -2046,7 +2068,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43886.572222222225</v>
       </c>
@@ -2057,7 +2079,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43893.57708333333</v>
       </c>
@@ -2068,7 +2090,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43900.530555555553</v>
       </c>
@@ -2079,7 +2101,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43906.355555555558</v>
       </c>
@@ -2090,7 +2112,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43999.611111111109</v>
       </c>
@@ -2099,6 +2121,17 @@
       </c>
       <c r="C16">
         <v>25.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>44012.388194444444</v>
+      </c>
+      <c r="B17">
+        <v>582.20000000000005</v>
+      </c>
+      <c r="C17">
+        <v>25.2</v>
       </c>
     </row>
   </sheetData>
@@ -2109,20 +2142,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2133,7 +2166,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43818.667361111111</v>
       </c>
@@ -2144,7 +2177,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43830.530555555553</v>
       </c>
@@ -2155,7 +2188,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43836.398611111108</v>
       </c>
@@ -2166,7 +2199,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43844.586111111108</v>
       </c>
@@ -2177,7 +2210,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43851.604166666664</v>
       </c>
@@ -2188,7 +2221,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43858.595138888886</v>
       </c>
@@ -2199,7 +2232,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43864.65625</v>
       </c>
@@ -2210,7 +2243,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43865.592361111114</v>
       </c>
@@ -2221,7 +2254,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43872.594444444447</v>
       </c>
@@ -2232,7 +2265,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43879.600694444445</v>
       </c>
@@ -2243,7 +2276,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43886.588888888888</v>
       </c>
@@ -2254,7 +2287,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43893.597916666666</v>
       </c>
@@ -2265,7 +2298,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43900.546527777777</v>
       </c>
@@ -2276,7 +2309,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43906.375694444447</v>
       </c>
@@ -2287,7 +2320,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43999.588888888888</v>
       </c>
@@ -2296,6 +2329,17 @@
       </c>
       <c r="C16">
         <v>23.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>44012.525694444441</v>
+      </c>
+      <c r="B17">
+        <v>688.5</v>
+      </c>
+      <c r="C17">
+        <v>227.1</v>
       </c>
     </row>
   </sheetData>
@@ -2305,20 +2349,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2329,7 +2373,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43818.652777777781</v>
       </c>
@@ -2340,7 +2384,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43830.57708333333</v>
       </c>
@@ -2351,7 +2395,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43836.429861111108</v>
       </c>
@@ -2362,7 +2406,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43844.600694444445</v>
       </c>
@@ -2373,7 +2417,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43851.118750000001</v>
       </c>
@@ -2384,7 +2428,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43858.609722222223</v>
       </c>
@@ -2395,7 +2439,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43865.606944444444</v>
       </c>
@@ -2406,7 +2450,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43872.607638888891</v>
       </c>
@@ -2417,7 +2461,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43879.617361111108</v>
       </c>
@@ -2428,7 +2472,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43886.603472222225</v>
       </c>
@@ -2439,7 +2483,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43893.614583333336</v>
       </c>
@@ -2450,7 +2494,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43900.560416666667</v>
       </c>
@@ -2461,7 +2505,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43906.38958333333</v>
       </c>
@@ -2472,7 +2516,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43999.572916666664</v>
       </c>
@@ -2481,6 +2525,17 @@
       </c>
       <c r="C15">
         <v>25.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>44012.412499999999</v>
+      </c>
+      <c r="B16">
+        <v>540.5</v>
+      </c>
+      <c r="C16">
+        <v>25.5</v>
       </c>
     </row>
   </sheetData>
@@ -2490,20 +2545,20 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2514,7 +2569,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43818.638888888891</v>
       </c>
@@ -2525,7 +2580,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43830.6</v>
       </c>
@@ -2536,7 +2591,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43836.447222222225</v>
       </c>
@@ -2547,7 +2602,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43844.600694444445</v>
       </c>
@@ -2558,7 +2613,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43851.635416666664</v>
       </c>
@@ -2569,7 +2624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43858.625</v>
       </c>
@@ -2580,7 +2635,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43865.629166666666</v>
       </c>
@@ -2591,7 +2646,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43872.621527777781</v>
       </c>
@@ -2602,7 +2657,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43879.131249999999</v>
       </c>
@@ -2613,7 +2668,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43886.615972222222</v>
       </c>
@@ -2624,7 +2679,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43893.629166666666</v>
       </c>
@@ -2635,7 +2690,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43900.574305555558</v>
       </c>
@@ -2646,7 +2701,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43906.40625</v>
       </c>
@@ -2657,7 +2712,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43999.487500000003</v>
       </c>
@@ -2666,6 +2721,17 @@
       </c>
       <c r="C15">
         <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>44012.429861111108</v>
+      </c>
+      <c r="B16">
+        <v>682.5</v>
+      </c>
+      <c r="C16">
+        <v>27.3</v>
       </c>
     </row>
   </sheetData>
@@ -2675,20 +2741,20 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2699,7 +2765,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43818.631249999999</v>
       </c>
@@ -2710,7 +2776,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43830.619444444441</v>
       </c>
@@ -2721,7 +2787,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43836.461111111108</v>
       </c>
@@ -2732,7 +2798,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43844.62777777778</v>
       </c>
@@ -2743,7 +2809,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43851.649305555555</v>
       </c>
@@ -2754,7 +2820,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43858.634027777778</v>
       </c>
@@ -2765,7 +2831,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43865.643055555556</v>
       </c>
@@ -2776,7 +2842,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43872.629861111112</v>
       </c>
@@ -2787,7 +2853,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43879.640277777777</v>
       </c>
@@ -2798,7 +2864,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43886.625</v>
       </c>
@@ -2809,7 +2875,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43893.638888888891</v>
       </c>
@@ -2820,7 +2886,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43900.582638888889</v>
       </c>
@@ -2831,7 +2897,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43906.416666666664</v>
       </c>
@@ -2842,7 +2908,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43999.46875</v>
       </c>
@@ -2851,6 +2917,17 @@
       </c>
       <c r="C15">
         <v>22.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>44012.448611111111</v>
+      </c>
+      <c r="B16">
+        <v>683.1</v>
+      </c>
+      <c r="C16">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -2860,20 +2937,20 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2884,7 +2961,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43818.62222222222</v>
       </c>
@@ -2895,7 +2972,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43830.627083333333</v>
       </c>
@@ -2906,7 +2983,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43836.46875</v>
       </c>
@@ -2917,7 +2994,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43844.637499999997</v>
       </c>
@@ -2928,7 +3005,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43851.659722222219</v>
       </c>
@@ -2939,7 +3016,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43858.642361111109</v>
       </c>
@@ -2950,7 +3027,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43865.654166666667</v>
       </c>
@@ -2961,7 +3038,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43872.634722222225</v>
       </c>
@@ -2972,7 +3049,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43879.645833333336</v>
       </c>
@@ -2983,7 +3060,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43886.631249999999</v>
       </c>
@@ -2994,7 +3071,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43893.652777777781</v>
       </c>
@@ -3005,7 +3082,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43900.59097222222</v>
       </c>
@@ -3016,7 +3093,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43906.427083333336</v>
       </c>
@@ -3027,7 +3104,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43999.447916666664</v>
       </c>
@@ -3036,6 +3113,17 @@
       </c>
       <c r="C15">
         <v>20.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>44012.457638888889</v>
+      </c>
+      <c r="B16">
+        <v>588.1</v>
+      </c>
+      <c r="C16">
+        <v>21.3</v>
       </c>
     </row>
   </sheetData>
@@ -3045,20 +3133,20 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3069,7 +3157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43818.609722222223</v>
       </c>
@@ -3080,7 +3168,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43830.63958333333</v>
       </c>
@@ -3091,7 +3179,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43836.481249999997</v>
       </c>
@@ -3102,7 +3190,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43844.65</v>
       </c>
@@ -3113,7 +3201,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43851.674305555556</v>
       </c>
@@ -3124,7 +3212,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43858.654166666667</v>
       </c>
@@ -3135,7 +3223,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43864.706250000003</v>
       </c>
@@ -3146,7 +3234,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43865.670138888891</v>
       </c>
@@ -3157,7 +3245,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43872.647222222222</v>
       </c>
@@ -3168,7 +3256,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43879.65902777778</v>
       </c>
@@ -3179,7 +3267,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43886.644444444442</v>
       </c>
@@ -3190,7 +3278,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43893.671527777777</v>
       </c>
@@ -3201,7 +3289,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43900.603472222225</v>
       </c>
@@ -3212,7 +3300,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43906.441666666666</v>
       </c>
@@ -3223,7 +3311,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43999.427777777775</v>
       </c>
@@ -3232,6 +3320,17 @@
       </c>
       <c r="C16">
         <v>24.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>44012.475694444445</v>
+      </c>
+      <c r="B17">
+        <v>286.3</v>
+      </c>
+      <c r="C17">
+        <v>22.9</v>
       </c>
     </row>
   </sheetData>

--- a/Data/conductivity_field.xlsx
+++ b/Data/conductivity_field.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linne\Box Sync\CL_BUD\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linne\Box Sync\Chloride Research\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA591595-3C42-49C0-84EB-B394059BA546}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D58AB2-4DE3-4840-9D0D-ED670B4492C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8964" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loggers" sheetId="12" r:id="rId1"/>
@@ -1027,23 +1027,23 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="3" customWidth="1"/>
-    <col min="7" max="9" width="19.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="18.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.85546875" style="4"/>
+    <col min="1" max="1" width="13.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" style="3" customWidth="1"/>
+    <col min="7" max="9" width="19.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="18.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>20758340</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>43963.53125</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>20758345</v>
       </c>
@@ -1106,7 +1106,7 @@
         <v>43963.53125</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>20758339</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>43999.9375</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>20758341</v>
       </c>
@@ -1155,7 +1155,7 @@
         <v>43922.40625</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>20758346</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>43922.40625</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>20758338</v>
       </c>
@@ -1198,7 +1198,7 @@
         <v>43999.458333333336</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>20758344</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>43999.4375</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>20378151</v>
       </c>
@@ -1256,7 +1256,7 @@
         <v>43999.604166666664</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>20758342</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>43999.479166666664</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>20758343</v>
       </c>
@@ -1314,7 +1314,7 @@
         <v>43999.5</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>20758347</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>43999.583333333336</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>20758348</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>43999.625</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>20758345</v>
       </c>
@@ -1383,12 +1383,12 @@
         <v>43999.666666666664</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <v>20484276</v>
       </c>
@@ -1424,20 +1424,20 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1448,7 +1448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43818.599305555559</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43830.648611111108</v>
       </c>
@@ -1470,7 +1470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43832.605555555558</v>
       </c>
@@ -1481,7 +1481,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43836.488888888889</v>
       </c>
@@ -1492,7 +1492,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43844.65902777778</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43845.571527777778</v>
       </c>
@@ -1514,7 +1514,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>43851.684027777781</v>
       </c>
@@ -1525,7 +1525,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>43858.664583333331</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>43865.676388888889</v>
       </c>
@@ -1547,7 +1547,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>43872.654166666667</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>43879.666666666664</v>
       </c>
@@ -1569,7 +1569,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>43886.65</v>
       </c>
@@ -1580,7 +1580,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>43893.677777777775</v>
       </c>
@@ -1591,7 +1591,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>43900.611805555556</v>
       </c>
@@ -1602,7 +1602,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>43906.451388888891</v>
       </c>
@@ -1613,7 +1613,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>43999.413888888892</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>23.9</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>44012.489583333336</v>
       </c>
@@ -1633,6 +1633,17 @@
       </c>
       <c r="C18">
         <v>25.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>44026.350694444445</v>
+      </c>
+      <c r="B19">
+        <v>250</v>
+      </c>
+      <c r="C19">
+        <v>23.9</v>
       </c>
     </row>
   </sheetData>
@@ -1648,15 +1659,15 @@
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1670,7 +1681,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43826.536111111112</v>
       </c>
@@ -1684,7 +1695,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43826.534722222219</v>
       </c>
@@ -1698,7 +1709,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43922.40625</v>
       </c>
@@ -1712,7 +1723,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43922.40625</v>
       </c>
@@ -1739,15 +1750,15 @@
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1761,7 +1772,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43833.604861111111</v>
       </c>
@@ -1775,7 +1786,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43833.605555555558</v>
       </c>
@@ -1789,7 +1800,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43988.668055555558</v>
       </c>
@@ -1803,7 +1814,7 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43988.672222222223</v>
       </c>
@@ -1817,7 +1828,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43988.676388888889</v>
       </c>
@@ -1831,7 +1842,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43988.679861111108</v>
       </c>
@@ -1845,7 +1856,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>43988.681250000001</v>
       </c>
@@ -1859,7 +1870,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>43988.681944444441</v>
       </c>
@@ -1881,20 +1892,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE7E974B-BCA0-45B0-95FE-63AB262733E9}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1905,7 +1916,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43999.654861111114</v>
       </c>
@@ -1916,7 +1927,7 @@
         <v>25.2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>44012.369444444441</v>
       </c>
@@ -1925,6 +1936,17 @@
       </c>
       <c r="C3">
         <v>25.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>44026.462500000001</v>
+      </c>
+      <c r="B4">
+        <v>659.2</v>
+      </c>
+      <c r="C4">
+        <v>25.8</v>
       </c>
     </row>
   </sheetData>
@@ -1934,20 +1956,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1958,7 +1980,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43818.686111111114</v>
       </c>
@@ -1969,7 +1991,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43830.505555555559</v>
       </c>
@@ -1980,7 +2002,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43836.398611111108</v>
       </c>
@@ -1991,7 +2013,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43844.568055555559</v>
       </c>
@@ -2002,7 +2024,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43851.578472222223</v>
       </c>
@@ -2013,7 +2035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43858.57708333333</v>
       </c>
@@ -2024,7 +2046,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>43864.621527777781</v>
       </c>
@@ -2035,7 +2057,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>43865.577777777777</v>
       </c>
@@ -2046,7 +2068,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>43872.574999999997</v>
       </c>
@@ -2057,7 +2079,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>43879.581250000003</v>
       </c>
@@ -2068,7 +2090,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>43886.572222222225</v>
       </c>
@@ -2079,7 +2101,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>43893.57708333333</v>
       </c>
@@ -2090,7 +2112,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>43900.530555555553</v>
       </c>
@@ -2101,7 +2123,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>43906.355555555558</v>
       </c>
@@ -2112,7 +2134,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>43999.611111111109</v>
       </c>
@@ -2123,7 +2145,7 @@
         <v>25.4</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>44012.388194444444</v>
       </c>
@@ -2132,6 +2154,17 @@
       </c>
       <c r="C17">
         <v>25.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>44026.480555555558</v>
+      </c>
+      <c r="B18">
+        <v>576.4</v>
+      </c>
+      <c r="C18">
+        <v>27.1</v>
       </c>
     </row>
   </sheetData>
@@ -2142,20 +2175,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2166,7 +2199,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43818.667361111111</v>
       </c>
@@ -2177,7 +2210,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43830.530555555553</v>
       </c>
@@ -2188,7 +2221,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43836.398611111108</v>
       </c>
@@ -2199,7 +2232,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43844.586111111108</v>
       </c>
@@ -2210,7 +2243,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43851.604166666664</v>
       </c>
@@ -2221,7 +2254,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43858.595138888886</v>
       </c>
@@ -2232,7 +2265,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>43864.65625</v>
       </c>
@@ -2243,7 +2276,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>43865.592361111114</v>
       </c>
@@ -2254,7 +2287,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>43872.594444444447</v>
       </c>
@@ -2265,7 +2298,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>43879.600694444445</v>
       </c>
@@ -2276,7 +2309,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>43886.588888888888</v>
       </c>
@@ -2287,7 +2320,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>43893.597916666666</v>
       </c>
@@ -2298,7 +2331,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>43900.546527777777</v>
       </c>
@@ -2309,7 +2342,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>43906.375694444447</v>
       </c>
@@ -2320,7 +2353,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>43999.588888888888</v>
       </c>
@@ -2331,7 +2364,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>44012.525694444441</v>
       </c>
@@ -2340,6 +2373,17 @@
       </c>
       <c r="C17">
         <v>227.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>44026.497916666667</v>
+      </c>
+      <c r="B18">
+        <v>783.5</v>
+      </c>
+      <c r="C18">
+        <v>24.3</v>
       </c>
     </row>
   </sheetData>
@@ -2349,20 +2393,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2373,7 +2417,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43818.652777777781</v>
       </c>
@@ -2384,7 +2428,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43830.57708333333</v>
       </c>
@@ -2395,7 +2439,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43836.429861111108</v>
       </c>
@@ -2406,7 +2450,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43844.600694444445</v>
       </c>
@@ -2417,7 +2461,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43851.118750000001</v>
       </c>
@@ -2428,7 +2472,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43858.609722222223</v>
       </c>
@@ -2439,7 +2483,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>43865.606944444444</v>
       </c>
@@ -2450,7 +2494,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>43872.607638888891</v>
       </c>
@@ -2461,7 +2505,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>43879.617361111108</v>
       </c>
@@ -2472,7 +2516,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>43886.603472222225</v>
       </c>
@@ -2483,7 +2527,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>43893.614583333336</v>
       </c>
@@ -2494,7 +2538,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>43900.560416666667</v>
       </c>
@@ -2505,7 +2549,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>43906.38958333333</v>
       </c>
@@ -2516,7 +2560,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>43999.572916666664</v>
       </c>
@@ -2527,7 +2571,7 @@
         <v>25.2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>44012.412499999999</v>
       </c>
@@ -2536,6 +2580,17 @@
       </c>
       <c r="C16">
         <v>25.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>44026.440972222219</v>
+      </c>
+      <c r="B17">
+        <v>510.8</v>
+      </c>
+      <c r="C17">
+        <v>26.3</v>
       </c>
     </row>
   </sheetData>
@@ -2545,20 +2600,20 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2569,7 +2624,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43818.638888888891</v>
       </c>
@@ -2580,7 +2635,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43830.6</v>
       </c>
@@ -2591,7 +2646,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43836.447222222225</v>
       </c>
@@ -2602,7 +2657,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43844.600694444445</v>
       </c>
@@ -2613,7 +2668,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43851.635416666664</v>
       </c>
@@ -2624,7 +2679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43858.625</v>
       </c>
@@ -2635,7 +2690,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>43865.629166666666</v>
       </c>
@@ -2646,7 +2701,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>43872.621527777781</v>
       </c>
@@ -2657,7 +2712,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>43879.131249999999</v>
       </c>
@@ -2668,7 +2723,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>43886.615972222222</v>
       </c>
@@ -2679,7 +2734,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>43893.629166666666</v>
       </c>
@@ -2690,7 +2745,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>43900.574305555558</v>
       </c>
@@ -2701,7 +2756,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>43906.40625</v>
       </c>
@@ -2712,7 +2767,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>43999.487500000003</v>
       </c>
@@ -2723,7 +2778,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>44012.429861111108</v>
       </c>
@@ -2732,6 +2787,17 @@
       </c>
       <c r="C16">
         <v>27.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>44026.414583333331</v>
+      </c>
+      <c r="B17">
+        <v>493.5</v>
+      </c>
+      <c r="C17">
+        <v>26.1</v>
       </c>
     </row>
   </sheetData>
@@ -2741,20 +2807,20 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2765,7 +2831,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43818.631249999999</v>
       </c>
@@ -2776,7 +2842,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43830.619444444441</v>
       </c>
@@ -2787,7 +2853,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43836.461111111108</v>
       </c>
@@ -2798,7 +2864,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43844.62777777778</v>
       </c>
@@ -2809,7 +2875,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43851.649305555555</v>
       </c>
@@ -2820,7 +2886,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43858.634027777778</v>
       </c>
@@ -2831,7 +2897,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>43865.643055555556</v>
       </c>
@@ -2842,7 +2908,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>43872.629861111112</v>
       </c>
@@ -2853,7 +2919,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>43879.640277777777</v>
       </c>
@@ -2864,7 +2930,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>43886.625</v>
       </c>
@@ -2875,7 +2941,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>43893.638888888891</v>
       </c>
@@ -2886,7 +2952,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>43900.582638888889</v>
       </c>
@@ -2897,7 +2963,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>43906.416666666664</v>
       </c>
@@ -2908,7 +2974,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>43999.46875</v>
       </c>
@@ -2919,7 +2985,7 @@
         <v>22.4</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>44012.448611111111</v>
       </c>
@@ -2928,6 +2994,17 @@
       </c>
       <c r="C16">
         <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>44026.395833333336</v>
+      </c>
+      <c r="B17">
+        <v>508.5</v>
+      </c>
+      <c r="C17">
+        <v>23.2</v>
       </c>
     </row>
   </sheetData>
@@ -2937,20 +3014,20 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2961,7 +3038,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43818.62222222222</v>
       </c>
@@ -2972,7 +3049,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43830.627083333333</v>
       </c>
@@ -2983,7 +3060,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43836.46875</v>
       </c>
@@ -2994,7 +3071,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43844.637499999997</v>
       </c>
@@ -3005,7 +3082,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43851.659722222219</v>
       </c>
@@ -3016,7 +3093,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43858.642361111109</v>
       </c>
@@ -3027,7 +3104,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>43865.654166666667</v>
       </c>
@@ -3038,7 +3115,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>43872.634722222225</v>
       </c>
@@ -3049,7 +3126,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>43879.645833333336</v>
       </c>
@@ -3060,7 +3137,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>43886.631249999999</v>
       </c>
@@ -3071,7 +3148,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>43893.652777777781</v>
       </c>
@@ -3082,7 +3159,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>43900.59097222222</v>
       </c>
@@ -3093,7 +3170,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>43906.427083333336</v>
       </c>
@@ -3104,7 +3181,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>43999.447916666664</v>
       </c>
@@ -3115,7 +3192,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>44012.457638888889</v>
       </c>
@@ -3124,6 +3201,17 @@
       </c>
       <c r="C16">
         <v>21.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>44026.385416666664</v>
+      </c>
+      <c r="B17">
+        <v>722</v>
+      </c>
+      <c r="C17">
+        <v>19.8</v>
       </c>
     </row>
   </sheetData>
@@ -3133,20 +3221,20 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3157,7 +3245,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43818.609722222223</v>
       </c>
@@ -3168,7 +3256,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43830.63958333333</v>
       </c>
@@ -3179,7 +3267,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43836.481249999997</v>
       </c>
@@ -3190,7 +3278,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43844.65</v>
       </c>
@@ -3201,7 +3289,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43851.674305555556</v>
       </c>
@@ -3212,7 +3300,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43858.654166666667</v>
       </c>
@@ -3223,7 +3311,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>43864.706250000003</v>
       </c>
@@ -3234,7 +3322,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>43865.670138888891</v>
       </c>
@@ -3245,7 +3333,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>43872.647222222222</v>
       </c>
@@ -3256,7 +3344,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>43879.65902777778</v>
       </c>
@@ -3267,7 +3355,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>43886.644444444442</v>
       </c>
@@ -3278,7 +3366,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>43893.671527777777</v>
       </c>
@@ -3289,7 +3377,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>43900.603472222225</v>
       </c>
@@ -3300,7 +3388,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>43906.441666666666</v>
       </c>
@@ -3311,7 +3399,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>43999.427777777775</v>
       </c>
@@ -3322,7 +3410,7 @@
         <v>24.9</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>44012.475694444445</v>
       </c>
@@ -3331,6 +3419,17 @@
       </c>
       <c r="C17">
         <v>22.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>44026.364583333336</v>
+      </c>
+      <c r="B18">
+        <v>873.4</v>
+      </c>
+      <c r="C18">
+        <v>22.3</v>
       </c>
     </row>
   </sheetData>

--- a/Data/conductivity_field.xlsx
+++ b/Data/conductivity_field.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linne\Box Sync\Chloride Research\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D58AB2-4DE3-4840-9D0D-ED670B4492C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43FE8CB-7A80-417B-B8FD-0286B0439880}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8964" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23100" yWindow="4140" windowWidth="17280" windowHeight="8970" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loggers" sheetId="12" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="37">
   <si>
     <t>datetime</t>
   </si>
@@ -143,6 +143,9 @@
   <si>
     <t>2020-02-03  17:30:00</t>
   </si>
+  <si>
+    <t xml:space="preserve"> Start</t>
+  </si>
 </sst>
 </file>
 
@@ -152,7 +155,7 @@
     <numFmt numFmtId="164" formatCode="mm\-dd\-yyyy\ hh:mm:ss"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -290,6 +293,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -642,7 +652,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -669,6 +679,7 @@
     <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1024,10 +1035,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E111E348-178D-4A81-8338-72F6E909D9F1}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:AR17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1039,11 +1051,12 @@
     <col min="5" max="5" width="19.88671875" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.33203125" style="3" customWidth="1"/>
     <col min="7" max="9" width="19.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="18.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="4"/>
+    <col min="10" max="13" width="18.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="44" width="8.88671875" style="8"/>
+    <col min="45" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
@@ -1077,8 +1090,14 @@
       <c r="K1" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>20758340</v>
       </c>
@@ -1092,7 +1111,7 @@
         <v>43963.53125</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>20758345</v>
       </c>
@@ -1106,7 +1125,7 @@
         <v>43963.53125</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>20758339</v>
       </c>
@@ -1140,8 +1159,14 @@
       <c r="K4" s="3">
         <v>43999.9375</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L4" s="8">
+        <v>44033.645833333336</v>
+      </c>
+      <c r="M4" s="8">
+        <v>44033.666666666664</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>20758341</v>
       </c>
@@ -1155,7 +1180,7 @@
         <v>43922.40625</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>20758346</v>
       </c>
@@ -1169,7 +1194,7 @@
         <v>43922.40625</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>20758338</v>
       </c>
@@ -1197,8 +1222,14 @@
       <c r="I7" s="3">
         <v>43999.458333333336</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J7" s="8">
+        <v>44033.666666666664</v>
+      </c>
+      <c r="K7" s="8">
+        <v>44033.6875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>20758344</v>
       </c>
@@ -1226,8 +1257,14 @@
       <c r="I8" s="3">
         <v>43999.4375</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J8" s="8">
+        <v>44033.645833333336</v>
+      </c>
+      <c r="K8" s="8">
+        <v>44033.666666666664</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>20378151</v>
       </c>
@@ -1256,7 +1293,7 @@
         <v>43999.604166666664</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>20758342</v>
       </c>
@@ -1284,8 +1321,14 @@
       <c r="I10" s="3">
         <v>43999.479166666664</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J10" s="8">
+        <v>44033.666666666664</v>
+      </c>
+      <c r="K10" s="8">
+        <v>44033.6875</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>20758343</v>
       </c>
@@ -1313,8 +1356,14 @@
       <c r="I11" s="3">
         <v>43999.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J11" s="8">
+        <v>44034.4375</v>
+      </c>
+      <c r="K11" s="8">
+        <v>44034.458333333336</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>20758347</v>
       </c>
@@ -1343,7 +1392,7 @@
         <v>43999.583333333336</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>20758348</v>
       </c>
@@ -1372,8 +1421,8 @@
         <v>43999.625</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="9">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="14">
         <v>20758345</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -1383,7 +1432,7 @@
         <v>43999.666666666664</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>25</v>
       </c>
@@ -1424,10 +1473,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1644,6 +1693,28 @@
       </c>
       <c r="C19">
         <v>23.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>44033.65625</v>
+      </c>
+      <c r="B20">
+        <v>356.8</v>
+      </c>
+      <c r="C20">
+        <v>25.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>44040.422222222223</v>
+      </c>
+      <c r="B21">
+        <v>163.69999999999999</v>
+      </c>
+      <c r="C21">
+        <v>24.1</v>
       </c>
     </row>
   </sheetData>
@@ -1892,10 +1963,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE7E974B-BCA0-45B0-95FE-63AB262733E9}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1949,6 +2020,17 @@
         <v>25.8</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>44040.444444444445</v>
+      </c>
+      <c r="B5">
+        <v>642.1</v>
+      </c>
+      <c r="C5">
+        <v>26.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1956,10 +2038,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2167,6 +2249,28 @@
         <v>27.1</v>
       </c>
     </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>44034.446527777778</v>
+      </c>
+      <c r="B19">
+        <v>506.6</v>
+      </c>
+      <c r="C19">
+        <v>26.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>44040.458333333336</v>
+      </c>
+      <c r="B20">
+        <v>570.6</v>
+      </c>
+      <c r="C20">
+        <v>26.3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2175,10 +2279,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2386,6 +2490,17 @@
         <v>24.3</v>
       </c>
     </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>44040.489583333336</v>
+      </c>
+      <c r="B19">
+        <v>526.5</v>
+      </c>
+      <c r="C19">
+        <v>24.3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2393,10 +2508,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2593,6 +2708,17 @@
         <v>26.3</v>
       </c>
     </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>44040.352777777778</v>
+      </c>
+      <c r="B18">
+        <v>479.6</v>
+      </c>
+      <c r="C18">
+        <v>24.8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2600,10 +2726,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2800,6 +2926,17 @@
         <v>26.1</v>
       </c>
     </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>44040.37222222222</v>
+      </c>
+      <c r="B18">
+        <v>687.5</v>
+      </c>
+      <c r="C18">
+        <v>25.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2807,10 +2944,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3007,6 +3144,28 @@
         <v>23.2</v>
       </c>
     </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>44033.688194444447</v>
+      </c>
+      <c r="B18">
+        <v>657.5</v>
+      </c>
+      <c r="C18">
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>44040.383333333331</v>
+      </c>
+      <c r="B19">
+        <v>701.5</v>
+      </c>
+      <c r="C19">
+        <v>22.3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3014,10 +3173,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3214,6 +3373,28 @@
         <v>19.8</v>
       </c>
     </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>44033.677083333336</v>
+      </c>
+      <c r="B18">
+        <v>758.7</v>
+      </c>
+      <c r="C18">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>44040.393055555556</v>
+      </c>
+      <c r="B19">
+        <v>687.5</v>
+      </c>
+      <c r="C19">
+        <v>18.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3221,10 +3402,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3432,6 +3613,28 @@
         <v>22.3</v>
       </c>
     </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>44033.663888888892</v>
+      </c>
+      <c r="B19">
+        <v>974.1</v>
+      </c>
+      <c r="C19">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>44040.409722222219</v>
+      </c>
+      <c r="B20">
+        <v>557.70000000000005</v>
+      </c>
+      <c r="C20">
+        <v>24.1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/conductivity_field.xlsx
+++ b/Data/conductivity_field.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linne\Box Sync\Chloride Research\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43FE8CB-7A80-417B-B8FD-0286B0439880}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24836A9C-CED7-484F-8684-F18FE23D8609}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23100" yWindow="4140" windowWidth="17280" windowHeight="8970" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loggers" sheetId="12" r:id="rId1"/>
-    <sheet name="WC" sheetId="13" r:id="rId2"/>
+    <sheet name="WIC" sheetId="13" r:id="rId2"/>
     <sheet name="YS" sheetId="1" r:id="rId3"/>
     <sheet name="SW" sheetId="2" r:id="rId4"/>
     <sheet name="YI" sheetId="3" r:id="rId5"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="34">
   <si>
     <t>datetime</t>
   </si>
@@ -43,12 +43,6 @@
   </si>
   <si>
     <t>temp_C</t>
-  </si>
-  <si>
-    <t>8.1**</t>
-  </si>
-  <si>
-    <t>463**</t>
   </si>
   <si>
     <t>NA</t>
@@ -94,9 +88,6 @@
   </si>
   <si>
     <t>YS</t>
-  </si>
-  <si>
-    <t>240.7**</t>
   </si>
   <si>
     <t>datetime start (original)</t>
@@ -1058,43 +1049,43 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="G1" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -1102,7 +1093,7 @@
         <v>20758340</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3">
         <v>43833.614583333336</v>
@@ -1116,7 +1107,7 @@
         <v>20758345</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" s="3">
         <v>43833.614583333336</v>
@@ -1130,7 +1121,7 @@
         <v>20758339</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" s="3">
         <v>43832.604166666664</v>
@@ -1171,7 +1162,7 @@
         <v>20758341</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" s="3">
         <v>43826.53125</v>
@@ -1185,7 +1176,7 @@
         <v>20758346</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" s="3">
         <v>43826.53125</v>
@@ -1199,7 +1190,7 @@
         <v>20758338</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" s="3">
         <v>43818.5</v>
@@ -1234,16 +1225,16 @@
         <v>20758344</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8" s="3">
         <v>43818.5</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F8" s="10">
         <v>43906.479166666664</v>
@@ -1269,16 +1260,16 @@
         <v>20378151</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C9" s="3">
         <v>43818</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F9" s="10">
         <v>43906.416666666664</v>
@@ -1298,7 +1289,7 @@
         <v>20758342</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C10" s="3">
         <v>43818</v>
@@ -1333,7 +1324,7 @@
         <v>20758343</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C11" s="3">
         <v>43818</v>
@@ -1345,7 +1336,7 @@
         <v>43865.645833333336</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G11" s="10">
         <v>43906.416666666664</v>
@@ -1368,7 +1359,7 @@
         <v>20758347</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C12" s="3">
         <v>43818</v>
@@ -1397,19 +1388,19 @@
         <v>20758348</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C13" s="3">
         <v>43818</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G13" s="10">
         <v>43906.375</v>
@@ -1426,7 +1417,7 @@
         <v>20758345</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C14" s="3">
         <v>43999.666666666664</v>
@@ -1434,7 +1425,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1442,7 +1433,7 @@
         <v>20484276</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C17" s="7">
         <v>43893.583333333336</v>
@@ -1473,10 +1464,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1512,11 +1503,11 @@
       <c r="A3" s="1">
         <v>43830.648611111108</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
+      <c r="B3">
+        <v>463</v>
+      </c>
+      <c r="C3">
+        <v>8.1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1715,6 +1706,17 @@
       </c>
       <c r="C21">
         <v>24.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>44054.45</v>
+      </c>
+      <c r="B22">
+        <v>1726</v>
+      </c>
+      <c r="C22">
+        <v>23.1</v>
       </c>
     </row>
   </sheetData>
@@ -1743,7 +1745,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1817,8 +1819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{588D9C27-B403-4DE5-8B68-B5C4B22BE996}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1834,7 +1836,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1963,10 +1965,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE7E974B-BCA0-45B0-95FE-63AB262733E9}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2031,6 +2033,17 @@
         <v>26.2</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>44054.365972222222</v>
+      </c>
+      <c r="B6">
+        <v>706.9</v>
+      </c>
+      <c r="C6">
+        <v>23.1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2038,10 +2051,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2271,6 +2284,17 @@
         <v>26.3</v>
       </c>
     </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>44054.487500000003</v>
+      </c>
+      <c r="B21">
+        <v>550.5</v>
+      </c>
+      <c r="C21">
+        <v>22.6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2279,6 +2303,246 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>43818.667361111111</v>
+      </c>
+      <c r="B2">
+        <v>664.2</v>
+      </c>
+      <c r="C2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>43830.530555555553</v>
+      </c>
+      <c r="B3">
+        <v>541.20000000000005</v>
+      </c>
+      <c r="C3">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>43836.398611111108</v>
+      </c>
+      <c r="B4">
+        <v>675.4</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>43844.586111111108</v>
+      </c>
+      <c r="B5">
+        <v>1016</v>
+      </c>
+      <c r="C5">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>43851.604166666664</v>
+      </c>
+      <c r="B6">
+        <v>767.8</v>
+      </c>
+      <c r="C6">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>43858.595138888886</v>
+      </c>
+      <c r="B7">
+        <v>1119</v>
+      </c>
+      <c r="C7">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>43864.65625</v>
+      </c>
+      <c r="B8">
+        <v>946.6</v>
+      </c>
+      <c r="C8">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>43865.592361111114</v>
+      </c>
+      <c r="B9">
+        <v>851.2</v>
+      </c>
+      <c r="C9">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>43872.594444444447</v>
+      </c>
+      <c r="B10">
+        <v>1366.6</v>
+      </c>
+      <c r="C10">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>43879.600694444445</v>
+      </c>
+      <c r="B11">
+        <v>1504</v>
+      </c>
+      <c r="C11">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>43886.588888888888</v>
+      </c>
+      <c r="B12">
+        <v>923.3</v>
+      </c>
+      <c r="C12">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>43893.597916666666</v>
+      </c>
+      <c r="B13">
+        <v>762.1</v>
+      </c>
+      <c r="C13">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>43900.546527777777</v>
+      </c>
+      <c r="B14">
+        <v>653.20000000000005</v>
+      </c>
+      <c r="C14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>43906.375694444447</v>
+      </c>
+      <c r="B15">
+        <v>759.1</v>
+      </c>
+      <c r="C15">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>43999.588888888888</v>
+      </c>
+      <c r="B16">
+        <v>1116</v>
+      </c>
+      <c r="C16">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>44012.525694444441</v>
+      </c>
+      <c r="B17">
+        <v>688.5</v>
+      </c>
+      <c r="C17">
+        <v>227.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>44026.497916666667</v>
+      </c>
+      <c r="B18">
+        <v>783.5</v>
+      </c>
+      <c r="C18">
+        <v>24.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>44040.489583333336</v>
+      </c>
+      <c r="B19">
+        <v>526.5</v>
+      </c>
+      <c r="C19">
+        <v>24.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>44054.505555555559</v>
+      </c>
+      <c r="B20">
+        <v>1050</v>
+      </c>
+      <c r="C20">
+        <v>22.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2305,200 +2569,200 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>43818.667361111111</v>
+        <v>43818.652777777781</v>
       </c>
       <c r="B2">
-        <v>664.2</v>
+        <v>290.5</v>
       </c>
       <c r="C2">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>43830.530555555553</v>
-      </c>
-      <c r="B3">
-        <v>541.20000000000005</v>
-      </c>
-      <c r="C3">
-        <v>1.1000000000000001</v>
+        <v>43830.57708333333</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>43836.398611111108</v>
+        <v>43836.429861111108</v>
       </c>
       <c r="B4">
-        <v>675.4</v>
+        <v>291.7</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>43844.586111111108</v>
+        <v>43844.600694444445</v>
       </c>
       <c r="B5">
-        <v>1016</v>
+        <v>298.60000000000002</v>
       </c>
       <c r="C5">
-        <v>2.7</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>43851.604166666664</v>
+        <v>43851.118750000001</v>
       </c>
       <c r="B6">
-        <v>767.8</v>
+        <v>292.8</v>
       </c>
       <c r="C6">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>43858.595138888886</v>
+        <v>43858.609722222223</v>
       </c>
       <c r="B7">
-        <v>1119</v>
+        <v>299.60000000000002</v>
       </c>
       <c r="C7">
-        <v>2.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>43864.65625</v>
+        <v>43865.606944444444</v>
       </c>
       <c r="B8">
-        <v>946.6</v>
+        <v>302</v>
       </c>
       <c r="C8">
-        <v>4.3</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>43865.592361111114</v>
+        <v>43872.607638888891</v>
       </c>
       <c r="B9">
-        <v>851.2</v>
+        <v>332.84</v>
       </c>
       <c r="C9">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>43872.594444444447</v>
+        <v>43879.617361111108</v>
       </c>
       <c r="B10">
-        <v>1366.6</v>
+        <v>347.9</v>
       </c>
       <c r="C10">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>43879.600694444445</v>
+        <v>43886.603472222225</v>
       </c>
       <c r="B11">
-        <v>1504</v>
+        <v>312.60000000000002</v>
       </c>
       <c r="C11">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>43886.588888888888</v>
+        <v>43893.614583333336</v>
       </c>
       <c r="B12">
-        <v>923.3</v>
+        <v>327.60000000000002</v>
       </c>
       <c r="C12">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>43893.597916666666</v>
+        <v>43900.560416666667</v>
       </c>
       <c r="B13">
-        <v>762.1</v>
+        <v>320.7</v>
       </c>
       <c r="C13">
-        <v>4.9000000000000004</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>43900.546527777777</v>
+        <v>43906.38958333333</v>
       </c>
       <c r="B14">
-        <v>653.20000000000005</v>
+        <v>306.10000000000002</v>
       </c>
       <c r="C14">
-        <v>7</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>43906.375694444447</v>
+        <v>43999.572916666664</v>
       </c>
       <c r="B15">
-        <v>759.1</v>
+        <v>557</v>
       </c>
       <c r="C15">
-        <v>3.7</v>
+        <v>25.2</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>43999.588888888888</v>
+        <v>44012.412499999999</v>
       </c>
       <c r="B16">
-        <v>1116</v>
+        <v>540.5</v>
       </c>
       <c r="C16">
-        <v>23.5</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>44012.525694444441</v>
+        <v>44026.440972222219</v>
       </c>
       <c r="B17">
-        <v>688.5</v>
+        <v>510.8</v>
       </c>
       <c r="C17">
-        <v>227.1</v>
+        <v>26.3</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>44026.497916666667</v>
+        <v>44040.352777777778</v>
       </c>
       <c r="B18">
-        <v>783.5</v>
+        <v>479.6</v>
       </c>
       <c r="C18">
-        <v>24.3</v>
+        <v>24.8</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>44040.489583333336</v>
+        <v>44054.390972222223</v>
       </c>
       <c r="B19">
-        <v>526.5</v>
+        <v>486.8</v>
       </c>
       <c r="C19">
-        <v>24.3</v>
+        <v>24.1</v>
       </c>
     </row>
   </sheetData>
@@ -2506,12 +2770,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C18"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2534,35 +2798,35 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>43818.652777777781</v>
+        <v>43818.638888888891</v>
       </c>
       <c r="B2">
-        <v>290.5</v>
+        <v>452.2</v>
       </c>
       <c r="C2">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>43830.57708333333</v>
+        <v>43830.6</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>43836.429861111108</v>
+        <v>43836.447222222225</v>
       </c>
       <c r="B4">
-        <v>291.7</v>
+        <v>425.2</v>
       </c>
       <c r="C4">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -2570,153 +2834,164 @@
         <v>43844.600694444445</v>
       </c>
       <c r="B5">
-        <v>298.60000000000002</v>
+        <v>437.8</v>
       </c>
       <c r="C5">
-        <v>1.1000000000000001</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>43851.118750000001</v>
+        <v>43851.635416666664</v>
       </c>
       <c r="B6">
-        <v>292.8</v>
+        <v>453.4</v>
       </c>
       <c r="C6">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>43858.609722222223</v>
+        <v>43858.625</v>
       </c>
       <c r="B7">
-        <v>299.60000000000002</v>
+        <v>457.6</v>
       </c>
       <c r="C7">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>43865.606944444444</v>
+        <v>43865.629166666666</v>
       </c>
       <c r="B8">
-        <v>302</v>
+        <v>432.1</v>
       </c>
       <c r="C8">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>43872.607638888891</v>
+        <v>43872.621527777781</v>
       </c>
       <c r="B9">
-        <v>332.84</v>
+        <v>512.36</v>
       </c>
       <c r="C9">
-        <v>1.4</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>43879.617361111108</v>
+        <v>43879.131249999999</v>
       </c>
       <c r="B10">
-        <v>347.9</v>
+        <v>442.3</v>
       </c>
       <c r="C10">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>43886.603472222225</v>
+        <v>43886.615972222222</v>
       </c>
       <c r="B11">
-        <v>312.60000000000002</v>
+        <v>451.3</v>
       </c>
       <c r="C11">
-        <v>1.8</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>43893.614583333336</v>
+        <v>43893.629166666666</v>
       </c>
       <c r="B12">
-        <v>327.60000000000002</v>
+        <v>476.7</v>
       </c>
       <c r="C12">
-        <v>3.8</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>43900.560416666667</v>
+        <v>43900.574305555558</v>
       </c>
       <c r="B13">
-        <v>320.7</v>
+        <v>353.7</v>
       </c>
       <c r="C13">
-        <v>5.3</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>43906.38958333333</v>
+        <v>43906.40625</v>
       </c>
       <c r="B14">
-        <v>306.10000000000002</v>
+        <v>409.7</v>
       </c>
       <c r="C14">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>43999.572916666664</v>
+        <v>43999.487500000003</v>
       </c>
       <c r="B15">
-        <v>557</v>
+        <v>487.5</v>
       </c>
       <c r="C15">
-        <v>25.2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>44012.412499999999</v>
+        <v>44012.429861111108</v>
       </c>
       <c r="B16">
-        <v>540.5</v>
+        <v>682.5</v>
       </c>
       <c r="C16">
-        <v>25.5</v>
+        <v>27.3</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>44026.440972222219</v>
+        <v>44026.414583333331</v>
       </c>
       <c r="B17">
-        <v>510.8</v>
+        <v>493.5</v>
       </c>
       <c r="C17">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>44040.352777777778</v>
+        <v>44040.37222222222</v>
       </c>
       <c r="B18">
-        <v>479.6</v>
+        <v>687.5</v>
       </c>
       <c r="C18">
-        <v>24.8</v>
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>44054.408333333333</v>
+      </c>
+      <c r="B19">
+        <v>687.1</v>
+      </c>
+      <c r="C19">
+        <v>24.6</v>
       </c>
     </row>
   </sheetData>
@@ -2724,12 +2999,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C18"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2752,32 +3027,32 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>43818.638888888891</v>
+        <v>43818.631249999999</v>
       </c>
       <c r="B2">
-        <v>452.2</v>
+        <v>450.3</v>
       </c>
       <c r="C2">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>43830.6</v>
+        <v>43830.619444444441</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>43836.447222222225</v>
+        <v>43836.461111111108</v>
       </c>
       <c r="B4">
-        <v>425.2</v>
+        <v>431.8</v>
       </c>
       <c r="C4">
         <v>1.2</v>
@@ -2785,54 +3060,54 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>43844.600694444445</v>
+        <v>43844.62777777778</v>
       </c>
       <c r="B5">
-        <v>437.8</v>
+        <v>484.4</v>
       </c>
       <c r="C5">
-        <v>1.7</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>43851.635416666664</v>
+        <v>43851.649305555555</v>
       </c>
       <c r="B6">
-        <v>453.4</v>
+        <v>240.7</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>43858.625</v>
+        <v>43858.634027777778</v>
       </c>
       <c r="B7">
-        <v>457.6</v>
+        <v>480.5</v>
       </c>
       <c r="C7">
-        <v>0.7</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>43865.629166666666</v>
+        <v>43865.643055555556</v>
       </c>
       <c r="B8">
-        <v>432.1</v>
+        <v>471</v>
       </c>
       <c r="C8">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>43872.621527777781</v>
+        <v>43872.629861111112</v>
       </c>
       <c r="B9">
-        <v>512.36</v>
+        <v>489.8</v>
       </c>
       <c r="C9">
         <v>2.2000000000000002</v>
@@ -2840,101 +3115,123 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>43879.131249999999</v>
+        <v>43879.640277777777</v>
       </c>
       <c r="B10">
-        <v>442.3</v>
+        <v>525.5</v>
       </c>
       <c r="C10">
-        <v>0.8</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>43886.615972222222</v>
+        <v>43886.625</v>
       </c>
       <c r="B11">
-        <v>451.3</v>
+        <v>520.79999999999995</v>
       </c>
       <c r="C11">
-        <v>2.2000000000000002</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>43893.629166666666</v>
+        <v>43893.638888888891</v>
       </c>
       <c r="B12">
-        <v>476.7</v>
+        <v>415.7</v>
       </c>
       <c r="C12">
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>43900.574305555558</v>
+        <v>43900.582638888889</v>
       </c>
       <c r="B13">
-        <v>353.7</v>
+        <v>374.8</v>
       </c>
       <c r="C13">
-        <v>7.2</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>43906.40625</v>
+        <v>43906.416666666664</v>
       </c>
       <c r="B14">
-        <v>409.7</v>
+        <v>452.8</v>
       </c>
       <c r="C14">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>43999.487500000003</v>
+        <v>43999.46875</v>
       </c>
       <c r="B15">
-        <v>487.5</v>
+        <v>708.6</v>
       </c>
       <c r="C15">
-        <v>25</v>
+        <v>22.4</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>44012.429861111108</v>
+        <v>44012.448611111111</v>
       </c>
       <c r="B16">
-        <v>682.5</v>
+        <v>683.1</v>
       </c>
       <c r="C16">
-        <v>27.3</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>44026.414583333331</v>
+        <v>44026.395833333336</v>
       </c>
       <c r="B17">
-        <v>493.5</v>
+        <v>508.5</v>
       </c>
       <c r="C17">
-        <v>26.1</v>
+        <v>23.2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>44040.37222222222</v>
+        <v>44033.688194444447</v>
       </c>
       <c r="B18">
-        <v>687.5</v>
+        <v>657.5</v>
       </c>
       <c r="C18">
-        <v>25.5</v>
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>44040.383333333331</v>
+      </c>
+      <c r="B19">
+        <v>701.5</v>
+      </c>
+      <c r="C19">
+        <v>22.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>44054.422222222223</v>
+      </c>
+      <c r="B20">
+        <v>716.3</v>
+      </c>
+      <c r="C20">
+        <v>20.7</v>
       </c>
     </row>
   </sheetData>
@@ -2942,12 +3239,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C19"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2970,200 +3267,211 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>43818.631249999999</v>
+        <v>43818.62222222222</v>
       </c>
       <c r="B2">
-        <v>450.3</v>
+        <v>472</v>
       </c>
       <c r="C2">
-        <v>0.5</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>43830.619444444441</v>
+        <v>43830.627083333333</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>43836.461111111108</v>
+        <v>43836.46875</v>
       </c>
       <c r="B4">
-        <v>431.8</v>
+        <v>463.7</v>
       </c>
       <c r="C4">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>43844.62777777778</v>
+        <v>43844.637499999997</v>
       </c>
       <c r="B5">
-        <v>484.4</v>
+        <v>493.2</v>
       </c>
       <c r="C5">
-        <v>3.7</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>43851.649305555555</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
+        <v>43851.659722222219</v>
+      </c>
+      <c r="B6">
+        <v>435.5</v>
       </c>
       <c r="C6">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>43858.634027777778</v>
+        <v>43858.642361111109</v>
       </c>
       <c r="B7">
-        <v>480.5</v>
+        <v>490.2</v>
       </c>
       <c r="C7">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>43865.643055555556</v>
+        <v>43865.654166666667</v>
       </c>
       <c r="B8">
-        <v>471</v>
+        <v>506</v>
       </c>
       <c r="C8">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>43872.629861111112</v>
+        <v>43872.634722222225</v>
       </c>
       <c r="B9">
-        <v>489.8</v>
+        <v>494.6</v>
       </c>
       <c r="C9">
-        <v>2.2000000000000002</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>43879.640277777777</v>
+        <v>43879.645833333336</v>
       </c>
       <c r="B10">
-        <v>525.5</v>
+        <v>574.4</v>
       </c>
       <c r="C10">
-        <v>3.3</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>43886.625</v>
+        <v>43886.631249999999</v>
       </c>
       <c r="B11">
-        <v>520.79999999999995</v>
+        <v>783.8</v>
       </c>
       <c r="C11">
-        <v>4.0999999999999996</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>43893.638888888891</v>
+        <v>43893.652777777781</v>
       </c>
       <c r="B12">
-        <v>415.7</v>
+        <v>389.7</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>43900.582638888889</v>
+        <v>43900.59097222222</v>
       </c>
       <c r="B13">
-        <v>374.8</v>
+        <v>432.3</v>
       </c>
       <c r="C13">
-        <v>5.6</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>43906.416666666664</v>
+        <v>43906.427083333336</v>
       </c>
       <c r="B14">
-        <v>452.8</v>
+        <v>491.8</v>
       </c>
       <c r="C14">
-        <v>3.4</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>43999.46875</v>
+        <v>43999.447916666664</v>
       </c>
       <c r="B15">
-        <v>708.6</v>
+        <v>716.6</v>
       </c>
       <c r="C15">
-        <v>22.4</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>44012.448611111111</v>
+        <v>44012.457638888889</v>
       </c>
       <c r="B16">
-        <v>683.1</v>
+        <v>588.1</v>
       </c>
       <c r="C16">
-        <v>23</v>
+        <v>21.3</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>44026.395833333336</v>
+        <v>44026.385416666664</v>
       </c>
       <c r="B17">
-        <v>508.5</v>
+        <v>722</v>
       </c>
       <c r="C17">
-        <v>23.2</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>44033.688194444447</v>
+        <v>44033.677083333336</v>
       </c>
       <c r="B18">
-        <v>657.5</v>
+        <v>758.7</v>
       </c>
       <c r="C18">
-        <v>22.9</v>
+        <v>20.2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>44040.383333333331</v>
+        <v>44040.393055555556</v>
       </c>
       <c r="B19">
-        <v>701.5</v>
+        <v>687.5</v>
       </c>
       <c r="C19">
-        <v>22.3</v>
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>44054.429861111108</v>
+      </c>
+      <c r="B20">
+        <v>719.9</v>
+      </c>
+      <c r="C20">
+        <v>17.5</v>
       </c>
     </row>
   </sheetData>
@@ -3171,12 +3479,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C19"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A21" sqref="A21:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3199,235 +3507,6 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>43818.62222222222</v>
-      </c>
-      <c r="B2">
-        <v>472</v>
-      </c>
-      <c r="C2">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>43830.627083333333</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>43836.46875</v>
-      </c>
-      <c r="B4">
-        <v>463.7</v>
-      </c>
-      <c r="C4">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>43844.637499999997</v>
-      </c>
-      <c r="B5">
-        <v>493.2</v>
-      </c>
-      <c r="C5">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>43851.659722222219</v>
-      </c>
-      <c r="B6">
-        <v>435.5</v>
-      </c>
-      <c r="C6">
-        <v>-0.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>43858.642361111109</v>
-      </c>
-      <c r="B7">
-        <v>490.2</v>
-      </c>
-      <c r="C7">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>43865.654166666667</v>
-      </c>
-      <c r="B8">
-        <v>506</v>
-      </c>
-      <c r="C8">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>43872.634722222225</v>
-      </c>
-      <c r="B9">
-        <v>494.6</v>
-      </c>
-      <c r="C9">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>43879.645833333336</v>
-      </c>
-      <c r="B10">
-        <v>574.4</v>
-      </c>
-      <c r="C10">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>43886.631249999999</v>
-      </c>
-      <c r="B11">
-        <v>783.8</v>
-      </c>
-      <c r="C11">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>43893.652777777781</v>
-      </c>
-      <c r="B12">
-        <v>389.7</v>
-      </c>
-      <c r="C12">
-        <v>5.3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>43900.59097222222</v>
-      </c>
-      <c r="B13">
-        <v>432.3</v>
-      </c>
-      <c r="C13">
-        <v>6.4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>43906.427083333336</v>
-      </c>
-      <c r="B14">
-        <v>491.8</v>
-      </c>
-      <c r="C14">
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>43999.447916666664</v>
-      </c>
-      <c r="B15">
-        <v>716.6</v>
-      </c>
-      <c r="C15">
-        <v>20.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>44012.457638888889</v>
-      </c>
-      <c r="B16">
-        <v>588.1</v>
-      </c>
-      <c r="C16">
-        <v>21.3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>44026.385416666664</v>
-      </c>
-      <c r="B17">
-        <v>722</v>
-      </c>
-      <c r="C17">
-        <v>19.8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>44033.677083333336</v>
-      </c>
-      <c r="B18">
-        <v>758.7</v>
-      </c>
-      <c r="C18">
-        <v>20.2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>44040.393055555556</v>
-      </c>
-      <c r="B19">
-        <v>687.5</v>
-      </c>
-      <c r="C19">
-        <v>18.5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
         <v>43818.609722222223</v>
       </c>
       <c r="B2">
@@ -3442,10 +3521,10 @@
         <v>43830.63958333333</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -3633,6 +3712,17 @@
       </c>
       <c r="C20">
         <v>24.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>44054.461111111108</v>
+      </c>
+      <c r="B21">
+        <v>1016</v>
+      </c>
+      <c r="C21">
+        <v>22.1</v>
       </c>
     </row>
   </sheetData>

--- a/Data/conductivity_field.xlsx
+++ b/Data/conductivity_field.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linne\Box Sync\Chloride Research\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24836A9C-CED7-484F-8684-F18FE23D8609}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1BF757-1D8D-4B5B-AC60-4DEEDCB0A9FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="48540" yWindow="0" windowWidth="9090" windowHeight="15615" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loggers" sheetId="12" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="34">
   <si>
     <t>datetime</t>
   </si>
@@ -93,9 +93,6 @@
     <t>datetime start (original)</t>
   </si>
   <si>
-    <t>WC</t>
-  </si>
-  <si>
     <t xml:space="preserve">stop </t>
   </si>
   <si>
@@ -136,6 +133,9 @@
   </si>
   <si>
     <t xml:space="preserve"> Start</t>
+  </si>
+  <si>
+    <t>WIC</t>
   </si>
 </sst>
 </file>
@@ -1030,7 +1030,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D31" sqref="D31"/>
+      <selection pane="topRight" activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1042,12 +1042,12 @@
     <col min="5" max="5" width="19.88671875" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.33203125" style="3" customWidth="1"/>
     <col min="7" max="9" width="19.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="18.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="44" width="8.88671875" style="8"/>
+    <col min="10" max="15" width="18.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="44" width="8.88671875" style="8"/>
     <col min="45" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -1058,37 +1058,43 @@
         <v>18</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="F1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="H1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="J1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="L1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>20758340</v>
       </c>
@@ -1102,7 +1108,7 @@
         <v>43963.53125</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>20758345</v>
       </c>
@@ -1116,7 +1122,7 @@
         <v>43963.53125</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>20758339</v>
       </c>
@@ -1156,8 +1162,14 @@
       <c r="M4" s="8">
         <v>44033.666666666664</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N4" s="8">
+        <v>44069.479166666664</v>
+      </c>
+      <c r="O4" s="8">
+        <v>44069.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>20758341</v>
       </c>
@@ -1171,7 +1183,7 @@
         <v>43922.40625</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>20758346</v>
       </c>
@@ -1185,7 +1197,7 @@
         <v>43922.40625</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>20758338</v>
       </c>
@@ -1219,8 +1231,14 @@
       <c r="K7" s="8">
         <v>44033.6875</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L7" s="8">
+        <v>44069.4375</v>
+      </c>
+      <c r="M7" s="8">
+        <v>44069.458333333336</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>20758344</v>
       </c>
@@ -1231,10 +1249,10 @@
         <v>43818.5</v>
       </c>
       <c r="D8" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>31</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>32</v>
       </c>
       <c r="F8" s="10">
         <v>43906.479166666664</v>
@@ -1254,8 +1272,14 @@
       <c r="K8" s="8">
         <v>44033.666666666664</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L8" s="8">
+        <v>44068.458333333336</v>
+      </c>
+      <c r="M8" s="8">
+        <v>44069.479166666664</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>20378151</v>
       </c>
@@ -1266,10 +1290,10 @@
         <v>43818</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F9" s="10">
         <v>43906.416666666664</v>
@@ -1283,13 +1307,19 @@
       <c r="I9" s="3">
         <v>43999.604166666664</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L9" s="8">
+        <v>44068.583333333336</v>
+      </c>
+      <c r="M9" s="8">
+        <v>44069.604166666664</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>20758342</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="3">
         <v>43818</v>
@@ -1318,8 +1348,14 @@
       <c r="K10" s="8">
         <v>44033.6875</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L10" s="8">
+        <v>44069.4375</v>
+      </c>
+      <c r="M10" s="8">
+        <v>44069.458333333336</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>20758343</v>
       </c>
@@ -1336,7 +1372,7 @@
         <v>43865.645833333336</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G11" s="10">
         <v>43906.416666666664</v>
@@ -1353,8 +1389,14 @@
       <c r="K11" s="8">
         <v>44034.458333333336</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L11" s="8">
+        <v>44069.416666666664</v>
+      </c>
+      <c r="M11" s="8">
+        <v>44069.4375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>20758347</v>
       </c>
@@ -1382,8 +1424,14 @@
       <c r="I12" s="3">
         <v>43999.583333333336</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L12" s="8">
+        <v>44069.395833333336</v>
+      </c>
+      <c r="M12" s="8">
+        <v>44069.416666666664</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>20758348</v>
       </c>
@@ -1394,13 +1442,13 @@
         <v>43818</v>
       </c>
       <c r="D13" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="F13" s="10" t="s">
         <v>27</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>28</v>
       </c>
       <c r="G13" s="10">
         <v>43906.375</v>
@@ -1411,24 +1459,30 @@
       <c r="I13" s="3">
         <v>43999.625</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L13" s="8">
+        <v>44068.541666666664</v>
+      </c>
+      <c r="M13" s="8">
+        <v>44069.5625</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="14">
         <v>20758345</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C14" s="3">
         <v>43999.666666666664</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <v>20484276</v>
       </c>
@@ -1449,6 +1503,12 @@
       </c>
       <c r="G17" s="3">
         <v>43999.625</v>
+      </c>
+      <c r="H17" s="8">
+        <v>44068.541666666664</v>
+      </c>
+      <c r="I17" s="8">
+        <v>44069.5625</v>
       </c>
     </row>
   </sheetData>
@@ -1464,10 +1524,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1717,6 +1777,17 @@
       </c>
       <c r="C22">
         <v>23.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>44069.496527777781</v>
+      </c>
+      <c r="B23">
+        <v>2451</v>
+      </c>
+      <c r="C23">
+        <v>25.1</v>
       </c>
     </row>
   </sheetData>
@@ -1819,7 +1890,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{588D9C27-B403-4DE5-8B68-B5C4B22BE996}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -1965,10 +2036,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE7E974B-BCA0-45B0-95FE-63AB262733E9}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="A7" sqref="A7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2044,6 +2115,17 @@
         <v>23.1</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>44069.387499999997</v>
+      </c>
+      <c r="B7">
+        <v>801.9</v>
+      </c>
+      <c r="C7">
+        <v>25.3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2051,10 +2133,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C22" sqref="A22:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2295,6 +2377,17 @@
         <v>22.6</v>
       </c>
     </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>44069.559027777781</v>
+      </c>
+      <c r="B22">
+        <v>564.9</v>
+      </c>
+      <c r="C22">
+        <v>27.4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2303,1184 +2396,6 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>43818.667361111111</v>
-      </c>
-      <c r="B2">
-        <v>664.2</v>
-      </c>
-      <c r="C2">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>43830.530555555553</v>
-      </c>
-      <c r="B3">
-        <v>541.20000000000005</v>
-      </c>
-      <c r="C3">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>43836.398611111108</v>
-      </c>
-      <c r="B4">
-        <v>675.4</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>43844.586111111108</v>
-      </c>
-      <c r="B5">
-        <v>1016</v>
-      </c>
-      <c r="C5">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>43851.604166666664</v>
-      </c>
-      <c r="B6">
-        <v>767.8</v>
-      </c>
-      <c r="C6">
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>43858.595138888886</v>
-      </c>
-      <c r="B7">
-        <v>1119</v>
-      </c>
-      <c r="C7">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>43864.65625</v>
-      </c>
-      <c r="B8">
-        <v>946.6</v>
-      </c>
-      <c r="C8">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>43865.592361111114</v>
-      </c>
-      <c r="B9">
-        <v>851.2</v>
-      </c>
-      <c r="C9">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>43872.594444444447</v>
-      </c>
-      <c r="B10">
-        <v>1366.6</v>
-      </c>
-      <c r="C10">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>43879.600694444445</v>
-      </c>
-      <c r="B11">
-        <v>1504</v>
-      </c>
-      <c r="C11">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>43886.588888888888</v>
-      </c>
-      <c r="B12">
-        <v>923.3</v>
-      </c>
-      <c r="C12">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>43893.597916666666</v>
-      </c>
-      <c r="B13">
-        <v>762.1</v>
-      </c>
-      <c r="C13">
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>43900.546527777777</v>
-      </c>
-      <c r="B14">
-        <v>653.20000000000005</v>
-      </c>
-      <c r="C14">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>43906.375694444447</v>
-      </c>
-      <c r="B15">
-        <v>759.1</v>
-      </c>
-      <c r="C15">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>43999.588888888888</v>
-      </c>
-      <c r="B16">
-        <v>1116</v>
-      </c>
-      <c r="C16">
-        <v>23.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>44012.525694444441</v>
-      </c>
-      <c r="B17">
-        <v>688.5</v>
-      </c>
-      <c r="C17">
-        <v>227.1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>44026.497916666667</v>
-      </c>
-      <c r="B18">
-        <v>783.5</v>
-      </c>
-      <c r="C18">
-        <v>24.3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>44040.489583333336</v>
-      </c>
-      <c r="B19">
-        <v>526.5</v>
-      </c>
-      <c r="C19">
-        <v>24.3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>44054.505555555559</v>
-      </c>
-      <c r="B20">
-        <v>1050</v>
-      </c>
-      <c r="C20">
-        <v>22.6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>43818.652777777781</v>
-      </c>
-      <c r="B2">
-        <v>290.5</v>
-      </c>
-      <c r="C2">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>43830.57708333333</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>43836.429861111108</v>
-      </c>
-      <c r="B4">
-        <v>291.7</v>
-      </c>
-      <c r="C4">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>43844.600694444445</v>
-      </c>
-      <c r="B5">
-        <v>298.60000000000002</v>
-      </c>
-      <c r="C5">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>43851.118750000001</v>
-      </c>
-      <c r="B6">
-        <v>292.8</v>
-      </c>
-      <c r="C6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>43858.609722222223</v>
-      </c>
-      <c r="B7">
-        <v>299.60000000000002</v>
-      </c>
-      <c r="C7">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>43865.606944444444</v>
-      </c>
-      <c r="B8">
-        <v>302</v>
-      </c>
-      <c r="C8">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>43872.607638888891</v>
-      </c>
-      <c r="B9">
-        <v>332.84</v>
-      </c>
-      <c r="C9">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>43879.617361111108</v>
-      </c>
-      <c r="B10">
-        <v>347.9</v>
-      </c>
-      <c r="C10">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>43886.603472222225</v>
-      </c>
-      <c r="B11">
-        <v>312.60000000000002</v>
-      </c>
-      <c r="C11">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>43893.614583333336</v>
-      </c>
-      <c r="B12">
-        <v>327.60000000000002</v>
-      </c>
-      <c r="C12">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>43900.560416666667</v>
-      </c>
-      <c r="B13">
-        <v>320.7</v>
-      </c>
-      <c r="C13">
-        <v>5.3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>43906.38958333333</v>
-      </c>
-      <c r="B14">
-        <v>306.10000000000002</v>
-      </c>
-      <c r="C14">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>43999.572916666664</v>
-      </c>
-      <c r="B15">
-        <v>557</v>
-      </c>
-      <c r="C15">
-        <v>25.2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>44012.412499999999</v>
-      </c>
-      <c r="B16">
-        <v>540.5</v>
-      </c>
-      <c r="C16">
-        <v>25.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>44026.440972222219</v>
-      </c>
-      <c r="B17">
-        <v>510.8</v>
-      </c>
-      <c r="C17">
-        <v>26.3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>44040.352777777778</v>
-      </c>
-      <c r="B18">
-        <v>479.6</v>
-      </c>
-      <c r="C18">
-        <v>24.8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>44054.390972222223</v>
-      </c>
-      <c r="B19">
-        <v>486.8</v>
-      </c>
-      <c r="C19">
-        <v>24.1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>43818.638888888891</v>
-      </c>
-      <c r="B2">
-        <v>452.2</v>
-      </c>
-      <c r="C2">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>43830.6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>43836.447222222225</v>
-      </c>
-      <c r="B4">
-        <v>425.2</v>
-      </c>
-      <c r="C4">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>43844.600694444445</v>
-      </c>
-      <c r="B5">
-        <v>437.8</v>
-      </c>
-      <c r="C5">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>43851.635416666664</v>
-      </c>
-      <c r="B6">
-        <v>453.4</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>43858.625</v>
-      </c>
-      <c r="B7">
-        <v>457.6</v>
-      </c>
-      <c r="C7">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>43865.629166666666</v>
-      </c>
-      <c r="B8">
-        <v>432.1</v>
-      </c>
-      <c r="C8">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>43872.621527777781</v>
-      </c>
-      <c r="B9">
-        <v>512.36</v>
-      </c>
-      <c r="C9">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>43879.131249999999</v>
-      </c>
-      <c r="B10">
-        <v>442.3</v>
-      </c>
-      <c r="C10">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>43886.615972222222</v>
-      </c>
-      <c r="B11">
-        <v>451.3</v>
-      </c>
-      <c r="C11">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>43893.629166666666</v>
-      </c>
-      <c r="B12">
-        <v>476.7</v>
-      </c>
-      <c r="C12">
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>43900.574305555558</v>
-      </c>
-      <c r="B13">
-        <v>353.7</v>
-      </c>
-      <c r="C13">
-        <v>7.2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>43906.40625</v>
-      </c>
-      <c r="B14">
-        <v>409.7</v>
-      </c>
-      <c r="C14">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>43999.487500000003</v>
-      </c>
-      <c r="B15">
-        <v>487.5</v>
-      </c>
-      <c r="C15">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>44012.429861111108</v>
-      </c>
-      <c r="B16">
-        <v>682.5</v>
-      </c>
-      <c r="C16">
-        <v>27.3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>44026.414583333331</v>
-      </c>
-      <c r="B17">
-        <v>493.5</v>
-      </c>
-      <c r="C17">
-        <v>26.1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>44040.37222222222</v>
-      </c>
-      <c r="B18">
-        <v>687.5</v>
-      </c>
-      <c r="C18">
-        <v>25.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>44054.408333333333</v>
-      </c>
-      <c r="B19">
-        <v>687.1</v>
-      </c>
-      <c r="C19">
-        <v>24.6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>43818.631249999999</v>
-      </c>
-      <c r="B2">
-        <v>450.3</v>
-      </c>
-      <c r="C2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>43830.619444444441</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>43836.461111111108</v>
-      </c>
-      <c r="B4">
-        <v>431.8</v>
-      </c>
-      <c r="C4">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>43844.62777777778</v>
-      </c>
-      <c r="B5">
-        <v>484.4</v>
-      </c>
-      <c r="C5">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>43851.649305555555</v>
-      </c>
-      <c r="B6">
-        <v>240.7</v>
-      </c>
-      <c r="C6">
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>43858.634027777778</v>
-      </c>
-      <c r="B7">
-        <v>480.5</v>
-      </c>
-      <c r="C7">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>43865.643055555556</v>
-      </c>
-      <c r="B8">
-        <v>471</v>
-      </c>
-      <c r="C8">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>43872.629861111112</v>
-      </c>
-      <c r="B9">
-        <v>489.8</v>
-      </c>
-      <c r="C9">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>43879.640277777777</v>
-      </c>
-      <c r="B10">
-        <v>525.5</v>
-      </c>
-      <c r="C10">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>43886.625</v>
-      </c>
-      <c r="B11">
-        <v>520.79999999999995</v>
-      </c>
-      <c r="C11">
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>43893.638888888891</v>
-      </c>
-      <c r="B12">
-        <v>415.7</v>
-      </c>
-      <c r="C12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>43900.582638888889</v>
-      </c>
-      <c r="B13">
-        <v>374.8</v>
-      </c>
-      <c r="C13">
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>43906.416666666664</v>
-      </c>
-      <c r="B14">
-        <v>452.8</v>
-      </c>
-      <c r="C14">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>43999.46875</v>
-      </c>
-      <c r="B15">
-        <v>708.6</v>
-      </c>
-      <c r="C15">
-        <v>22.4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>44012.448611111111</v>
-      </c>
-      <c r="B16">
-        <v>683.1</v>
-      </c>
-      <c r="C16">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>44026.395833333336</v>
-      </c>
-      <c r="B17">
-        <v>508.5</v>
-      </c>
-      <c r="C17">
-        <v>23.2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>44033.688194444447</v>
-      </c>
-      <c r="B18">
-        <v>657.5</v>
-      </c>
-      <c r="C18">
-        <v>22.9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>44040.383333333331</v>
-      </c>
-      <c r="B19">
-        <v>701.5</v>
-      </c>
-      <c r="C19">
-        <v>22.3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>44054.422222222223</v>
-      </c>
-      <c r="B20">
-        <v>716.3</v>
-      </c>
-      <c r="C20">
-        <v>20.7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>43818.62222222222</v>
-      </c>
-      <c r="B2">
-        <v>472</v>
-      </c>
-      <c r="C2">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>43830.627083333333</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>43836.46875</v>
-      </c>
-      <c r="B4">
-        <v>463.7</v>
-      </c>
-      <c r="C4">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>43844.637499999997</v>
-      </c>
-      <c r="B5">
-        <v>493.2</v>
-      </c>
-      <c r="C5">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>43851.659722222219</v>
-      </c>
-      <c r="B6">
-        <v>435.5</v>
-      </c>
-      <c r="C6">
-        <v>-0.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>43858.642361111109</v>
-      </c>
-      <c r="B7">
-        <v>490.2</v>
-      </c>
-      <c r="C7">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>43865.654166666667</v>
-      </c>
-      <c r="B8">
-        <v>506</v>
-      </c>
-      <c r="C8">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>43872.634722222225</v>
-      </c>
-      <c r="B9">
-        <v>494.6</v>
-      </c>
-      <c r="C9">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>43879.645833333336</v>
-      </c>
-      <c r="B10">
-        <v>574.4</v>
-      </c>
-      <c r="C10">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>43886.631249999999</v>
-      </c>
-      <c r="B11">
-        <v>783.8</v>
-      </c>
-      <c r="C11">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>43893.652777777781</v>
-      </c>
-      <c r="B12">
-        <v>389.7</v>
-      </c>
-      <c r="C12">
-        <v>5.3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>43900.59097222222</v>
-      </c>
-      <c r="B13">
-        <v>432.3</v>
-      </c>
-      <c r="C13">
-        <v>6.4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>43906.427083333336</v>
-      </c>
-      <c r="B14">
-        <v>491.8</v>
-      </c>
-      <c r="C14">
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>43999.447916666664</v>
-      </c>
-      <c r="B15">
-        <v>716.6</v>
-      </c>
-      <c r="C15">
-        <v>20.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>44012.457638888889</v>
-      </c>
-      <c r="B16">
-        <v>588.1</v>
-      </c>
-      <c r="C16">
-        <v>21.3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>44026.385416666664</v>
-      </c>
-      <c r="B17">
-        <v>722</v>
-      </c>
-      <c r="C17">
-        <v>19.8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>44033.677083333336</v>
-      </c>
-      <c r="B18">
-        <v>758.7</v>
-      </c>
-      <c r="C18">
-        <v>20.2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>44040.393055555556</v>
-      </c>
-      <c r="B19">
-        <v>687.5</v>
-      </c>
-      <c r="C19">
-        <v>18.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>44054.429861111108</v>
-      </c>
-      <c r="B20">
-        <v>719.9</v>
-      </c>
-      <c r="C20">
-        <v>17.5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3507,6 +2422,1239 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
+        <v>43818.667361111111</v>
+      </c>
+      <c r="B2">
+        <v>664.2</v>
+      </c>
+      <c r="C2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>43830.530555555553</v>
+      </c>
+      <c r="B3">
+        <v>541.20000000000005</v>
+      </c>
+      <c r="C3">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>43836.398611111108</v>
+      </c>
+      <c r="B4">
+        <v>675.4</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>43844.586111111108</v>
+      </c>
+      <c r="B5">
+        <v>1016</v>
+      </c>
+      <c r="C5">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>43851.604166666664</v>
+      </c>
+      <c r="B6">
+        <v>767.8</v>
+      </c>
+      <c r="C6">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>43858.595138888886</v>
+      </c>
+      <c r="B7">
+        <v>1119</v>
+      </c>
+      <c r="C7">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>43864.65625</v>
+      </c>
+      <c r="B8">
+        <v>946.6</v>
+      </c>
+      <c r="C8">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>43865.592361111114</v>
+      </c>
+      <c r="B9">
+        <v>851.2</v>
+      </c>
+      <c r="C9">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>43872.594444444447</v>
+      </c>
+      <c r="B10">
+        <v>1366.6</v>
+      </c>
+      <c r="C10">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>43879.600694444445</v>
+      </c>
+      <c r="B11">
+        <v>1504</v>
+      </c>
+      <c r="C11">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>43886.588888888888</v>
+      </c>
+      <c r="B12">
+        <v>923.3</v>
+      </c>
+      <c r="C12">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>43893.597916666666</v>
+      </c>
+      <c r="B13">
+        <v>762.1</v>
+      </c>
+      <c r="C13">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>43900.546527777777</v>
+      </c>
+      <c r="B14">
+        <v>653.20000000000005</v>
+      </c>
+      <c r="C14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>43906.375694444447</v>
+      </c>
+      <c r="B15">
+        <v>759.1</v>
+      </c>
+      <c r="C15">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>43999.588888888888</v>
+      </c>
+      <c r="B16">
+        <v>1116</v>
+      </c>
+      <c r="C16">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>44012.525694444441</v>
+      </c>
+      <c r="B17">
+        <v>688.5</v>
+      </c>
+      <c r="C17">
+        <v>227.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>44026.497916666667</v>
+      </c>
+      <c r="B18">
+        <v>783.5</v>
+      </c>
+      <c r="C18">
+        <v>24.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>44040.489583333336</v>
+      </c>
+      <c r="B19">
+        <v>526.5</v>
+      </c>
+      <c r="C19">
+        <v>24.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>44054.505555555559</v>
+      </c>
+      <c r="B20">
+        <v>1050</v>
+      </c>
+      <c r="C20">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>44069.591666666667</v>
+      </c>
+      <c r="B21">
+        <v>951.1</v>
+      </c>
+      <c r="C21">
+        <v>24.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>43818.652777777781</v>
+      </c>
+      <c r="B2">
+        <v>290.5</v>
+      </c>
+      <c r="C2">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>43830.57708333333</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>43836.429861111108</v>
+      </c>
+      <c r="B4">
+        <v>291.7</v>
+      </c>
+      <c r="C4">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>43844.600694444445</v>
+      </c>
+      <c r="B5">
+        <v>298.60000000000002</v>
+      </c>
+      <c r="C5">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>43851.118750000001</v>
+      </c>
+      <c r="B6">
+        <v>292.8</v>
+      </c>
+      <c r="C6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>43858.609722222223</v>
+      </c>
+      <c r="B7">
+        <v>299.60000000000002</v>
+      </c>
+      <c r="C7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>43865.606944444444</v>
+      </c>
+      <c r="B8">
+        <v>302</v>
+      </c>
+      <c r="C8">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>43872.607638888891</v>
+      </c>
+      <c r="B9">
+        <v>332.84</v>
+      </c>
+      <c r="C9">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>43879.617361111108</v>
+      </c>
+      <c r="B10">
+        <v>347.9</v>
+      </c>
+      <c r="C10">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>43886.603472222225</v>
+      </c>
+      <c r="B11">
+        <v>312.60000000000002</v>
+      </c>
+      <c r="C11">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>43893.614583333336</v>
+      </c>
+      <c r="B12">
+        <v>327.60000000000002</v>
+      </c>
+      <c r="C12">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>43900.560416666667</v>
+      </c>
+      <c r="B13">
+        <v>320.7</v>
+      </c>
+      <c r="C13">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>43906.38958333333</v>
+      </c>
+      <c r="B14">
+        <v>306.10000000000002</v>
+      </c>
+      <c r="C14">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>43999.572916666664</v>
+      </c>
+      <c r="B15">
+        <v>557</v>
+      </c>
+      <c r="C15">
+        <v>25.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>44012.412499999999</v>
+      </c>
+      <c r="B16">
+        <v>540.5</v>
+      </c>
+      <c r="C16">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>44026.440972222219</v>
+      </c>
+      <c r="B17">
+        <v>510.8</v>
+      </c>
+      <c r="C17">
+        <v>26.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>44040.352777777778</v>
+      </c>
+      <c r="B18">
+        <v>479.6</v>
+      </c>
+      <c r="C18">
+        <v>24.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>44054.390972222223</v>
+      </c>
+      <c r="B19">
+        <v>486.8</v>
+      </c>
+      <c r="C19">
+        <v>24.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>44069.406944444447</v>
+      </c>
+      <c r="B20">
+        <v>490.2</v>
+      </c>
+      <c r="C20">
+        <v>25.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="A20:C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>43818.638888888891</v>
+      </c>
+      <c r="B2">
+        <v>452.2</v>
+      </c>
+      <c r="C2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>43830.6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>43836.447222222225</v>
+      </c>
+      <c r="B4">
+        <v>425.2</v>
+      </c>
+      <c r="C4">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>43844.600694444445</v>
+      </c>
+      <c r="B5">
+        <v>437.8</v>
+      </c>
+      <c r="C5">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>43851.635416666664</v>
+      </c>
+      <c r="B6">
+        <v>453.4</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>43858.625</v>
+      </c>
+      <c r="B7">
+        <v>457.6</v>
+      </c>
+      <c r="C7">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>43865.629166666666</v>
+      </c>
+      <c r="B8">
+        <v>432.1</v>
+      </c>
+      <c r="C8">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>43872.621527777781</v>
+      </c>
+      <c r="B9">
+        <v>512.36</v>
+      </c>
+      <c r="C9">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>43879.131249999999</v>
+      </c>
+      <c r="B10">
+        <v>442.3</v>
+      </c>
+      <c r="C10">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>43886.615972222222</v>
+      </c>
+      <c r="B11">
+        <v>451.3</v>
+      </c>
+      <c r="C11">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>43893.629166666666</v>
+      </c>
+      <c r="B12">
+        <v>476.7</v>
+      </c>
+      <c r="C12">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>43900.574305555558</v>
+      </c>
+      <c r="B13">
+        <v>353.7</v>
+      </c>
+      <c r="C13">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>43906.40625</v>
+      </c>
+      <c r="B14">
+        <v>409.7</v>
+      </c>
+      <c r="C14">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>43999.487500000003</v>
+      </c>
+      <c r="B15">
+        <v>487.5</v>
+      </c>
+      <c r="C15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>44012.429861111108</v>
+      </c>
+      <c r="B16">
+        <v>682.5</v>
+      </c>
+      <c r="C16">
+        <v>27.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>44026.414583333331</v>
+      </c>
+      <c r="B17">
+        <v>493.5</v>
+      </c>
+      <c r="C17">
+        <v>26.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>44040.37222222222</v>
+      </c>
+      <c r="B18">
+        <v>687.5</v>
+      </c>
+      <c r="C18">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>44054.408333333333</v>
+      </c>
+      <c r="B19">
+        <v>687.1</v>
+      </c>
+      <c r="C19">
+        <v>24.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>44069.425000000003</v>
+      </c>
+      <c r="B20">
+        <v>724.4</v>
+      </c>
+      <c r="C20">
+        <v>26.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>43818.631249999999</v>
+      </c>
+      <c r="B2">
+        <v>450.3</v>
+      </c>
+      <c r="C2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>43830.619444444441</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>43836.461111111108</v>
+      </c>
+      <c r="B4">
+        <v>431.8</v>
+      </c>
+      <c r="C4">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>43844.62777777778</v>
+      </c>
+      <c r="B5">
+        <v>484.4</v>
+      </c>
+      <c r="C5">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>43851.649305555555</v>
+      </c>
+      <c r="B6">
+        <v>240.7</v>
+      </c>
+      <c r="C6">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>43858.634027777778</v>
+      </c>
+      <c r="B7">
+        <v>480.5</v>
+      </c>
+      <c r="C7">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>43865.643055555556</v>
+      </c>
+      <c r="B8">
+        <v>471</v>
+      </c>
+      <c r="C8">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>43872.629861111112</v>
+      </c>
+      <c r="B9">
+        <v>489.8</v>
+      </c>
+      <c r="C9">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>43879.640277777777</v>
+      </c>
+      <c r="B10">
+        <v>525.5</v>
+      </c>
+      <c r="C10">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>43886.625</v>
+      </c>
+      <c r="B11">
+        <v>520.79999999999995</v>
+      </c>
+      <c r="C11">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>43893.638888888891</v>
+      </c>
+      <c r="B12">
+        <v>415.7</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>43900.582638888889</v>
+      </c>
+      <c r="B13">
+        <v>374.8</v>
+      </c>
+      <c r="C13">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>43906.416666666664</v>
+      </c>
+      <c r="B14">
+        <v>452.8</v>
+      </c>
+      <c r="C14">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>43999.46875</v>
+      </c>
+      <c r="B15">
+        <v>708.6</v>
+      </c>
+      <c r="C15">
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>44012.448611111111</v>
+      </c>
+      <c r="B16">
+        <v>683.1</v>
+      </c>
+      <c r="C16">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>44026.395833333336</v>
+      </c>
+      <c r="B17">
+        <v>508.5</v>
+      </c>
+      <c r="C17">
+        <v>23.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>44033.688194444447</v>
+      </c>
+      <c r="B18">
+        <v>657.5</v>
+      </c>
+      <c r="C18">
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>44040.383333333331</v>
+      </c>
+      <c r="B19">
+        <v>701.5</v>
+      </c>
+      <c r="C19">
+        <v>22.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>44054.422222222223</v>
+      </c>
+      <c r="B20">
+        <v>716.3</v>
+      </c>
+      <c r="C20">
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>44069.443055555559</v>
+      </c>
+      <c r="B21">
+        <v>818.4</v>
+      </c>
+      <c r="C21">
+        <v>22.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>43818.62222222222</v>
+      </c>
+      <c r="B2">
+        <v>472</v>
+      </c>
+      <c r="C2">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>43830.627083333333</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>43836.46875</v>
+      </c>
+      <c r="B4">
+        <v>463.7</v>
+      </c>
+      <c r="C4">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>43844.637499999997</v>
+      </c>
+      <c r="B5">
+        <v>493.2</v>
+      </c>
+      <c r="C5">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>43851.659722222219</v>
+      </c>
+      <c r="B6">
+        <v>435.5</v>
+      </c>
+      <c r="C6">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>43858.642361111109</v>
+      </c>
+      <c r="B7">
+        <v>490.2</v>
+      </c>
+      <c r="C7">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>43865.654166666667</v>
+      </c>
+      <c r="B8">
+        <v>506</v>
+      </c>
+      <c r="C8">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>43872.634722222225</v>
+      </c>
+      <c r="B9">
+        <v>494.6</v>
+      </c>
+      <c r="C9">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>43879.645833333336</v>
+      </c>
+      <c r="B10">
+        <v>574.4</v>
+      </c>
+      <c r="C10">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>43886.631249999999</v>
+      </c>
+      <c r="B11">
+        <v>783.8</v>
+      </c>
+      <c r="C11">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>43893.652777777781</v>
+      </c>
+      <c r="B12">
+        <v>389.7</v>
+      </c>
+      <c r="C12">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>43900.59097222222</v>
+      </c>
+      <c r="B13">
+        <v>432.3</v>
+      </c>
+      <c r="C13">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>43906.427083333336</v>
+      </c>
+      <c r="B14">
+        <v>491.8</v>
+      </c>
+      <c r="C14">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>43999.447916666664</v>
+      </c>
+      <c r="B15">
+        <v>716.6</v>
+      </c>
+      <c r="C15">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>44012.457638888889</v>
+      </c>
+      <c r="B16">
+        <v>588.1</v>
+      </c>
+      <c r="C16">
+        <v>21.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>44026.385416666664</v>
+      </c>
+      <c r="B17">
+        <v>722</v>
+      </c>
+      <c r="C17">
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>44033.677083333336</v>
+      </c>
+      <c r="B18">
+        <v>758.7</v>
+      </c>
+      <c r="C18">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>44040.393055555556</v>
+      </c>
+      <c r="B19">
+        <v>687.5</v>
+      </c>
+      <c r="C19">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>44054.429861111108</v>
+      </c>
+      <c r="B20">
+        <v>719.9</v>
+      </c>
+      <c r="C20">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>44069.454861111109</v>
+      </c>
+      <c r="B21">
+        <v>766.8</v>
+      </c>
+      <c r="C21">
+        <v>20.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>43818.609722222223</v>
       </c>
       <c r="B2">
@@ -3723,6 +3871,17 @@
       </c>
       <c r="C21">
         <v>22.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>44069.479861111111</v>
+      </c>
+      <c r="B22">
+        <v>1180</v>
+      </c>
+      <c r="C22">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Data/conductivity_field.xlsx
+++ b/Data/conductivity_field.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linne\Box Sync\Chloride Research\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linne\Box Sync\CL_BUD\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1BF757-1D8D-4B5B-AC60-4DEEDCB0A9FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278FA48E-E322-4D0C-B327-3FDCD0BC82DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48540" yWindow="0" windowWidth="9090" windowHeight="15615" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loggers" sheetId="12" r:id="rId1"/>
@@ -1524,10 +1524,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:C23"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1788,6 +1788,17 @@
       </c>
       <c r="C23">
         <v>25.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>44082.463194444441</v>
+      </c>
+      <c r="B24">
+        <v>288.3</v>
+      </c>
+      <c r="C24">
+        <v>16.7</v>
       </c>
     </row>
   </sheetData>
@@ -2036,10 +2047,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE7E974B-BCA0-45B0-95FE-63AB262733E9}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:C7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2126,6 +2137,17 @@
         <v>25.3</v>
       </c>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>44082.375</v>
+      </c>
+      <c r="B8">
+        <v>638.70000000000005</v>
+      </c>
+      <c r="C8">
+        <v>17.8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2133,10 +2155,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="A22:C22"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2388,6 +2410,17 @@
         <v>27.4</v>
       </c>
     </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>44082.489583333336</v>
+      </c>
+      <c r="B23">
+        <v>58.99</v>
+      </c>
+      <c r="C23">
+        <v>17.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2396,10 +2429,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:C21"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2640,6 +2673,17 @@
         <v>24.9</v>
       </c>
     </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>44082.511805555558</v>
+      </c>
+      <c r="B22">
+        <v>911.7</v>
+      </c>
+      <c r="C22">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2647,10 +2691,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:C20"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2880,6 +2924,17 @@
         <v>25.7</v>
       </c>
     </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>44082.39166666667</v>
+      </c>
+      <c r="B21">
+        <v>433.4</v>
+      </c>
+      <c r="C21">
+        <v>18.8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2887,10 +2942,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="A20:C20"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3120,6 +3175,17 @@
         <v>26.8</v>
       </c>
     </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>44082.409722222219</v>
+      </c>
+      <c r="B21">
+        <v>557.4</v>
+      </c>
+      <c r="C21">
+        <v>17.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3127,10 +3193,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:C21"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3371,6 +3437,17 @@
         <v>22.9</v>
       </c>
     </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>44082.429166666669</v>
+      </c>
+      <c r="B22">
+        <v>660.2</v>
+      </c>
+      <c r="C22">
+        <v>14.4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3378,10 +3455,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:C21"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3622,6 +3699,17 @@
         <v>20.3</v>
       </c>
     </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>44082.439583333333</v>
+      </c>
+      <c r="B22">
+        <v>657.8</v>
+      </c>
+      <c r="C22">
+        <v>13.1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3629,10 +3717,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:C22"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3884,6 +3972,17 @@
         <v>25</v>
       </c>
     </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>44082.45416666667</v>
+      </c>
+      <c r="B23">
+        <v>742.7</v>
+      </c>
+      <c r="C23">
+        <v>16.100000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/conductivity_field.xlsx
+++ b/Data/conductivity_field.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linne\Box Sync\CL_BUD\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linne\Box Sync\Chloride Research\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278FA48E-E322-4D0C-B327-3FDCD0BC82DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD460FDA-7737-4987-8C61-F0B79AF8DA25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="48915" yWindow="915" windowWidth="17280" windowHeight="8970" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loggers" sheetId="12" r:id="rId1"/>
@@ -1526,8 +1526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1792,13 +1792,13 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>44082.463194444441</v>
+        <v>44096.468055555553</v>
       </c>
       <c r="B24">
-        <v>288.3</v>
+        <v>1566</v>
       </c>
       <c r="C24">
-        <v>16.7</v>
+        <v>20.399999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -2049,8 +2049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE7E974B-BCA0-45B0-95FE-63AB262733E9}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2139,13 +2139,13 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>44082.375</v>
+        <v>44096.388888888891</v>
       </c>
       <c r="B8">
-        <v>638.70000000000005</v>
+        <v>682.7</v>
       </c>
       <c r="C8">
-        <v>17.8</v>
+        <v>17.7</v>
       </c>
     </row>
   </sheetData>
@@ -2158,7 +2158,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2412,13 +2412,13 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>44082.489583333336</v>
+        <v>44096.490972222222</v>
       </c>
       <c r="B23">
-        <v>58.99</v>
+        <v>491.1</v>
       </c>
       <c r="C23">
-        <v>17.2</v>
+        <v>19.5</v>
       </c>
     </row>
   </sheetData>
@@ -2432,7 +2432,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2675,13 +2675,13 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>44082.511805555558</v>
+        <v>44096.511111111111</v>
       </c>
       <c r="B22">
-        <v>911.7</v>
+        <v>1064</v>
       </c>
       <c r="C22">
-        <v>16</v>
+        <v>17.5</v>
       </c>
     </row>
   </sheetData>
@@ -2694,7 +2694,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2926,13 +2926,13 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>44082.39166666667</v>
+        <v>44096.402777777781</v>
       </c>
       <c r="B21">
-        <v>433.4</v>
+        <v>442.5</v>
       </c>
       <c r="C21">
-        <v>18.8</v>
+        <v>18.5</v>
       </c>
     </row>
   </sheetData>
@@ -2945,7 +2945,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3177,13 +3177,13 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>44082.409722222219</v>
+        <v>44096.418749999997</v>
       </c>
       <c r="B21">
-        <v>557.4</v>
+        <v>571.1</v>
       </c>
       <c r="C21">
-        <v>17.2</v>
+        <v>18.100000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -3196,7 +3196,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3439,13 +3439,13 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>44082.429166666669</v>
+        <v>44096.436111111114</v>
       </c>
       <c r="B22">
-        <v>660.2</v>
+        <v>674</v>
       </c>
       <c r="C22">
-        <v>14.4</v>
+        <v>15.5</v>
       </c>
     </row>
   </sheetData>
@@ -3458,7 +3458,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3701,13 +3701,13 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>44082.439583333333</v>
+        <v>44096.444444444445</v>
       </c>
       <c r="B22">
-        <v>657.8</v>
+        <v>679.2</v>
       </c>
       <c r="C22">
-        <v>13.1</v>
+        <v>14.5</v>
       </c>
     </row>
   </sheetData>
@@ -3720,7 +3720,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3974,13 +3974,13 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>44082.45416666667</v>
+        <v>44096.459722222222</v>
       </c>
       <c r="B23">
-        <v>742.7</v>
+        <v>980.5</v>
       </c>
       <c r="C23">
-        <v>16.100000000000001</v>
+        <v>16.899999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Data/conductivity_field.xlsx
+++ b/Data/conductivity_field.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linne\Box Sync\Chloride Research\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD460FDA-7737-4987-8C61-F0B79AF8DA25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96AC1F22-1400-49C4-9AEE-453426F2693B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48915" yWindow="915" windowWidth="17280" windowHeight="8970" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="50550" yWindow="3600" windowWidth="13830" windowHeight="7170" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loggers" sheetId="12" r:id="rId1"/>
@@ -1524,10 +1524,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1799,6 +1799,17 @@
       </c>
       <c r="C24">
         <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>44110.438888888886</v>
+      </c>
+      <c r="B25">
+        <v>1783</v>
+      </c>
+      <c r="C25">
+        <v>15.9</v>
       </c>
     </row>
   </sheetData>
@@ -2047,10 +2058,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE7E974B-BCA0-45B0-95FE-63AB262733E9}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2148,6 +2159,17 @@
         <v>17.7</v>
       </c>
     </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>44110.361111111109</v>
+      </c>
+      <c r="B9">
+        <v>634.5</v>
+      </c>
+      <c r="C9">
+        <v>12.8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2155,7 +2177,565 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>43818.686111111114</v>
+      </c>
+      <c r="B2">
+        <v>308.10000000000002</v>
+      </c>
+      <c r="C2">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>43830.505555555559</v>
+      </c>
+      <c r="B3">
+        <v>305.8</v>
+      </c>
+      <c r="C3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>43836.398611111108</v>
+      </c>
+      <c r="B4">
+        <v>299.7</v>
+      </c>
+      <c r="C4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>43844.568055555559</v>
+      </c>
+      <c r="B5">
+        <v>313.3</v>
+      </c>
+      <c r="C5">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>43851.578472222223</v>
+      </c>
+      <c r="B6">
+        <v>312.8</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>43858.57708333333</v>
+      </c>
+      <c r="B7">
+        <v>316.3</v>
+      </c>
+      <c r="C7">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>43864.621527777781</v>
+      </c>
+      <c r="B8">
+        <v>319.60000000000002</v>
+      </c>
+      <c r="C8">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>43865.577777777777</v>
+      </c>
+      <c r="B9">
+        <v>323.60000000000002</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>43872.574999999997</v>
+      </c>
+      <c r="B10">
+        <v>358.2</v>
+      </c>
+      <c r="C10">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>43879.581250000003</v>
+      </c>
+      <c r="B11">
+        <v>359.9</v>
+      </c>
+      <c r="C11">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>43886.572222222225</v>
+      </c>
+      <c r="B12">
+        <v>336.7</v>
+      </c>
+      <c r="C12">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>43893.57708333333</v>
+      </c>
+      <c r="B13">
+        <v>368.2</v>
+      </c>
+      <c r="C13">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>43900.530555555553</v>
+      </c>
+      <c r="B14">
+        <v>357.9</v>
+      </c>
+      <c r="C14">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>43906.355555555558</v>
+      </c>
+      <c r="B15">
+        <v>330.5</v>
+      </c>
+      <c r="C15">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>43999.611111111109</v>
+      </c>
+      <c r="B16">
+        <v>597.20000000000005</v>
+      </c>
+      <c r="C16">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>44012.388194444444</v>
+      </c>
+      <c r="B17">
+        <v>582.20000000000005</v>
+      </c>
+      <c r="C17">
+        <v>25.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>44026.480555555558</v>
+      </c>
+      <c r="B18">
+        <v>576.4</v>
+      </c>
+      <c r="C18">
+        <v>27.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>44034.446527777778</v>
+      </c>
+      <c r="B19">
+        <v>506.6</v>
+      </c>
+      <c r="C19">
+        <v>26.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>44040.458333333336</v>
+      </c>
+      <c r="B20">
+        <v>570.6</v>
+      </c>
+      <c r="C20">
+        <v>26.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>44054.487500000003</v>
+      </c>
+      <c r="B21">
+        <v>550.5</v>
+      </c>
+      <c r="C21">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>44069.559027777781</v>
+      </c>
+      <c r="B22">
+        <v>564.9</v>
+      </c>
+      <c r="C22">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>44096.490972222222</v>
+      </c>
+      <c r="B23">
+        <v>491.1</v>
+      </c>
+      <c r="C23">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>44110.461805555555</v>
+      </c>
+      <c r="B24">
+        <v>460.5</v>
+      </c>
+      <c r="C24">
+        <v>16.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>43818.667361111111</v>
+      </c>
+      <c r="B2">
+        <v>664.2</v>
+      </c>
+      <c r="C2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>43830.530555555553</v>
+      </c>
+      <c r="B3">
+        <v>541.20000000000005</v>
+      </c>
+      <c r="C3">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>43836.398611111108</v>
+      </c>
+      <c r="B4">
+        <v>675.4</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>43844.586111111108</v>
+      </c>
+      <c r="B5">
+        <v>1016</v>
+      </c>
+      <c r="C5">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>43851.604166666664</v>
+      </c>
+      <c r="B6">
+        <v>767.8</v>
+      </c>
+      <c r="C6">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>43858.595138888886</v>
+      </c>
+      <c r="B7">
+        <v>1119</v>
+      </c>
+      <c r="C7">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>43864.65625</v>
+      </c>
+      <c r="B8">
+        <v>946.6</v>
+      </c>
+      <c r="C8">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>43865.592361111114</v>
+      </c>
+      <c r="B9">
+        <v>851.2</v>
+      </c>
+      <c r="C9">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>43872.594444444447</v>
+      </c>
+      <c r="B10">
+        <v>1366.6</v>
+      </c>
+      <c r="C10">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>43879.600694444445</v>
+      </c>
+      <c r="B11">
+        <v>1504</v>
+      </c>
+      <c r="C11">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>43886.588888888888</v>
+      </c>
+      <c r="B12">
+        <v>923.3</v>
+      </c>
+      <c r="C12">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>43893.597916666666</v>
+      </c>
+      <c r="B13">
+        <v>762.1</v>
+      </c>
+      <c r="C13">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>43900.546527777777</v>
+      </c>
+      <c r="B14">
+        <v>653.20000000000005</v>
+      </c>
+      <c r="C14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>43906.375694444447</v>
+      </c>
+      <c r="B15">
+        <v>759.1</v>
+      </c>
+      <c r="C15">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>43999.588888888888</v>
+      </c>
+      <c r="B16">
+        <v>1116</v>
+      </c>
+      <c r="C16">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>44012.525694444441</v>
+      </c>
+      <c r="B17">
+        <v>688.5</v>
+      </c>
+      <c r="C17">
+        <v>227.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>44026.497916666667</v>
+      </c>
+      <c r="B18">
+        <v>783.5</v>
+      </c>
+      <c r="C18">
+        <v>24.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>44040.489583333336</v>
+      </c>
+      <c r="B19">
+        <v>526.5</v>
+      </c>
+      <c r="C19">
+        <v>24.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>44054.505555555559</v>
+      </c>
+      <c r="B20">
+        <v>1050</v>
+      </c>
+      <c r="C20">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>44069.591666666667</v>
+      </c>
+      <c r="B21">
+        <v>951.1</v>
+      </c>
+      <c r="C21">
+        <v>24.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>44096.511111111111</v>
+      </c>
+      <c r="B22">
+        <v>1064</v>
+      </c>
+      <c r="C22">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>44110.481249999997</v>
+      </c>
+      <c r="B23">
+        <v>954.4</v>
+      </c>
+      <c r="C23">
+        <v>12.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
@@ -2181,507 +2761,233 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>43818.686111111114</v>
+        <v>43818.652777777781</v>
       </c>
       <c r="B2">
-        <v>308.10000000000002</v>
+        <v>290.5</v>
       </c>
       <c r="C2">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>43830.505555555559</v>
-      </c>
-      <c r="B3">
-        <v>305.8</v>
-      </c>
-      <c r="C3">
-        <v>0.2</v>
+        <v>43830.57708333333</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>43836.398611111108</v>
+        <v>43836.429861111108</v>
       </c>
       <c r="B4">
-        <v>299.7</v>
+        <v>291.7</v>
       </c>
       <c r="C4">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>43844.568055555559</v>
+        <v>43844.600694444445</v>
       </c>
       <c r="B5">
-        <v>313.3</v>
+        <v>298.60000000000002</v>
       </c>
       <c r="C5">
-        <v>1.5</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>43851.578472222223</v>
+        <v>43851.118750000001</v>
       </c>
       <c r="B6">
-        <v>312.8</v>
+        <v>292.8</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>43858.57708333333</v>
+        <v>43858.609722222223</v>
       </c>
       <c r="B7">
-        <v>316.3</v>
+        <v>299.60000000000002</v>
       </c>
       <c r="C7">
-        <v>1.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>43864.621527777781</v>
+        <v>43865.606944444444</v>
       </c>
       <c r="B8">
-        <v>319.60000000000002</v>
+        <v>302</v>
       </c>
       <c r="C8">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>43865.577777777777</v>
+        <v>43872.607638888891</v>
       </c>
       <c r="B9">
-        <v>323.60000000000002</v>
+        <v>332.84</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>43872.574999999997</v>
+        <v>43879.617361111108</v>
       </c>
       <c r="B10">
-        <v>358.2</v>
+        <v>347.9</v>
       </c>
       <c r="C10">
-        <v>2.2999999999999998</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>43879.581250000003</v>
+        <v>43886.603472222225</v>
       </c>
       <c r="B11">
-        <v>359.9</v>
+        <v>312.60000000000002</v>
       </c>
       <c r="C11">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>43886.572222222225</v>
+        <v>43893.614583333336</v>
       </c>
       <c r="B12">
-        <v>336.7</v>
+        <v>327.60000000000002</v>
       </c>
       <c r="C12">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>43893.57708333333</v>
+        <v>43900.560416666667</v>
       </c>
       <c r="B13">
-        <v>368.2</v>
+        <v>320.7</v>
       </c>
       <c r="C13">
-        <v>3.9</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>43900.530555555553</v>
+        <v>43906.38958333333</v>
       </c>
       <c r="B14">
-        <v>357.9</v>
+        <v>306.10000000000002</v>
       </c>
       <c r="C14">
-        <v>6.2</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>43906.355555555558</v>
+        <v>43999.572916666664</v>
       </c>
       <c r="B15">
-        <v>330.5</v>
+        <v>557</v>
       </c>
       <c r="C15">
-        <v>2.9</v>
+        <v>25.2</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>43999.611111111109</v>
+        <v>44012.412499999999</v>
       </c>
       <c r="B16">
-        <v>597.20000000000005</v>
+        <v>540.5</v>
       </c>
       <c r="C16">
-        <v>25.4</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>44012.388194444444</v>
+        <v>44026.440972222219</v>
       </c>
       <c r="B17">
-        <v>582.20000000000005</v>
+        <v>510.8</v>
       </c>
       <c r="C17">
-        <v>25.2</v>
+        <v>26.3</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>44026.480555555558</v>
+        <v>44040.352777777778</v>
       </c>
       <c r="B18">
-        <v>576.4</v>
+        <v>479.6</v>
       </c>
       <c r="C18">
-        <v>27.1</v>
+        <v>24.8</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>44034.446527777778</v>
+        <v>44054.390972222223</v>
       </c>
       <c r="B19">
-        <v>506.6</v>
+        <v>486.8</v>
       </c>
       <c r="C19">
-        <v>26.3</v>
+        <v>24.1</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>44040.458333333336</v>
+        <v>44069.406944444447</v>
       </c>
       <c r="B20">
-        <v>570.6</v>
+        <v>490.2</v>
       </c>
       <c r="C20">
-        <v>26.3</v>
+        <v>25.7</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>44054.487500000003</v>
+        <v>44096.402777777781</v>
       </c>
       <c r="B21">
-        <v>550.5</v>
+        <v>442.5</v>
       </c>
       <c r="C21">
-        <v>22.6</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>44069.559027777781</v>
+        <v>44110.375</v>
       </c>
       <c r="B22">
-        <v>564.9</v>
+        <v>405</v>
       </c>
       <c r="C22">
-        <v>27.4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>44096.490972222222</v>
-      </c>
-      <c r="B23">
-        <v>491.1</v>
-      </c>
-      <c r="C23">
-        <v>19.5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>43818.667361111111</v>
-      </c>
-      <c r="B2">
-        <v>664.2</v>
-      </c>
-      <c r="C2">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>43830.530555555553</v>
-      </c>
-      <c r="B3">
-        <v>541.20000000000005</v>
-      </c>
-      <c r="C3">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>43836.398611111108</v>
-      </c>
-      <c r="B4">
-        <v>675.4</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>43844.586111111108</v>
-      </c>
-      <c r="B5">
-        <v>1016</v>
-      </c>
-      <c r="C5">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>43851.604166666664</v>
-      </c>
-      <c r="B6">
-        <v>767.8</v>
-      </c>
-      <c r="C6">
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>43858.595138888886</v>
-      </c>
-      <c r="B7">
-        <v>1119</v>
-      </c>
-      <c r="C7">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>43864.65625</v>
-      </c>
-      <c r="B8">
-        <v>946.6</v>
-      </c>
-      <c r="C8">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>43865.592361111114</v>
-      </c>
-      <c r="B9">
-        <v>851.2</v>
-      </c>
-      <c r="C9">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>43872.594444444447</v>
-      </c>
-      <c r="B10">
-        <v>1366.6</v>
-      </c>
-      <c r="C10">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>43879.600694444445</v>
-      </c>
-      <c r="B11">
-        <v>1504</v>
-      </c>
-      <c r="C11">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>43886.588888888888</v>
-      </c>
-      <c r="B12">
-        <v>923.3</v>
-      </c>
-      <c r="C12">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>43893.597916666666</v>
-      </c>
-      <c r="B13">
-        <v>762.1</v>
-      </c>
-      <c r="C13">
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>43900.546527777777</v>
-      </c>
-      <c r="B14">
-        <v>653.20000000000005</v>
-      </c>
-      <c r="C14">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>43906.375694444447</v>
-      </c>
-      <c r="B15">
-        <v>759.1</v>
-      </c>
-      <c r="C15">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>43999.588888888888</v>
-      </c>
-      <c r="B16">
-        <v>1116</v>
-      </c>
-      <c r="C16">
-        <v>23.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>44012.525694444441</v>
-      </c>
-      <c r="B17">
-        <v>688.5</v>
-      </c>
-      <c r="C17">
-        <v>227.1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>44026.497916666667</v>
-      </c>
-      <c r="B18">
-        <v>783.5</v>
-      </c>
-      <c r="C18">
-        <v>24.3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>44040.489583333336</v>
-      </c>
-      <c r="B19">
-        <v>526.5</v>
-      </c>
-      <c r="C19">
-        <v>24.3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>44054.505555555559</v>
-      </c>
-      <c r="B20">
-        <v>1050</v>
-      </c>
-      <c r="C20">
-        <v>22.6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>44069.591666666667</v>
-      </c>
-      <c r="B21">
-        <v>951.1</v>
-      </c>
-      <c r="C21">
-        <v>24.9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>44096.511111111111</v>
-      </c>
-      <c r="B22">
-        <v>1064</v>
-      </c>
-      <c r="C22">
-        <v>17.5</v>
+        <v>14.2</v>
       </c>
     </row>
   </sheetData>
@@ -2689,9 +2995,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C21"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
@@ -2717,18 +3023,18 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>43818.652777777781</v>
+        <v>43818.638888888891</v>
       </c>
       <c r="B2">
-        <v>290.5</v>
+        <v>452.2</v>
       </c>
       <c r="C2">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>43830.57708333333</v>
+        <v>43830.6</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -2739,13 +3045,13 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>43836.429861111108</v>
+        <v>43836.447222222225</v>
       </c>
       <c r="B4">
-        <v>291.7</v>
+        <v>425.2</v>
       </c>
       <c r="C4">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -2753,186 +3059,197 @@
         <v>43844.600694444445</v>
       </c>
       <c r="B5">
-        <v>298.60000000000002</v>
+        <v>437.8</v>
       </c>
       <c r="C5">
-        <v>1.1000000000000001</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>43851.118750000001</v>
+        <v>43851.635416666664</v>
       </c>
       <c r="B6">
-        <v>292.8</v>
+        <v>453.4</v>
       </c>
       <c r="C6">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>43858.609722222223</v>
+        <v>43858.625</v>
       </c>
       <c r="B7">
-        <v>299.60000000000002</v>
+        <v>457.6</v>
       </c>
       <c r="C7">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>43865.606944444444</v>
+        <v>43865.629166666666</v>
       </c>
       <c r="B8">
-        <v>302</v>
+        <v>432.1</v>
       </c>
       <c r="C8">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>43872.607638888891</v>
+        <v>43872.621527777781</v>
       </c>
       <c r="B9">
-        <v>332.84</v>
+        <v>512.36</v>
       </c>
       <c r="C9">
-        <v>1.4</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>43879.617361111108</v>
+        <v>43879.131249999999</v>
       </c>
       <c r="B10">
-        <v>347.9</v>
+        <v>442.3</v>
       </c>
       <c r="C10">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>43886.603472222225</v>
+        <v>43886.615972222222</v>
       </c>
       <c r="B11">
-        <v>312.60000000000002</v>
+        <v>451.3</v>
       </c>
       <c r="C11">
-        <v>1.8</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>43893.614583333336</v>
+        <v>43893.629166666666</v>
       </c>
       <c r="B12">
-        <v>327.60000000000002</v>
+        <v>476.7</v>
       </c>
       <c r="C12">
-        <v>3.8</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>43900.560416666667</v>
+        <v>43900.574305555558</v>
       </c>
       <c r="B13">
-        <v>320.7</v>
+        <v>353.7</v>
       </c>
       <c r="C13">
-        <v>5.3</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>43906.38958333333</v>
+        <v>43906.40625</v>
       </c>
       <c r="B14">
-        <v>306.10000000000002</v>
+        <v>409.7</v>
       </c>
       <c r="C14">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>43999.572916666664</v>
+        <v>43999.487500000003</v>
       </c>
       <c r="B15">
-        <v>557</v>
+        <v>487.5</v>
       </c>
       <c r="C15">
-        <v>25.2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>44012.412499999999</v>
+        <v>44012.429861111108</v>
       </c>
       <c r="B16">
-        <v>540.5</v>
+        <v>682.5</v>
       </c>
       <c r="C16">
-        <v>25.5</v>
+        <v>27.3</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>44026.440972222219</v>
+        <v>44026.414583333331</v>
       </c>
       <c r="B17">
-        <v>510.8</v>
+        <v>493.5</v>
       </c>
       <c r="C17">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>44040.352777777778</v>
+        <v>44040.37222222222</v>
       </c>
       <c r="B18">
-        <v>479.6</v>
+        <v>687.5</v>
       </c>
       <c r="C18">
-        <v>24.8</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>44054.390972222223</v>
+        <v>44054.408333333333</v>
       </c>
       <c r="B19">
-        <v>486.8</v>
+        <v>687.1</v>
       </c>
       <c r="C19">
-        <v>24.1</v>
+        <v>24.6</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>44069.406944444447</v>
+        <v>44069.425000000003</v>
       </c>
       <c r="B20">
-        <v>490.2</v>
+        <v>724.4</v>
       </c>
       <c r="C20">
-        <v>25.7</v>
+        <v>26.8</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>44096.402777777781</v>
+        <v>44096.418749999997</v>
       </c>
       <c r="B21">
-        <v>442.5</v>
+        <v>571.1</v>
       </c>
       <c r="C21">
-        <v>18.5</v>
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>44110.392361111109</v>
+      </c>
+      <c r="B22">
+        <v>553.5</v>
+      </c>
+      <c r="C22">
+        <v>11.8</v>
       </c>
     </row>
   </sheetData>
@@ -2940,12 +3257,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C21"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2968,18 +3285,18 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>43818.638888888891</v>
+        <v>43818.631249999999</v>
       </c>
       <c r="B2">
-        <v>452.2</v>
+        <v>450.3</v>
       </c>
       <c r="C2">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>43830.6</v>
+        <v>43830.619444444441</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -2990,10 +3307,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>43836.447222222225</v>
+        <v>43836.461111111108</v>
       </c>
       <c r="B4">
-        <v>425.2</v>
+        <v>431.8</v>
       </c>
       <c r="C4">
         <v>1.2</v>
@@ -3001,54 +3318,54 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>43844.600694444445</v>
+        <v>43844.62777777778</v>
       </c>
       <c r="B5">
-        <v>437.8</v>
+        <v>484.4</v>
       </c>
       <c r="C5">
-        <v>1.7</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>43851.635416666664</v>
+        <v>43851.649305555555</v>
       </c>
       <c r="B6">
-        <v>453.4</v>
+        <v>240.7</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>43858.625</v>
+        <v>43858.634027777778</v>
       </c>
       <c r="B7">
-        <v>457.6</v>
+        <v>480.5</v>
       </c>
       <c r="C7">
-        <v>0.7</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>43865.629166666666</v>
+        <v>43865.643055555556</v>
       </c>
       <c r="B8">
-        <v>432.1</v>
+        <v>471</v>
       </c>
       <c r="C8">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>43872.621527777781</v>
+        <v>43872.629861111112</v>
       </c>
       <c r="B9">
-        <v>512.36</v>
+        <v>489.8</v>
       </c>
       <c r="C9">
         <v>2.2000000000000002</v>
@@ -3056,134 +3373,156 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>43879.131249999999</v>
+        <v>43879.640277777777</v>
       </c>
       <c r="B10">
-        <v>442.3</v>
+        <v>525.5</v>
       </c>
       <c r="C10">
-        <v>0.8</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>43886.615972222222</v>
+        <v>43886.625</v>
       </c>
       <c r="B11">
-        <v>451.3</v>
+        <v>520.79999999999995</v>
       </c>
       <c r="C11">
-        <v>2.2000000000000002</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>43893.629166666666</v>
+        <v>43893.638888888891</v>
       </c>
       <c r="B12">
-        <v>476.7</v>
+        <v>415.7</v>
       </c>
       <c r="C12">
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>43900.574305555558</v>
+        <v>43900.582638888889</v>
       </c>
       <c r="B13">
-        <v>353.7</v>
+        <v>374.8</v>
       </c>
       <c r="C13">
-        <v>7.2</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>43906.40625</v>
+        <v>43906.416666666664</v>
       </c>
       <c r="B14">
-        <v>409.7</v>
+        <v>452.8</v>
       </c>
       <c r="C14">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>43999.487500000003</v>
+        <v>43999.46875</v>
       </c>
       <c r="B15">
-        <v>487.5</v>
+        <v>708.6</v>
       </c>
       <c r="C15">
-        <v>25</v>
+        <v>22.4</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>44012.429861111108</v>
+        <v>44012.448611111111</v>
       </c>
       <c r="B16">
-        <v>682.5</v>
+        <v>683.1</v>
       </c>
       <c r="C16">
-        <v>27.3</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>44026.414583333331</v>
+        <v>44026.395833333336</v>
       </c>
       <c r="B17">
-        <v>493.5</v>
+        <v>508.5</v>
       </c>
       <c r="C17">
-        <v>26.1</v>
+        <v>23.2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>44040.37222222222</v>
+        <v>44033.688194444447</v>
       </c>
       <c r="B18">
-        <v>687.5</v>
+        <v>657.5</v>
       </c>
       <c r="C18">
-        <v>25.5</v>
+        <v>22.9</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>44054.408333333333</v>
+        <v>44040.383333333331</v>
       </c>
       <c r="B19">
-        <v>687.1</v>
+        <v>701.5</v>
       </c>
       <c r="C19">
-        <v>24.6</v>
+        <v>22.3</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>44069.425000000003</v>
+        <v>44054.422222222223</v>
       </c>
       <c r="B20">
-        <v>724.4</v>
+        <v>716.3</v>
       </c>
       <c r="C20">
-        <v>26.8</v>
+        <v>20.7</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>44096.418749999997</v>
+        <v>44069.443055555559</v>
       </c>
       <c r="B21">
-        <v>571.1</v>
+        <v>818.4</v>
       </c>
       <c r="C21">
-        <v>18.100000000000001</v>
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>44096.436111111114</v>
+      </c>
+      <c r="B22">
+        <v>674</v>
+      </c>
+      <c r="C22">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>44110.406944444447</v>
+      </c>
+      <c r="B23">
+        <v>651.79999999999995</v>
+      </c>
+      <c r="C23">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -3191,12 +3530,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C22"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3219,18 +3558,18 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>43818.631249999999</v>
+        <v>43818.62222222222</v>
       </c>
       <c r="B2">
-        <v>450.3</v>
+        <v>472</v>
       </c>
       <c r="C2">
-        <v>0.5</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>43830.619444444441</v>
+        <v>43830.627083333333</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -3241,211 +3580,222 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>43836.461111111108</v>
+        <v>43836.46875</v>
       </c>
       <c r="B4">
-        <v>431.8</v>
+        <v>463.7</v>
       </c>
       <c r="C4">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>43844.62777777778</v>
+        <v>43844.637499999997</v>
       </c>
       <c r="B5">
-        <v>484.4</v>
+        <v>493.2</v>
       </c>
       <c r="C5">
-        <v>3.7</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>43851.649305555555</v>
+        <v>43851.659722222219</v>
       </c>
       <c r="B6">
-        <v>240.7</v>
+        <v>435.5</v>
       </c>
       <c r="C6">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>43858.634027777778</v>
+        <v>43858.642361111109</v>
       </c>
       <c r="B7">
-        <v>480.5</v>
+        <v>490.2</v>
       </c>
       <c r="C7">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>43865.643055555556</v>
+        <v>43865.654166666667</v>
       </c>
       <c r="B8">
-        <v>471</v>
+        <v>506</v>
       </c>
       <c r="C8">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>43872.629861111112</v>
+        <v>43872.634722222225</v>
       </c>
       <c r="B9">
-        <v>489.8</v>
+        <v>494.6</v>
       </c>
       <c r="C9">
-        <v>2.2000000000000002</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>43879.640277777777</v>
+        <v>43879.645833333336</v>
       </c>
       <c r="B10">
-        <v>525.5</v>
+        <v>574.4</v>
       </c>
       <c r="C10">
-        <v>3.3</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>43886.625</v>
+        <v>43886.631249999999</v>
       </c>
       <c r="B11">
-        <v>520.79999999999995</v>
+        <v>783.8</v>
       </c>
       <c r="C11">
-        <v>4.0999999999999996</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>43893.638888888891</v>
+        <v>43893.652777777781</v>
       </c>
       <c r="B12">
-        <v>415.7</v>
+        <v>389.7</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>43900.582638888889</v>
+        <v>43900.59097222222</v>
       </c>
       <c r="B13">
-        <v>374.8</v>
+        <v>432.3</v>
       </c>
       <c r="C13">
-        <v>5.6</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>43906.416666666664</v>
+        <v>43906.427083333336</v>
       </c>
       <c r="B14">
-        <v>452.8</v>
+        <v>491.8</v>
       </c>
       <c r="C14">
-        <v>3.4</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>43999.46875</v>
+        <v>43999.447916666664</v>
       </c>
       <c r="B15">
-        <v>708.6</v>
+        <v>716.6</v>
       </c>
       <c r="C15">
-        <v>22.4</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>44012.448611111111</v>
+        <v>44012.457638888889</v>
       </c>
       <c r="B16">
-        <v>683.1</v>
+        <v>588.1</v>
       </c>
       <c r="C16">
-        <v>23</v>
+        <v>21.3</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>44026.395833333336</v>
+        <v>44026.385416666664</v>
       </c>
       <c r="B17">
-        <v>508.5</v>
+        <v>722</v>
       </c>
       <c r="C17">
-        <v>23.2</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>44033.688194444447</v>
+        <v>44033.677083333336</v>
       </c>
       <c r="B18">
-        <v>657.5</v>
+        <v>758.7</v>
       </c>
       <c r="C18">
-        <v>22.9</v>
+        <v>20.2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>44040.383333333331</v>
+        <v>44040.393055555556</v>
       </c>
       <c r="B19">
-        <v>701.5</v>
+        <v>687.5</v>
       </c>
       <c r="C19">
-        <v>22.3</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>44054.422222222223</v>
+        <v>44054.429861111108</v>
       </c>
       <c r="B20">
-        <v>716.3</v>
+        <v>719.9</v>
       </c>
       <c r="C20">
-        <v>20.7</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>44069.443055555559</v>
+        <v>44069.454861111109</v>
       </c>
       <c r="B21">
-        <v>818.4</v>
+        <v>766.8</v>
       </c>
       <c r="C21">
-        <v>22.9</v>
+        <v>20.3</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>44096.436111111114</v>
+        <v>44096.444444444445</v>
       </c>
       <c r="B22">
-        <v>674</v>
+        <v>679.2</v>
       </c>
       <c r="C22">
-        <v>15.5</v>
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>44110.415277777778</v>
+      </c>
+      <c r="B23">
+        <v>621.70000000000005</v>
+      </c>
+      <c r="C23">
+        <v>11.2</v>
       </c>
     </row>
   </sheetData>
@@ -3453,12 +3803,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C22"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3481,268 +3831,6 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>43818.62222222222</v>
-      </c>
-      <c r="B2">
-        <v>472</v>
-      </c>
-      <c r="C2">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>43830.627083333333</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>43836.46875</v>
-      </c>
-      <c r="B4">
-        <v>463.7</v>
-      </c>
-      <c r="C4">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>43844.637499999997</v>
-      </c>
-      <c r="B5">
-        <v>493.2</v>
-      </c>
-      <c r="C5">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>43851.659722222219</v>
-      </c>
-      <c r="B6">
-        <v>435.5</v>
-      </c>
-      <c r="C6">
-        <v>-0.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>43858.642361111109</v>
-      </c>
-      <c r="B7">
-        <v>490.2</v>
-      </c>
-      <c r="C7">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>43865.654166666667</v>
-      </c>
-      <c r="B8">
-        <v>506</v>
-      </c>
-      <c r="C8">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>43872.634722222225</v>
-      </c>
-      <c r="B9">
-        <v>494.6</v>
-      </c>
-      <c r="C9">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>43879.645833333336</v>
-      </c>
-      <c r="B10">
-        <v>574.4</v>
-      </c>
-      <c r="C10">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>43886.631249999999</v>
-      </c>
-      <c r="B11">
-        <v>783.8</v>
-      </c>
-      <c r="C11">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>43893.652777777781</v>
-      </c>
-      <c r="B12">
-        <v>389.7</v>
-      </c>
-      <c r="C12">
-        <v>5.3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>43900.59097222222</v>
-      </c>
-      <c r="B13">
-        <v>432.3</v>
-      </c>
-      <c r="C13">
-        <v>6.4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>43906.427083333336</v>
-      </c>
-      <c r="B14">
-        <v>491.8</v>
-      </c>
-      <c r="C14">
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>43999.447916666664</v>
-      </c>
-      <c r="B15">
-        <v>716.6</v>
-      </c>
-      <c r="C15">
-        <v>20.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>44012.457638888889</v>
-      </c>
-      <c r="B16">
-        <v>588.1</v>
-      </c>
-      <c r="C16">
-        <v>21.3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>44026.385416666664</v>
-      </c>
-      <c r="B17">
-        <v>722</v>
-      </c>
-      <c r="C17">
-        <v>19.8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>44033.677083333336</v>
-      </c>
-      <c r="B18">
-        <v>758.7</v>
-      </c>
-      <c r="C18">
-        <v>20.2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>44040.393055555556</v>
-      </c>
-      <c r="B19">
-        <v>687.5</v>
-      </c>
-      <c r="C19">
-        <v>18.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>44054.429861111108</v>
-      </c>
-      <c r="B20">
-        <v>719.9</v>
-      </c>
-      <c r="C20">
-        <v>17.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>44069.454861111109</v>
-      </c>
-      <c r="B21">
-        <v>766.8</v>
-      </c>
-      <c r="C21">
-        <v>20.3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>44096.444444444445</v>
-      </c>
-      <c r="B22">
-        <v>679.2</v>
-      </c>
-      <c r="C22">
-        <v>14.5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
         <v>43818.609722222223</v>
       </c>
       <c r="B2">
@@ -3981,6 +4069,17 @@
       </c>
       <c r="C23">
         <v>16.899999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>44110.430555555555</v>
+      </c>
+      <c r="B24">
+        <v>871.5</v>
+      </c>
+      <c r="C24">
+        <v>12.3</v>
       </c>
     </row>
   </sheetData>

--- a/Data/conductivity_field.xlsx
+++ b/Data/conductivity_field.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linne\Box Sync\Chloride Research\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96AC1F22-1400-49C4-9AEE-453426F2693B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD46FB1-B28D-476C-9EF3-D4AF565D36BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="50550" yWindow="3600" windowWidth="13830" windowHeight="7170" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loggers" sheetId="12" r:id="rId1"/>
@@ -27,14 +27,14 @@
     <sheet name="MO" sheetId="11" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">loggers!$A$1:$C$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">loggers!$A$1:$C$15</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="36">
   <si>
     <t>datetime</t>
   </si>
@@ -136,6 +136,12 @@
   </si>
   <si>
     <t>WIC</t>
+  </si>
+  <si>
+    <t>LOST</t>
+  </si>
+  <si>
+    <t>low battery</t>
   </si>
 </sst>
 </file>
@@ -643,7 +649,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -671,6 +677,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="7" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="0" xfId="7" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6"/>
+    <xf numFmtId="165" fontId="14" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1026,11 +1039,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E111E348-178D-4A81-8338-72F6E909D9F1}">
-  <dimension ref="A1:AR17"/>
+  <dimension ref="A1:AR21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H28" sqref="H28"/>
+      <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1042,12 +1055,12 @@
     <col min="5" max="5" width="19.88671875" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.33203125" style="3" customWidth="1"/>
     <col min="7" max="9" width="19.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="15" width="18.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="44" width="8.88671875" style="8"/>
+    <col min="10" max="17" width="18.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="44" width="8.88671875" style="8"/>
     <col min="45" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -1093,8 +1106,14 @@
       <c r="O1" s="8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>20758340</v>
       </c>
@@ -1108,7 +1127,7 @@
         <v>43963.53125</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>20758345</v>
       </c>
@@ -1122,73 +1141,69 @@
         <v>43963.53125</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4"/>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
         <v>20758339</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C5" s="3">
         <v>43832.604166666664</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D5" s="10">
         <v>43845.5625</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E5" s="12">
         <v>43851.697916666664</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F5" s="10">
         <v>43865.677083333336</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G5" s="10">
         <v>43865.6875</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H5" s="10">
         <v>43906.4375</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I5" s="10">
         <v>43906.458333333336</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J5" s="3">
         <v>43999.416666666664</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K5" s="3">
         <v>43999.9375</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L5" s="8">
         <v>44033.645833333336</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M5" s="8">
         <v>44033.666666666664</v>
       </c>
-      <c r="N4" s="8">
+      <c r="N5" s="8">
         <v>44069.479166666664</v>
       </c>
-      <c r="O4" s="8">
+      <c r="O5" s="8">
         <v>44069.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+      <c r="P5" s="8">
+        <v>44126.458333333336</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>44134.416666666664</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
         <v>20758341</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="C5" s="3">
-        <v>43826.53125</v>
-      </c>
-      <c r="D5" s="7">
-        <v>43922.40625</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>20758346</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>9</v>
       </c>
       <c r="C6" s="3">
         <v>43826.53125</v>
@@ -1197,324 +1212,417 @@
         <v>43922.40625</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
+        <v>20758346</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3">
+        <v>43826.53125</v>
+      </c>
+      <c r="D7" s="7">
+        <v>43922.40625</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
         <v>20758338</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B8" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="C7" s="3">
-        <v>43818.5</v>
-      </c>
-      <c r="D7" s="10">
-        <v>43865.645833333336</v>
-      </c>
-      <c r="E7" s="12">
-        <v>43865.666666666664</v>
-      </c>
-      <c r="F7" s="10">
-        <v>43906.458333333336</v>
-      </c>
-      <c r="G7" s="10">
-        <v>43906.4375</v>
-      </c>
-      <c r="H7" s="3">
-        <v>43999.4375</v>
-      </c>
-      <c r="I7" s="3">
-        <v>43999.458333333336</v>
-      </c>
-      <c r="J7" s="8">
-        <v>44033.666666666664</v>
-      </c>
-      <c r="K7" s="8">
-        <v>44033.6875</v>
-      </c>
-      <c r="L7" s="8">
-        <v>44069.4375</v>
-      </c>
-      <c r="M7" s="8">
-        <v>44069.458333333336</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>20758344</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="C8" s="3">
         <v>43818.5</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="10">
+        <v>43865.645833333336</v>
+      </c>
+      <c r="E8" s="12">
+        <v>43865.666666666664</v>
+      </c>
+      <c r="F8" s="10">
+        <v>43906.458333333336</v>
+      </c>
+      <c r="G8" s="10">
+        <v>43906.4375</v>
+      </c>
+      <c r="H8" s="3">
+        <v>43999.4375</v>
+      </c>
+      <c r="I8" s="3">
+        <v>43999.458333333336</v>
+      </c>
+      <c r="J8" s="8">
+        <v>44033.666666666664</v>
+      </c>
+      <c r="K8" s="8">
+        <v>44033.6875</v>
+      </c>
+      <c r="L8" s="8">
+        <v>44069.4375</v>
+      </c>
+      <c r="M8" s="8">
+        <v>44069.458333333336</v>
+      </c>
+      <c r="N8" s="8">
+        <v>44126.416666666664</v>
+      </c>
+      <c r="O8" s="8">
+        <v>44134.375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>20758344</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="3">
+        <v>43818.5</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E9" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F9" s="10">
         <v>43906.479166666664</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G9" s="10">
         <v>43906.458333333336</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H9" s="3">
         <v>43999.416666666664</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I9" s="3">
         <v>43999.4375</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J9" s="8">
         <v>44033.645833333336</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K9" s="8">
         <v>44033.666666666664</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L9" s="8">
         <v>44068.458333333336</v>
       </c>
-      <c r="M8" s="8">
+      <c r="M9" s="8">
         <v>44069.479166666664</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
+      <c r="N9" s="8">
+        <v>44126.4375</v>
+      </c>
+      <c r="O9" s="8">
+        <v>44134.395833333336</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="17"/>
+      <c r="B10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="O10" s="8">
+        <v>44134.541666666664</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="15">
         <v>20378151</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B11" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="C9" s="3">
-        <v>43818</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="10">
-        <v>43906.416666666664</v>
-      </c>
-      <c r="G9" s="10">
-        <v>43906.395833333336</v>
-      </c>
-      <c r="H9" s="3">
-        <v>43999.583333333336</v>
-      </c>
-      <c r="I9" s="3">
-        <v>43999.604166666664</v>
-      </c>
-      <c r="L9" s="8">
-        <v>44068.583333333336</v>
-      </c>
-      <c r="M9" s="8">
-        <v>44069.604166666664</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
-        <v>20758342</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="3">
-        <v>43818</v>
-      </c>
-      <c r="D10" s="10">
-        <v>43865.645833333336</v>
-      </c>
-      <c r="E10" s="12">
-        <v>43865.666666666664</v>
-      </c>
-      <c r="F10" s="10">
-        <v>43906.458333333336</v>
-      </c>
-      <c r="G10" s="10">
-        <v>43906.4375</v>
-      </c>
-      <c r="H10" s="3">
-        <v>43999.458333333336</v>
-      </c>
-      <c r="I10" s="3">
-        <v>43999.479166666664</v>
-      </c>
-      <c r="J10" s="8">
-        <v>44033.666666666664</v>
-      </c>
-      <c r="K10" s="8">
-        <v>44033.6875</v>
-      </c>
-      <c r="L10" s="8">
-        <v>44069.4375</v>
-      </c>
-      <c r="M10" s="8">
-        <v>44069.458333333336</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
-        <v>20758343</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="C11" s="3">
         <v>43818</v>
       </c>
-      <c r="D11" s="10">
-        <v>43865.625</v>
-      </c>
-      <c r="E11" s="12">
-        <v>43865.645833333336</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>22</v>
+      <c r="D11" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="10">
+        <v>43906.416666666664</v>
       </c>
       <c r="G11" s="10">
-        <v>43906.416666666664</v>
+        <v>43906.395833333336</v>
       </c>
       <c r="H11" s="3">
-        <v>43999.458333333336</v>
+        <v>43999.583333333336</v>
       </c>
       <c r="I11" s="3">
-        <v>43999.5</v>
-      </c>
-      <c r="J11" s="8">
-        <v>44034.4375</v>
-      </c>
-      <c r="K11" s="8">
-        <v>44034.458333333336</v>
+        <v>43999.604166666664</v>
       </c>
       <c r="L11" s="8">
-        <v>44069.416666666664</v>
+        <v>44068.583333333336</v>
       </c>
       <c r="M11" s="8">
-        <v>44069.4375</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+        <v>44069.604166666664</v>
+      </c>
+      <c r="N11" s="8">
+        <v>44126.520833333336</v>
+      </c>
+      <c r="O11" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
-        <v>20758347</v>
+        <v>20758342</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C12" s="3">
         <v>43818</v>
       </c>
       <c r="D12" s="10">
-        <v>43865.604166666664</v>
+        <v>43865.645833333336</v>
       </c>
       <c r="E12" s="12">
-        <v>43865.625</v>
+        <v>43865.666666666664</v>
       </c>
       <c r="F12" s="10">
-        <v>43906.416666666664</v>
+        <v>43906.458333333336</v>
       </c>
       <c r="G12" s="10">
-        <v>43906.395833333336</v>
+        <v>43906.4375</v>
       </c>
       <c r="H12" s="3">
-        <v>43999.5625</v>
+        <v>43999.458333333336</v>
       </c>
       <c r="I12" s="3">
-        <v>43999.583333333336</v>
+        <v>43999.479166666664</v>
+      </c>
+      <c r="J12" s="8">
+        <v>44033.666666666664</v>
+      </c>
+      <c r="K12" s="8">
+        <v>44033.6875</v>
       </c>
       <c r="L12" s="8">
-        <v>44069.395833333336</v>
+        <v>44069.4375</v>
       </c>
       <c r="M12" s="8">
-        <v>44069.416666666664</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+        <v>44069.458333333336</v>
+      </c>
+      <c r="N12" s="8">
+        <v>44126.416666666664</v>
+      </c>
+      <c r="O12" s="8">
+        <v>44134.375</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
-        <v>20758348</v>
+        <v>20758343</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C13" s="3">
         <v>43818</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="10">
+        <v>43865.625</v>
+      </c>
+      <c r="E13" s="12">
+        <v>43865.645833333336</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="10">
+        <v>43906.416666666664</v>
+      </c>
+      <c r="H13" s="3">
+        <v>43999.458333333336</v>
+      </c>
+      <c r="I13" s="3">
+        <v>43999.5</v>
+      </c>
+      <c r="J13" s="8">
+        <v>44034.4375</v>
+      </c>
+      <c r="K13" s="8">
+        <v>44034.458333333336</v>
+      </c>
+      <c r="L13" s="8">
+        <v>44069.416666666664</v>
+      </c>
+      <c r="M13" s="8">
+        <v>44069.4375</v>
+      </c>
+      <c r="N13" s="8">
+        <v>44126.395833333336</v>
+      </c>
+      <c r="O13" s="8">
+        <v>44134.354166666664</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>20758347</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="3">
+        <v>43818</v>
+      </c>
+      <c r="D14" s="10">
+        <v>43865.604166666664</v>
+      </c>
+      <c r="E14" s="12">
+        <v>43865.625</v>
+      </c>
+      <c r="F14" s="10">
+        <v>43906.416666666664</v>
+      </c>
+      <c r="G14" s="10">
+        <v>43906.395833333336</v>
+      </c>
+      <c r="H14" s="3">
+        <v>43999.5625</v>
+      </c>
+      <c r="I14" s="3">
+        <v>43999.583333333336</v>
+      </c>
+      <c r="L14" s="8">
+        <v>44069.395833333336</v>
+      </c>
+      <c r="M14" s="8">
+        <v>44069.416666666664</v>
+      </c>
+      <c r="N14" s="8">
+        <v>44126.375</v>
+      </c>
+      <c r="O14" s="8">
+        <v>44134.333333333336</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>20758348</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="3">
+        <v>43818</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E15" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F15" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G15" s="10">
         <v>43906.375</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H15" s="3">
         <v>43999.604166666664</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I15" s="3">
         <v>43999.625</v>
       </c>
-      <c r="L13" s="8">
+      <c r="L15" s="8">
         <v>44068.541666666664</v>
       </c>
-      <c r="M13" s="8">
+      <c r="M15" s="8">
         <v>44069.5625</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="14">
+      <c r="N15" s="8">
+        <v>44126.5</v>
+      </c>
+      <c r="O15" s="8">
+        <v>44134.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="14">
         <v>20758345</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B16" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C16" s="3">
         <v>43999.666666666664</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+      <c r="D16" s="19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="18"/>
+      <c r="B17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="3">
+        <v>44134.458333333336</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="11">
         <v>20484276</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B21" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C21" s="7">
         <v>43893.583333333336</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D21" s="7">
         <v>43906.364583333336</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E21" s="13">
         <v>43906.375</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F21" s="3">
         <v>43999.604166666664</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G21" s="3">
         <v>43999.625</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H21" s="8">
         <v>44068.541666666664</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I21" s="8">
         <v>44069.5625</v>
       </c>
+      <c r="J21" s="8">
+        <v>44126.5</v>
+      </c>
+      <c r="K21" s="8">
+        <v>44134.5</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C13" xr:uid="{11F3D845-95BC-440D-9376-33BD0F4945CF}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C13">
-      <sortCondition descending="1" ref="C1:C13"/>
+  <autoFilter ref="A1:C15" xr:uid="{11F3D845-95BC-440D-9376-33BD0F4945CF}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C15">
+      <sortCondition descending="1" ref="C1:C15"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1524,10 +1632,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1810,6 +1918,17 @@
       </c>
       <c r="C25">
         <v>15.9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>44134.397222222222</v>
+      </c>
+      <c r="B26">
+        <v>648.6</v>
+      </c>
+      <c r="C26">
+        <v>5.3</v>
       </c>
     </row>
   </sheetData>
@@ -2058,10 +2177,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE7E974B-BCA0-45B0-95FE-63AB262733E9}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2170,6 +2289,17 @@
         <v>12.8</v>
       </c>
     </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>44134.444444444445</v>
+      </c>
+      <c r="B10">
+        <v>512.20000000000005</v>
+      </c>
+      <c r="C10">
+        <v>4.3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2177,10 +2307,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2454,6 +2584,17 @@
         <v>16.3</v>
       </c>
     </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>44134.479166666664</v>
+      </c>
+      <c r="B25">
+        <v>379.9</v>
+      </c>
+      <c r="C25">
+        <v>8.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2462,7 +2603,1204 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="18.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>43818.667361111111</v>
+      </c>
+      <c r="B2">
+        <v>664.2</v>
+      </c>
+      <c r="C2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>43830.530555555553</v>
+      </c>
+      <c r="B3">
+        <v>541.20000000000005</v>
+      </c>
+      <c r="C3">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>43836.398611111108</v>
+      </c>
+      <c r="B4">
+        <v>675.4</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>43844.586111111108</v>
+      </c>
+      <c r="B5">
+        <v>1016</v>
+      </c>
+      <c r="C5">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>43851.604166666664</v>
+      </c>
+      <c r="B6">
+        <v>767.8</v>
+      </c>
+      <c r="C6">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>43858.595138888886</v>
+      </c>
+      <c r="B7">
+        <v>1119</v>
+      </c>
+      <c r="C7">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>43864.65625</v>
+      </c>
+      <c r="B8">
+        <v>946.6</v>
+      </c>
+      <c r="C8">
+        <v>4.3</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>43865.592361111114</v>
+      </c>
+      <c r="B9">
+        <v>851.2</v>
+      </c>
+      <c r="C9">
+        <v>2.6</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>43872.594444444447</v>
+      </c>
+      <c r="B10">
+        <v>1366.6</v>
+      </c>
+      <c r="C10">
+        <v>1.9</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>43879.600694444445</v>
+      </c>
+      <c r="B11">
+        <v>1504</v>
+      </c>
+      <c r="C11">
+        <v>2.4</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>43886.588888888888</v>
+      </c>
+      <c r="B12">
+        <v>923.3</v>
+      </c>
+      <c r="C12">
+        <v>3.2</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>43893.597916666666</v>
+      </c>
+      <c r="B13">
+        <v>762.1</v>
+      </c>
+      <c r="C13">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>43900.546527777777</v>
+      </c>
+      <c r="B14">
+        <v>653.20000000000005</v>
+      </c>
+      <c r="C14">
+        <v>7</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>43906.375694444447</v>
+      </c>
+      <c r="B15">
+        <v>759.1</v>
+      </c>
+      <c r="C15">
+        <v>3.7</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>43999.588888888888</v>
+      </c>
+      <c r="B16">
+        <v>1116</v>
+      </c>
+      <c r="C16">
+        <v>23.5</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>44012.525694444441</v>
+      </c>
+      <c r="B17">
+        <v>688.5</v>
+      </c>
+      <c r="C17">
+        <v>227.1</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>44026.497916666667</v>
+      </c>
+      <c r="B18">
+        <v>783.5</v>
+      </c>
+      <c r="C18">
+        <v>24.3</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>44040.489583333336</v>
+      </c>
+      <c r="B19">
+        <v>526.5</v>
+      </c>
+      <c r="C19">
+        <v>24.3</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>44054.505555555559</v>
+      </c>
+      <c r="B20">
+        <v>1050</v>
+      </c>
+      <c r="C20">
+        <v>22.6</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>44069.591666666667</v>
+      </c>
+      <c r="B21">
+        <v>951.1</v>
+      </c>
+      <c r="C21">
+        <v>24.9</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>44096.511111111111</v>
+      </c>
+      <c r="B22">
+        <v>1064</v>
+      </c>
+      <c r="C22">
+        <v>17.5</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>44110.481249999997</v>
+      </c>
+      <c r="B23">
+        <v>954.4</v>
+      </c>
+      <c r="C23">
+        <v>12.5</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>44134.525694444441</v>
+      </c>
+      <c r="B24">
+        <v>746.5</v>
+      </c>
+      <c r="C24">
+        <v>6.7</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H31" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>43818.652777777781</v>
+      </c>
+      <c r="B2">
+        <v>290.5</v>
+      </c>
+      <c r="C2">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>43830.57708333333</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>43836.429861111108</v>
+      </c>
+      <c r="B4">
+        <v>291.7</v>
+      </c>
+      <c r="C4">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>43844.600694444445</v>
+      </c>
+      <c r="B5">
+        <v>298.60000000000002</v>
+      </c>
+      <c r="C5">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>43851.118750000001</v>
+      </c>
+      <c r="B6">
+        <v>292.8</v>
+      </c>
+      <c r="C6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>43858.609722222223</v>
+      </c>
+      <c r="B7">
+        <v>299.60000000000002</v>
+      </c>
+      <c r="C7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>43865.606944444444</v>
+      </c>
+      <c r="B8">
+        <v>302</v>
+      </c>
+      <c r="C8">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>43872.607638888891</v>
+      </c>
+      <c r="B9">
+        <v>332.84</v>
+      </c>
+      <c r="C9">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>43879.617361111108</v>
+      </c>
+      <c r="B10">
+        <v>347.9</v>
+      </c>
+      <c r="C10">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>43886.603472222225</v>
+      </c>
+      <c r="B11">
+        <v>312.60000000000002</v>
+      </c>
+      <c r="C11">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>43893.614583333336</v>
+      </c>
+      <c r="B12">
+        <v>327.60000000000002</v>
+      </c>
+      <c r="C12">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>43900.560416666667</v>
+      </c>
+      <c r="B13">
+        <v>320.7</v>
+      </c>
+      <c r="C13">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>43906.38958333333</v>
+      </c>
+      <c r="B14">
+        <v>306.10000000000002</v>
+      </c>
+      <c r="C14">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>43999.572916666664</v>
+      </c>
+      <c r="B15">
+        <v>557</v>
+      </c>
+      <c r="C15">
+        <v>25.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>44012.412499999999</v>
+      </c>
+      <c r="B16">
+        <v>540.5</v>
+      </c>
+      <c r="C16">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>44026.440972222219</v>
+      </c>
+      <c r="B17">
+        <v>510.8</v>
+      </c>
+      <c r="C17">
+        <v>26.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>44040.352777777778</v>
+      </c>
+      <c r="B18">
+        <v>479.6</v>
+      </c>
+      <c r="C18">
+        <v>24.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>44054.390972222223</v>
+      </c>
+      <c r="B19">
+        <v>486.8</v>
+      </c>
+      <c r="C19">
+        <v>24.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>44069.406944444447</v>
+      </c>
+      <c r="B20">
+        <v>490.2</v>
+      </c>
+      <c r="C20">
+        <v>25.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>44096.402777777781</v>
+      </c>
+      <c r="B21">
+        <v>442.5</v>
+      </c>
+      <c r="C21">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>44110.375</v>
+      </c>
+      <c r="B22">
+        <v>405</v>
+      </c>
+      <c r="C22">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>44134.325694444444</v>
+      </c>
+      <c r="B23">
+        <v>360.2</v>
+      </c>
+      <c r="C23">
+        <v>7.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>43818.638888888891</v>
+      </c>
+      <c r="B2">
+        <v>452.2</v>
+      </c>
+      <c r="C2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>43830.6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>43836.447222222225</v>
+      </c>
+      <c r="B4">
+        <v>425.2</v>
+      </c>
+      <c r="C4">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>43844.600694444445</v>
+      </c>
+      <c r="B5">
+        <v>437.8</v>
+      </c>
+      <c r="C5">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>43851.635416666664</v>
+      </c>
+      <c r="B6">
+        <v>453.4</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>43858.625</v>
+      </c>
+      <c r="B7">
+        <v>457.6</v>
+      </c>
+      <c r="C7">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>43865.629166666666</v>
+      </c>
+      <c r="B8">
+        <v>432.1</v>
+      </c>
+      <c r="C8">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>43872.621527777781</v>
+      </c>
+      <c r="B9">
+        <v>512.36</v>
+      </c>
+      <c r="C9">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>43879.131249999999</v>
+      </c>
+      <c r="B10">
+        <v>442.3</v>
+      </c>
+      <c r="C10">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>43886.615972222222</v>
+      </c>
+      <c r="B11">
+        <v>451.3</v>
+      </c>
+      <c r="C11">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>43893.629166666666</v>
+      </c>
+      <c r="B12">
+        <v>476.7</v>
+      </c>
+      <c r="C12">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>43900.574305555558</v>
+      </c>
+      <c r="B13">
+        <v>353.7</v>
+      </c>
+      <c r="C13">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>43906.40625</v>
+      </c>
+      <c r="B14">
+        <v>409.7</v>
+      </c>
+      <c r="C14">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>43999.487500000003</v>
+      </c>
+      <c r="B15">
+        <v>487.5</v>
+      </c>
+      <c r="C15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>44012.429861111108</v>
+      </c>
+      <c r="B16">
+        <v>682.5</v>
+      </c>
+      <c r="C16">
+        <v>27.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>44026.414583333331</v>
+      </c>
+      <c r="B17">
+        <v>493.5</v>
+      </c>
+      <c r="C17">
+        <v>26.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>44040.37222222222</v>
+      </c>
+      <c r="B18">
+        <v>687.5</v>
+      </c>
+      <c r="C18">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>44054.408333333333</v>
+      </c>
+      <c r="B19">
+        <v>687.1</v>
+      </c>
+      <c r="C19">
+        <v>24.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>44069.425000000003</v>
+      </c>
+      <c r="B20">
+        <v>724.4</v>
+      </c>
+      <c r="C20">
+        <v>26.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>44096.418749999997</v>
+      </c>
+      <c r="B21">
+        <v>571.1</v>
+      </c>
+      <c r="C21">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>44110.392361111109</v>
+      </c>
+      <c r="B22">
+        <v>553.5</v>
+      </c>
+      <c r="C22">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>44134.345138888886</v>
+      </c>
+      <c r="B23">
+        <v>344.1</v>
+      </c>
+      <c r="C23">
+        <v>3.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:C24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>43818.631249999999</v>
+      </c>
+      <c r="B2">
+        <v>450.3</v>
+      </c>
+      <c r="C2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>43830.619444444441</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>43836.461111111108</v>
+      </c>
+      <c r="B4">
+        <v>431.8</v>
+      </c>
+      <c r="C4">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>43844.62777777778</v>
+      </c>
+      <c r="B5">
+        <v>484.4</v>
+      </c>
+      <c r="C5">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>43851.649305555555</v>
+      </c>
+      <c r="B6">
+        <v>240.7</v>
+      </c>
+      <c r="C6">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>43858.634027777778</v>
+      </c>
+      <c r="B7">
+        <v>480.5</v>
+      </c>
+      <c r="C7">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>43865.643055555556</v>
+      </c>
+      <c r="B8">
+        <v>471</v>
+      </c>
+      <c r="C8">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>43872.629861111112</v>
+      </c>
+      <c r="B9">
+        <v>489.8</v>
+      </c>
+      <c r="C9">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>43879.640277777777</v>
+      </c>
+      <c r="B10">
+        <v>525.5</v>
+      </c>
+      <c r="C10">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>43886.625</v>
+      </c>
+      <c r="B11">
+        <v>520.79999999999995</v>
+      </c>
+      <c r="C11">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>43893.638888888891</v>
+      </c>
+      <c r="B12">
+        <v>415.7</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>43900.582638888889</v>
+      </c>
+      <c r="B13">
+        <v>374.8</v>
+      </c>
+      <c r="C13">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>43906.416666666664</v>
+      </c>
+      <c r="B14">
+        <v>452.8</v>
+      </c>
+      <c r="C14">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>43999.46875</v>
+      </c>
+      <c r="B15">
+        <v>708.6</v>
+      </c>
+      <c r="C15">
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>44012.448611111111</v>
+      </c>
+      <c r="B16">
+        <v>683.1</v>
+      </c>
+      <c r="C16">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>44026.395833333336</v>
+      </c>
+      <c r="B17">
+        <v>508.5</v>
+      </c>
+      <c r="C17">
+        <v>23.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>44033.688194444447</v>
+      </c>
+      <c r="B18">
+        <v>657.5</v>
+      </c>
+      <c r="C18">
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>44040.383333333331</v>
+      </c>
+      <c r="B19">
+        <v>701.5</v>
+      </c>
+      <c r="C19">
+        <v>22.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>44054.422222222223</v>
+      </c>
+      <c r="B20">
+        <v>716.3</v>
+      </c>
+      <c r="C20">
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>44069.443055555559</v>
+      </c>
+      <c r="B21">
+        <v>818.4</v>
+      </c>
+      <c r="C21">
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>44096.436111111114</v>
+      </c>
+      <c r="B22">
+        <v>674</v>
+      </c>
+      <c r="C22">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>44110.406944444447</v>
+      </c>
+      <c r="B23">
+        <v>651.79999999999995</v>
+      </c>
+      <c r="C23">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>44134.35833333333</v>
+      </c>
+      <c r="B24">
+        <v>440.1</v>
+      </c>
+      <c r="C24">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
@@ -2488,244 +3826,255 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>43818.667361111111</v>
+        <v>43818.62222222222</v>
       </c>
       <c r="B2">
-        <v>664.2</v>
+        <v>472</v>
       </c>
       <c r="C2">
-        <v>0.7</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>43830.530555555553</v>
-      </c>
-      <c r="B3">
-        <v>541.20000000000005</v>
-      </c>
-      <c r="C3">
-        <v>1.1000000000000001</v>
+        <v>43830.627083333333</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>43836.398611111108</v>
+        <v>43836.46875</v>
       </c>
       <c r="B4">
-        <v>675.4</v>
+        <v>463.7</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>43844.586111111108</v>
+        <v>43844.637499999997</v>
       </c>
       <c r="B5">
-        <v>1016</v>
+        <v>493.2</v>
       </c>
       <c r="C5">
-        <v>2.7</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>43851.604166666664</v>
+        <v>43851.659722222219</v>
       </c>
       <c r="B6">
-        <v>767.8</v>
+        <v>435.5</v>
       </c>
       <c r="C6">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>43858.595138888886</v>
+        <v>43858.642361111109</v>
       </c>
       <c r="B7">
-        <v>1119</v>
+        <v>490.2</v>
       </c>
       <c r="C7">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>43864.65625</v>
+        <v>43865.654166666667</v>
       </c>
       <c r="B8">
-        <v>946.6</v>
+        <v>506</v>
       </c>
       <c r="C8">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>43865.592361111114</v>
+        <v>43872.634722222225</v>
       </c>
       <c r="B9">
-        <v>851.2</v>
+        <v>494.6</v>
       </c>
       <c r="C9">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>43872.594444444447</v>
+        <v>43879.645833333336</v>
       </c>
       <c r="B10">
-        <v>1366.6</v>
+        <v>574.4</v>
       </c>
       <c r="C10">
-        <v>1.9</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>43879.600694444445</v>
+        <v>43886.631249999999</v>
       </c>
       <c r="B11">
-        <v>1504</v>
+        <v>783.8</v>
       </c>
       <c r="C11">
-        <v>2.4</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>43886.588888888888</v>
+        <v>43893.652777777781</v>
       </c>
       <c r="B12">
-        <v>923.3</v>
+        <v>389.7</v>
       </c>
       <c r="C12">
-        <v>3.2</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>43893.597916666666</v>
+        <v>43900.59097222222</v>
       </c>
       <c r="B13">
-        <v>762.1</v>
+        <v>432.3</v>
       </c>
       <c r="C13">
-        <v>4.9000000000000004</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>43900.546527777777</v>
+        <v>43906.427083333336</v>
       </c>
       <c r="B14">
-        <v>653.20000000000005</v>
+        <v>491.8</v>
       </c>
       <c r="C14">
-        <v>7</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>43906.375694444447</v>
+        <v>43999.447916666664</v>
       </c>
       <c r="B15">
-        <v>759.1</v>
+        <v>716.6</v>
       </c>
       <c r="C15">
-        <v>3.7</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>43999.588888888888</v>
+        <v>44012.457638888889</v>
       </c>
       <c r="B16">
-        <v>1116</v>
+        <v>588.1</v>
       </c>
       <c r="C16">
-        <v>23.5</v>
+        <v>21.3</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>44012.525694444441</v>
+        <v>44026.385416666664</v>
       </c>
       <c r="B17">
-        <v>688.5</v>
+        <v>722</v>
       </c>
       <c r="C17">
-        <v>227.1</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>44026.497916666667</v>
+        <v>44033.677083333336</v>
       </c>
       <c r="B18">
-        <v>783.5</v>
+        <v>758.7</v>
       </c>
       <c r="C18">
-        <v>24.3</v>
+        <v>20.2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>44040.489583333336</v>
+        <v>44040.393055555556</v>
       </c>
       <c r="B19">
-        <v>526.5</v>
+        <v>687.5</v>
       </c>
       <c r="C19">
-        <v>24.3</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>44054.505555555559</v>
+        <v>44054.429861111108</v>
       </c>
       <c r="B20">
-        <v>1050</v>
+        <v>719.9</v>
       </c>
       <c r="C20">
-        <v>22.6</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>44069.591666666667</v>
+        <v>44069.454861111109</v>
       </c>
       <c r="B21">
-        <v>951.1</v>
+        <v>766.8</v>
       </c>
       <c r="C21">
-        <v>24.9</v>
+        <v>20.3</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>44096.511111111111</v>
+        <v>44096.444444444445</v>
       </c>
       <c r="B22">
-        <v>1064</v>
+        <v>679.2</v>
       </c>
       <c r="C22">
-        <v>17.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>44110.481249999997</v>
+        <v>44110.415277777778</v>
       </c>
       <c r="B23">
-        <v>954.4</v>
+        <v>621.70000000000005</v>
       </c>
       <c r="C23">
-        <v>12.5</v>
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>44134.368055555555</v>
+      </c>
+      <c r="B24">
+        <v>514.9</v>
+      </c>
+      <c r="C24">
+        <v>4.8</v>
       </c>
     </row>
   </sheetData>
@@ -2733,12 +4082,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C22"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2761,1076 +4110,6 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>43818.652777777781</v>
-      </c>
-      <c r="B2">
-        <v>290.5</v>
-      </c>
-      <c r="C2">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>43830.57708333333</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>43836.429861111108</v>
-      </c>
-      <c r="B4">
-        <v>291.7</v>
-      </c>
-      <c r="C4">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>43844.600694444445</v>
-      </c>
-      <c r="B5">
-        <v>298.60000000000002</v>
-      </c>
-      <c r="C5">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>43851.118750000001</v>
-      </c>
-      <c r="B6">
-        <v>292.8</v>
-      </c>
-      <c r="C6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>43858.609722222223</v>
-      </c>
-      <c r="B7">
-        <v>299.60000000000002</v>
-      </c>
-      <c r="C7">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>43865.606944444444</v>
-      </c>
-      <c r="B8">
-        <v>302</v>
-      </c>
-      <c r="C8">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>43872.607638888891</v>
-      </c>
-      <c r="B9">
-        <v>332.84</v>
-      </c>
-      <c r="C9">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>43879.617361111108</v>
-      </c>
-      <c r="B10">
-        <v>347.9</v>
-      </c>
-      <c r="C10">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>43886.603472222225</v>
-      </c>
-      <c r="B11">
-        <v>312.60000000000002</v>
-      </c>
-      <c r="C11">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>43893.614583333336</v>
-      </c>
-      <c r="B12">
-        <v>327.60000000000002</v>
-      </c>
-      <c r="C12">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>43900.560416666667</v>
-      </c>
-      <c r="B13">
-        <v>320.7</v>
-      </c>
-      <c r="C13">
-        <v>5.3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>43906.38958333333</v>
-      </c>
-      <c r="B14">
-        <v>306.10000000000002</v>
-      </c>
-      <c r="C14">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>43999.572916666664</v>
-      </c>
-      <c r="B15">
-        <v>557</v>
-      </c>
-      <c r="C15">
-        <v>25.2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>44012.412499999999</v>
-      </c>
-      <c r="B16">
-        <v>540.5</v>
-      </c>
-      <c r="C16">
-        <v>25.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>44026.440972222219</v>
-      </c>
-      <c r="B17">
-        <v>510.8</v>
-      </c>
-      <c r="C17">
-        <v>26.3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>44040.352777777778</v>
-      </c>
-      <c r="B18">
-        <v>479.6</v>
-      </c>
-      <c r="C18">
-        <v>24.8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>44054.390972222223</v>
-      </c>
-      <c r="B19">
-        <v>486.8</v>
-      </c>
-      <c r="C19">
-        <v>24.1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>44069.406944444447</v>
-      </c>
-      <c r="B20">
-        <v>490.2</v>
-      </c>
-      <c r="C20">
-        <v>25.7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>44096.402777777781</v>
-      </c>
-      <c r="B21">
-        <v>442.5</v>
-      </c>
-      <c r="C21">
-        <v>18.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>44110.375</v>
-      </c>
-      <c r="B22">
-        <v>405</v>
-      </c>
-      <c r="C22">
-        <v>14.2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>43818.638888888891</v>
-      </c>
-      <c r="B2">
-        <v>452.2</v>
-      </c>
-      <c r="C2">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>43830.6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>43836.447222222225</v>
-      </c>
-      <c r="B4">
-        <v>425.2</v>
-      </c>
-      <c r="C4">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>43844.600694444445</v>
-      </c>
-      <c r="B5">
-        <v>437.8</v>
-      </c>
-      <c r="C5">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>43851.635416666664</v>
-      </c>
-      <c r="B6">
-        <v>453.4</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>43858.625</v>
-      </c>
-      <c r="B7">
-        <v>457.6</v>
-      </c>
-      <c r="C7">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>43865.629166666666</v>
-      </c>
-      <c r="B8">
-        <v>432.1</v>
-      </c>
-      <c r="C8">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>43872.621527777781</v>
-      </c>
-      <c r="B9">
-        <v>512.36</v>
-      </c>
-      <c r="C9">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>43879.131249999999</v>
-      </c>
-      <c r="B10">
-        <v>442.3</v>
-      </c>
-      <c r="C10">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>43886.615972222222</v>
-      </c>
-      <c r="B11">
-        <v>451.3</v>
-      </c>
-      <c r="C11">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>43893.629166666666</v>
-      </c>
-      <c r="B12">
-        <v>476.7</v>
-      </c>
-      <c r="C12">
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>43900.574305555558</v>
-      </c>
-      <c r="B13">
-        <v>353.7</v>
-      </c>
-      <c r="C13">
-        <v>7.2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>43906.40625</v>
-      </c>
-      <c r="B14">
-        <v>409.7</v>
-      </c>
-      <c r="C14">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>43999.487500000003</v>
-      </c>
-      <c r="B15">
-        <v>487.5</v>
-      </c>
-      <c r="C15">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>44012.429861111108</v>
-      </c>
-      <c r="B16">
-        <v>682.5</v>
-      </c>
-      <c r="C16">
-        <v>27.3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>44026.414583333331</v>
-      </c>
-      <c r="B17">
-        <v>493.5</v>
-      </c>
-      <c r="C17">
-        <v>26.1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>44040.37222222222</v>
-      </c>
-      <c r="B18">
-        <v>687.5</v>
-      </c>
-      <c r="C18">
-        <v>25.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>44054.408333333333</v>
-      </c>
-      <c r="B19">
-        <v>687.1</v>
-      </c>
-      <c r="C19">
-        <v>24.6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>44069.425000000003</v>
-      </c>
-      <c r="B20">
-        <v>724.4</v>
-      </c>
-      <c r="C20">
-        <v>26.8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>44096.418749999997</v>
-      </c>
-      <c r="B21">
-        <v>571.1</v>
-      </c>
-      <c r="C21">
-        <v>18.100000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>44110.392361111109</v>
-      </c>
-      <c r="B22">
-        <v>553.5</v>
-      </c>
-      <c r="C22">
-        <v>11.8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>43818.631249999999</v>
-      </c>
-      <c r="B2">
-        <v>450.3</v>
-      </c>
-      <c r="C2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>43830.619444444441</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>43836.461111111108</v>
-      </c>
-      <c r="B4">
-        <v>431.8</v>
-      </c>
-      <c r="C4">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>43844.62777777778</v>
-      </c>
-      <c r="B5">
-        <v>484.4</v>
-      </c>
-      <c r="C5">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>43851.649305555555</v>
-      </c>
-      <c r="B6">
-        <v>240.7</v>
-      </c>
-      <c r="C6">
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>43858.634027777778</v>
-      </c>
-      <c r="B7">
-        <v>480.5</v>
-      </c>
-      <c r="C7">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>43865.643055555556</v>
-      </c>
-      <c r="B8">
-        <v>471</v>
-      </c>
-      <c r="C8">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>43872.629861111112</v>
-      </c>
-      <c r="B9">
-        <v>489.8</v>
-      </c>
-      <c r="C9">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>43879.640277777777</v>
-      </c>
-      <c r="B10">
-        <v>525.5</v>
-      </c>
-      <c r="C10">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>43886.625</v>
-      </c>
-      <c r="B11">
-        <v>520.79999999999995</v>
-      </c>
-      <c r="C11">
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>43893.638888888891</v>
-      </c>
-      <c r="B12">
-        <v>415.7</v>
-      </c>
-      <c r="C12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>43900.582638888889</v>
-      </c>
-      <c r="B13">
-        <v>374.8</v>
-      </c>
-      <c r="C13">
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>43906.416666666664</v>
-      </c>
-      <c r="B14">
-        <v>452.8</v>
-      </c>
-      <c r="C14">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>43999.46875</v>
-      </c>
-      <c r="B15">
-        <v>708.6</v>
-      </c>
-      <c r="C15">
-        <v>22.4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>44012.448611111111</v>
-      </c>
-      <c r="B16">
-        <v>683.1</v>
-      </c>
-      <c r="C16">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>44026.395833333336</v>
-      </c>
-      <c r="B17">
-        <v>508.5</v>
-      </c>
-      <c r="C17">
-        <v>23.2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>44033.688194444447</v>
-      </c>
-      <c r="B18">
-        <v>657.5</v>
-      </c>
-      <c r="C18">
-        <v>22.9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>44040.383333333331</v>
-      </c>
-      <c r="B19">
-        <v>701.5</v>
-      </c>
-      <c r="C19">
-        <v>22.3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>44054.422222222223</v>
-      </c>
-      <c r="B20">
-        <v>716.3</v>
-      </c>
-      <c r="C20">
-        <v>20.7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>44069.443055555559</v>
-      </c>
-      <c r="B21">
-        <v>818.4</v>
-      </c>
-      <c r="C21">
-        <v>22.9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>44096.436111111114</v>
-      </c>
-      <c r="B22">
-        <v>674</v>
-      </c>
-      <c r="C22">
-        <v>15.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>44110.406944444447</v>
-      </c>
-      <c r="B23">
-        <v>651.79999999999995</v>
-      </c>
-      <c r="C23">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>43818.62222222222</v>
-      </c>
-      <c r="B2">
-        <v>472</v>
-      </c>
-      <c r="C2">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>43830.627083333333</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>43836.46875</v>
-      </c>
-      <c r="B4">
-        <v>463.7</v>
-      </c>
-      <c r="C4">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>43844.637499999997</v>
-      </c>
-      <c r="B5">
-        <v>493.2</v>
-      </c>
-      <c r="C5">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>43851.659722222219</v>
-      </c>
-      <c r="B6">
-        <v>435.5</v>
-      </c>
-      <c r="C6">
-        <v>-0.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>43858.642361111109</v>
-      </c>
-      <c r="B7">
-        <v>490.2</v>
-      </c>
-      <c r="C7">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>43865.654166666667</v>
-      </c>
-      <c r="B8">
-        <v>506</v>
-      </c>
-      <c r="C8">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>43872.634722222225</v>
-      </c>
-      <c r="B9">
-        <v>494.6</v>
-      </c>
-      <c r="C9">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>43879.645833333336</v>
-      </c>
-      <c r="B10">
-        <v>574.4</v>
-      </c>
-      <c r="C10">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>43886.631249999999</v>
-      </c>
-      <c r="B11">
-        <v>783.8</v>
-      </c>
-      <c r="C11">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>43893.652777777781</v>
-      </c>
-      <c r="B12">
-        <v>389.7</v>
-      </c>
-      <c r="C12">
-        <v>5.3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>43900.59097222222</v>
-      </c>
-      <c r="B13">
-        <v>432.3</v>
-      </c>
-      <c r="C13">
-        <v>6.4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>43906.427083333336</v>
-      </c>
-      <c r="B14">
-        <v>491.8</v>
-      </c>
-      <c r="C14">
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>43999.447916666664</v>
-      </c>
-      <c r="B15">
-        <v>716.6</v>
-      </c>
-      <c r="C15">
-        <v>20.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>44012.457638888889</v>
-      </c>
-      <c r="B16">
-        <v>588.1</v>
-      </c>
-      <c r="C16">
-        <v>21.3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>44026.385416666664</v>
-      </c>
-      <c r="B17">
-        <v>722</v>
-      </c>
-      <c r="C17">
-        <v>19.8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>44033.677083333336</v>
-      </c>
-      <c r="B18">
-        <v>758.7</v>
-      </c>
-      <c r="C18">
-        <v>20.2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>44040.393055555556</v>
-      </c>
-      <c r="B19">
-        <v>687.5</v>
-      </c>
-      <c r="C19">
-        <v>18.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>44054.429861111108</v>
-      </c>
-      <c r="B20">
-        <v>719.9</v>
-      </c>
-      <c r="C20">
-        <v>17.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>44069.454861111109</v>
-      </c>
-      <c r="B21">
-        <v>766.8</v>
-      </c>
-      <c r="C21">
-        <v>20.3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>44096.444444444445</v>
-      </c>
-      <c r="B22">
-        <v>679.2</v>
-      </c>
-      <c r="C22">
-        <v>14.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>44110.415277777778</v>
-      </c>
-      <c r="B23">
-        <v>621.70000000000005</v>
-      </c>
-      <c r="C23">
-        <v>11.2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
         <v>43818.609722222223</v>
       </c>
       <c r="B2">
@@ -4080,6 +4359,17 @@
       </c>
       <c r="C24">
         <v>12.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>44134.384027777778</v>
+      </c>
+      <c r="B25">
+        <v>671.1</v>
+      </c>
+      <c r="C25">
+        <v>5.2</v>
       </c>
     </row>
   </sheetData>

--- a/Data/conductivity_field.xlsx
+++ b/Data/conductivity_field.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linne\Box Sync\Chloride Research\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD46FB1-B28D-476C-9EF3-D4AF565D36BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177D571B-E0FC-4406-BC14-140C06FFFDAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31605" yWindow="1140" windowWidth="17280" windowHeight="8970" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loggers" sheetId="12" r:id="rId1"/>
@@ -152,7 +152,7 @@
     <numFmt numFmtId="164" formatCode="mm\-dd\-yyyy\ hh:mm:ss"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -297,6 +297,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -649,7 +655,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -684,6 +690,7 @@
     <xf numFmtId="165" fontId="14" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1632,10 +1639,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1899,35 +1906,46 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>44096.468055555553</v>
+      <c r="A24" s="20">
+        <v>44082.463194444441</v>
       </c>
       <c r="B24">
-        <v>1566</v>
+        <v>288.3</v>
       </c>
       <c r="C24">
-        <v>20.399999999999999</v>
+        <v>16.7</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>44110.438888888886</v>
+        <v>44096.468055555553</v>
       </c>
       <c r="B25">
-        <v>1783</v>
+        <v>1566</v>
       </c>
       <c r="C25">
-        <v>15.9</v>
+        <v>20.399999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
+        <v>44110.438888888886</v>
+      </c>
+      <c r="B26">
+        <v>1783</v>
+      </c>
+      <c r="C26">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
         <v>44134.397222222222</v>
       </c>
-      <c r="B26">
+      <c r="B27">
         <v>648.6</v>
       </c>
-      <c r="C26">
+      <c r="C27">
         <v>5.3</v>
       </c>
     </row>
@@ -2177,10 +2195,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE7E974B-BCA0-45B0-95FE-63AB262733E9}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2269,34 +2287,45 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>44096.388888888891</v>
+        <v>44082.375</v>
       </c>
       <c r="B8">
-        <v>682.7</v>
+        <v>638.70000000000005</v>
       </c>
       <c r="C8">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>44110.361111111109</v>
+        <v>44096.388888888891</v>
       </c>
       <c r="B9">
-        <v>634.5</v>
+        <v>682.7</v>
       </c>
       <c r="C9">
-        <v>12.8</v>
+        <v>17.7</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
+        <v>44110.361111111109</v>
+      </c>
+      <c r="B10">
+        <v>634.5</v>
+      </c>
+      <c r="C10">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
         <v>44134.444444444445</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>512.20000000000005</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>4.3</v>
       </c>
     </row>
@@ -2307,10 +2336,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A25"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2564,34 +2593,45 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>44096.490972222222</v>
+        <v>44082.489583333336</v>
       </c>
       <c r="B23">
-        <v>491.1</v>
+        <v>469.9</v>
       </c>
       <c r="C23">
-        <v>19.5</v>
+        <v>17.8</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>44110.461805555555</v>
+        <v>44096.490972222222</v>
       </c>
       <c r="B24">
-        <v>460.5</v>
+        <v>491.1</v>
       </c>
       <c r="C24">
-        <v>16.3</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
+        <v>44110.461805555555</v>
+      </c>
+      <c r="B25">
+        <v>460.5</v>
+      </c>
+      <c r="C25">
+        <v>16.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
         <v>44134.479166666664</v>
       </c>
-      <c r="B25">
+      <c r="B26">
         <v>379.9</v>
       </c>
-      <c r="C25">
+      <c r="C26">
         <v>8.5</v>
       </c>
     </row>
@@ -2603,10 +2643,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2892,13 +2932,13 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>44096.511111111111</v>
+        <v>44082.511805555558</v>
       </c>
       <c r="B22">
-        <v>1064</v>
+        <v>911.7</v>
       </c>
       <c r="C22">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -2906,13 +2946,13 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>44110.481249999997</v>
+        <v>44096.511111111111</v>
       </c>
       <c r="B23">
-        <v>954.4</v>
+        <v>1064</v>
       </c>
       <c r="C23">
-        <v>12.5</v>
+        <v>17.5</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -2920,19 +2960,28 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>44134.525694444441</v>
+        <v>44110.481249999997</v>
       </c>
       <c r="B24">
-        <v>746.5</v>
+        <v>954.4</v>
       </c>
       <c r="C24">
-        <v>6.7</v>
+        <v>12.5</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>44134.525694444441</v>
+      </c>
+      <c r="B25">
+        <v>746.5</v>
+      </c>
+      <c r="C25">
+        <v>6.7</v>
+      </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -2955,13 +3004,18 @@
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G31" s="1"/>
       <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H32" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2970,10 +3024,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3205,34 +3259,45 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>44096.402777777781</v>
+        <v>44082.39166666667</v>
       </c>
       <c r="B21">
-        <v>442.5</v>
+        <v>433.4</v>
       </c>
       <c r="C21">
-        <v>18.5</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>44110.375</v>
+        <v>44096.402777777781</v>
       </c>
       <c r="B22">
-        <v>405</v>
+        <v>442.5</v>
       </c>
       <c r="C22">
-        <v>14.2</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
+        <v>44110.375</v>
+      </c>
+      <c r="B23">
+        <v>405</v>
+      </c>
+      <c r="C23">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
         <v>44134.325694444444</v>
       </c>
-      <c r="B23">
+      <c r="B24">
         <v>360.2</v>
       </c>
-      <c r="C23">
+      <c r="C24">
         <v>7.5</v>
       </c>
     </row>
@@ -3243,10 +3308,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3478,34 +3543,45 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>44096.418749999997</v>
+        <v>44082.409722222219</v>
       </c>
       <c r="B21">
-        <v>571.1</v>
+        <v>557.4</v>
       </c>
       <c r="C21">
-        <v>18.100000000000001</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>44110.392361111109</v>
+        <v>44096.418749999997</v>
       </c>
       <c r="B22">
-        <v>553.5</v>
+        <v>571.1</v>
       </c>
       <c r="C22">
-        <v>11.8</v>
+        <v>18.100000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
+        <v>44110.392361111109</v>
+      </c>
+      <c r="B23">
+        <v>553.5</v>
+      </c>
+      <c r="C23">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
         <v>44134.345138888886</v>
       </c>
-      <c r="B23">
+      <c r="B24">
         <v>344.1</v>
       </c>
-      <c r="C23">
+      <c r="C24">
         <v>3.4</v>
       </c>
     </row>
@@ -3516,10 +3592,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3762,34 +3838,45 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>44096.436111111114</v>
+        <v>44082.429166666669</v>
       </c>
       <c r="B22">
-        <v>674</v>
+        <v>660.2</v>
       </c>
       <c r="C22">
-        <v>15.5</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>44110.406944444447</v>
+        <v>44096.436111111114</v>
       </c>
       <c r="B23">
-        <v>651.79999999999995</v>
+        <v>674</v>
       </c>
       <c r="C23">
-        <v>11</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
+        <v>44110.406944444447</v>
+      </c>
+      <c r="B24">
+        <v>651.79999999999995</v>
+      </c>
+      <c r="C24">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
         <v>44134.35833333333</v>
       </c>
-      <c r="B24">
+      <c r="B25">
         <v>440.1</v>
       </c>
-      <c r="C24">
+      <c r="C25">
         <v>4.0999999999999996</v>
       </c>
     </row>
@@ -3800,10 +3887,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4046,34 +4133,45 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>44096.444444444445</v>
+        <v>44082.439583333333</v>
       </c>
       <c r="B22">
-        <v>679.2</v>
+        <v>657.8</v>
       </c>
       <c r="C22">
-        <v>14.5</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>44110.415277777778</v>
+        <v>44096.444444444445</v>
       </c>
       <c r="B23">
-        <v>621.70000000000005</v>
+        <v>679.2</v>
       </c>
       <c r="C23">
-        <v>11.2</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
+        <v>44110.415277777778</v>
+      </c>
+      <c r="B24">
+        <v>621.70000000000005</v>
+      </c>
+      <c r="C24">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
         <v>44134.368055555555</v>
       </c>
-      <c r="B24">
+      <c r="B25">
         <v>514.9</v>
       </c>
-      <c r="C24">
+      <c r="C25">
         <v>4.8</v>
       </c>
     </row>
@@ -4084,10 +4182,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4341,34 +4439,45 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>44096.459722222222</v>
+        <v>44082.45416666667</v>
       </c>
       <c r="B23">
-        <v>980.5</v>
+        <v>742.7</v>
       </c>
       <c r="C23">
-        <v>16.899999999999999</v>
+        <v>16.100000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>44110.430555555555</v>
+        <v>44096.459722222222</v>
       </c>
       <c r="B24">
-        <v>871.5</v>
+        <v>980.5</v>
       </c>
       <c r="C24">
-        <v>12.3</v>
+        <v>16.899999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
+        <v>44110.430555555555</v>
+      </c>
+      <c r="B25">
+        <v>871.5</v>
+      </c>
+      <c r="C25">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
         <v>44134.384027777778</v>
       </c>
-      <c r="B25">
+      <c r="B26">
         <v>671.1</v>
       </c>
-      <c r="C25">
+      <c r="C26">
         <v>5.2</v>
       </c>
     </row>

--- a/Data/conductivity_field.xlsx
+++ b/Data/conductivity_field.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linne\Box Sync\Chloride Research\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177D571B-E0FC-4406-BC14-140C06FFFDAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C20A9E56-E920-4F19-BA79-8681E89DA66E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31605" yWindow="1140" windowWidth="17280" windowHeight="8970" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loggers" sheetId="12" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="37">
   <si>
     <t>datetime</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>low battery</t>
+  </si>
+  <si>
+    <t>MO- surface</t>
   </si>
 </sst>
 </file>
@@ -308,7 +311,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -494,6 +497,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -655,7 +664,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -671,7 +680,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -691,6 +699,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1048,9 +1059,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E111E348-178D-4A81-8338-72F6E909D9F1}">
   <dimension ref="A1:AR21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P26" sqref="P26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1133,9 +1144,12 @@
       <c r="D2" s="7">
         <v>43963.53125</v>
       </c>
+      <c r="E2" s="5">
+        <v>44141.5</v>
+      </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="9">
+      <c r="A3" s="20">
         <v>20758345</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1149,8 +1163,16 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4"/>
+      <c r="A4" s="22">
+        <v>20758346</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="D4" s="7"/>
+      <c r="E4" s="5">
+        <v>44141.5</v>
+      </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
@@ -1162,22 +1184,22 @@
       <c r="C5" s="3">
         <v>43832.604166666664</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="9">
         <v>43845.5625</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="11">
         <v>43851.697916666664</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="9">
         <v>43865.677083333336</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="9">
         <v>43865.6875</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="9">
         <v>43906.4375</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="9">
         <v>43906.458333333336</v>
       </c>
       <c r="J5" s="3">
@@ -1220,7 +1242,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+      <c r="A7" s="21">
         <v>20758346</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1243,16 +1265,16 @@
       <c r="C8" s="3">
         <v>43818.5</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="9">
         <v>43865.645833333336</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="11">
         <v>43865.666666666664</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="9">
         <v>43906.458333333336</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="9">
         <v>43906.4375</v>
       </c>
       <c r="H8" s="3">
@@ -1290,16 +1312,16 @@
       <c r="C9" s="3">
         <v>43818.5</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="9">
         <v>43906.479166666664</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="9">
         <v>43906.458333333336</v>
       </c>
       <c r="H9" s="3">
@@ -1328,20 +1350,20 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="17"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
       <c r="O10" s="8">
         <v>44134.541666666664</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="15">
+      <c r="A11" s="14">
         <v>20378151</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -1350,16 +1372,16 @@
       <c r="C11" s="3">
         <v>43818</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="9">
         <v>43906.416666666664</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="9">
         <v>43906.395833333336</v>
       </c>
       <c r="H11" s="3">
@@ -1377,7 +1399,7 @@
       <c r="N11" s="8">
         <v>44126.520833333336</v>
       </c>
-      <c r="O11" s="16" t="s">
+      <c r="O11" s="15" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1391,16 +1413,16 @@
       <c r="C12" s="3">
         <v>43818</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="9">
         <v>43865.645833333336</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="11">
         <v>43865.666666666664</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="9">
         <v>43906.458333333336</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="9">
         <v>43906.4375</v>
       </c>
       <c r="H12" s="3">
@@ -1438,16 +1460,16 @@
       <c r="C13" s="3">
         <v>43818</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="9">
         <v>43865.625</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="11">
         <v>43865.645833333336</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="9">
         <v>43906.416666666664</v>
       </c>
       <c r="H13" s="3">
@@ -1485,16 +1507,16 @@
       <c r="C14" s="3">
         <v>43818</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="9">
         <v>43865.604166666664</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="11">
         <v>43865.625</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="9">
         <v>43906.416666666664</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="9">
         <v>43906.395833333336</v>
       </c>
       <c r="H14" s="3">
@@ -1526,16 +1548,16 @@
       <c r="C15" s="3">
         <v>43818</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="9">
         <v>43906.375</v>
       </c>
       <c r="H15" s="3">
@@ -1558,7 +1580,7 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="14">
+      <c r="A16" s="13">
         <v>20758345</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -1567,12 +1589,12 @@
       <c r="C16" s="3">
         <v>43999.666666666664</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="18" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="18"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="4" t="s">
         <v>33</v>
       </c>
@@ -1592,7 +1614,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="11">
+      <c r="A21" s="10">
         <v>20484276</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -1604,7 +1626,7 @@
       <c r="D21" s="7">
         <v>43906.364583333336</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="12">
         <v>43906.375</v>
       </c>
       <c r="F21" s="3">
@@ -1641,7 +1663,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
@@ -1906,7 +1928,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="20">
+      <c r="A24" s="19">
         <v>44082.463194444441</v>
       </c>
       <c r="B24">
@@ -2047,10 +2069,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{588D9C27-B403-4DE5-8B68-B5C4B22BE996}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2185,6 +2207,90 @@
       </c>
       <c r="D9">
         <v>24.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>44141.43472222222</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>392.5</v>
+      </c>
+      <c r="D10">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>44141.448611111111</v>
+      </c>
+      <c r="B11" s="2">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>393.8</v>
+      </c>
+      <c r="D11">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>44141.446527777778</v>
+      </c>
+      <c r="B12" s="2">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>390.3</v>
+      </c>
+      <c r="D12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>44141.443055555559</v>
+      </c>
+      <c r="B13" s="2">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>395.2</v>
+      </c>
+      <c r="D13">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>44141.439583333333</v>
+      </c>
+      <c r="B14" s="2">
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <v>392.5</v>
+      </c>
+      <c r="D14">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>44141.4375</v>
+      </c>
+      <c r="B15" s="2">
+        <v>20</v>
+      </c>
+      <c r="C15">
+        <v>392.8</v>
+      </c>
+      <c r="D15">
+        <v>8.8000000000000007</v>
       </c>
     </row>
   </sheetData>

--- a/Data/conductivity_field.xlsx
+++ b/Data/conductivity_field.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linne\Box Sync\Chloride Research\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C20A9E56-E920-4F19-BA79-8681E89DA66E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA2A36B0-B8D4-494C-96F5-EA9E44594CA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30630" yWindow="1890" windowWidth="17280" windowHeight="8970" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loggers" sheetId="12" r:id="rId1"/>
@@ -664,7 +664,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -693,8 +693,6 @@
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="7" applyAlignment="1"/>
     <xf numFmtId="165" fontId="7" fillId="3" borderId="0" xfId="7" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6"/>
     <xf numFmtId="165" fontId="14" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1059,9 +1057,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E111E348-178D-4A81-8338-72F6E909D9F1}">
   <dimension ref="A1:AR21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q14" sqref="Q14"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1149,7 +1147,7 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="20">
+      <c r="A3" s="18">
         <v>20758345</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1163,7 +1161,7 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="22">
+      <c r="A4" s="20">
         <v>20758346</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -1242,7 +1240,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="21">
+      <c r="A7" s="19">
         <v>20758346</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1350,7 +1348,9 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="16"/>
+      <c r="A10">
+        <v>20882401</v>
+      </c>
       <c r="B10" s="4" t="s">
         <v>14</v>
       </c>
@@ -1589,12 +1589,14 @@
       <c r="C16" s="3">
         <v>43999.666666666664</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="16" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="17"/>
+      <c r="A17">
+        <v>20882406</v>
+      </c>
       <c r="B17" s="4" t="s">
         <v>33</v>
       </c>
@@ -1661,10 +1663,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1928,7 +1930,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="19">
+      <c r="A24" s="17">
         <v>44082.463194444441</v>
       </c>
       <c r="B24">
@@ -1969,6 +1971,17 @@
       </c>
       <c r="C27">
         <v>5.3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>44152.589583333334</v>
+      </c>
+      <c r="B28">
+        <v>230.2</v>
+      </c>
+      <c r="C28">
+        <v>4.8</v>
       </c>
     </row>
   </sheetData>
@@ -2301,10 +2314,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE7E974B-BCA0-45B0-95FE-63AB262733E9}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2435,6 +2448,17 @@
         <v>4.3</v>
       </c>
     </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>44152.423611111109</v>
+      </c>
+      <c r="B12">
+        <v>480.5</v>
+      </c>
+      <c r="C12">
+        <v>2.6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2442,10 +2466,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2741,6 +2765,17 @@
         <v>8.5</v>
       </c>
     </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>44152.438888888886</v>
+      </c>
+      <c r="B27">
+        <v>347.4</v>
+      </c>
+      <c r="C27">
+        <v>4.7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2752,7 +2787,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3093,6 +3128,15 @@
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>44152.459027777775</v>
+      </c>
+      <c r="B26">
+        <v>682.5</v>
+      </c>
+      <c r="C26">
+        <v>3.9</v>
+      </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -3130,10 +3174,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3407,6 +3451,17 @@
         <v>7.5</v>
       </c>
     </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>44152.475694444445</v>
+      </c>
+      <c r="B25">
+        <v>343.1</v>
+      </c>
+      <c r="C25">
+        <v>5.9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3414,10 +3469,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3691,6 +3746,17 @@
         <v>3.4</v>
       </c>
     </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>44152.529166666667</v>
+      </c>
+      <c r="B25">
+        <v>378</v>
+      </c>
+      <c r="C25">
+        <v>2.8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3698,10 +3764,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3986,6 +4052,17 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>44152.541666666664</v>
+      </c>
+      <c r="B26">
+        <v>433</v>
+      </c>
+      <c r="C26">
+        <v>3.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3993,10 +4070,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4281,6 +4358,17 @@
         <v>4.8</v>
       </c>
     </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>44152.554861111108</v>
+      </c>
+      <c r="B26">
+        <v>510</v>
+      </c>
+      <c r="C26">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4288,10 +4376,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4587,6 +4675,17 @@
         <v>5.2</v>
       </c>
     </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>44152.576388888891</v>
+      </c>
+      <c r="B27">
+        <v>517.4</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/conductivity_field.xlsx
+++ b/Data/conductivity_field.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linne\Box Sync\Chloride Research\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA2A36B0-B8D4-494C-96F5-EA9E44594CA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB82E448-2E55-4DBA-8101-4AB50E51649B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30630" yWindow="1890" windowWidth="17280" windowHeight="8970" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loggers" sheetId="12" r:id="rId1"/>
@@ -1663,10 +1663,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1982,6 +1982,17 @@
       </c>
       <c r="C28">
         <v>4.8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>44159.552083333336</v>
+      </c>
+      <c r="B29">
+        <v>1098</v>
+      </c>
+      <c r="C29">
+        <v>5.9</v>
       </c>
     </row>
   </sheetData>
@@ -2314,10 +2325,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE7E974B-BCA0-45B0-95FE-63AB262733E9}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2459,6 +2470,17 @@
         <v>2.6</v>
       </c>
     </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>44159.416666666664</v>
+      </c>
+      <c r="B13">
+        <v>517.5</v>
+      </c>
+      <c r="C13">
+        <v>3.6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2466,10 +2488,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2776,6 +2798,17 @@
         <v>4.7</v>
       </c>
     </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>44159.43472222222</v>
+      </c>
+      <c r="B28">
+        <v>358.9</v>
+      </c>
+      <c r="C28">
+        <v>5.4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2787,7 +2820,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3142,6 +3175,15 @@
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>44159.450694444444</v>
+      </c>
+      <c r="B27">
+        <v>769.7</v>
+      </c>
+      <c r="C27">
+        <v>4.7</v>
+      </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -3174,902 +3216,6 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>43818.652777777781</v>
-      </c>
-      <c r="B2">
-        <v>290.5</v>
-      </c>
-      <c r="C2">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>43830.57708333333</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>43836.429861111108</v>
-      </c>
-      <c r="B4">
-        <v>291.7</v>
-      </c>
-      <c r="C4">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>43844.600694444445</v>
-      </c>
-      <c r="B5">
-        <v>298.60000000000002</v>
-      </c>
-      <c r="C5">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>43851.118750000001</v>
-      </c>
-      <c r="B6">
-        <v>292.8</v>
-      </c>
-      <c r="C6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>43858.609722222223</v>
-      </c>
-      <c r="B7">
-        <v>299.60000000000002</v>
-      </c>
-      <c r="C7">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>43865.606944444444</v>
-      </c>
-      <c r="B8">
-        <v>302</v>
-      </c>
-      <c r="C8">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>43872.607638888891</v>
-      </c>
-      <c r="B9">
-        <v>332.84</v>
-      </c>
-      <c r="C9">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>43879.617361111108</v>
-      </c>
-      <c r="B10">
-        <v>347.9</v>
-      </c>
-      <c r="C10">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>43886.603472222225</v>
-      </c>
-      <c r="B11">
-        <v>312.60000000000002</v>
-      </c>
-      <c r="C11">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>43893.614583333336</v>
-      </c>
-      <c r="B12">
-        <v>327.60000000000002</v>
-      </c>
-      <c r="C12">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>43900.560416666667</v>
-      </c>
-      <c r="B13">
-        <v>320.7</v>
-      </c>
-      <c r="C13">
-        <v>5.3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>43906.38958333333</v>
-      </c>
-      <c r="B14">
-        <v>306.10000000000002</v>
-      </c>
-      <c r="C14">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>43999.572916666664</v>
-      </c>
-      <c r="B15">
-        <v>557</v>
-      </c>
-      <c r="C15">
-        <v>25.2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>44012.412499999999</v>
-      </c>
-      <c r="B16">
-        <v>540.5</v>
-      </c>
-      <c r="C16">
-        <v>25.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>44026.440972222219</v>
-      </c>
-      <c r="B17">
-        <v>510.8</v>
-      </c>
-      <c r="C17">
-        <v>26.3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>44040.352777777778</v>
-      </c>
-      <c r="B18">
-        <v>479.6</v>
-      </c>
-      <c r="C18">
-        <v>24.8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>44054.390972222223</v>
-      </c>
-      <c r="B19">
-        <v>486.8</v>
-      </c>
-      <c r="C19">
-        <v>24.1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>44069.406944444447</v>
-      </c>
-      <c r="B20">
-        <v>490.2</v>
-      </c>
-      <c r="C20">
-        <v>25.7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>44082.39166666667</v>
-      </c>
-      <c r="B21">
-        <v>433.4</v>
-      </c>
-      <c r="C21">
-        <v>18.8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>44096.402777777781</v>
-      </c>
-      <c r="B22">
-        <v>442.5</v>
-      </c>
-      <c r="C22">
-        <v>18.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>44110.375</v>
-      </c>
-      <c r="B23">
-        <v>405</v>
-      </c>
-      <c r="C23">
-        <v>14.2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>44134.325694444444</v>
-      </c>
-      <c r="B24">
-        <v>360.2</v>
-      </c>
-      <c r="C24">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>44152.475694444445</v>
-      </c>
-      <c r="B25">
-        <v>343.1</v>
-      </c>
-      <c r="C25">
-        <v>5.9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>43818.638888888891</v>
-      </c>
-      <c r="B2">
-        <v>452.2</v>
-      </c>
-      <c r="C2">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>43830.6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>43836.447222222225</v>
-      </c>
-      <c r="B4">
-        <v>425.2</v>
-      </c>
-      <c r="C4">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>43844.600694444445</v>
-      </c>
-      <c r="B5">
-        <v>437.8</v>
-      </c>
-      <c r="C5">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>43851.635416666664</v>
-      </c>
-      <c r="B6">
-        <v>453.4</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>43858.625</v>
-      </c>
-      <c r="B7">
-        <v>457.6</v>
-      </c>
-      <c r="C7">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>43865.629166666666</v>
-      </c>
-      <c r="B8">
-        <v>432.1</v>
-      </c>
-      <c r="C8">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>43872.621527777781</v>
-      </c>
-      <c r="B9">
-        <v>512.36</v>
-      </c>
-      <c r="C9">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>43879.131249999999</v>
-      </c>
-      <c r="B10">
-        <v>442.3</v>
-      </c>
-      <c r="C10">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>43886.615972222222</v>
-      </c>
-      <c r="B11">
-        <v>451.3</v>
-      </c>
-      <c r="C11">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>43893.629166666666</v>
-      </c>
-      <c r="B12">
-        <v>476.7</v>
-      </c>
-      <c r="C12">
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>43900.574305555558</v>
-      </c>
-      <c r="B13">
-        <v>353.7</v>
-      </c>
-      <c r="C13">
-        <v>7.2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>43906.40625</v>
-      </c>
-      <c r="B14">
-        <v>409.7</v>
-      </c>
-      <c r="C14">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>43999.487500000003</v>
-      </c>
-      <c r="B15">
-        <v>487.5</v>
-      </c>
-      <c r="C15">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>44012.429861111108</v>
-      </c>
-      <c r="B16">
-        <v>682.5</v>
-      </c>
-      <c r="C16">
-        <v>27.3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>44026.414583333331</v>
-      </c>
-      <c r="B17">
-        <v>493.5</v>
-      </c>
-      <c r="C17">
-        <v>26.1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>44040.37222222222</v>
-      </c>
-      <c r="B18">
-        <v>687.5</v>
-      </c>
-      <c r="C18">
-        <v>25.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>44054.408333333333</v>
-      </c>
-      <c r="B19">
-        <v>687.1</v>
-      </c>
-      <c r="C19">
-        <v>24.6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>44069.425000000003</v>
-      </c>
-      <c r="B20">
-        <v>724.4</v>
-      </c>
-      <c r="C20">
-        <v>26.8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>44082.409722222219</v>
-      </c>
-      <c r="B21">
-        <v>557.4</v>
-      </c>
-      <c r="C21">
-        <v>17.2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>44096.418749999997</v>
-      </c>
-      <c r="B22">
-        <v>571.1</v>
-      </c>
-      <c r="C22">
-        <v>18.100000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>44110.392361111109</v>
-      </c>
-      <c r="B23">
-        <v>553.5</v>
-      </c>
-      <c r="C23">
-        <v>11.8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>44134.345138888886</v>
-      </c>
-      <c r="B24">
-        <v>344.1</v>
-      </c>
-      <c r="C24">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>44152.529166666667</v>
-      </c>
-      <c r="B25">
-        <v>378</v>
-      </c>
-      <c r="C25">
-        <v>2.8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>43818.631249999999</v>
-      </c>
-      <c r="B2">
-        <v>450.3</v>
-      </c>
-      <c r="C2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>43830.619444444441</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>43836.461111111108</v>
-      </c>
-      <c r="B4">
-        <v>431.8</v>
-      </c>
-      <c r="C4">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>43844.62777777778</v>
-      </c>
-      <c r="B5">
-        <v>484.4</v>
-      </c>
-      <c r="C5">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>43851.649305555555</v>
-      </c>
-      <c r="B6">
-        <v>240.7</v>
-      </c>
-      <c r="C6">
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>43858.634027777778</v>
-      </c>
-      <c r="B7">
-        <v>480.5</v>
-      </c>
-      <c r="C7">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>43865.643055555556</v>
-      </c>
-      <c r="B8">
-        <v>471</v>
-      </c>
-      <c r="C8">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>43872.629861111112</v>
-      </c>
-      <c r="B9">
-        <v>489.8</v>
-      </c>
-      <c r="C9">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>43879.640277777777</v>
-      </c>
-      <c r="B10">
-        <v>525.5</v>
-      </c>
-      <c r="C10">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>43886.625</v>
-      </c>
-      <c r="B11">
-        <v>520.79999999999995</v>
-      </c>
-      <c r="C11">
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>43893.638888888891</v>
-      </c>
-      <c r="B12">
-        <v>415.7</v>
-      </c>
-      <c r="C12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>43900.582638888889</v>
-      </c>
-      <c r="B13">
-        <v>374.8</v>
-      </c>
-      <c r="C13">
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>43906.416666666664</v>
-      </c>
-      <c r="B14">
-        <v>452.8</v>
-      </c>
-      <c r="C14">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>43999.46875</v>
-      </c>
-      <c r="B15">
-        <v>708.6</v>
-      </c>
-      <c r="C15">
-        <v>22.4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>44012.448611111111</v>
-      </c>
-      <c r="B16">
-        <v>683.1</v>
-      </c>
-      <c r="C16">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>44026.395833333336</v>
-      </c>
-      <c r="B17">
-        <v>508.5</v>
-      </c>
-      <c r="C17">
-        <v>23.2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>44033.688194444447</v>
-      </c>
-      <c r="B18">
-        <v>657.5</v>
-      </c>
-      <c r="C18">
-        <v>22.9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>44040.383333333331</v>
-      </c>
-      <c r="B19">
-        <v>701.5</v>
-      </c>
-      <c r="C19">
-        <v>22.3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>44054.422222222223</v>
-      </c>
-      <c r="B20">
-        <v>716.3</v>
-      </c>
-      <c r="C20">
-        <v>20.7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>44069.443055555559</v>
-      </c>
-      <c r="B21">
-        <v>818.4</v>
-      </c>
-      <c r="C21">
-        <v>22.9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>44082.429166666669</v>
-      </c>
-      <c r="B22">
-        <v>660.2</v>
-      </c>
-      <c r="C22">
-        <v>14.4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>44096.436111111114</v>
-      </c>
-      <c r="B23">
-        <v>674</v>
-      </c>
-      <c r="C23">
-        <v>15.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>44110.406944444447</v>
-      </c>
-      <c r="B24">
-        <v>651.79999999999995</v>
-      </c>
-      <c r="C24">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>44134.35833333333</v>
-      </c>
-      <c r="B25">
-        <v>440.1</v>
-      </c>
-      <c r="C25">
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>44152.541666666664</v>
-      </c>
-      <c r="B26">
-        <v>433</v>
-      </c>
-      <c r="C26">
-        <v>3.5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4096,18 +3242,18 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>43818.62222222222</v>
+        <v>43818.652777777781</v>
       </c>
       <c r="B2">
-        <v>472</v>
+        <v>290.5</v>
       </c>
       <c r="C2">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>43830.627083333333</v>
+        <v>43830.57708333333</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -4118,255 +3264,255 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>43836.46875</v>
+        <v>43836.429861111108</v>
       </c>
       <c r="B4">
-        <v>463.7</v>
+        <v>291.7</v>
       </c>
       <c r="C4">
-        <v>2.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>43844.637499999997</v>
+        <v>43844.600694444445</v>
       </c>
       <c r="B5">
-        <v>493.2</v>
+        <v>298.60000000000002</v>
       </c>
       <c r="C5">
-        <v>4.4000000000000004</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>43851.659722222219</v>
+        <v>43851.118750000001</v>
       </c>
       <c r="B6">
-        <v>435.5</v>
+        <v>292.8</v>
       </c>
       <c r="C6">
-        <v>-0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>43858.642361111109</v>
+        <v>43858.609722222223</v>
       </c>
       <c r="B7">
-        <v>490.2</v>
+        <v>299.60000000000002</v>
       </c>
       <c r="C7">
-        <v>2.9</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>43865.654166666667</v>
+        <v>43865.606944444444</v>
       </c>
       <c r="B8">
-        <v>506</v>
+        <v>302</v>
       </c>
       <c r="C8">
-        <v>3.6</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>43872.634722222225</v>
+        <v>43872.607638888891</v>
       </c>
       <c r="B9">
-        <v>494.6</v>
+        <v>332.84</v>
       </c>
       <c r="C9">
-        <v>3.3</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>43879.645833333336</v>
+        <v>43879.617361111108</v>
       </c>
       <c r="B10">
-        <v>574.4</v>
+        <v>347.9</v>
       </c>
       <c r="C10">
-        <v>4.4000000000000004</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>43886.631249999999</v>
+        <v>43886.603472222225</v>
       </c>
       <c r="B11">
-        <v>783.8</v>
+        <v>312.60000000000002</v>
       </c>
       <c r="C11">
-        <v>3.7</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>43893.652777777781</v>
+        <v>43893.614583333336</v>
       </c>
       <c r="B12">
-        <v>389.7</v>
+        <v>327.60000000000002</v>
       </c>
       <c r="C12">
-        <v>5.3</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>43900.59097222222</v>
+        <v>43900.560416666667</v>
       </c>
       <c r="B13">
-        <v>432.3</v>
+        <v>320.7</v>
       </c>
       <c r="C13">
-        <v>6.4</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>43906.427083333336</v>
+        <v>43906.38958333333</v>
       </c>
       <c r="B14">
-        <v>491.8</v>
+        <v>306.10000000000002</v>
       </c>
       <c r="C14">
-        <v>4.0999999999999996</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>43999.447916666664</v>
+        <v>43999.572916666664</v>
       </c>
       <c r="B15">
-        <v>716.6</v>
+        <v>557</v>
       </c>
       <c r="C15">
-        <v>20.5</v>
+        <v>25.2</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>44012.457638888889</v>
+        <v>44012.412499999999</v>
       </c>
       <c r="B16">
-        <v>588.1</v>
+        <v>540.5</v>
       </c>
       <c r="C16">
-        <v>21.3</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>44026.385416666664</v>
+        <v>44026.440972222219</v>
       </c>
       <c r="B17">
-        <v>722</v>
+        <v>510.8</v>
       </c>
       <c r="C17">
-        <v>19.8</v>
+        <v>26.3</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>44033.677083333336</v>
+        <v>44040.352777777778</v>
       </c>
       <c r="B18">
-        <v>758.7</v>
+        <v>479.6</v>
       </c>
       <c r="C18">
-        <v>20.2</v>
+        <v>24.8</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>44040.393055555556</v>
+        <v>44054.390972222223</v>
       </c>
       <c r="B19">
-        <v>687.5</v>
+        <v>486.8</v>
       </c>
       <c r="C19">
-        <v>18.5</v>
+        <v>24.1</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>44054.429861111108</v>
+        <v>44069.406944444447</v>
       </c>
       <c r="B20">
-        <v>719.9</v>
+        <v>490.2</v>
       </c>
       <c r="C20">
-        <v>17.5</v>
+        <v>25.7</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>44069.454861111109</v>
+        <v>44082.39166666667</v>
       </c>
       <c r="B21">
-        <v>766.8</v>
+        <v>433.4</v>
       </c>
       <c r="C21">
-        <v>20.3</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>44082.439583333333</v>
+        <v>44096.402777777781</v>
       </c>
       <c r="B22">
-        <v>657.8</v>
+        <v>442.5</v>
       </c>
       <c r="C22">
-        <v>13.1</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>44096.444444444445</v>
+        <v>44110.375</v>
       </c>
       <c r="B23">
-        <v>679.2</v>
+        <v>405</v>
       </c>
       <c r="C23">
-        <v>14.5</v>
+        <v>14.2</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>44110.415277777778</v>
+        <v>44134.325694444444</v>
       </c>
       <c r="B24">
-        <v>621.70000000000005</v>
+        <v>360.2</v>
       </c>
       <c r="C24">
-        <v>11.2</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>44134.368055555555</v>
+        <v>44152.475694444445</v>
       </c>
       <c r="B25">
-        <v>514.9</v>
+        <v>343.1</v>
       </c>
       <c r="C25">
-        <v>4.8</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>44152.554861111108</v>
+        <v>44159.469444444447</v>
       </c>
       <c r="B26">
-        <v>510</v>
+        <v>346.4</v>
       </c>
       <c r="C26">
-        <v>4.4000000000000004</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -4374,12 +3520,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C27"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4402,6 +3548,946 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
+        <v>43818.638888888891</v>
+      </c>
+      <c r="B2">
+        <v>452.2</v>
+      </c>
+      <c r="C2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>43830.6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>43836.447222222225</v>
+      </c>
+      <c r="B4">
+        <v>425.2</v>
+      </c>
+      <c r="C4">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>43844.600694444445</v>
+      </c>
+      <c r="B5">
+        <v>437.8</v>
+      </c>
+      <c r="C5">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>43851.635416666664</v>
+      </c>
+      <c r="B6">
+        <v>453.4</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>43858.625</v>
+      </c>
+      <c r="B7">
+        <v>457.6</v>
+      </c>
+      <c r="C7">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>43865.629166666666</v>
+      </c>
+      <c r="B8">
+        <v>432.1</v>
+      </c>
+      <c r="C8">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>43872.621527777781</v>
+      </c>
+      <c r="B9">
+        <v>512.36</v>
+      </c>
+      <c r="C9">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>43879.131249999999</v>
+      </c>
+      <c r="B10">
+        <v>442.3</v>
+      </c>
+      <c r="C10">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>43886.615972222222</v>
+      </c>
+      <c r="B11">
+        <v>451.3</v>
+      </c>
+      <c r="C11">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>43893.629166666666</v>
+      </c>
+      <c r="B12">
+        <v>476.7</v>
+      </c>
+      <c r="C12">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>43900.574305555558</v>
+      </c>
+      <c r="B13">
+        <v>353.7</v>
+      </c>
+      <c r="C13">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>43906.40625</v>
+      </c>
+      <c r="B14">
+        <v>409.7</v>
+      </c>
+      <c r="C14">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>43999.487500000003</v>
+      </c>
+      <c r="B15">
+        <v>487.5</v>
+      </c>
+      <c r="C15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>44012.429861111108</v>
+      </c>
+      <c r="B16">
+        <v>682.5</v>
+      </c>
+      <c r="C16">
+        <v>27.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>44026.414583333331</v>
+      </c>
+      <c r="B17">
+        <v>493.5</v>
+      </c>
+      <c r="C17">
+        <v>26.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>44040.37222222222</v>
+      </c>
+      <c r="B18">
+        <v>687.5</v>
+      </c>
+      <c r="C18">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>44054.408333333333</v>
+      </c>
+      <c r="B19">
+        <v>687.1</v>
+      </c>
+      <c r="C19">
+        <v>24.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>44069.425000000003</v>
+      </c>
+      <c r="B20">
+        <v>724.4</v>
+      </c>
+      <c r="C20">
+        <v>26.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>44082.409722222219</v>
+      </c>
+      <c r="B21">
+        <v>557.4</v>
+      </c>
+      <c r="C21">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>44096.418749999997</v>
+      </c>
+      <c r="B22">
+        <v>571.1</v>
+      </c>
+      <c r="C22">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>44110.392361111109</v>
+      </c>
+      <c r="B23">
+        <v>553.5</v>
+      </c>
+      <c r="C23">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>44134.345138888886</v>
+      </c>
+      <c r="B24">
+        <v>344.1</v>
+      </c>
+      <c r="C24">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>44152.529166666667</v>
+      </c>
+      <c r="B25">
+        <v>378</v>
+      </c>
+      <c r="C25">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>44159.513194444444</v>
+      </c>
+      <c r="B26">
+        <v>441.4</v>
+      </c>
+      <c r="C26">
+        <v>3.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:C27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>43818.631249999999</v>
+      </c>
+      <c r="B2">
+        <v>450.3</v>
+      </c>
+      <c r="C2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>43830.619444444441</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>43836.461111111108</v>
+      </c>
+      <c r="B4">
+        <v>431.8</v>
+      </c>
+      <c r="C4">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>43844.62777777778</v>
+      </c>
+      <c r="B5">
+        <v>484.4</v>
+      </c>
+      <c r="C5">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>43851.649305555555</v>
+      </c>
+      <c r="B6">
+        <v>240.7</v>
+      </c>
+      <c r="C6">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>43858.634027777778</v>
+      </c>
+      <c r="B7">
+        <v>480.5</v>
+      </c>
+      <c r="C7">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>43865.643055555556</v>
+      </c>
+      <c r="B8">
+        <v>471</v>
+      </c>
+      <c r="C8">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>43872.629861111112</v>
+      </c>
+      <c r="B9">
+        <v>489.8</v>
+      </c>
+      <c r="C9">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>43879.640277777777</v>
+      </c>
+      <c r="B10">
+        <v>525.5</v>
+      </c>
+      <c r="C10">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>43886.625</v>
+      </c>
+      <c r="B11">
+        <v>520.79999999999995</v>
+      </c>
+      <c r="C11">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>43893.638888888891</v>
+      </c>
+      <c r="B12">
+        <v>415.7</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>43900.582638888889</v>
+      </c>
+      <c r="B13">
+        <v>374.8</v>
+      </c>
+      <c r="C13">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>43906.416666666664</v>
+      </c>
+      <c r="B14">
+        <v>452.8</v>
+      </c>
+      <c r="C14">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>43999.46875</v>
+      </c>
+      <c r="B15">
+        <v>708.6</v>
+      </c>
+      <c r="C15">
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>44012.448611111111</v>
+      </c>
+      <c r="B16">
+        <v>683.1</v>
+      </c>
+      <c r="C16">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>44026.395833333336</v>
+      </c>
+      <c r="B17">
+        <v>508.5</v>
+      </c>
+      <c r="C17">
+        <v>23.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>44033.688194444447</v>
+      </c>
+      <c r="B18">
+        <v>657.5</v>
+      </c>
+      <c r="C18">
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>44040.383333333331</v>
+      </c>
+      <c r="B19">
+        <v>701.5</v>
+      </c>
+      <c r="C19">
+        <v>22.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>44054.422222222223</v>
+      </c>
+      <c r="B20">
+        <v>716.3</v>
+      </c>
+      <c r="C20">
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>44069.443055555559</v>
+      </c>
+      <c r="B21">
+        <v>818.4</v>
+      </c>
+      <c r="C21">
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>44082.429166666669</v>
+      </c>
+      <c r="B22">
+        <v>660.2</v>
+      </c>
+      <c r="C22">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>44096.436111111114</v>
+      </c>
+      <c r="B23">
+        <v>674</v>
+      </c>
+      <c r="C23">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>44110.406944444447</v>
+      </c>
+      <c r="B24">
+        <v>651.79999999999995</v>
+      </c>
+      <c r="C24">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>44134.35833333333</v>
+      </c>
+      <c r="B25">
+        <v>440.1</v>
+      </c>
+      <c r="C25">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>44152.541666666664</v>
+      </c>
+      <c r="B26">
+        <v>433</v>
+      </c>
+      <c r="C26">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>44159.520833333336</v>
+      </c>
+      <c r="B27">
+        <v>469.8</v>
+      </c>
+      <c r="C27">
+        <v>3.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:C27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>43818.62222222222</v>
+      </c>
+      <c r="B2">
+        <v>472</v>
+      </c>
+      <c r="C2">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>43830.627083333333</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>43836.46875</v>
+      </c>
+      <c r="B4">
+        <v>463.7</v>
+      </c>
+      <c r="C4">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>43844.637499999997</v>
+      </c>
+      <c r="B5">
+        <v>493.2</v>
+      </c>
+      <c r="C5">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>43851.659722222219</v>
+      </c>
+      <c r="B6">
+        <v>435.5</v>
+      </c>
+      <c r="C6">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>43858.642361111109</v>
+      </c>
+      <c r="B7">
+        <v>490.2</v>
+      </c>
+      <c r="C7">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>43865.654166666667</v>
+      </c>
+      <c r="B8">
+        <v>506</v>
+      </c>
+      <c r="C8">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>43872.634722222225</v>
+      </c>
+      <c r="B9">
+        <v>494.6</v>
+      </c>
+      <c r="C9">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>43879.645833333336</v>
+      </c>
+      <c r="B10">
+        <v>574.4</v>
+      </c>
+      <c r="C10">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>43886.631249999999</v>
+      </c>
+      <c r="B11">
+        <v>783.8</v>
+      </c>
+      <c r="C11">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>43893.652777777781</v>
+      </c>
+      <c r="B12">
+        <v>389.7</v>
+      </c>
+      <c r="C12">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>43900.59097222222</v>
+      </c>
+      <c r="B13">
+        <v>432.3</v>
+      </c>
+      <c r="C13">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>43906.427083333336</v>
+      </c>
+      <c r="B14">
+        <v>491.8</v>
+      </c>
+      <c r="C14">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>43999.447916666664</v>
+      </c>
+      <c r="B15">
+        <v>716.6</v>
+      </c>
+      <c r="C15">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>44012.457638888889</v>
+      </c>
+      <c r="B16">
+        <v>588.1</v>
+      </c>
+      <c r="C16">
+        <v>21.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>44026.385416666664</v>
+      </c>
+      <c r="B17">
+        <v>722</v>
+      </c>
+      <c r="C17">
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>44033.677083333336</v>
+      </c>
+      <c r="B18">
+        <v>758.7</v>
+      </c>
+      <c r="C18">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>44040.393055555556</v>
+      </c>
+      <c r="B19">
+        <v>687.5</v>
+      </c>
+      <c r="C19">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>44054.429861111108</v>
+      </c>
+      <c r="B20">
+        <v>719.9</v>
+      </c>
+      <c r="C20">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>44069.454861111109</v>
+      </c>
+      <c r="B21">
+        <v>766.8</v>
+      </c>
+      <c r="C21">
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>44082.439583333333</v>
+      </c>
+      <c r="B22">
+        <v>657.8</v>
+      </c>
+      <c r="C22">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>44096.444444444445</v>
+      </c>
+      <c r="B23">
+        <v>679.2</v>
+      </c>
+      <c r="C23">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>44110.415277777778</v>
+      </c>
+      <c r="B24">
+        <v>621.70000000000005</v>
+      </c>
+      <c r="C24">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>44134.368055555555</v>
+      </c>
+      <c r="B25">
+        <v>514.9</v>
+      </c>
+      <c r="C25">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>44152.554861111108</v>
+      </c>
+      <c r="B26">
+        <v>510</v>
+      </c>
+      <c r="C26">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>44159.52847222222</v>
+      </c>
+      <c r="B27">
+        <v>483.3</v>
+      </c>
+      <c r="C27">
+        <v>3.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:C28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>43818.609722222223</v>
       </c>
       <c r="B2">
@@ -4684,6 +4770,17 @@
       </c>
       <c r="C27">
         <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>44159.541666666664</v>
+      </c>
+      <c r="B28">
+        <v>739.9</v>
+      </c>
+      <c r="C28">
+        <v>4.8</v>
       </c>
     </row>
   </sheetData>

--- a/Data/conductivity_field.xlsx
+++ b/Data/conductivity_field.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linne\Box Sync\Chloride Research\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB82E448-2E55-4DBA-8101-4AB50E51649B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A82AC24A-8663-45AC-A0B3-225C51226C18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loggers" sheetId="12" r:id="rId1"/>
@@ -27,14 +27,14 @@
     <sheet name="MO" sheetId="11" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">loggers!$A$1:$C$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">loggers!$A$1:$C$16</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="37">
   <si>
     <t>datetime</t>
   </si>
@@ -698,8 +698,8 @@
     </xf>
     <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1055,11 +1055,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E111E348-178D-4A81-8338-72F6E909D9F1}">
-  <dimension ref="A1:AR21"/>
+  <dimension ref="A1:AR22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C32" sqref="C32"/>
+      <selection pane="topRight" activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1161,7 +1161,7 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="20">
+      <c r="A4" s="19">
         <v>20758346</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -1238,9 +1238,12 @@
       <c r="D6" s="7">
         <v>43922.40625</v>
       </c>
+      <c r="E6" s="5">
+        <v>44139.583333333336</v>
+      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="19">
+      <c r="A7" s="18">
         <v>20758346</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1254,406 +1257,418 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>20758338</v>
+      <c r="A8" s="20">
+        <v>20378151</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="3">
-        <v>43818.5</v>
-      </c>
-      <c r="D8" s="9">
-        <v>43865.645833333336</v>
-      </c>
-      <c r="E8" s="11">
-        <v>43865.666666666664</v>
-      </c>
-      <c r="F8" s="9">
-        <v>43906.458333333336</v>
-      </c>
-      <c r="G8" s="9">
-        <v>43906.4375</v>
-      </c>
-      <c r="H8" s="3">
-        <v>43999.4375</v>
-      </c>
-      <c r="I8" s="3">
-        <v>43999.458333333336</v>
-      </c>
-      <c r="J8" s="8">
-        <v>44033.666666666664</v>
-      </c>
-      <c r="K8" s="8">
-        <v>44033.6875</v>
-      </c>
-      <c r="L8" s="8">
-        <v>44069.4375</v>
-      </c>
-      <c r="M8" s="8">
-        <v>44069.458333333336</v>
-      </c>
-      <c r="N8" s="8">
-        <v>44126.416666666664</v>
-      </c>
-      <c r="O8" s="8">
-        <v>44134.375</v>
+        <v>9</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="5">
+        <v>44139.583333333336</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
-        <v>20758344</v>
+        <v>20758338</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" s="3">
         <v>43818.5</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="9">
+        <v>43865.645833333336</v>
+      </c>
+      <c r="E9" s="11">
+        <v>43865.666666666664</v>
+      </c>
+      <c r="F9" s="9">
+        <v>43906.458333333336</v>
+      </c>
+      <c r="G9" s="9">
+        <v>43906.4375</v>
+      </c>
+      <c r="H9" s="3">
+        <v>43999.4375</v>
+      </c>
+      <c r="I9" s="3">
+        <v>43999.458333333336</v>
+      </c>
+      <c r="J9" s="8">
+        <v>44033.666666666664</v>
+      </c>
+      <c r="K9" s="8">
+        <v>44033.6875</v>
+      </c>
+      <c r="L9" s="8">
+        <v>44069.4375</v>
+      </c>
+      <c r="M9" s="8">
+        <v>44069.458333333336</v>
+      </c>
+      <c r="N9" s="8">
+        <v>44126.416666666664</v>
+      </c>
+      <c r="O9" s="8">
+        <v>44134.375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>20758344</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="3">
+        <v>43818.5</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E10" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F10" s="9">
         <v>43906.479166666664</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G10" s="9">
         <v>43906.458333333336</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H10" s="3">
         <v>43999.416666666664</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I10" s="3">
         <v>43999.4375</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J10" s="8">
         <v>44033.645833333336</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K10" s="8">
         <v>44033.666666666664</v>
       </c>
-      <c r="L9" s="8">
+      <c r="L10" s="8">
         <v>44068.458333333336</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M10" s="8">
         <v>44069.479166666664</v>
       </c>
-      <c r="N9" s="8">
+      <c r="N10" s="8">
         <v>44126.4375</v>
       </c>
-      <c r="O9" s="8">
+      <c r="O10" s="8">
         <v>44134.395833333336</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="19">
         <v>20882401</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="O10" s="8">
-        <v>44134.541666666664</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="14">
-        <v>20378151</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="3">
-        <v>43818</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="9">
-        <v>43906.416666666664</v>
-      </c>
-      <c r="G11" s="9">
-        <v>43906.395833333336</v>
-      </c>
-      <c r="H11" s="3">
-        <v>43999.583333333336</v>
-      </c>
-      <c r="I11" s="3">
-        <v>43999.604166666664</v>
-      </c>
-      <c r="L11" s="8">
-        <v>44068.583333333336</v>
-      </c>
-      <c r="M11" s="8">
-        <v>44069.604166666664</v>
-      </c>
-      <c r="N11" s="8">
-        <v>44126.520833333336</v>
-      </c>
-      <c r="O11" s="15" t="s">
-        <v>35</v>
+      <c r="D11" s="9"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="O11" s="8">
+        <v>44134.541666666664</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
-        <v>20758342</v>
+      <c r="A12" s="14">
+        <v>20378151</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C12" s="3">
         <v>43818</v>
       </c>
-      <c r="D12" s="9">
-        <v>43865.645833333336</v>
-      </c>
-      <c r="E12" s="11">
-        <v>43865.666666666664</v>
+      <c r="D12" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="F12" s="9">
-        <v>43906.458333333336</v>
+        <v>43906.416666666664</v>
       </c>
       <c r="G12" s="9">
-        <v>43906.4375</v>
+        <v>43906.395833333336</v>
       </c>
       <c r="H12" s="3">
-        <v>43999.458333333336</v>
+        <v>43999.583333333336</v>
       </c>
       <c r="I12" s="3">
-        <v>43999.479166666664</v>
-      </c>
-      <c r="J12" s="8">
-        <v>44033.666666666664</v>
-      </c>
-      <c r="K12" s="8">
-        <v>44033.6875</v>
+        <v>43999.604166666664</v>
       </c>
       <c r="L12" s="8">
-        <v>44069.4375</v>
+        <v>44068.583333333336</v>
       </c>
       <c r="M12" s="8">
-        <v>44069.458333333336</v>
+        <v>44069.604166666664</v>
       </c>
       <c r="N12" s="8">
-        <v>44126.416666666664</v>
-      </c>
-      <c r="O12" s="8">
-        <v>44134.375</v>
+        <v>44126.520833333336</v>
+      </c>
+      <c r="O12" s="15" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
-        <v>20758343</v>
+        <v>20758342</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C13" s="3">
         <v>43818</v>
       </c>
       <c r="D13" s="9">
-        <v>43865.625</v>
+        <v>43865.645833333336</v>
       </c>
       <c r="E13" s="11">
-        <v>43865.645833333336</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>22</v>
+        <v>43865.666666666664</v>
+      </c>
+      <c r="F13" s="9">
+        <v>43906.458333333336</v>
       </c>
       <c r="G13" s="9">
-        <v>43906.416666666664</v>
+        <v>43906.4375</v>
       </c>
       <c r="H13" s="3">
         <v>43999.458333333336</v>
       </c>
       <c r="I13" s="3">
-        <v>43999.5</v>
+        <v>43999.479166666664</v>
       </c>
       <c r="J13" s="8">
-        <v>44034.4375</v>
+        <v>44033.666666666664</v>
       </c>
       <c r="K13" s="8">
-        <v>44034.458333333336</v>
+        <v>44033.6875</v>
       </c>
       <c r="L13" s="8">
-        <v>44069.416666666664</v>
+        <v>44069.4375</v>
       </c>
       <c r="M13" s="8">
-        <v>44069.4375</v>
+        <v>44069.458333333336</v>
       </c>
       <c r="N13" s="8">
-        <v>44126.395833333336</v>
+        <v>44126.416666666664</v>
       </c>
       <c r="O13" s="8">
-        <v>44134.354166666664</v>
+        <v>44134.375</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
-        <v>20758347</v>
+        <v>20758343</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="3">
         <v>43818</v>
       </c>
       <c r="D14" s="9">
-        <v>43865.604166666664</v>
+        <v>43865.625</v>
       </c>
       <c r="E14" s="11">
-        <v>43865.625</v>
-      </c>
-      <c r="F14" s="9">
+        <v>43865.645833333336</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="9">
         <v>43906.416666666664</v>
       </c>
-      <c r="G14" s="9">
-        <v>43906.395833333336</v>
-      </c>
       <c r="H14" s="3">
-        <v>43999.5625</v>
+        <v>43999.458333333336</v>
       </c>
       <c r="I14" s="3">
-        <v>43999.583333333336</v>
+        <v>43999.5</v>
+      </c>
+      <c r="J14" s="8">
+        <v>44034.4375</v>
+      </c>
+      <c r="K14" s="8">
+        <v>44034.458333333336</v>
       </c>
       <c r="L14" s="8">
-        <v>44069.395833333336</v>
+        <v>44069.416666666664</v>
       </c>
       <c r="M14" s="8">
-        <v>44069.416666666664</v>
+        <v>44069.4375</v>
       </c>
       <c r="N14" s="8">
-        <v>44126.375</v>
+        <v>44126.395833333336</v>
       </c>
       <c r="O14" s="8">
-        <v>44134.333333333336</v>
+        <v>44134.354166666664</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
-        <v>20758348</v>
+        <v>20758347</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="3">
         <v>43818</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="9">
+        <v>43865.604166666664</v>
+      </c>
+      <c r="E15" s="11">
+        <v>43865.625</v>
+      </c>
+      <c r="F15" s="9">
+        <v>43906.416666666664</v>
+      </c>
+      <c r="G15" s="9">
+        <v>43906.395833333336</v>
+      </c>
+      <c r="H15" s="3">
+        <v>43999.5625</v>
+      </c>
+      <c r="I15" s="3">
+        <v>43999.583333333336</v>
+      </c>
+      <c r="L15" s="8">
+        <v>44069.395833333336</v>
+      </c>
+      <c r="M15" s="8">
+        <v>44069.416666666664</v>
+      </c>
+      <c r="N15" s="8">
+        <v>44126.375</v>
+      </c>
+      <c r="O15" s="8">
+        <v>44134.333333333336</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>20758348</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="3">
+        <v>43818</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E16" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F16" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G16" s="9">
         <v>43906.375</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H16" s="3">
         <v>43999.604166666664</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I16" s="3">
         <v>43999.625</v>
       </c>
-      <c r="L15" s="8">
+      <c r="L16" s="8">
         <v>44068.541666666664</v>
       </c>
-      <c r="M15" s="8">
+      <c r="M16" s="8">
         <v>44069.5625</v>
       </c>
-      <c r="N15" s="8">
+      <c r="N16" s="8">
         <v>44126.5</v>
       </c>
-      <c r="O15" s="8">
+      <c r="O16" s="8">
         <v>44134.5</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="13">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="13">
         <v>20758345</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="3">
-        <v>43999.666666666664</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>20882406</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="3">
+        <v>43999.666666666664</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>20882406</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="3">
         <v>44134.458333333336</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+      <c r="A20"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="10">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="10">
         <v>20484276</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B22" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C22" s="7">
         <v>43893.583333333336</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D22" s="7">
         <v>43906.364583333336</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E22" s="12">
         <v>43906.375</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F22" s="3">
         <v>43999.604166666664</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G22" s="3">
         <v>43999.625</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H22" s="8">
         <v>44068.541666666664</v>
       </c>
-      <c r="I21" s="8">
+      <c r="I22" s="8">
         <v>44069.5625</v>
       </c>
-      <c r="J21" s="8">
+      <c r="J22" s="8">
         <v>44126.5</v>
       </c>
-      <c r="K21" s="8">
+      <c r="K22" s="8">
         <v>44134.5</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C15" xr:uid="{11F3D845-95BC-440D-9376-33BD0F4945CF}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C15">
-      <sortCondition descending="1" ref="C1:C15"/>
+  <autoFilter ref="A1:C16" xr:uid="{11F3D845-95BC-440D-9376-33BD0F4945CF}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C16">
+      <sortCondition descending="1" ref="C1:C16"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1663,10 +1678,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1993,6 +2008,17 @@
       </c>
       <c r="C29">
         <v>5.9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>44169.56527777778</v>
+      </c>
+      <c r="B30">
+        <v>1386</v>
+      </c>
+      <c r="C30">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2325,10 +2351,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE7E974B-BCA0-45B0-95FE-63AB262733E9}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2481,6 +2507,17 @@
         <v>3.6</v>
       </c>
     </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>44169.418055555558</v>
+      </c>
+      <c r="B14">
+        <v>539.20000000000005</v>
+      </c>
+      <c r="C14">
+        <v>3.3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2488,10 +2525,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2809,6 +2846,17 @@
         <v>5.4</v>
       </c>
     </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>44169.432638888888</v>
+      </c>
+      <c r="B29">
+        <v>332.4</v>
+      </c>
+      <c r="C29">
+        <v>3.4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2820,7 +2868,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3189,6 +3237,15 @@
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>44169.451388888891</v>
+      </c>
+      <c r="B28">
+        <v>785.8</v>
+      </c>
+      <c r="C28">
+        <v>3.5</v>
+      </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -3216,10 +3273,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3515,6 +3572,17 @@
         <v>6</v>
       </c>
     </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>44169.467361111114</v>
+      </c>
+      <c r="B27">
+        <v>323.2</v>
+      </c>
+      <c r="C27">
+        <v>3.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3522,10 +3590,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3821,6 +3889,17 @@
         <v>3.7</v>
       </c>
     </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>44169.482638888891</v>
+      </c>
+      <c r="B27">
+        <v>439</v>
+      </c>
+      <c r="C27">
+        <v>3.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3828,10 +3907,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4138,6 +4217,17 @@
         <v>3.6</v>
       </c>
     </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>44169.536805555559</v>
+      </c>
+      <c r="B28">
+        <v>498.3</v>
+      </c>
+      <c r="C28">
+        <v>3.6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4145,10 +4235,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4455,6 +4545,17 @@
         <v>3.9</v>
       </c>
     </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>44169.541666666664</v>
+      </c>
+      <c r="B28">
+        <v>507.9</v>
+      </c>
+      <c r="C28">
+        <v>4.3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4462,10 +4563,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4783,6 +4884,17 @@
         <v>4.8</v>
       </c>
     </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>44169.556944444441</v>
+      </c>
+      <c r="B29">
+        <v>708</v>
+      </c>
+      <c r="C29">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/conductivity_field.xlsx
+++ b/Data/conductivity_field.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linne\Box Sync\Chloride Research\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A82AC24A-8663-45AC-A0B3-225C51226C18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD04CB94-5960-42DC-9ECC-076EA19458EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loggers" sheetId="12" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="37">
   <si>
     <t>datetime</t>
   </si>
@@ -1057,9 +1057,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E111E348-178D-4A81-8338-72F6E909D9F1}">
   <dimension ref="A1:AR22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1071,12 +1071,12 @@
     <col min="5" max="5" width="19.88671875" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.33203125" style="3" customWidth="1"/>
     <col min="7" max="9" width="19.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="17" width="18.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="44" width="8.88671875" style="8"/>
+    <col min="10" max="19" width="18.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="44" width="8.88671875" style="8"/>
     <col min="45" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -1128,8 +1128,14 @@
       <c r="Q1" s="8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>20758340</v>
       </c>
@@ -1146,7 +1152,7 @@
         <v>44141.5</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="18">
         <v>20758345</v>
       </c>
@@ -1160,7 +1166,7 @@
         <v>43963.53125</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="19">
         <v>20758346</v>
       </c>
@@ -1172,7 +1178,7 @@
         <v>44141.5</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>20758339</v>
       </c>
@@ -1224,8 +1230,14 @@
       <c r="Q5" s="8">
         <v>44134.416666666664</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R5" s="8">
+        <v>44180.666666666664</v>
+      </c>
+      <c r="S5" s="8">
+        <v>44180.6875</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>20758341</v>
       </c>
@@ -1242,7 +1254,7 @@
         <v>44139.583333333336</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="18">
         <v>20758346</v>
       </c>
@@ -1256,7 +1268,7 @@
         <v>43922.40625</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="20">
         <v>20378151</v>
       </c>
@@ -1268,7 +1280,7 @@
         <v>44139.583333333336</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>20758338</v>
       </c>
@@ -1314,8 +1326,14 @@
       <c r="O9" s="8">
         <v>44134.375</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P9" s="8">
+        <v>44180.625</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>44180.666666666664</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>20758344</v>
       </c>
@@ -1361,8 +1379,14 @@
       <c r="O10" s="8">
         <v>44134.395833333336</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P10" s="8">
+        <v>44180.645833333336</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>44180.6875</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="19">
         <v>20882401</v>
       </c>
@@ -1376,8 +1400,14 @@
       <c r="O11" s="8">
         <v>44134.541666666664</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P11" s="8">
+        <v>44180.520833333336</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>44180.541666666664</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="14">
         <v>20378151</v>
       </c>
@@ -1418,7 +1448,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>20758342</v>
       </c>
@@ -1464,8 +1494,14 @@
       <c r="O13" s="8">
         <v>44134.375</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P13" s="8">
+        <v>44180.625</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>44180.645833333336</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>20758343</v>
       </c>
@@ -1511,8 +1547,14 @@
       <c r="O14" s="8">
         <v>44134.354166666664</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P14" s="8">
+        <v>44180.604166666664</v>
+      </c>
+      <c r="Q14" s="8">
+        <v>44180.625</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>20758347</v>
       </c>
@@ -1552,8 +1594,14 @@
       <c r="O15" s="8">
         <v>44134.333333333336</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P15" s="8">
+        <v>44180.541666666664</v>
+      </c>
+      <c r="Q15" s="8">
+        <v>44180.5625</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>20758348</v>
       </c>
@@ -1593,8 +1641,14 @@
       <c r="O16" s="8">
         <v>44134.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="P16" s="8">
+        <v>44180.479166666664</v>
+      </c>
+      <c r="Q16" s="8">
+        <v>44180.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="13">
         <v>20758345</v>
       </c>
@@ -1608,7 +1662,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>20882406</v>
       </c>
@@ -1618,19 +1672,25 @@
       <c r="C18" s="3">
         <v>44134.458333333336</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="P18" s="8">
+        <v>44180.458333333336</v>
+      </c>
+      <c r="Q18" s="8">
+        <v>44180.479166666664</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <v>20484276</v>
       </c>
@@ -1663,6 +1723,12 @@
       </c>
       <c r="K22" s="8">
         <v>44134.5</v>
+      </c>
+      <c r="P22" s="8">
+        <v>44180.479166666664</v>
+      </c>
+      <c r="Q22" s="8">
+        <v>44180.5</v>
       </c>
     </row>
   </sheetData>
@@ -1678,10 +1744,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2019,6 +2085,17 @@
       </c>
       <c r="C30">
         <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>44180.684027777781</v>
+      </c>
+      <c r="B31">
+        <v>1271</v>
+      </c>
+      <c r="C31">
+        <v>2.1</v>
       </c>
     </row>
   </sheetData>
@@ -2351,10 +2428,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE7E974B-BCA0-45B0-95FE-63AB262733E9}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2518,6 +2595,17 @@
         <v>3.3</v>
       </c>
     </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>44180.472222222219</v>
+      </c>
+      <c r="B15">
+        <v>499.8</v>
+      </c>
+      <c r="C15">
+        <v>0.8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2525,9 +2613,1433 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>43818.686111111114</v>
+      </c>
+      <c r="B2">
+        <v>308.10000000000002</v>
+      </c>
+      <c r="C2">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>43830.505555555559</v>
+      </c>
+      <c r="B3">
+        <v>305.8</v>
+      </c>
+      <c r="C3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>43836.398611111108</v>
+      </c>
+      <c r="B4">
+        <v>299.7</v>
+      </c>
+      <c r="C4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>43844.568055555559</v>
+      </c>
+      <c r="B5">
+        <v>313.3</v>
+      </c>
+      <c r="C5">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>43851.578472222223</v>
+      </c>
+      <c r="B6">
+        <v>312.8</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>43858.57708333333</v>
+      </c>
+      <c r="B7">
+        <v>316.3</v>
+      </c>
+      <c r="C7">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>43864.621527777781</v>
+      </c>
+      <c r="B8">
+        <v>319.60000000000002</v>
+      </c>
+      <c r="C8">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>43865.577777777777</v>
+      </c>
+      <c r="B9">
+        <v>323.60000000000002</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>43872.574999999997</v>
+      </c>
+      <c r="B10">
+        <v>358.2</v>
+      </c>
+      <c r="C10">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>43879.581250000003</v>
+      </c>
+      <c r="B11">
+        <v>359.9</v>
+      </c>
+      <c r="C11">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>43886.572222222225</v>
+      </c>
+      <c r="B12">
+        <v>336.7</v>
+      </c>
+      <c r="C12">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>43893.57708333333</v>
+      </c>
+      <c r="B13">
+        <v>368.2</v>
+      </c>
+      <c r="C13">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>43900.530555555553</v>
+      </c>
+      <c r="B14">
+        <v>357.9</v>
+      </c>
+      <c r="C14">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>43906.355555555558</v>
+      </c>
+      <c r="B15">
+        <v>330.5</v>
+      </c>
+      <c r="C15">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>43999.611111111109</v>
+      </c>
+      <c r="B16">
+        <v>597.20000000000005</v>
+      </c>
+      <c r="C16">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>44012.388194444444</v>
+      </c>
+      <c r="B17">
+        <v>582.20000000000005</v>
+      </c>
+      <c r="C17">
+        <v>25.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>44026.480555555558</v>
+      </c>
+      <c r="B18">
+        <v>576.4</v>
+      </c>
+      <c r="C18">
+        <v>27.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>44034.446527777778</v>
+      </c>
+      <c r="B19">
+        <v>506.6</v>
+      </c>
+      <c r="C19">
+        <v>26.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>44040.458333333336</v>
+      </c>
+      <c r="B20">
+        <v>570.6</v>
+      </c>
+      <c r="C20">
+        <v>26.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>44054.487500000003</v>
+      </c>
+      <c r="B21">
+        <v>550.5</v>
+      </c>
+      <c r="C21">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>44069.559027777781</v>
+      </c>
+      <c r="B22">
+        <v>564.9</v>
+      </c>
+      <c r="C22">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>44082.489583333336</v>
+      </c>
+      <c r="B23">
+        <v>469.9</v>
+      </c>
+      <c r="C23">
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>44096.490972222222</v>
+      </c>
+      <c r="B24">
+        <v>491.1</v>
+      </c>
+      <c r="C24">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>44110.461805555555</v>
+      </c>
+      <c r="B25">
+        <v>460.5</v>
+      </c>
+      <c r="C25">
+        <v>16.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>44134.479166666664</v>
+      </c>
+      <c r="B26">
+        <v>379.9</v>
+      </c>
+      <c r="C26">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>44152.438888888886</v>
+      </c>
+      <c r="B27">
+        <v>347.4</v>
+      </c>
+      <c r="C27">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>44159.43472222222</v>
+      </c>
+      <c r="B28">
+        <v>358.9</v>
+      </c>
+      <c r="C28">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>44169.432638888888</v>
+      </c>
+      <c r="B29">
+        <v>332.4</v>
+      </c>
+      <c r="C29">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>44180.50277777778</v>
+      </c>
+      <c r="B30">
+        <v>310.8</v>
+      </c>
+      <c r="C30">
+        <v>0.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="18.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>43818.667361111111</v>
+      </c>
+      <c r="B2">
+        <v>664.2</v>
+      </c>
+      <c r="C2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>43830.530555555553</v>
+      </c>
+      <c r="B3">
+        <v>541.20000000000005</v>
+      </c>
+      <c r="C3">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>43836.398611111108</v>
+      </c>
+      <c r="B4">
+        <v>675.4</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>43844.586111111108</v>
+      </c>
+      <c r="B5">
+        <v>1016</v>
+      </c>
+      <c r="C5">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>43851.604166666664</v>
+      </c>
+      <c r="B6">
+        <v>767.8</v>
+      </c>
+      <c r="C6">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>43858.595138888886</v>
+      </c>
+      <c r="B7">
+        <v>1119</v>
+      </c>
+      <c r="C7">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>43864.65625</v>
+      </c>
+      <c r="B8">
+        <v>946.6</v>
+      </c>
+      <c r="C8">
+        <v>4.3</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>43865.592361111114</v>
+      </c>
+      <c r="B9">
+        <v>851.2</v>
+      </c>
+      <c r="C9">
+        <v>2.6</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>43872.594444444447</v>
+      </c>
+      <c r="B10">
+        <v>1366.6</v>
+      </c>
+      <c r="C10">
+        <v>1.9</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>43879.600694444445</v>
+      </c>
+      <c r="B11">
+        <v>1504</v>
+      </c>
+      <c r="C11">
+        <v>2.4</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>43886.588888888888</v>
+      </c>
+      <c r="B12">
+        <v>923.3</v>
+      </c>
+      <c r="C12">
+        <v>3.2</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>43893.597916666666</v>
+      </c>
+      <c r="B13">
+        <v>762.1</v>
+      </c>
+      <c r="C13">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>43900.546527777777</v>
+      </c>
+      <c r="B14">
+        <v>653.20000000000005</v>
+      </c>
+      <c r="C14">
+        <v>7</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>43906.375694444447</v>
+      </c>
+      <c r="B15">
+        <v>759.1</v>
+      </c>
+      <c r="C15">
+        <v>3.7</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>43999.588888888888</v>
+      </c>
+      <c r="B16">
+        <v>1116</v>
+      </c>
+      <c r="C16">
+        <v>23.5</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>44012.525694444441</v>
+      </c>
+      <c r="B17">
+        <v>688.5</v>
+      </c>
+      <c r="C17">
+        <v>227.1</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>44026.497916666667</v>
+      </c>
+      <c r="B18">
+        <v>783.5</v>
+      </c>
+      <c r="C18">
+        <v>24.3</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>44040.489583333336</v>
+      </c>
+      <c r="B19">
+        <v>526.5</v>
+      </c>
+      <c r="C19">
+        <v>24.3</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>44054.505555555559</v>
+      </c>
+      <c r="B20">
+        <v>1050</v>
+      </c>
+      <c r="C20">
+        <v>22.6</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>44069.591666666667</v>
+      </c>
+      <c r="B21">
+        <v>951.1</v>
+      </c>
+      <c r="C21">
+        <v>24.9</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>44082.511805555558</v>
+      </c>
+      <c r="B22">
+        <v>911.7</v>
+      </c>
+      <c r="C22">
+        <v>16</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>44096.511111111111</v>
+      </c>
+      <c r="B23">
+        <v>1064</v>
+      </c>
+      <c r="C23">
+        <v>17.5</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>44110.481249999997</v>
+      </c>
+      <c r="B24">
+        <v>954.4</v>
+      </c>
+      <c r="C24">
+        <v>12.5</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>44134.525694444441</v>
+      </c>
+      <c r="B25">
+        <v>746.5</v>
+      </c>
+      <c r="C25">
+        <v>6.7</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>44152.459027777775</v>
+      </c>
+      <c r="B26">
+        <v>682.5</v>
+      </c>
+      <c r="C26">
+        <v>3.9</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>44159.450694444444</v>
+      </c>
+      <c r="B27">
+        <v>769.7</v>
+      </c>
+      <c r="C27">
+        <v>4.7</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>44169.451388888891</v>
+      </c>
+      <c r="B28">
+        <v>785.8</v>
+      </c>
+      <c r="C28">
+        <v>3.5</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>44180.529166666667</v>
+      </c>
+      <c r="B29">
+        <v>756.8</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H32" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>43818.652777777781</v>
+      </c>
+      <c r="B2">
+        <v>290.5</v>
+      </c>
+      <c r="C2">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>43830.57708333333</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>43836.429861111108</v>
+      </c>
+      <c r="B4">
+        <v>291.7</v>
+      </c>
+      <c r="C4">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>43844.600694444445</v>
+      </c>
+      <c r="B5">
+        <v>298.60000000000002</v>
+      </c>
+      <c r="C5">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>43851.118750000001</v>
+      </c>
+      <c r="B6">
+        <v>292.8</v>
+      </c>
+      <c r="C6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>43858.609722222223</v>
+      </c>
+      <c r="B7">
+        <v>299.60000000000002</v>
+      </c>
+      <c r="C7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>43865.606944444444</v>
+      </c>
+      <c r="B8">
+        <v>302</v>
+      </c>
+      <c r="C8">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>43872.607638888891</v>
+      </c>
+      <c r="B9">
+        <v>332.84</v>
+      </c>
+      <c r="C9">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>43879.617361111108</v>
+      </c>
+      <c r="B10">
+        <v>347.9</v>
+      </c>
+      <c r="C10">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>43886.603472222225</v>
+      </c>
+      <c r="B11">
+        <v>312.60000000000002</v>
+      </c>
+      <c r="C11">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>43893.614583333336</v>
+      </c>
+      <c r="B12">
+        <v>327.60000000000002</v>
+      </c>
+      <c r="C12">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>43900.560416666667</v>
+      </c>
+      <c r="B13">
+        <v>320.7</v>
+      </c>
+      <c r="C13">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>43906.38958333333</v>
+      </c>
+      <c r="B14">
+        <v>306.10000000000002</v>
+      </c>
+      <c r="C14">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>43999.572916666664</v>
+      </c>
+      <c r="B15">
+        <v>557</v>
+      </c>
+      <c r="C15">
+        <v>25.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>44012.412499999999</v>
+      </c>
+      <c r="B16">
+        <v>540.5</v>
+      </c>
+      <c r="C16">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>44026.440972222219</v>
+      </c>
+      <c r="B17">
+        <v>510.8</v>
+      </c>
+      <c r="C17">
+        <v>26.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>44040.352777777778</v>
+      </c>
+      <c r="B18">
+        <v>479.6</v>
+      </c>
+      <c r="C18">
+        <v>24.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>44054.390972222223</v>
+      </c>
+      <c r="B19">
+        <v>486.8</v>
+      </c>
+      <c r="C19">
+        <v>24.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>44069.406944444447</v>
+      </c>
+      <c r="B20">
+        <v>490.2</v>
+      </c>
+      <c r="C20">
+        <v>25.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>44082.39166666667</v>
+      </c>
+      <c r="B21">
+        <v>433.4</v>
+      </c>
+      <c r="C21">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>44096.402777777781</v>
+      </c>
+      <c r="B22">
+        <v>442.5</v>
+      </c>
+      <c r="C22">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>44110.375</v>
+      </c>
+      <c r="B23">
+        <v>405</v>
+      </c>
+      <c r="C23">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>44134.325694444444</v>
+      </c>
+      <c r="B24">
+        <v>360.2</v>
+      </c>
+      <c r="C24">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>44152.475694444445</v>
+      </c>
+      <c r="B25">
+        <v>343.1</v>
+      </c>
+      <c r="C25">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>44159.469444444447</v>
+      </c>
+      <c r="B26">
+        <v>346.4</v>
+      </c>
+      <c r="C26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>44169.467361111114</v>
+      </c>
+      <c r="B27">
+        <v>323.2</v>
+      </c>
+      <c r="C27">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>44180.553472222222</v>
+      </c>
+      <c r="B28">
+        <v>310.8</v>
+      </c>
+      <c r="C28">
+        <v>1.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:C28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>43818.638888888891</v>
+      </c>
+      <c r="B2">
+        <v>452.2</v>
+      </c>
+      <c r="C2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>43830.6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>43836.447222222225</v>
+      </c>
+      <c r="B4">
+        <v>425.2</v>
+      </c>
+      <c r="C4">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>43844.600694444445</v>
+      </c>
+      <c r="B5">
+        <v>437.8</v>
+      </c>
+      <c r="C5">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>43851.635416666664</v>
+      </c>
+      <c r="B6">
+        <v>453.4</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>43858.625</v>
+      </c>
+      <c r="B7">
+        <v>457.6</v>
+      </c>
+      <c r="C7">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>43865.629166666666</v>
+      </c>
+      <c r="B8">
+        <v>432.1</v>
+      </c>
+      <c r="C8">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>43872.621527777781</v>
+      </c>
+      <c r="B9">
+        <v>512.36</v>
+      </c>
+      <c r="C9">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>43879.131249999999</v>
+      </c>
+      <c r="B10">
+        <v>442.3</v>
+      </c>
+      <c r="C10">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>43886.615972222222</v>
+      </c>
+      <c r="B11">
+        <v>451.3</v>
+      </c>
+      <c r="C11">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>43893.629166666666</v>
+      </c>
+      <c r="B12">
+        <v>476.7</v>
+      </c>
+      <c r="C12">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>43900.574305555558</v>
+      </c>
+      <c r="B13">
+        <v>353.7</v>
+      </c>
+      <c r="C13">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>43906.40625</v>
+      </c>
+      <c r="B14">
+        <v>409.7</v>
+      </c>
+      <c r="C14">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>43999.487500000003</v>
+      </c>
+      <c r="B15">
+        <v>487.5</v>
+      </c>
+      <c r="C15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>44012.429861111108</v>
+      </c>
+      <c r="B16">
+        <v>682.5</v>
+      </c>
+      <c r="C16">
+        <v>27.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>44026.414583333331</v>
+      </c>
+      <c r="B17">
+        <v>493.5</v>
+      </c>
+      <c r="C17">
+        <v>26.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>44040.37222222222</v>
+      </c>
+      <c r="B18">
+        <v>687.5</v>
+      </c>
+      <c r="C18">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>44054.408333333333</v>
+      </c>
+      <c r="B19">
+        <v>687.1</v>
+      </c>
+      <c r="C19">
+        <v>24.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>44069.425000000003</v>
+      </c>
+      <c r="B20">
+        <v>724.4</v>
+      </c>
+      <c r="C20">
+        <v>26.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>44082.409722222219</v>
+      </c>
+      <c r="B21">
+        <v>557.4</v>
+      </c>
+      <c r="C21">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>44096.418749999997</v>
+      </c>
+      <c r="B22">
+        <v>571.1</v>
+      </c>
+      <c r="C22">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>44110.392361111109</v>
+      </c>
+      <c r="B23">
+        <v>553.5</v>
+      </c>
+      <c r="C23">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>44134.345138888886</v>
+      </c>
+      <c r="B24">
+        <v>344.1</v>
+      </c>
+      <c r="C24">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>44152.529166666667</v>
+      </c>
+      <c r="B25">
+        <v>378</v>
+      </c>
+      <c r="C25">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>44159.513194444444</v>
+      </c>
+      <c r="B26">
+        <v>441.4</v>
+      </c>
+      <c r="C26">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>44169.482638888891</v>
+      </c>
+      <c r="B27">
+        <v>439</v>
+      </c>
+      <c r="C27">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>44180.623611111114</v>
+      </c>
+      <c r="B28">
+        <v>445.7</v>
+      </c>
+      <c r="C28">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
@@ -2551,732 +4063,323 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>43818.686111111114</v>
+        <v>43818.631249999999</v>
       </c>
       <c r="B2">
-        <v>308.10000000000002</v>
+        <v>450.3</v>
       </c>
       <c r="C2">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>43830.505555555559</v>
-      </c>
-      <c r="B3">
-        <v>305.8</v>
-      </c>
-      <c r="C3">
-        <v>0.2</v>
+        <v>43830.619444444441</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>43836.398611111108</v>
+        <v>43836.461111111108</v>
       </c>
       <c r="B4">
-        <v>299.7</v>
+        <v>431.8</v>
       </c>
       <c r="C4">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>43844.568055555559</v>
+        <v>43844.62777777778</v>
       </c>
       <c r="B5">
-        <v>313.3</v>
+        <v>484.4</v>
       </c>
       <c r="C5">
-        <v>1.5</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>43851.578472222223</v>
+        <v>43851.649305555555</v>
       </c>
       <c r="B6">
-        <v>312.8</v>
+        <v>240.7</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>43858.57708333333</v>
+        <v>43858.634027777778</v>
       </c>
       <c r="B7">
-        <v>316.3</v>
+        <v>480.5</v>
       </c>
       <c r="C7">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>43864.621527777781</v>
+        <v>43865.643055555556</v>
       </c>
       <c r="B8">
-        <v>319.60000000000002</v>
+        <v>471</v>
       </c>
       <c r="C8">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>43865.577777777777</v>
+        <v>43872.629861111112</v>
       </c>
       <c r="B9">
-        <v>323.60000000000002</v>
+        <v>489.8</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>43872.574999999997</v>
+        <v>43879.640277777777</v>
       </c>
       <c r="B10">
-        <v>358.2</v>
+        <v>525.5</v>
       </c>
       <c r="C10">
-        <v>2.2999999999999998</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>43879.581250000003</v>
+        <v>43886.625</v>
       </c>
       <c r="B11">
-        <v>359.9</v>
+        <v>520.79999999999995</v>
       </c>
       <c r="C11">
-        <v>2.5</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>43886.572222222225</v>
+        <v>43893.638888888891</v>
       </c>
       <c r="B12">
-        <v>336.7</v>
+        <v>415.7</v>
       </c>
       <c r="C12">
-        <v>2.8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>43893.57708333333</v>
+        <v>43900.582638888889</v>
       </c>
       <c r="B13">
-        <v>368.2</v>
+        <v>374.8</v>
       </c>
       <c r="C13">
-        <v>3.9</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>43900.530555555553</v>
+        <v>43906.416666666664</v>
       </c>
       <c r="B14">
-        <v>357.9</v>
+        <v>452.8</v>
       </c>
       <c r="C14">
-        <v>6.2</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>43906.355555555558</v>
+        <v>43999.46875</v>
       </c>
       <c r="B15">
-        <v>330.5</v>
+        <v>708.6</v>
       </c>
       <c r="C15">
-        <v>2.9</v>
+        <v>22.4</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>43999.611111111109</v>
+        <v>44012.448611111111</v>
       </c>
       <c r="B16">
-        <v>597.20000000000005</v>
+        <v>683.1</v>
       </c>
       <c r="C16">
-        <v>25.4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>44012.388194444444</v>
+        <v>44026.395833333336</v>
       </c>
       <c r="B17">
-        <v>582.20000000000005</v>
+        <v>508.5</v>
       </c>
       <c r="C17">
-        <v>25.2</v>
+        <v>23.2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>44026.480555555558</v>
+        <v>44033.688194444447</v>
       </c>
       <c r="B18">
-        <v>576.4</v>
+        <v>657.5</v>
       </c>
       <c r="C18">
-        <v>27.1</v>
+        <v>22.9</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>44034.446527777778</v>
+        <v>44040.383333333331</v>
       </c>
       <c r="B19">
-        <v>506.6</v>
+        <v>701.5</v>
       </c>
       <c r="C19">
-        <v>26.3</v>
+        <v>22.3</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>44040.458333333336</v>
+        <v>44054.422222222223</v>
       </c>
       <c r="B20">
-        <v>570.6</v>
+        <v>716.3</v>
       </c>
       <c r="C20">
-        <v>26.3</v>
+        <v>20.7</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>44054.487500000003</v>
+        <v>44069.443055555559</v>
       </c>
       <c r="B21">
-        <v>550.5</v>
+        <v>818.4</v>
       </c>
       <c r="C21">
-        <v>22.6</v>
+        <v>22.9</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>44069.559027777781</v>
+        <v>44082.429166666669</v>
       </c>
       <c r="B22">
-        <v>564.9</v>
+        <v>660.2</v>
       </c>
       <c r="C22">
-        <v>27.4</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>44082.489583333336</v>
+        <v>44096.436111111114</v>
       </c>
       <c r="B23">
-        <v>469.9</v>
+        <v>674</v>
       </c>
       <c r="C23">
-        <v>17.8</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>44096.490972222222</v>
+        <v>44110.406944444447</v>
       </c>
       <c r="B24">
-        <v>491.1</v>
+        <v>651.79999999999995</v>
       </c>
       <c r="C24">
-        <v>19.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>44110.461805555555</v>
+        <v>44134.35833333333</v>
       </c>
       <c r="B25">
-        <v>460.5</v>
+        <v>440.1</v>
       </c>
       <c r="C25">
-        <v>16.3</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>44134.479166666664</v>
+        <v>44152.541666666664</v>
       </c>
       <c r="B26">
-        <v>379.9</v>
+        <v>433</v>
       </c>
       <c r="C26">
-        <v>8.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>44152.438888888886</v>
+        <v>44159.520833333336</v>
       </c>
       <c r="B27">
-        <v>347.4</v>
+        <v>469.8</v>
       </c>
       <c r="C27">
-        <v>4.7</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>44159.43472222222</v>
+        <v>44169.536805555559</v>
       </c>
       <c r="B28">
-        <v>358.9</v>
+        <v>498.3</v>
       </c>
       <c r="C28">
-        <v>5.4</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>44169.432638888888</v>
+        <v>44180.638194444444</v>
       </c>
       <c r="B29">
-        <v>332.4</v>
+        <v>457.5</v>
       </c>
       <c r="C29">
-        <v>3.4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="18.109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>43818.667361111111</v>
-      </c>
-      <c r="B2">
-        <v>664.2</v>
-      </c>
-      <c r="C2">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>43830.530555555553</v>
-      </c>
-      <c r="B3">
-        <v>541.20000000000005</v>
-      </c>
-      <c r="C3">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>43836.398611111108</v>
-      </c>
-      <c r="B4">
-        <v>675.4</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>43844.586111111108</v>
-      </c>
-      <c r="B5">
-        <v>1016</v>
-      </c>
-      <c r="C5">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>43851.604166666664</v>
-      </c>
-      <c r="B6">
-        <v>767.8</v>
-      </c>
-      <c r="C6">
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>43858.595138888886</v>
-      </c>
-      <c r="B7">
-        <v>1119</v>
-      </c>
-      <c r="C7">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>43864.65625</v>
-      </c>
-      <c r="B8">
-        <v>946.6</v>
-      </c>
-      <c r="C8">
-        <v>4.3</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>43865.592361111114</v>
-      </c>
-      <c r="B9">
-        <v>851.2</v>
-      </c>
-      <c r="C9">
-        <v>2.6</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>43872.594444444447</v>
-      </c>
-      <c r="B10">
-        <v>1366.6</v>
-      </c>
-      <c r="C10">
-        <v>1.9</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>43879.600694444445</v>
-      </c>
-      <c r="B11">
-        <v>1504</v>
-      </c>
-      <c r="C11">
-        <v>2.4</v>
-      </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>43886.588888888888</v>
-      </c>
-      <c r="B12">
-        <v>923.3</v>
-      </c>
-      <c r="C12">
-        <v>3.2</v>
-      </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>43893.597916666666</v>
-      </c>
-      <c r="B13">
-        <v>762.1</v>
-      </c>
-      <c r="C13">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>43900.546527777777</v>
-      </c>
-      <c r="B14">
-        <v>653.20000000000005</v>
-      </c>
-      <c r="C14">
-        <v>7</v>
-      </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>43906.375694444447</v>
-      </c>
-      <c r="B15">
-        <v>759.1</v>
-      </c>
-      <c r="C15">
-        <v>3.7</v>
-      </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>43999.588888888888</v>
-      </c>
-      <c r="B16">
-        <v>1116</v>
-      </c>
-      <c r="C16">
-        <v>23.5</v>
-      </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>44012.525694444441</v>
-      </c>
-      <c r="B17">
-        <v>688.5</v>
-      </c>
-      <c r="C17">
-        <v>227.1</v>
-      </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>44026.497916666667</v>
-      </c>
-      <c r="B18">
-        <v>783.5</v>
-      </c>
-      <c r="C18">
-        <v>24.3</v>
-      </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>44040.489583333336</v>
-      </c>
-      <c r="B19">
-        <v>526.5</v>
-      </c>
-      <c r="C19">
-        <v>24.3</v>
-      </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>44054.505555555559</v>
-      </c>
-      <c r="B20">
-        <v>1050</v>
-      </c>
-      <c r="C20">
-        <v>22.6</v>
-      </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>44069.591666666667</v>
-      </c>
-      <c r="B21">
-        <v>951.1</v>
-      </c>
-      <c r="C21">
-        <v>24.9</v>
-      </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>44082.511805555558</v>
-      </c>
-      <c r="B22">
-        <v>911.7</v>
-      </c>
-      <c r="C22">
-        <v>16</v>
-      </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>44096.511111111111</v>
-      </c>
-      <c r="B23">
-        <v>1064</v>
-      </c>
-      <c r="C23">
-        <v>17.5</v>
-      </c>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>44110.481249999997</v>
-      </c>
-      <c r="B24">
-        <v>954.4</v>
-      </c>
-      <c r="C24">
-        <v>12.5</v>
-      </c>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>44134.525694444441</v>
-      </c>
-      <c r="B25">
-        <v>746.5</v>
-      </c>
-      <c r="C25">
-        <v>6.7</v>
-      </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>44152.459027777775</v>
-      </c>
-      <c r="B26">
-        <v>682.5</v>
-      </c>
-      <c r="C26">
-        <v>3.9</v>
-      </c>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <v>44159.450694444444</v>
-      </c>
-      <c r="B27">
-        <v>769.7</v>
-      </c>
-      <c r="C27">
-        <v>4.7</v>
-      </c>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
-        <v>44169.451388888891</v>
-      </c>
-      <c r="B28">
-        <v>785.8</v>
-      </c>
-      <c r="C28">
-        <v>3.5</v>
-      </c>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="H32" s="1"/>
+        <v>0.1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C27"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3299,18 +4402,18 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>43818.652777777781</v>
+        <v>43818.62222222222</v>
       </c>
       <c r="B2">
-        <v>290.5</v>
+        <v>472</v>
       </c>
       <c r="C2">
-        <v>1.6</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>43830.57708333333</v>
+        <v>43830.627083333333</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -3321,266 +4424,288 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>43836.429861111108</v>
+        <v>43836.46875</v>
       </c>
       <c r="B4">
-        <v>291.7</v>
+        <v>463.7</v>
       </c>
       <c r="C4">
-        <v>0.4</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>43844.600694444445</v>
+        <v>43844.637499999997</v>
       </c>
       <c r="B5">
-        <v>298.60000000000002</v>
+        <v>493.2</v>
       </c>
       <c r="C5">
-        <v>1.1000000000000001</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>43851.118750000001</v>
+        <v>43851.659722222219</v>
       </c>
       <c r="B6">
-        <v>292.8</v>
+        <v>435.5</v>
       </c>
       <c r="C6">
-        <v>0.1</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>43858.609722222223</v>
+        <v>43858.642361111109</v>
       </c>
       <c r="B7">
-        <v>299.60000000000002</v>
+        <v>490.2</v>
       </c>
       <c r="C7">
-        <v>0.3</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>43865.606944444444</v>
+        <v>43865.654166666667</v>
       </c>
       <c r="B8">
-        <v>302</v>
+        <v>506</v>
       </c>
       <c r="C8">
-        <v>1.4</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>43872.607638888891</v>
+        <v>43872.634722222225</v>
       </c>
       <c r="B9">
-        <v>332.84</v>
+        <v>494.6</v>
       </c>
       <c r="C9">
-        <v>1.4</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>43879.617361111108</v>
+        <v>43879.645833333336</v>
       </c>
       <c r="B10">
-        <v>347.9</v>
+        <v>574.4</v>
       </c>
       <c r="C10">
-        <v>1.6</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>43886.603472222225</v>
+        <v>43886.631249999999</v>
       </c>
       <c r="B11">
-        <v>312.60000000000002</v>
+        <v>783.8</v>
       </c>
       <c r="C11">
-        <v>1.8</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>43893.614583333336</v>
+        <v>43893.652777777781</v>
       </c>
       <c r="B12">
-        <v>327.60000000000002</v>
+        <v>389.7</v>
       </c>
       <c r="C12">
-        <v>3.8</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>43900.560416666667</v>
+        <v>43900.59097222222</v>
       </c>
       <c r="B13">
-        <v>320.7</v>
+        <v>432.3</v>
       </c>
       <c r="C13">
-        <v>5.3</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>43906.38958333333</v>
+        <v>43906.427083333336</v>
       </c>
       <c r="B14">
-        <v>306.10000000000002</v>
+        <v>491.8</v>
       </c>
       <c r="C14">
-        <v>2.8</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>43999.572916666664</v>
+        <v>43999.447916666664</v>
       </c>
       <c r="B15">
-        <v>557</v>
+        <v>716.6</v>
       </c>
       <c r="C15">
-        <v>25.2</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>44012.412499999999</v>
+        <v>44012.457638888889</v>
       </c>
       <c r="B16">
-        <v>540.5</v>
+        <v>588.1</v>
       </c>
       <c r="C16">
-        <v>25.5</v>
+        <v>21.3</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>44026.440972222219</v>
+        <v>44026.385416666664</v>
       </c>
       <c r="B17">
-        <v>510.8</v>
+        <v>722</v>
       </c>
       <c r="C17">
-        <v>26.3</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>44040.352777777778</v>
+        <v>44033.677083333336</v>
       </c>
       <c r="B18">
-        <v>479.6</v>
+        <v>758.7</v>
       </c>
       <c r="C18">
-        <v>24.8</v>
+        <v>20.2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>44054.390972222223</v>
+        <v>44040.393055555556</v>
       </c>
       <c r="B19">
-        <v>486.8</v>
+        <v>687.5</v>
       </c>
       <c r="C19">
-        <v>24.1</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>44069.406944444447</v>
+        <v>44054.429861111108</v>
       </c>
       <c r="B20">
-        <v>490.2</v>
+        <v>719.9</v>
       </c>
       <c r="C20">
-        <v>25.7</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>44082.39166666667</v>
+        <v>44069.454861111109</v>
       </c>
       <c r="B21">
-        <v>433.4</v>
+        <v>766.8</v>
       </c>
       <c r="C21">
-        <v>18.8</v>
+        <v>20.3</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>44096.402777777781</v>
+        <v>44082.439583333333</v>
       </c>
       <c r="B22">
-        <v>442.5</v>
+        <v>657.8</v>
       </c>
       <c r="C22">
-        <v>18.5</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>44110.375</v>
+        <v>44096.444444444445</v>
       </c>
       <c r="B23">
-        <v>405</v>
+        <v>679.2</v>
       </c>
       <c r="C23">
-        <v>14.2</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>44134.325694444444</v>
+        <v>44110.415277777778</v>
       </c>
       <c r="B24">
-        <v>360.2</v>
+        <v>621.70000000000005</v>
       </c>
       <c r="C24">
-        <v>7.5</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>44152.475694444445</v>
+        <v>44134.368055555555</v>
       </c>
       <c r="B25">
-        <v>343.1</v>
+        <v>514.9</v>
       </c>
       <c r="C25">
-        <v>5.9</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>44159.469444444447</v>
+        <v>44152.554861111108</v>
       </c>
       <c r="B26">
-        <v>346.4</v>
+        <v>510</v>
       </c>
       <c r="C26">
-        <v>6</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>44169.467361111114</v>
+        <v>44159.52847222222</v>
       </c>
       <c r="B27">
-        <v>323.2</v>
+        <v>483.3</v>
       </c>
       <c r="C27">
-        <v>3.5</v>
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>44169.541666666664</v>
+      </c>
+      <c r="B28">
+        <v>507.9</v>
+      </c>
+      <c r="C28">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>44180.649305555555</v>
+      </c>
+      <c r="B29">
+        <v>449.3</v>
+      </c>
+      <c r="C29">
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>
@@ -3588,12 +4713,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C27"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3616,979 +4741,6 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>43818.638888888891</v>
-      </c>
-      <c r="B2">
-        <v>452.2</v>
-      </c>
-      <c r="C2">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>43830.6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>43836.447222222225</v>
-      </c>
-      <c r="B4">
-        <v>425.2</v>
-      </c>
-      <c r="C4">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>43844.600694444445</v>
-      </c>
-      <c r="B5">
-        <v>437.8</v>
-      </c>
-      <c r="C5">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>43851.635416666664</v>
-      </c>
-      <c r="B6">
-        <v>453.4</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>43858.625</v>
-      </c>
-      <c r="B7">
-        <v>457.6</v>
-      </c>
-      <c r="C7">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>43865.629166666666</v>
-      </c>
-      <c r="B8">
-        <v>432.1</v>
-      </c>
-      <c r="C8">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>43872.621527777781</v>
-      </c>
-      <c r="B9">
-        <v>512.36</v>
-      </c>
-      <c r="C9">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>43879.131249999999</v>
-      </c>
-      <c r="B10">
-        <v>442.3</v>
-      </c>
-      <c r="C10">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>43886.615972222222</v>
-      </c>
-      <c r="B11">
-        <v>451.3</v>
-      </c>
-      <c r="C11">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>43893.629166666666</v>
-      </c>
-      <c r="B12">
-        <v>476.7</v>
-      </c>
-      <c r="C12">
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>43900.574305555558</v>
-      </c>
-      <c r="B13">
-        <v>353.7</v>
-      </c>
-      <c r="C13">
-        <v>7.2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>43906.40625</v>
-      </c>
-      <c r="B14">
-        <v>409.7</v>
-      </c>
-      <c r="C14">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>43999.487500000003</v>
-      </c>
-      <c r="B15">
-        <v>487.5</v>
-      </c>
-      <c r="C15">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>44012.429861111108</v>
-      </c>
-      <c r="B16">
-        <v>682.5</v>
-      </c>
-      <c r="C16">
-        <v>27.3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>44026.414583333331</v>
-      </c>
-      <c r="B17">
-        <v>493.5</v>
-      </c>
-      <c r="C17">
-        <v>26.1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>44040.37222222222</v>
-      </c>
-      <c r="B18">
-        <v>687.5</v>
-      </c>
-      <c r="C18">
-        <v>25.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>44054.408333333333</v>
-      </c>
-      <c r="B19">
-        <v>687.1</v>
-      </c>
-      <c r="C19">
-        <v>24.6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>44069.425000000003</v>
-      </c>
-      <c r="B20">
-        <v>724.4</v>
-      </c>
-      <c r="C20">
-        <v>26.8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>44082.409722222219</v>
-      </c>
-      <c r="B21">
-        <v>557.4</v>
-      </c>
-      <c r="C21">
-        <v>17.2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>44096.418749999997</v>
-      </c>
-      <c r="B22">
-        <v>571.1</v>
-      </c>
-      <c r="C22">
-        <v>18.100000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>44110.392361111109</v>
-      </c>
-      <c r="B23">
-        <v>553.5</v>
-      </c>
-      <c r="C23">
-        <v>11.8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>44134.345138888886</v>
-      </c>
-      <c r="B24">
-        <v>344.1</v>
-      </c>
-      <c r="C24">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>44152.529166666667</v>
-      </c>
-      <c r="B25">
-        <v>378</v>
-      </c>
-      <c r="C25">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>44159.513194444444</v>
-      </c>
-      <c r="B26">
-        <v>441.4</v>
-      </c>
-      <c r="C26">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <v>44169.482638888891</v>
-      </c>
-      <c r="B27">
-        <v>439</v>
-      </c>
-      <c r="C27">
-        <v>3.2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>43818.631249999999</v>
-      </c>
-      <c r="B2">
-        <v>450.3</v>
-      </c>
-      <c r="C2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>43830.619444444441</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>43836.461111111108</v>
-      </c>
-      <c r="B4">
-        <v>431.8</v>
-      </c>
-      <c r="C4">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>43844.62777777778</v>
-      </c>
-      <c r="B5">
-        <v>484.4</v>
-      </c>
-      <c r="C5">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>43851.649305555555</v>
-      </c>
-      <c r="B6">
-        <v>240.7</v>
-      </c>
-      <c r="C6">
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>43858.634027777778</v>
-      </c>
-      <c r="B7">
-        <v>480.5</v>
-      </c>
-      <c r="C7">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>43865.643055555556</v>
-      </c>
-      <c r="B8">
-        <v>471</v>
-      </c>
-      <c r="C8">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>43872.629861111112</v>
-      </c>
-      <c r="B9">
-        <v>489.8</v>
-      </c>
-      <c r="C9">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>43879.640277777777</v>
-      </c>
-      <c r="B10">
-        <v>525.5</v>
-      </c>
-      <c r="C10">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>43886.625</v>
-      </c>
-      <c r="B11">
-        <v>520.79999999999995</v>
-      </c>
-      <c r="C11">
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>43893.638888888891</v>
-      </c>
-      <c r="B12">
-        <v>415.7</v>
-      </c>
-      <c r="C12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>43900.582638888889</v>
-      </c>
-      <c r="B13">
-        <v>374.8</v>
-      </c>
-      <c r="C13">
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>43906.416666666664</v>
-      </c>
-      <c r="B14">
-        <v>452.8</v>
-      </c>
-      <c r="C14">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>43999.46875</v>
-      </c>
-      <c r="B15">
-        <v>708.6</v>
-      </c>
-      <c r="C15">
-        <v>22.4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>44012.448611111111</v>
-      </c>
-      <c r="B16">
-        <v>683.1</v>
-      </c>
-      <c r="C16">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>44026.395833333336</v>
-      </c>
-      <c r="B17">
-        <v>508.5</v>
-      </c>
-      <c r="C17">
-        <v>23.2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>44033.688194444447</v>
-      </c>
-      <c r="B18">
-        <v>657.5</v>
-      </c>
-      <c r="C18">
-        <v>22.9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>44040.383333333331</v>
-      </c>
-      <c r="B19">
-        <v>701.5</v>
-      </c>
-      <c r="C19">
-        <v>22.3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>44054.422222222223</v>
-      </c>
-      <c r="B20">
-        <v>716.3</v>
-      </c>
-      <c r="C20">
-        <v>20.7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>44069.443055555559</v>
-      </c>
-      <c r="B21">
-        <v>818.4</v>
-      </c>
-      <c r="C21">
-        <v>22.9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>44082.429166666669</v>
-      </c>
-      <c r="B22">
-        <v>660.2</v>
-      </c>
-      <c r="C22">
-        <v>14.4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>44096.436111111114</v>
-      </c>
-      <c r="B23">
-        <v>674</v>
-      </c>
-      <c r="C23">
-        <v>15.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>44110.406944444447</v>
-      </c>
-      <c r="B24">
-        <v>651.79999999999995</v>
-      </c>
-      <c r="C24">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>44134.35833333333</v>
-      </c>
-      <c r="B25">
-        <v>440.1</v>
-      </c>
-      <c r="C25">
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>44152.541666666664</v>
-      </c>
-      <c r="B26">
-        <v>433</v>
-      </c>
-      <c r="C26">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <v>44159.520833333336</v>
-      </c>
-      <c r="B27">
-        <v>469.8</v>
-      </c>
-      <c r="C27">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
-        <v>44169.536805555559</v>
-      </c>
-      <c r="B28">
-        <v>498.3</v>
-      </c>
-      <c r="C28">
-        <v>3.6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>43818.62222222222</v>
-      </c>
-      <c r="B2">
-        <v>472</v>
-      </c>
-      <c r="C2">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>43830.627083333333</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>43836.46875</v>
-      </c>
-      <c r="B4">
-        <v>463.7</v>
-      </c>
-      <c r="C4">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>43844.637499999997</v>
-      </c>
-      <c r="B5">
-        <v>493.2</v>
-      </c>
-      <c r="C5">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>43851.659722222219</v>
-      </c>
-      <c r="B6">
-        <v>435.5</v>
-      </c>
-      <c r="C6">
-        <v>-0.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>43858.642361111109</v>
-      </c>
-      <c r="B7">
-        <v>490.2</v>
-      </c>
-      <c r="C7">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>43865.654166666667</v>
-      </c>
-      <c r="B8">
-        <v>506</v>
-      </c>
-      <c r="C8">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>43872.634722222225</v>
-      </c>
-      <c r="B9">
-        <v>494.6</v>
-      </c>
-      <c r="C9">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>43879.645833333336</v>
-      </c>
-      <c r="B10">
-        <v>574.4</v>
-      </c>
-      <c r="C10">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>43886.631249999999</v>
-      </c>
-      <c r="B11">
-        <v>783.8</v>
-      </c>
-      <c r="C11">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>43893.652777777781</v>
-      </c>
-      <c r="B12">
-        <v>389.7</v>
-      </c>
-      <c r="C12">
-        <v>5.3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>43900.59097222222</v>
-      </c>
-      <c r="B13">
-        <v>432.3</v>
-      </c>
-      <c r="C13">
-        <v>6.4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>43906.427083333336</v>
-      </c>
-      <c r="B14">
-        <v>491.8</v>
-      </c>
-      <c r="C14">
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>43999.447916666664</v>
-      </c>
-      <c r="B15">
-        <v>716.6</v>
-      </c>
-      <c r="C15">
-        <v>20.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>44012.457638888889</v>
-      </c>
-      <c r="B16">
-        <v>588.1</v>
-      </c>
-      <c r="C16">
-        <v>21.3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>44026.385416666664</v>
-      </c>
-      <c r="B17">
-        <v>722</v>
-      </c>
-      <c r="C17">
-        <v>19.8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>44033.677083333336</v>
-      </c>
-      <c r="B18">
-        <v>758.7</v>
-      </c>
-      <c r="C18">
-        <v>20.2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>44040.393055555556</v>
-      </c>
-      <c r="B19">
-        <v>687.5</v>
-      </c>
-      <c r="C19">
-        <v>18.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>44054.429861111108</v>
-      </c>
-      <c r="B20">
-        <v>719.9</v>
-      </c>
-      <c r="C20">
-        <v>17.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>44069.454861111109</v>
-      </c>
-      <c r="B21">
-        <v>766.8</v>
-      </c>
-      <c r="C21">
-        <v>20.3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>44082.439583333333</v>
-      </c>
-      <c r="B22">
-        <v>657.8</v>
-      </c>
-      <c r="C22">
-        <v>13.1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>44096.444444444445</v>
-      </c>
-      <c r="B23">
-        <v>679.2</v>
-      </c>
-      <c r="C23">
-        <v>14.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>44110.415277777778</v>
-      </c>
-      <c r="B24">
-        <v>621.70000000000005</v>
-      </c>
-      <c r="C24">
-        <v>11.2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>44134.368055555555</v>
-      </c>
-      <c r="B25">
-        <v>514.9</v>
-      </c>
-      <c r="C25">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>44152.554861111108</v>
-      </c>
-      <c r="B26">
-        <v>510</v>
-      </c>
-      <c r="C26">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <v>44159.52847222222</v>
-      </c>
-      <c r="B27">
-        <v>483.3</v>
-      </c>
-      <c r="C27">
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
-        <v>44169.541666666664</v>
-      </c>
-      <c r="B28">
-        <v>507.9</v>
-      </c>
-      <c r="C28">
-        <v>4.3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C29"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
         <v>43818.609722222223</v>
       </c>
       <c r="B2">
@@ -4893,6 +5045,17 @@
       </c>
       <c r="C29">
         <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>44180.67083333333</v>
+      </c>
+      <c r="B30">
+        <v>687</v>
+      </c>
+      <c r="C30">
+        <v>1.6</v>
       </c>
     </row>
   </sheetData>

--- a/Data/conductivity_field.xlsx
+++ b/Data/conductivity_field.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linne\Box Sync\Chloride Research\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD04CB94-5960-42DC-9ECC-076EA19458EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72AAE92-7C16-4D49-87A9-9CC574FB1D54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loggers" sheetId="12" r:id="rId1"/>
@@ -1057,7 +1057,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E111E348-178D-4A81-8338-72F6E909D9F1}">
   <dimension ref="A1:AR22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="N1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="T17" sqref="T17"/>
     </sheetView>
@@ -2105,10 +2105,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0CDB741-3836-4FA9-9852-A8110C8A5241}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2187,6 +2187,90 @@
       </c>
       <c r="D5">
         <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>44169.5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>344.1</v>
+      </c>
+      <c r="D6">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>44169.5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>343.4</v>
+      </c>
+      <c r="D7">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>44169.5</v>
+      </c>
+      <c r="B8" s="2">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>342.7</v>
+      </c>
+      <c r="D8">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>44169.5</v>
+      </c>
+      <c r="B9" s="2">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>342.6</v>
+      </c>
+      <c r="D9">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>44169.5</v>
+      </c>
+      <c r="B10" s="2">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>342.5</v>
+      </c>
+      <c r="D10">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>44169.5</v>
+      </c>
+      <c r="B11" s="2">
+        <v>24</v>
+      </c>
+      <c r="C11">
+        <v>343.2</v>
+      </c>
+      <c r="D11">
+        <v>5.5</v>
       </c>
     </row>
   </sheetData>

--- a/Data/conductivity_field.xlsx
+++ b/Data/conductivity_field.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linne\Box Sync\Chloride Research\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72AAE92-7C16-4D49-87A9-9CC574FB1D54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F55ECFE3-0B06-48B2-93EF-35956FB52A13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loggers" sheetId="12" r:id="rId1"/>
@@ -1744,10 +1744,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2098,6 +2098,17 @@
         <v>2.1</v>
       </c>
     </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>44194.495138888888</v>
+      </c>
+      <c r="B32">
+        <v>1574</v>
+      </c>
+      <c r="C32">
+        <v>3.3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2107,7 +2118,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0CDB741-3836-4FA9-9852-A8110C8A5241}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -2512,10 +2523,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE7E974B-BCA0-45B0-95FE-63AB262733E9}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2690,6 +2701,17 @@
         <v>0.8</v>
       </c>
     </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>44194.392361111109</v>
+      </c>
+      <c r="B16">
+        <v>572.9</v>
+      </c>
+      <c r="C16">
+        <v>0.1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2697,9 +2719,1475 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>43818.686111111114</v>
+      </c>
+      <c r="B2">
+        <v>308.10000000000002</v>
+      </c>
+      <c r="C2">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>43830.505555555559</v>
+      </c>
+      <c r="B3">
+        <v>305.8</v>
+      </c>
+      <c r="C3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>43836.398611111108</v>
+      </c>
+      <c r="B4">
+        <v>299.7</v>
+      </c>
+      <c r="C4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>43844.568055555559</v>
+      </c>
+      <c r="B5">
+        <v>313.3</v>
+      </c>
+      <c r="C5">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>43851.578472222223</v>
+      </c>
+      <c r="B6">
+        <v>312.8</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>43858.57708333333</v>
+      </c>
+      <c r="B7">
+        <v>316.3</v>
+      </c>
+      <c r="C7">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>43864.621527777781</v>
+      </c>
+      <c r="B8">
+        <v>319.60000000000002</v>
+      </c>
+      <c r="C8">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>43865.577777777777</v>
+      </c>
+      <c r="B9">
+        <v>323.60000000000002</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>43872.574999999997</v>
+      </c>
+      <c r="B10">
+        <v>358.2</v>
+      </c>
+      <c r="C10">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>43879.581250000003</v>
+      </c>
+      <c r="B11">
+        <v>359.9</v>
+      </c>
+      <c r="C11">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>43886.572222222225</v>
+      </c>
+      <c r="B12">
+        <v>336.7</v>
+      </c>
+      <c r="C12">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>43893.57708333333</v>
+      </c>
+      <c r="B13">
+        <v>368.2</v>
+      </c>
+      <c r="C13">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>43900.530555555553</v>
+      </c>
+      <c r="B14">
+        <v>357.9</v>
+      </c>
+      <c r="C14">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>43906.355555555558</v>
+      </c>
+      <c r="B15">
+        <v>330.5</v>
+      </c>
+      <c r="C15">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>43999.611111111109</v>
+      </c>
+      <c r="B16">
+        <v>597.20000000000005</v>
+      </c>
+      <c r="C16">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>44012.388194444444</v>
+      </c>
+      <c r="B17">
+        <v>582.20000000000005</v>
+      </c>
+      <c r="C17">
+        <v>25.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>44026.480555555558</v>
+      </c>
+      <c r="B18">
+        <v>576.4</v>
+      </c>
+      <c r="C18">
+        <v>27.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>44034.446527777778</v>
+      </c>
+      <c r="B19">
+        <v>506.6</v>
+      </c>
+      <c r="C19">
+        <v>26.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>44040.458333333336</v>
+      </c>
+      <c r="B20">
+        <v>570.6</v>
+      </c>
+      <c r="C20">
+        <v>26.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>44054.487500000003</v>
+      </c>
+      <c r="B21">
+        <v>550.5</v>
+      </c>
+      <c r="C21">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>44069.559027777781</v>
+      </c>
+      <c r="B22">
+        <v>564.9</v>
+      </c>
+      <c r="C22">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>44082.489583333336</v>
+      </c>
+      <c r="B23">
+        <v>469.9</v>
+      </c>
+      <c r="C23">
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>44096.490972222222</v>
+      </c>
+      <c r="B24">
+        <v>491.1</v>
+      </c>
+      <c r="C24">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>44110.461805555555</v>
+      </c>
+      <c r="B25">
+        <v>460.5</v>
+      </c>
+      <c r="C25">
+        <v>16.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>44134.479166666664</v>
+      </c>
+      <c r="B26">
+        <v>379.9</v>
+      </c>
+      <c r="C26">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>44152.438888888886</v>
+      </c>
+      <c r="B27">
+        <v>347.4</v>
+      </c>
+      <c r="C27">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>44159.43472222222</v>
+      </c>
+      <c r="B28">
+        <v>358.9</v>
+      </c>
+      <c r="C28">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>44169.432638888888</v>
+      </c>
+      <c r="B29">
+        <v>332.4</v>
+      </c>
+      <c r="C29">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>44180.50277777778</v>
+      </c>
+      <c r="B30">
+        <v>310.8</v>
+      </c>
+      <c r="C30">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>44194.40625</v>
+      </c>
+      <c r="B31">
+        <v>300.8</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="18.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>43818.667361111111</v>
+      </c>
+      <c r="B2">
+        <v>664.2</v>
+      </c>
+      <c r="C2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>43830.530555555553</v>
+      </c>
+      <c r="B3">
+        <v>541.20000000000005</v>
+      </c>
+      <c r="C3">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>43836.398611111108</v>
+      </c>
+      <c r="B4">
+        <v>675.4</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>43844.586111111108</v>
+      </c>
+      <c r="B5">
+        <v>1016</v>
+      </c>
+      <c r="C5">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>43851.604166666664</v>
+      </c>
+      <c r="B6">
+        <v>767.8</v>
+      </c>
+      <c r="C6">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>43858.595138888886</v>
+      </c>
+      <c r="B7">
+        <v>1119</v>
+      </c>
+      <c r="C7">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>43864.65625</v>
+      </c>
+      <c r="B8">
+        <v>946.6</v>
+      </c>
+      <c r="C8">
+        <v>4.3</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>43865.592361111114</v>
+      </c>
+      <c r="B9">
+        <v>851.2</v>
+      </c>
+      <c r="C9">
+        <v>2.6</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>43872.594444444447</v>
+      </c>
+      <c r="B10">
+        <v>1366.6</v>
+      </c>
+      <c r="C10">
+        <v>1.9</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>43879.600694444445</v>
+      </c>
+      <c r="B11">
+        <v>1504</v>
+      </c>
+      <c r="C11">
+        <v>2.4</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>43886.588888888888</v>
+      </c>
+      <c r="B12">
+        <v>923.3</v>
+      </c>
+      <c r="C12">
+        <v>3.2</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>43893.597916666666</v>
+      </c>
+      <c r="B13">
+        <v>762.1</v>
+      </c>
+      <c r="C13">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>43900.546527777777</v>
+      </c>
+      <c r="B14">
+        <v>653.20000000000005</v>
+      </c>
+      <c r="C14">
+        <v>7</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>43906.375694444447</v>
+      </c>
+      <c r="B15">
+        <v>759.1</v>
+      </c>
+      <c r="C15">
+        <v>3.7</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>43999.588888888888</v>
+      </c>
+      <c r="B16">
+        <v>1116</v>
+      </c>
+      <c r="C16">
+        <v>23.5</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>44012.525694444441</v>
+      </c>
+      <c r="B17">
+        <v>688.5</v>
+      </c>
+      <c r="C17">
+        <v>227.1</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>44026.497916666667</v>
+      </c>
+      <c r="B18">
+        <v>783.5</v>
+      </c>
+      <c r="C18">
+        <v>24.3</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>44040.489583333336</v>
+      </c>
+      <c r="B19">
+        <v>526.5</v>
+      </c>
+      <c r="C19">
+        <v>24.3</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>44054.505555555559</v>
+      </c>
+      <c r="B20">
+        <v>1050</v>
+      </c>
+      <c r="C20">
+        <v>22.6</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>44069.591666666667</v>
+      </c>
+      <c r="B21">
+        <v>951.1</v>
+      </c>
+      <c r="C21">
+        <v>24.9</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>44082.511805555558</v>
+      </c>
+      <c r="B22">
+        <v>911.7</v>
+      </c>
+      <c r="C22">
+        <v>16</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>44096.511111111111</v>
+      </c>
+      <c r="B23">
+        <v>1064</v>
+      </c>
+      <c r="C23">
+        <v>17.5</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>44110.481249999997</v>
+      </c>
+      <c r="B24">
+        <v>954.4</v>
+      </c>
+      <c r="C24">
+        <v>12.5</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>44134.525694444441</v>
+      </c>
+      <c r="B25">
+        <v>746.5</v>
+      </c>
+      <c r="C25">
+        <v>6.7</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>44152.459027777775</v>
+      </c>
+      <c r="B26">
+        <v>682.5</v>
+      </c>
+      <c r="C26">
+        <v>3.9</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>44159.450694444444</v>
+      </c>
+      <c r="B27">
+        <v>769.7</v>
+      </c>
+      <c r="C27">
+        <v>4.7</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>44169.451388888891</v>
+      </c>
+      <c r="B28">
+        <v>785.8</v>
+      </c>
+      <c r="C28">
+        <v>3.5</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>44180.529166666667</v>
+      </c>
+      <c r="B29">
+        <v>756.8</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>44194.428472222222</v>
+      </c>
+      <c r="B30">
+        <v>758</v>
+      </c>
+      <c r="C30">
+        <v>0.2</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H32" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>43818.652777777781</v>
+      </c>
+      <c r="B2">
+        <v>290.5</v>
+      </c>
+      <c r="C2">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>43830.57708333333</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>43836.429861111108</v>
+      </c>
+      <c r="B4">
+        <v>291.7</v>
+      </c>
+      <c r="C4">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>43844.600694444445</v>
+      </c>
+      <c r="B5">
+        <v>298.60000000000002</v>
+      </c>
+      <c r="C5">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>43851.118750000001</v>
+      </c>
+      <c r="B6">
+        <v>292.8</v>
+      </c>
+      <c r="C6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>43858.609722222223</v>
+      </c>
+      <c r="B7">
+        <v>299.60000000000002</v>
+      </c>
+      <c r="C7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>43865.606944444444</v>
+      </c>
+      <c r="B8">
+        <v>302</v>
+      </c>
+      <c r="C8">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>43872.607638888891</v>
+      </c>
+      <c r="B9">
+        <v>332.84</v>
+      </c>
+      <c r="C9">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>43879.617361111108</v>
+      </c>
+      <c r="B10">
+        <v>347.9</v>
+      </c>
+      <c r="C10">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>43886.603472222225</v>
+      </c>
+      <c r="B11">
+        <v>312.60000000000002</v>
+      </c>
+      <c r="C11">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>43893.614583333336</v>
+      </c>
+      <c r="B12">
+        <v>327.60000000000002</v>
+      </c>
+      <c r="C12">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>43900.560416666667</v>
+      </c>
+      <c r="B13">
+        <v>320.7</v>
+      </c>
+      <c r="C13">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>43906.38958333333</v>
+      </c>
+      <c r="B14">
+        <v>306.10000000000002</v>
+      </c>
+      <c r="C14">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>43999.572916666664</v>
+      </c>
+      <c r="B15">
+        <v>557</v>
+      </c>
+      <c r="C15">
+        <v>25.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>44012.412499999999</v>
+      </c>
+      <c r="B16">
+        <v>540.5</v>
+      </c>
+      <c r="C16">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>44026.440972222219</v>
+      </c>
+      <c r="B17">
+        <v>510.8</v>
+      </c>
+      <c r="C17">
+        <v>26.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>44040.352777777778</v>
+      </c>
+      <c r="B18">
+        <v>479.6</v>
+      </c>
+      <c r="C18">
+        <v>24.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>44054.390972222223</v>
+      </c>
+      <c r="B19">
+        <v>486.8</v>
+      </c>
+      <c r="C19">
+        <v>24.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>44069.406944444447</v>
+      </c>
+      <c r="B20">
+        <v>490.2</v>
+      </c>
+      <c r="C20">
+        <v>25.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>44082.39166666667</v>
+      </c>
+      <c r="B21">
+        <v>433.4</v>
+      </c>
+      <c r="C21">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>44096.402777777781</v>
+      </c>
+      <c r="B22">
+        <v>442.5</v>
+      </c>
+      <c r="C22">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>44110.375</v>
+      </c>
+      <c r="B23">
+        <v>405</v>
+      </c>
+      <c r="C23">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>44134.325694444444</v>
+      </c>
+      <c r="B24">
+        <v>360.2</v>
+      </c>
+      <c r="C24">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>44152.475694444445</v>
+      </c>
+      <c r="B25">
+        <v>343.1</v>
+      </c>
+      <c r="C25">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>44159.469444444447</v>
+      </c>
+      <c r="B26">
+        <v>346.4</v>
+      </c>
+      <c r="C26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>44169.467361111114</v>
+      </c>
+      <c r="B27">
+        <v>323.2</v>
+      </c>
+      <c r="C27">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>44180.553472222222</v>
+      </c>
+      <c r="B28">
+        <v>310.8</v>
+      </c>
+      <c r="C28">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>44194.375</v>
+      </c>
+      <c r="B29">
+        <v>296.60000000000002</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:C29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>43818.638888888891</v>
+      </c>
+      <c r="B2">
+        <v>452.2</v>
+      </c>
+      <c r="C2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>43830.6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>43836.447222222225</v>
+      </c>
+      <c r="B4">
+        <v>425.2</v>
+      </c>
+      <c r="C4">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>43844.600694444445</v>
+      </c>
+      <c r="B5">
+        <v>437.8</v>
+      </c>
+      <c r="C5">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>43851.635416666664</v>
+      </c>
+      <c r="B6">
+        <v>453.4</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>43858.625</v>
+      </c>
+      <c r="B7">
+        <v>457.6</v>
+      </c>
+      <c r="C7">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>43865.629166666666</v>
+      </c>
+      <c r="B8">
+        <v>432.1</v>
+      </c>
+      <c r="C8">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>43872.621527777781</v>
+      </c>
+      <c r="B9">
+        <v>512.36</v>
+      </c>
+      <c r="C9">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>43879.131249999999</v>
+      </c>
+      <c r="B10">
+        <v>442.3</v>
+      </c>
+      <c r="C10">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>43886.615972222222</v>
+      </c>
+      <c r="B11">
+        <v>451.3</v>
+      </c>
+      <c r="C11">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>43893.629166666666</v>
+      </c>
+      <c r="B12">
+        <v>476.7</v>
+      </c>
+      <c r="C12">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>43900.574305555558</v>
+      </c>
+      <c r="B13">
+        <v>353.7</v>
+      </c>
+      <c r="C13">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>43906.40625</v>
+      </c>
+      <c r="B14">
+        <v>409.7</v>
+      </c>
+      <c r="C14">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>43999.487500000003</v>
+      </c>
+      <c r="B15">
+        <v>487.5</v>
+      </c>
+      <c r="C15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>44012.429861111108</v>
+      </c>
+      <c r="B16">
+        <v>682.5</v>
+      </c>
+      <c r="C16">
+        <v>27.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>44026.414583333331</v>
+      </c>
+      <c r="B17">
+        <v>493.5</v>
+      </c>
+      <c r="C17">
+        <v>26.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>44040.37222222222</v>
+      </c>
+      <c r="B18">
+        <v>687.5</v>
+      </c>
+      <c r="C18">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>44054.408333333333</v>
+      </c>
+      <c r="B19">
+        <v>687.1</v>
+      </c>
+      <c r="C19">
+        <v>24.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>44069.425000000003</v>
+      </c>
+      <c r="B20">
+        <v>724.4</v>
+      </c>
+      <c r="C20">
+        <v>26.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>44082.409722222219</v>
+      </c>
+      <c r="B21">
+        <v>557.4</v>
+      </c>
+      <c r="C21">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>44096.418749999997</v>
+      </c>
+      <c r="B22">
+        <v>571.1</v>
+      </c>
+      <c r="C22">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>44110.392361111109</v>
+      </c>
+      <c r="B23">
+        <v>553.5</v>
+      </c>
+      <c r="C23">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>44134.345138888886</v>
+      </c>
+      <c r="B24">
+        <v>344.1</v>
+      </c>
+      <c r="C24">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>44152.529166666667</v>
+      </c>
+      <c r="B25">
+        <v>378</v>
+      </c>
+      <c r="C25">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>44159.513194444444</v>
+      </c>
+      <c r="B26">
+        <v>441.4</v>
+      </c>
+      <c r="C26">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>44169.482638888891</v>
+      </c>
+      <c r="B27">
+        <v>439</v>
+      </c>
+      <c r="C27">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>44180.623611111114</v>
+      </c>
+      <c r="B28">
+        <v>445.7</v>
+      </c>
+      <c r="C28">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>44194.457638888889</v>
+      </c>
+      <c r="B29">
+        <v>471.8</v>
+      </c>
+      <c r="C29">
+        <v>0.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
@@ -2723,752 +4211,334 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>43818.686111111114</v>
+        <v>43818.631249999999</v>
       </c>
       <c r="B2">
-        <v>308.10000000000002</v>
+        <v>450.3</v>
       </c>
       <c r="C2">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>43830.505555555559</v>
-      </c>
-      <c r="B3">
-        <v>305.8</v>
-      </c>
-      <c r="C3">
-        <v>0.2</v>
+        <v>43830.619444444441</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>43836.398611111108</v>
+        <v>43836.461111111108</v>
       </c>
       <c r="B4">
-        <v>299.7</v>
+        <v>431.8</v>
       </c>
       <c r="C4">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>43844.568055555559</v>
+        <v>43844.62777777778</v>
       </c>
       <c r="B5">
-        <v>313.3</v>
+        <v>484.4</v>
       </c>
       <c r="C5">
-        <v>1.5</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>43851.578472222223</v>
+        <v>43851.649305555555</v>
       </c>
       <c r="B6">
-        <v>312.8</v>
+        <v>240.7</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>43858.57708333333</v>
+        <v>43858.634027777778</v>
       </c>
       <c r="B7">
-        <v>316.3</v>
+        <v>480.5</v>
       </c>
       <c r="C7">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>43864.621527777781</v>
+        <v>43865.643055555556</v>
       </c>
       <c r="B8">
-        <v>319.60000000000002</v>
+        <v>471</v>
       </c>
       <c r="C8">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>43865.577777777777</v>
+        <v>43872.629861111112</v>
       </c>
       <c r="B9">
-        <v>323.60000000000002</v>
+        <v>489.8</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>43872.574999999997</v>
+        <v>43879.640277777777</v>
       </c>
       <c r="B10">
-        <v>358.2</v>
+        <v>525.5</v>
       </c>
       <c r="C10">
-        <v>2.2999999999999998</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>43879.581250000003</v>
+        <v>43886.625</v>
       </c>
       <c r="B11">
-        <v>359.9</v>
+        <v>520.79999999999995</v>
       </c>
       <c r="C11">
-        <v>2.5</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>43886.572222222225</v>
+        <v>43893.638888888891</v>
       </c>
       <c r="B12">
-        <v>336.7</v>
+        <v>415.7</v>
       </c>
       <c r="C12">
-        <v>2.8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>43893.57708333333</v>
+        <v>43900.582638888889</v>
       </c>
       <c r="B13">
-        <v>368.2</v>
+        <v>374.8</v>
       </c>
       <c r="C13">
-        <v>3.9</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>43900.530555555553</v>
+        <v>43906.416666666664</v>
       </c>
       <c r="B14">
-        <v>357.9</v>
+        <v>452.8</v>
       </c>
       <c r="C14">
-        <v>6.2</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>43906.355555555558</v>
+        <v>43999.46875</v>
       </c>
       <c r="B15">
-        <v>330.5</v>
+        <v>708.6</v>
       </c>
       <c r="C15">
-        <v>2.9</v>
+        <v>22.4</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>43999.611111111109</v>
+        <v>44012.448611111111</v>
       </c>
       <c r="B16">
-        <v>597.20000000000005</v>
+        <v>683.1</v>
       </c>
       <c r="C16">
-        <v>25.4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>44012.388194444444</v>
+        <v>44026.395833333336</v>
       </c>
       <c r="B17">
-        <v>582.20000000000005</v>
+        <v>508.5</v>
       </c>
       <c r="C17">
-        <v>25.2</v>
+        <v>23.2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>44026.480555555558</v>
+        <v>44033.688194444447</v>
       </c>
       <c r="B18">
-        <v>576.4</v>
+        <v>657.5</v>
       </c>
       <c r="C18">
-        <v>27.1</v>
+        <v>22.9</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>44034.446527777778</v>
+        <v>44040.383333333331</v>
       </c>
       <c r="B19">
-        <v>506.6</v>
+        <v>701.5</v>
       </c>
       <c r="C19">
-        <v>26.3</v>
+        <v>22.3</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>44040.458333333336</v>
+        <v>44054.422222222223</v>
       </c>
       <c r="B20">
-        <v>570.6</v>
+        <v>716.3</v>
       </c>
       <c r="C20">
-        <v>26.3</v>
+        <v>20.7</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>44054.487500000003</v>
+        <v>44069.443055555559</v>
       </c>
       <c r="B21">
-        <v>550.5</v>
+        <v>818.4</v>
       </c>
       <c r="C21">
-        <v>22.6</v>
+        <v>22.9</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>44069.559027777781</v>
+        <v>44082.429166666669</v>
       </c>
       <c r="B22">
-        <v>564.9</v>
+        <v>660.2</v>
       </c>
       <c r="C22">
-        <v>27.4</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>44082.489583333336</v>
+        <v>44096.436111111114</v>
       </c>
       <c r="B23">
-        <v>469.9</v>
+        <v>674</v>
       </c>
       <c r="C23">
-        <v>17.8</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>44096.490972222222</v>
+        <v>44110.406944444447</v>
       </c>
       <c r="B24">
-        <v>491.1</v>
+        <v>651.79999999999995</v>
       </c>
       <c r="C24">
-        <v>19.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>44110.461805555555</v>
+        <v>44134.35833333333</v>
       </c>
       <c r="B25">
-        <v>460.5</v>
+        <v>440.1</v>
       </c>
       <c r="C25">
-        <v>16.3</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>44134.479166666664</v>
+        <v>44152.541666666664</v>
       </c>
       <c r="B26">
-        <v>379.9</v>
+        <v>433</v>
       </c>
       <c r="C26">
-        <v>8.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>44152.438888888886</v>
+        <v>44159.520833333336</v>
       </c>
       <c r="B27">
-        <v>347.4</v>
+        <v>469.8</v>
       </c>
       <c r="C27">
-        <v>4.7</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>44159.43472222222</v>
+        <v>44169.536805555559</v>
       </c>
       <c r="B28">
-        <v>358.9</v>
+        <v>498.3</v>
       </c>
       <c r="C28">
-        <v>5.4</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>44169.432638888888</v>
+        <v>44180.638194444444</v>
       </c>
       <c r="B29">
-        <v>332.4</v>
+        <v>457.5</v>
       </c>
       <c r="C29">
-        <v>3.4</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>44180.50277777778</v>
+        <v>44194.466666666667</v>
       </c>
       <c r="B30">
-        <v>310.8</v>
+        <v>474.1</v>
       </c>
       <c r="C30">
-        <v>0.9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I32"/>
-  <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="18.109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>43818.667361111111</v>
-      </c>
-      <c r="B2">
-        <v>664.2</v>
-      </c>
-      <c r="C2">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>43830.530555555553</v>
-      </c>
-      <c r="B3">
-        <v>541.20000000000005</v>
-      </c>
-      <c r="C3">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>43836.398611111108</v>
-      </c>
-      <c r="B4">
-        <v>675.4</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>43844.586111111108</v>
-      </c>
-      <c r="B5">
-        <v>1016</v>
-      </c>
-      <c r="C5">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>43851.604166666664</v>
-      </c>
-      <c r="B6">
-        <v>767.8</v>
-      </c>
-      <c r="C6">
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>43858.595138888886</v>
-      </c>
-      <c r="B7">
-        <v>1119</v>
-      </c>
-      <c r="C7">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>43864.65625</v>
-      </c>
-      <c r="B8">
-        <v>946.6</v>
-      </c>
-      <c r="C8">
-        <v>4.3</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>43865.592361111114</v>
-      </c>
-      <c r="B9">
-        <v>851.2</v>
-      </c>
-      <c r="C9">
-        <v>2.6</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>43872.594444444447</v>
-      </c>
-      <c r="B10">
-        <v>1366.6</v>
-      </c>
-      <c r="C10">
-        <v>1.9</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>43879.600694444445</v>
-      </c>
-      <c r="B11">
-        <v>1504</v>
-      </c>
-      <c r="C11">
-        <v>2.4</v>
-      </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>43886.588888888888</v>
-      </c>
-      <c r="B12">
-        <v>923.3</v>
-      </c>
-      <c r="C12">
-        <v>3.2</v>
-      </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>43893.597916666666</v>
-      </c>
-      <c r="B13">
-        <v>762.1</v>
-      </c>
-      <c r="C13">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>43900.546527777777</v>
-      </c>
-      <c r="B14">
-        <v>653.20000000000005</v>
-      </c>
-      <c r="C14">
-        <v>7</v>
-      </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>43906.375694444447</v>
-      </c>
-      <c r="B15">
-        <v>759.1</v>
-      </c>
-      <c r="C15">
-        <v>3.7</v>
-      </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>43999.588888888888</v>
-      </c>
-      <c r="B16">
-        <v>1116</v>
-      </c>
-      <c r="C16">
-        <v>23.5</v>
-      </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>44012.525694444441</v>
-      </c>
-      <c r="B17">
-        <v>688.5</v>
-      </c>
-      <c r="C17">
-        <v>227.1</v>
-      </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>44026.497916666667</v>
-      </c>
-      <c r="B18">
-        <v>783.5</v>
-      </c>
-      <c r="C18">
-        <v>24.3</v>
-      </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>44040.489583333336</v>
-      </c>
-      <c r="B19">
-        <v>526.5</v>
-      </c>
-      <c r="C19">
-        <v>24.3</v>
-      </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>44054.505555555559</v>
-      </c>
-      <c r="B20">
-        <v>1050</v>
-      </c>
-      <c r="C20">
-        <v>22.6</v>
-      </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>44069.591666666667</v>
-      </c>
-      <c r="B21">
-        <v>951.1</v>
-      </c>
-      <c r="C21">
-        <v>24.9</v>
-      </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>44082.511805555558</v>
-      </c>
-      <c r="B22">
-        <v>911.7</v>
-      </c>
-      <c r="C22">
-        <v>16</v>
-      </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>44096.511111111111</v>
-      </c>
-      <c r="B23">
-        <v>1064</v>
-      </c>
-      <c r="C23">
-        <v>17.5</v>
-      </c>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>44110.481249999997</v>
-      </c>
-      <c r="B24">
-        <v>954.4</v>
-      </c>
-      <c r="C24">
-        <v>12.5</v>
-      </c>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>44134.525694444441</v>
-      </c>
-      <c r="B25">
-        <v>746.5</v>
-      </c>
-      <c r="C25">
-        <v>6.7</v>
-      </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>44152.459027777775</v>
-      </c>
-      <c r="B26">
-        <v>682.5</v>
-      </c>
-      <c r="C26">
-        <v>3.9</v>
-      </c>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <v>44159.450694444444</v>
-      </c>
-      <c r="B27">
-        <v>769.7</v>
-      </c>
-      <c r="C27">
-        <v>4.7</v>
-      </c>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
-        <v>44169.451388888891</v>
-      </c>
-      <c r="B28">
-        <v>785.8</v>
-      </c>
-      <c r="C28">
-        <v>3.5</v>
-      </c>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
-        <v>44180.529166666667</v>
-      </c>
-      <c r="B29">
-        <v>756.8</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="H32" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C28"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3491,18 +4561,18 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>43818.652777777781</v>
+        <v>43818.62222222222</v>
       </c>
       <c r="B2">
-        <v>290.5</v>
+        <v>472</v>
       </c>
       <c r="C2">
-        <v>1.6</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>43830.57708333333</v>
+        <v>43830.627083333333</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -3513,277 +4583,299 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>43836.429861111108</v>
+        <v>43836.46875</v>
       </c>
       <c r="B4">
-        <v>291.7</v>
+        <v>463.7</v>
       </c>
       <c r="C4">
-        <v>0.4</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>43844.600694444445</v>
+        <v>43844.637499999997</v>
       </c>
       <c r="B5">
-        <v>298.60000000000002</v>
+        <v>493.2</v>
       </c>
       <c r="C5">
-        <v>1.1000000000000001</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>43851.118750000001</v>
+        <v>43851.659722222219</v>
       </c>
       <c r="B6">
-        <v>292.8</v>
+        <v>435.5</v>
       </c>
       <c r="C6">
-        <v>0.1</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>43858.609722222223</v>
+        <v>43858.642361111109</v>
       </c>
       <c r="B7">
-        <v>299.60000000000002</v>
+        <v>490.2</v>
       </c>
       <c r="C7">
-        <v>0.3</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>43865.606944444444</v>
+        <v>43865.654166666667</v>
       </c>
       <c r="B8">
-        <v>302</v>
+        <v>506</v>
       </c>
       <c r="C8">
-        <v>1.4</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>43872.607638888891</v>
+        <v>43872.634722222225</v>
       </c>
       <c r="B9">
-        <v>332.84</v>
+        <v>494.6</v>
       </c>
       <c r="C9">
-        <v>1.4</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>43879.617361111108</v>
+        <v>43879.645833333336</v>
       </c>
       <c r="B10">
-        <v>347.9</v>
+        <v>574.4</v>
       </c>
       <c r="C10">
-        <v>1.6</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>43886.603472222225</v>
+        <v>43886.631249999999</v>
       </c>
       <c r="B11">
-        <v>312.60000000000002</v>
+        <v>783.8</v>
       </c>
       <c r="C11">
-        <v>1.8</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>43893.614583333336</v>
+        <v>43893.652777777781</v>
       </c>
       <c r="B12">
-        <v>327.60000000000002</v>
+        <v>389.7</v>
       </c>
       <c r="C12">
-        <v>3.8</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>43900.560416666667</v>
+        <v>43900.59097222222</v>
       </c>
       <c r="B13">
-        <v>320.7</v>
+        <v>432.3</v>
       </c>
       <c r="C13">
-        <v>5.3</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>43906.38958333333</v>
+        <v>43906.427083333336</v>
       </c>
       <c r="B14">
-        <v>306.10000000000002</v>
+        <v>491.8</v>
       </c>
       <c r="C14">
-        <v>2.8</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>43999.572916666664</v>
+        <v>43999.447916666664</v>
       </c>
       <c r="B15">
-        <v>557</v>
+        <v>716.6</v>
       </c>
       <c r="C15">
-        <v>25.2</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>44012.412499999999</v>
+        <v>44012.457638888889</v>
       </c>
       <c r="B16">
-        <v>540.5</v>
+        <v>588.1</v>
       </c>
       <c r="C16">
-        <v>25.5</v>
+        <v>21.3</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>44026.440972222219</v>
+        <v>44026.385416666664</v>
       </c>
       <c r="B17">
-        <v>510.8</v>
+        <v>722</v>
       </c>
       <c r="C17">
-        <v>26.3</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>44040.352777777778</v>
+        <v>44033.677083333336</v>
       </c>
       <c r="B18">
-        <v>479.6</v>
+        <v>758.7</v>
       </c>
       <c r="C18">
-        <v>24.8</v>
+        <v>20.2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>44054.390972222223</v>
+        <v>44040.393055555556</v>
       </c>
       <c r="B19">
-        <v>486.8</v>
+        <v>687.5</v>
       </c>
       <c r="C19">
-        <v>24.1</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>44069.406944444447</v>
+        <v>44054.429861111108</v>
       </c>
       <c r="B20">
-        <v>490.2</v>
+        <v>719.9</v>
       </c>
       <c r="C20">
-        <v>25.7</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>44082.39166666667</v>
+        <v>44069.454861111109</v>
       </c>
       <c r="B21">
-        <v>433.4</v>
+        <v>766.8</v>
       </c>
       <c r="C21">
-        <v>18.8</v>
+        <v>20.3</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>44096.402777777781</v>
+        <v>44082.439583333333</v>
       </c>
       <c r="B22">
-        <v>442.5</v>
+        <v>657.8</v>
       </c>
       <c r="C22">
-        <v>18.5</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>44110.375</v>
+        <v>44096.444444444445</v>
       </c>
       <c r="B23">
-        <v>405</v>
+        <v>679.2</v>
       </c>
       <c r="C23">
-        <v>14.2</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>44134.325694444444</v>
+        <v>44110.415277777778</v>
       </c>
       <c r="B24">
-        <v>360.2</v>
+        <v>621.70000000000005</v>
       </c>
       <c r="C24">
-        <v>7.5</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>44152.475694444445</v>
+        <v>44134.368055555555</v>
       </c>
       <c r="B25">
-        <v>343.1</v>
+        <v>514.9</v>
       </c>
       <c r="C25">
-        <v>5.9</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>44159.469444444447</v>
+        <v>44152.554861111108</v>
       </c>
       <c r="B26">
-        <v>346.4</v>
+        <v>510</v>
       </c>
       <c r="C26">
-        <v>6</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>44169.467361111114</v>
+        <v>44159.52847222222</v>
       </c>
       <c r="B27">
-        <v>323.2</v>
+        <v>483.3</v>
       </c>
       <c r="C27">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>44180.553472222222</v>
+        <v>44169.541666666664</v>
       </c>
       <c r="B28">
-        <v>310.8</v>
+        <v>507.9</v>
       </c>
       <c r="C28">
-        <v>1.9</v>
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>44180.649305555555</v>
+      </c>
+      <c r="B29">
+        <v>449.3</v>
+      </c>
+      <c r="C29">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>44194.474305555559</v>
+      </c>
+      <c r="B30">
+        <v>456</v>
+      </c>
+      <c r="C30">
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -3791,12 +4883,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C28"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3819,1012 +4911,6 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>43818.638888888891</v>
-      </c>
-      <c r="B2">
-        <v>452.2</v>
-      </c>
-      <c r="C2">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>43830.6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>43836.447222222225</v>
-      </c>
-      <c r="B4">
-        <v>425.2</v>
-      </c>
-      <c r="C4">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>43844.600694444445</v>
-      </c>
-      <c r="B5">
-        <v>437.8</v>
-      </c>
-      <c r="C5">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>43851.635416666664</v>
-      </c>
-      <c r="B6">
-        <v>453.4</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>43858.625</v>
-      </c>
-      <c r="B7">
-        <v>457.6</v>
-      </c>
-      <c r="C7">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>43865.629166666666</v>
-      </c>
-      <c r="B8">
-        <v>432.1</v>
-      </c>
-      <c r="C8">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>43872.621527777781</v>
-      </c>
-      <c r="B9">
-        <v>512.36</v>
-      </c>
-      <c r="C9">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>43879.131249999999</v>
-      </c>
-      <c r="B10">
-        <v>442.3</v>
-      </c>
-      <c r="C10">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>43886.615972222222</v>
-      </c>
-      <c r="B11">
-        <v>451.3</v>
-      </c>
-      <c r="C11">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>43893.629166666666</v>
-      </c>
-      <c r="B12">
-        <v>476.7</v>
-      </c>
-      <c r="C12">
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>43900.574305555558</v>
-      </c>
-      <c r="B13">
-        <v>353.7</v>
-      </c>
-      <c r="C13">
-        <v>7.2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>43906.40625</v>
-      </c>
-      <c r="B14">
-        <v>409.7</v>
-      </c>
-      <c r="C14">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>43999.487500000003</v>
-      </c>
-      <c r="B15">
-        <v>487.5</v>
-      </c>
-      <c r="C15">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>44012.429861111108</v>
-      </c>
-      <c r="B16">
-        <v>682.5</v>
-      </c>
-      <c r="C16">
-        <v>27.3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>44026.414583333331</v>
-      </c>
-      <c r="B17">
-        <v>493.5</v>
-      </c>
-      <c r="C17">
-        <v>26.1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>44040.37222222222</v>
-      </c>
-      <c r="B18">
-        <v>687.5</v>
-      </c>
-      <c r="C18">
-        <v>25.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>44054.408333333333</v>
-      </c>
-      <c r="B19">
-        <v>687.1</v>
-      </c>
-      <c r="C19">
-        <v>24.6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>44069.425000000003</v>
-      </c>
-      <c r="B20">
-        <v>724.4</v>
-      </c>
-      <c r="C20">
-        <v>26.8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>44082.409722222219</v>
-      </c>
-      <c r="B21">
-        <v>557.4</v>
-      </c>
-      <c r="C21">
-        <v>17.2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>44096.418749999997</v>
-      </c>
-      <c r="B22">
-        <v>571.1</v>
-      </c>
-      <c r="C22">
-        <v>18.100000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>44110.392361111109</v>
-      </c>
-      <c r="B23">
-        <v>553.5</v>
-      </c>
-      <c r="C23">
-        <v>11.8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>44134.345138888886</v>
-      </c>
-      <c r="B24">
-        <v>344.1</v>
-      </c>
-      <c r="C24">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>44152.529166666667</v>
-      </c>
-      <c r="B25">
-        <v>378</v>
-      </c>
-      <c r="C25">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>44159.513194444444</v>
-      </c>
-      <c r="B26">
-        <v>441.4</v>
-      </c>
-      <c r="C26">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <v>44169.482638888891</v>
-      </c>
-      <c r="B27">
-        <v>439</v>
-      </c>
-      <c r="C27">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
-        <v>44180.623611111114</v>
-      </c>
-      <c r="B28">
-        <v>445.7</v>
-      </c>
-      <c r="C28">
-        <v>0.5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C29"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>43818.631249999999</v>
-      </c>
-      <c r="B2">
-        <v>450.3</v>
-      </c>
-      <c r="C2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>43830.619444444441</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>43836.461111111108</v>
-      </c>
-      <c r="B4">
-        <v>431.8</v>
-      </c>
-      <c r="C4">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>43844.62777777778</v>
-      </c>
-      <c r="B5">
-        <v>484.4</v>
-      </c>
-      <c r="C5">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>43851.649305555555</v>
-      </c>
-      <c r="B6">
-        <v>240.7</v>
-      </c>
-      <c r="C6">
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>43858.634027777778</v>
-      </c>
-      <c r="B7">
-        <v>480.5</v>
-      </c>
-      <c r="C7">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>43865.643055555556</v>
-      </c>
-      <c r="B8">
-        <v>471</v>
-      </c>
-      <c r="C8">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>43872.629861111112</v>
-      </c>
-      <c r="B9">
-        <v>489.8</v>
-      </c>
-      <c r="C9">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>43879.640277777777</v>
-      </c>
-      <c r="B10">
-        <v>525.5</v>
-      </c>
-      <c r="C10">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>43886.625</v>
-      </c>
-      <c r="B11">
-        <v>520.79999999999995</v>
-      </c>
-      <c r="C11">
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>43893.638888888891</v>
-      </c>
-      <c r="B12">
-        <v>415.7</v>
-      </c>
-      <c r="C12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>43900.582638888889</v>
-      </c>
-      <c r="B13">
-        <v>374.8</v>
-      </c>
-      <c r="C13">
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>43906.416666666664</v>
-      </c>
-      <c r="B14">
-        <v>452.8</v>
-      </c>
-      <c r="C14">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>43999.46875</v>
-      </c>
-      <c r="B15">
-        <v>708.6</v>
-      </c>
-      <c r="C15">
-        <v>22.4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>44012.448611111111</v>
-      </c>
-      <c r="B16">
-        <v>683.1</v>
-      </c>
-      <c r="C16">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>44026.395833333336</v>
-      </c>
-      <c r="B17">
-        <v>508.5</v>
-      </c>
-      <c r="C17">
-        <v>23.2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>44033.688194444447</v>
-      </c>
-      <c r="B18">
-        <v>657.5</v>
-      </c>
-      <c r="C18">
-        <v>22.9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>44040.383333333331</v>
-      </c>
-      <c r="B19">
-        <v>701.5</v>
-      </c>
-      <c r="C19">
-        <v>22.3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>44054.422222222223</v>
-      </c>
-      <c r="B20">
-        <v>716.3</v>
-      </c>
-      <c r="C20">
-        <v>20.7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>44069.443055555559</v>
-      </c>
-      <c r="B21">
-        <v>818.4</v>
-      </c>
-      <c r="C21">
-        <v>22.9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>44082.429166666669</v>
-      </c>
-      <c r="B22">
-        <v>660.2</v>
-      </c>
-      <c r="C22">
-        <v>14.4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>44096.436111111114</v>
-      </c>
-      <c r="B23">
-        <v>674</v>
-      </c>
-      <c r="C23">
-        <v>15.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>44110.406944444447</v>
-      </c>
-      <c r="B24">
-        <v>651.79999999999995</v>
-      </c>
-      <c r="C24">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>44134.35833333333</v>
-      </c>
-      <c r="B25">
-        <v>440.1</v>
-      </c>
-      <c r="C25">
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>44152.541666666664</v>
-      </c>
-      <c r="B26">
-        <v>433</v>
-      </c>
-      <c r="C26">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <v>44159.520833333336</v>
-      </c>
-      <c r="B27">
-        <v>469.8</v>
-      </c>
-      <c r="C27">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
-        <v>44169.536805555559</v>
-      </c>
-      <c r="B28">
-        <v>498.3</v>
-      </c>
-      <c r="C28">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
-        <v>44180.638194444444</v>
-      </c>
-      <c r="B29">
-        <v>457.5</v>
-      </c>
-      <c r="C29">
-        <v>0.1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C29"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>43818.62222222222</v>
-      </c>
-      <c r="B2">
-        <v>472</v>
-      </c>
-      <c r="C2">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>43830.627083333333</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>43836.46875</v>
-      </c>
-      <c r="B4">
-        <v>463.7</v>
-      </c>
-      <c r="C4">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>43844.637499999997</v>
-      </c>
-      <c r="B5">
-        <v>493.2</v>
-      </c>
-      <c r="C5">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>43851.659722222219</v>
-      </c>
-      <c r="B6">
-        <v>435.5</v>
-      </c>
-      <c r="C6">
-        <v>-0.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>43858.642361111109</v>
-      </c>
-      <c r="B7">
-        <v>490.2</v>
-      </c>
-      <c r="C7">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>43865.654166666667</v>
-      </c>
-      <c r="B8">
-        <v>506</v>
-      </c>
-      <c r="C8">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>43872.634722222225</v>
-      </c>
-      <c r="B9">
-        <v>494.6</v>
-      </c>
-      <c r="C9">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>43879.645833333336</v>
-      </c>
-      <c r="B10">
-        <v>574.4</v>
-      </c>
-      <c r="C10">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>43886.631249999999</v>
-      </c>
-      <c r="B11">
-        <v>783.8</v>
-      </c>
-      <c r="C11">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>43893.652777777781</v>
-      </c>
-      <c r="B12">
-        <v>389.7</v>
-      </c>
-      <c r="C12">
-        <v>5.3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>43900.59097222222</v>
-      </c>
-      <c r="B13">
-        <v>432.3</v>
-      </c>
-      <c r="C13">
-        <v>6.4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>43906.427083333336</v>
-      </c>
-      <c r="B14">
-        <v>491.8</v>
-      </c>
-      <c r="C14">
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>43999.447916666664</v>
-      </c>
-      <c r="B15">
-        <v>716.6</v>
-      </c>
-      <c r="C15">
-        <v>20.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>44012.457638888889</v>
-      </c>
-      <c r="B16">
-        <v>588.1</v>
-      </c>
-      <c r="C16">
-        <v>21.3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>44026.385416666664</v>
-      </c>
-      <c r="B17">
-        <v>722</v>
-      </c>
-      <c r="C17">
-        <v>19.8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>44033.677083333336</v>
-      </c>
-      <c r="B18">
-        <v>758.7</v>
-      </c>
-      <c r="C18">
-        <v>20.2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>44040.393055555556</v>
-      </c>
-      <c r="B19">
-        <v>687.5</v>
-      </c>
-      <c r="C19">
-        <v>18.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>44054.429861111108</v>
-      </c>
-      <c r="B20">
-        <v>719.9</v>
-      </c>
-      <c r="C20">
-        <v>17.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>44069.454861111109</v>
-      </c>
-      <c r="B21">
-        <v>766.8</v>
-      </c>
-      <c r="C21">
-        <v>20.3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>44082.439583333333</v>
-      </c>
-      <c r="B22">
-        <v>657.8</v>
-      </c>
-      <c r="C22">
-        <v>13.1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>44096.444444444445</v>
-      </c>
-      <c r="B23">
-        <v>679.2</v>
-      </c>
-      <c r="C23">
-        <v>14.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>44110.415277777778</v>
-      </c>
-      <c r="B24">
-        <v>621.70000000000005</v>
-      </c>
-      <c r="C24">
-        <v>11.2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>44134.368055555555</v>
-      </c>
-      <c r="B25">
-        <v>514.9</v>
-      </c>
-      <c r="C25">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>44152.554861111108</v>
-      </c>
-      <c r="B26">
-        <v>510</v>
-      </c>
-      <c r="C26">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <v>44159.52847222222</v>
-      </c>
-      <c r="B27">
-        <v>483.3</v>
-      </c>
-      <c r="C27">
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
-        <v>44169.541666666664</v>
-      </c>
-      <c r="B28">
-        <v>507.9</v>
-      </c>
-      <c r="C28">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
-        <v>44180.649305555555</v>
-      </c>
-      <c r="B29">
-        <v>449.3</v>
-      </c>
-      <c r="C29">
-        <v>0.7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C30"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
         <v>43818.609722222223</v>
       </c>
       <c r="B2">
@@ -5140,6 +5226,17 @@
       </c>
       <c r="C30">
         <v>1.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>44194.486111111109</v>
+      </c>
+      <c r="B31">
+        <v>686.1</v>
+      </c>
+      <c r="C31">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/Data/conductivity_field.xlsx
+++ b/Data/conductivity_field.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linne\Box Sync\Chloride Research\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F55ECFE3-0B06-48B2-93EF-35956FB52A13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{939EB2AF-96E0-4962-BBA6-489BDC4A81EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loggers" sheetId="12" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="37">
   <si>
     <t>datetime</t>
   </si>
@@ -1744,10 +1744,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2107,6 +2107,11 @@
       </c>
       <c r="C32">
         <v>3.3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>44201.566666666666</v>
       </c>
     </row>
   </sheetData>
@@ -2523,10 +2528,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE7E974B-BCA0-45B0-95FE-63AB262733E9}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2712,6 +2717,17 @@
         <v>0.1</v>
       </c>
     </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>44201.415972222225</v>
+      </c>
+      <c r="B17">
+        <v>520.1</v>
+      </c>
+      <c r="C17">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2719,10 +2735,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3073,6 +3089,17 @@
         <v>0</v>
       </c>
     </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>44201.432638888888</v>
+      </c>
+      <c r="B32">
+        <v>315.89999999999998</v>
+      </c>
+      <c r="C32">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3083,8 +3110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3494,6 +3521,15 @@
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>44201.45</v>
+      </c>
+      <c r="B31">
+        <v>714</v>
+      </c>
+      <c r="C31">
+        <v>2.1</v>
+      </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
@@ -3507,10 +3543,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3546,12 +3582,6 @@
       <c r="A3" s="1">
         <v>43830.57708333333</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
@@ -3837,6 +3867,17 @@
       </c>
       <c r="C29">
         <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>44201.464583333334</v>
+      </c>
+      <c r="B30">
+        <v>309.8</v>
+      </c>
+      <c r="C30">
+        <v>1.6</v>
       </c>
     </row>
   </sheetData>
@@ -3846,345 +3887,6 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C29"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>43818.638888888891</v>
-      </c>
-      <c r="B2">
-        <v>452.2</v>
-      </c>
-      <c r="C2">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>43830.6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>43836.447222222225</v>
-      </c>
-      <c r="B4">
-        <v>425.2</v>
-      </c>
-      <c r="C4">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>43844.600694444445</v>
-      </c>
-      <c r="B5">
-        <v>437.8</v>
-      </c>
-      <c r="C5">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>43851.635416666664</v>
-      </c>
-      <c r="B6">
-        <v>453.4</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>43858.625</v>
-      </c>
-      <c r="B7">
-        <v>457.6</v>
-      </c>
-      <c r="C7">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>43865.629166666666</v>
-      </c>
-      <c r="B8">
-        <v>432.1</v>
-      </c>
-      <c r="C8">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>43872.621527777781</v>
-      </c>
-      <c r="B9">
-        <v>512.36</v>
-      </c>
-      <c r="C9">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>43879.131249999999</v>
-      </c>
-      <c r="B10">
-        <v>442.3</v>
-      </c>
-      <c r="C10">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>43886.615972222222</v>
-      </c>
-      <c r="B11">
-        <v>451.3</v>
-      </c>
-      <c r="C11">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>43893.629166666666</v>
-      </c>
-      <c r="B12">
-        <v>476.7</v>
-      </c>
-      <c r="C12">
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>43900.574305555558</v>
-      </c>
-      <c r="B13">
-        <v>353.7</v>
-      </c>
-      <c r="C13">
-        <v>7.2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>43906.40625</v>
-      </c>
-      <c r="B14">
-        <v>409.7</v>
-      </c>
-      <c r="C14">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>43999.487500000003</v>
-      </c>
-      <c r="B15">
-        <v>487.5</v>
-      </c>
-      <c r="C15">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>44012.429861111108</v>
-      </c>
-      <c r="B16">
-        <v>682.5</v>
-      </c>
-      <c r="C16">
-        <v>27.3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>44026.414583333331</v>
-      </c>
-      <c r="B17">
-        <v>493.5</v>
-      </c>
-      <c r="C17">
-        <v>26.1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>44040.37222222222</v>
-      </c>
-      <c r="B18">
-        <v>687.5</v>
-      </c>
-      <c r="C18">
-        <v>25.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>44054.408333333333</v>
-      </c>
-      <c r="B19">
-        <v>687.1</v>
-      </c>
-      <c r="C19">
-        <v>24.6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>44069.425000000003</v>
-      </c>
-      <c r="B20">
-        <v>724.4</v>
-      </c>
-      <c r="C20">
-        <v>26.8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>44082.409722222219</v>
-      </c>
-      <c r="B21">
-        <v>557.4</v>
-      </c>
-      <c r="C21">
-        <v>17.2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>44096.418749999997</v>
-      </c>
-      <c r="B22">
-        <v>571.1</v>
-      </c>
-      <c r="C22">
-        <v>18.100000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>44110.392361111109</v>
-      </c>
-      <c r="B23">
-        <v>553.5</v>
-      </c>
-      <c r="C23">
-        <v>11.8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>44134.345138888886</v>
-      </c>
-      <c r="B24">
-        <v>344.1</v>
-      </c>
-      <c r="C24">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>44152.529166666667</v>
-      </c>
-      <c r="B25">
-        <v>378</v>
-      </c>
-      <c r="C25">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>44159.513194444444</v>
-      </c>
-      <c r="B26">
-        <v>441.4</v>
-      </c>
-      <c r="C26">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <v>44169.482638888891</v>
-      </c>
-      <c r="B27">
-        <v>439</v>
-      </c>
-      <c r="C27">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
-        <v>44180.623611111114</v>
-      </c>
-      <c r="B28">
-        <v>445.7</v>
-      </c>
-      <c r="C28">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
-        <v>44194.457638888889</v>
-      </c>
-      <c r="B29">
-        <v>471.8</v>
-      </c>
-      <c r="C29">
-        <v>0.1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -4211,32 +3913,26 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>43818.631249999999</v>
+        <v>43818.638888888891</v>
       </c>
       <c r="B2">
-        <v>450.3</v>
+        <v>452.2</v>
       </c>
       <c r="C2">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>43830.619444444441</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
+        <v>43830.6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>43836.461111111108</v>
+        <v>43836.447222222225</v>
       </c>
       <c r="B4">
-        <v>431.8</v>
+        <v>425.2</v>
       </c>
       <c r="C4">
         <v>1.2</v>
@@ -4244,54 +3940,54 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>43844.62777777778</v>
+        <v>43844.600694444445</v>
       </c>
       <c r="B5">
-        <v>484.4</v>
+        <v>437.8</v>
       </c>
       <c r="C5">
-        <v>3.7</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>43851.649305555555</v>
+        <v>43851.635416666664</v>
       </c>
       <c r="B6">
-        <v>240.7</v>
+        <v>453.4</v>
       </c>
       <c r="C6">
-        <v>-0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>43858.634027777778</v>
+        <v>43858.625</v>
       </c>
       <c r="B7">
-        <v>480.5</v>
+        <v>457.6</v>
       </c>
       <c r="C7">
-        <v>2.4</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>43865.643055555556</v>
+        <v>43865.629166666666</v>
       </c>
       <c r="B8">
-        <v>471</v>
+        <v>432.1</v>
       </c>
       <c r="C8">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>43872.629861111112</v>
+        <v>43872.621527777781</v>
       </c>
       <c r="B9">
-        <v>489.8</v>
+        <v>512.36</v>
       </c>
       <c r="C9">
         <v>2.2000000000000002</v>
@@ -4299,219 +3995,219 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>43879.640277777777</v>
+        <v>43879.131249999999</v>
       </c>
       <c r="B10">
-        <v>525.5</v>
+        <v>442.3</v>
       </c>
       <c r="C10">
-        <v>3.3</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>43886.625</v>
+        <v>43886.615972222222</v>
       </c>
       <c r="B11">
-        <v>520.79999999999995</v>
+        <v>451.3</v>
       </c>
       <c r="C11">
-        <v>4.0999999999999996</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>43893.638888888891</v>
+        <v>43893.629166666666</v>
       </c>
       <c r="B12">
-        <v>415.7</v>
+        <v>476.7</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>43900.582638888889</v>
+        <v>43900.574305555558</v>
       </c>
       <c r="B13">
-        <v>374.8</v>
+        <v>353.7</v>
       </c>
       <c r="C13">
-        <v>5.6</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>43906.416666666664</v>
+        <v>43906.40625</v>
       </c>
       <c r="B14">
-        <v>452.8</v>
+        <v>409.7</v>
       </c>
       <c r="C14">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>43999.46875</v>
+        <v>43999.487500000003</v>
       </c>
       <c r="B15">
-        <v>708.6</v>
+        <v>487.5</v>
       </c>
       <c r="C15">
-        <v>22.4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>44012.448611111111</v>
+        <v>44012.429861111108</v>
       </c>
       <c r="B16">
-        <v>683.1</v>
+        <v>682.5</v>
       </c>
       <c r="C16">
-        <v>23</v>
+        <v>27.3</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>44026.395833333336</v>
+        <v>44026.414583333331</v>
       </c>
       <c r="B17">
-        <v>508.5</v>
+        <v>493.5</v>
       </c>
       <c r="C17">
-        <v>23.2</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>44033.688194444447</v>
+        <v>44040.37222222222</v>
       </c>
       <c r="B18">
-        <v>657.5</v>
+        <v>687.5</v>
       </c>
       <c r="C18">
-        <v>22.9</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>44040.383333333331</v>
+        <v>44054.408333333333</v>
       </c>
       <c r="B19">
-        <v>701.5</v>
+        <v>687.1</v>
       </c>
       <c r="C19">
-        <v>22.3</v>
+        <v>24.6</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>44054.422222222223</v>
+        <v>44069.425000000003</v>
       </c>
       <c r="B20">
-        <v>716.3</v>
+        <v>724.4</v>
       </c>
       <c r="C20">
-        <v>20.7</v>
+        <v>26.8</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>44069.443055555559</v>
+        <v>44082.409722222219</v>
       </c>
       <c r="B21">
-        <v>818.4</v>
+        <v>557.4</v>
       </c>
       <c r="C21">
-        <v>22.9</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>44082.429166666669</v>
+        <v>44096.418749999997</v>
       </c>
       <c r="B22">
-        <v>660.2</v>
+        <v>571.1</v>
       </c>
       <c r="C22">
-        <v>14.4</v>
+        <v>18.100000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>44096.436111111114</v>
+        <v>44110.392361111109</v>
       </c>
       <c r="B23">
-        <v>674</v>
+        <v>553.5</v>
       </c>
       <c r="C23">
-        <v>15.5</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>44110.406944444447</v>
+        <v>44134.345138888886</v>
       </c>
       <c r="B24">
-        <v>651.79999999999995</v>
+        <v>344.1</v>
       </c>
       <c r="C24">
-        <v>11</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>44134.35833333333</v>
+        <v>44152.529166666667</v>
       </c>
       <c r="B25">
-        <v>440.1</v>
+        <v>378</v>
       </c>
       <c r="C25">
-        <v>4.0999999999999996</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>44152.541666666664</v>
+        <v>44159.513194444444</v>
       </c>
       <c r="B26">
-        <v>433</v>
+        <v>441.4</v>
       </c>
       <c r="C26">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>44159.520833333336</v>
+        <v>44169.482638888891</v>
       </c>
       <c r="B27">
-        <v>469.8</v>
+        <v>439</v>
       </c>
       <c r="C27">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>44169.536805555559</v>
+        <v>44180.623611111114</v>
       </c>
       <c r="B28">
-        <v>498.3</v>
+        <v>445.7</v>
       </c>
       <c r="C28">
-        <v>3.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>44180.638194444444</v>
+        <v>44194.457638888889</v>
       </c>
       <c r="B29">
-        <v>457.5</v>
+        <v>471.8</v>
       </c>
       <c r="C29">
         <v>0.1</v>
@@ -4519,13 +4215,13 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>44194.466666666667</v>
+        <v>44201.527777777781</v>
       </c>
       <c r="B30">
-        <v>474.1</v>
+        <v>427.8</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>1.6</v>
       </c>
     </row>
   </sheetData>
@@ -4533,361 +4229,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C30"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>43818.62222222222</v>
-      </c>
-      <c r="B2">
-        <v>472</v>
-      </c>
-      <c r="C2">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>43830.627083333333</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>43836.46875</v>
-      </c>
-      <c r="B4">
-        <v>463.7</v>
-      </c>
-      <c r="C4">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>43844.637499999997</v>
-      </c>
-      <c r="B5">
-        <v>493.2</v>
-      </c>
-      <c r="C5">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>43851.659722222219</v>
-      </c>
-      <c r="B6">
-        <v>435.5</v>
-      </c>
-      <c r="C6">
-        <v>-0.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>43858.642361111109</v>
-      </c>
-      <c r="B7">
-        <v>490.2</v>
-      </c>
-      <c r="C7">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>43865.654166666667</v>
-      </c>
-      <c r="B8">
-        <v>506</v>
-      </c>
-      <c r="C8">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>43872.634722222225</v>
-      </c>
-      <c r="B9">
-        <v>494.6</v>
-      </c>
-      <c r="C9">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>43879.645833333336</v>
-      </c>
-      <c r="B10">
-        <v>574.4</v>
-      </c>
-      <c r="C10">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>43886.631249999999</v>
-      </c>
-      <c r="B11">
-        <v>783.8</v>
-      </c>
-      <c r="C11">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>43893.652777777781</v>
-      </c>
-      <c r="B12">
-        <v>389.7</v>
-      </c>
-      <c r="C12">
-        <v>5.3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>43900.59097222222</v>
-      </c>
-      <c r="B13">
-        <v>432.3</v>
-      </c>
-      <c r="C13">
-        <v>6.4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>43906.427083333336</v>
-      </c>
-      <c r="B14">
-        <v>491.8</v>
-      </c>
-      <c r="C14">
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>43999.447916666664</v>
-      </c>
-      <c r="B15">
-        <v>716.6</v>
-      </c>
-      <c r="C15">
-        <v>20.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>44012.457638888889</v>
-      </c>
-      <c r="B16">
-        <v>588.1</v>
-      </c>
-      <c r="C16">
-        <v>21.3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>44026.385416666664</v>
-      </c>
-      <c r="B17">
-        <v>722</v>
-      </c>
-      <c r="C17">
-        <v>19.8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>44033.677083333336</v>
-      </c>
-      <c r="B18">
-        <v>758.7</v>
-      </c>
-      <c r="C18">
-        <v>20.2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>44040.393055555556</v>
-      </c>
-      <c r="B19">
-        <v>687.5</v>
-      </c>
-      <c r="C19">
-        <v>18.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>44054.429861111108</v>
-      </c>
-      <c r="B20">
-        <v>719.9</v>
-      </c>
-      <c r="C20">
-        <v>17.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>44069.454861111109</v>
-      </c>
-      <c r="B21">
-        <v>766.8</v>
-      </c>
-      <c r="C21">
-        <v>20.3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>44082.439583333333</v>
-      </c>
-      <c r="B22">
-        <v>657.8</v>
-      </c>
-      <c r="C22">
-        <v>13.1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>44096.444444444445</v>
-      </c>
-      <c r="B23">
-        <v>679.2</v>
-      </c>
-      <c r="C23">
-        <v>14.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>44110.415277777778</v>
-      </c>
-      <c r="B24">
-        <v>621.70000000000005</v>
-      </c>
-      <c r="C24">
-        <v>11.2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>44134.368055555555</v>
-      </c>
-      <c r="B25">
-        <v>514.9</v>
-      </c>
-      <c r="C25">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>44152.554861111108</v>
-      </c>
-      <c r="B26">
-        <v>510</v>
-      </c>
-      <c r="C26">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <v>44159.52847222222</v>
-      </c>
-      <c r="B27">
-        <v>483.3</v>
-      </c>
-      <c r="C27">
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
-        <v>44169.541666666664</v>
-      </c>
-      <c r="B28">
-        <v>507.9</v>
-      </c>
-      <c r="C28">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
-        <v>44180.649305555555</v>
-      </c>
-      <c r="B29">
-        <v>449.3</v>
-      </c>
-      <c r="C29">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
-        <v>44194.474305555559</v>
-      </c>
-      <c r="B30">
-        <v>456</v>
-      </c>
-      <c r="C30">
-        <v>0.6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
@@ -4911,6 +4257,728 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
+        <v>43818.631249999999</v>
+      </c>
+      <c r="B2">
+        <v>450.3</v>
+      </c>
+      <c r="C2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>43830.619444444441</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>43836.461111111108</v>
+      </c>
+      <c r="B4">
+        <v>431.8</v>
+      </c>
+      <c r="C4">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>43844.62777777778</v>
+      </c>
+      <c r="B5">
+        <v>484.4</v>
+      </c>
+      <c r="C5">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>43851.649305555555</v>
+      </c>
+      <c r="B6">
+        <v>240.7</v>
+      </c>
+      <c r="C6">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>43858.634027777778</v>
+      </c>
+      <c r="B7">
+        <v>480.5</v>
+      </c>
+      <c r="C7">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>43865.643055555556</v>
+      </c>
+      <c r="B8">
+        <v>471</v>
+      </c>
+      <c r="C8">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>43872.629861111112</v>
+      </c>
+      <c r="B9">
+        <v>489.8</v>
+      </c>
+      <c r="C9">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>43879.640277777777</v>
+      </c>
+      <c r="B10">
+        <v>525.5</v>
+      </c>
+      <c r="C10">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>43886.625</v>
+      </c>
+      <c r="B11">
+        <v>520.79999999999995</v>
+      </c>
+      <c r="C11">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>43893.638888888891</v>
+      </c>
+      <c r="B12">
+        <v>415.7</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>43900.582638888889</v>
+      </c>
+      <c r="B13">
+        <v>374.8</v>
+      </c>
+      <c r="C13">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>43906.416666666664</v>
+      </c>
+      <c r="B14">
+        <v>452.8</v>
+      </c>
+      <c r="C14">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>43999.46875</v>
+      </c>
+      <c r="B15">
+        <v>708.6</v>
+      </c>
+      <c r="C15">
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>44012.448611111111</v>
+      </c>
+      <c r="B16">
+        <v>683.1</v>
+      </c>
+      <c r="C16">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>44026.395833333336</v>
+      </c>
+      <c r="B17">
+        <v>508.5</v>
+      </c>
+      <c r="C17">
+        <v>23.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>44033.688194444447</v>
+      </c>
+      <c r="B18">
+        <v>657.5</v>
+      </c>
+      <c r="C18">
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>44040.383333333331</v>
+      </c>
+      <c r="B19">
+        <v>701.5</v>
+      </c>
+      <c r="C19">
+        <v>22.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>44054.422222222223</v>
+      </c>
+      <c r="B20">
+        <v>716.3</v>
+      </c>
+      <c r="C20">
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>44069.443055555559</v>
+      </c>
+      <c r="B21">
+        <v>818.4</v>
+      </c>
+      <c r="C21">
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>44082.429166666669</v>
+      </c>
+      <c r="B22">
+        <v>660.2</v>
+      </c>
+      <c r="C22">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>44096.436111111114</v>
+      </c>
+      <c r="B23">
+        <v>674</v>
+      </c>
+      <c r="C23">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>44110.406944444447</v>
+      </c>
+      <c r="B24">
+        <v>651.79999999999995</v>
+      </c>
+      <c r="C24">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>44134.35833333333</v>
+      </c>
+      <c r="B25">
+        <v>440.1</v>
+      </c>
+      <c r="C25">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>44152.541666666664</v>
+      </c>
+      <c r="B26">
+        <v>433</v>
+      </c>
+      <c r="C26">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>44159.520833333336</v>
+      </c>
+      <c r="B27">
+        <v>469.8</v>
+      </c>
+      <c r="C27">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>44169.536805555559</v>
+      </c>
+      <c r="B28">
+        <v>498.3</v>
+      </c>
+      <c r="C28">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>44180.638194444444</v>
+      </c>
+      <c r="B29">
+        <v>457.5</v>
+      </c>
+      <c r="C29">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>44194.466666666667</v>
+      </c>
+      <c r="B30">
+        <v>474.1</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>44201.536805555559</v>
+      </c>
+      <c r="B31">
+        <v>472</v>
+      </c>
+      <c r="C31">
+        <v>2.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:C31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>43818.62222222222</v>
+      </c>
+      <c r="B2">
+        <v>472</v>
+      </c>
+      <c r="C2">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>43830.627083333333</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>43836.46875</v>
+      </c>
+      <c r="B4">
+        <v>463.7</v>
+      </c>
+      <c r="C4">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>43844.637499999997</v>
+      </c>
+      <c r="B5">
+        <v>493.2</v>
+      </c>
+      <c r="C5">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>43851.659722222219</v>
+      </c>
+      <c r="B6">
+        <v>435.5</v>
+      </c>
+      <c r="C6">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>43858.642361111109</v>
+      </c>
+      <c r="B7">
+        <v>490.2</v>
+      </c>
+      <c r="C7">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>43865.654166666667</v>
+      </c>
+      <c r="B8">
+        <v>506</v>
+      </c>
+      <c r="C8">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>43872.634722222225</v>
+      </c>
+      <c r="B9">
+        <v>494.6</v>
+      </c>
+      <c r="C9">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>43879.645833333336</v>
+      </c>
+      <c r="B10">
+        <v>574.4</v>
+      </c>
+      <c r="C10">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>43886.631249999999</v>
+      </c>
+      <c r="B11">
+        <v>783.8</v>
+      </c>
+      <c r="C11">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>43893.652777777781</v>
+      </c>
+      <c r="B12">
+        <v>389.7</v>
+      </c>
+      <c r="C12">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>43900.59097222222</v>
+      </c>
+      <c r="B13">
+        <v>432.3</v>
+      </c>
+      <c r="C13">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>43906.427083333336</v>
+      </c>
+      <c r="B14">
+        <v>491.8</v>
+      </c>
+      <c r="C14">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>43999.447916666664</v>
+      </c>
+      <c r="B15">
+        <v>716.6</v>
+      </c>
+      <c r="C15">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>44012.457638888889</v>
+      </c>
+      <c r="B16">
+        <v>588.1</v>
+      </c>
+      <c r="C16">
+        <v>21.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>44026.385416666664</v>
+      </c>
+      <c r="B17">
+        <v>722</v>
+      </c>
+      <c r="C17">
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>44033.677083333336</v>
+      </c>
+      <c r="B18">
+        <v>758.7</v>
+      </c>
+      <c r="C18">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>44040.393055555556</v>
+      </c>
+      <c r="B19">
+        <v>687.5</v>
+      </c>
+      <c r="C19">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>44054.429861111108</v>
+      </c>
+      <c r="B20">
+        <v>719.9</v>
+      </c>
+      <c r="C20">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>44069.454861111109</v>
+      </c>
+      <c r="B21">
+        <v>766.8</v>
+      </c>
+      <c r="C21">
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>44082.439583333333</v>
+      </c>
+      <c r="B22">
+        <v>657.8</v>
+      </c>
+      <c r="C22">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>44096.444444444445</v>
+      </c>
+      <c r="B23">
+        <v>679.2</v>
+      </c>
+      <c r="C23">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>44110.415277777778</v>
+      </c>
+      <c r="B24">
+        <v>621.70000000000005</v>
+      </c>
+      <c r="C24">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>44134.368055555555</v>
+      </c>
+      <c r="B25">
+        <v>514.9</v>
+      </c>
+      <c r="C25">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>44152.554861111108</v>
+      </c>
+      <c r="B26">
+        <v>510</v>
+      </c>
+      <c r="C26">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>44159.52847222222</v>
+      </c>
+      <c r="B27">
+        <v>483.3</v>
+      </c>
+      <c r="C27">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>44169.541666666664</v>
+      </c>
+      <c r="B28">
+        <v>507.9</v>
+      </c>
+      <c r="C28">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>44180.649305555555</v>
+      </c>
+      <c r="B29">
+        <v>449.3</v>
+      </c>
+      <c r="C29">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>44194.474305555559</v>
+      </c>
+      <c r="B30">
+        <v>456</v>
+      </c>
+      <c r="C30">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>44201.543055555558</v>
+      </c>
+      <c r="B31">
+        <v>476.3</v>
+      </c>
+      <c r="C31">
+        <v>3.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:C32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>43818.609722222223</v>
       </c>
       <c r="B2">
@@ -5237,6 +5305,17 @@
       </c>
       <c r="C31">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>44201.558333333334</v>
+      </c>
+      <c r="B32">
+        <v>663.2</v>
+      </c>
+      <c r="C32">
+        <v>2.2999999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/Data/conductivity_field.xlsx
+++ b/Data/conductivity_field.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linne\Box Sync\Chloride Research\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{939EB2AF-96E0-4962-BBA6-489BDC4A81EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7FC1D46-25BF-4E5F-8E90-93B765DBADBC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51930" yWindow="3195" windowWidth="11070" windowHeight="5730" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loggers" sheetId="12" r:id="rId1"/>
@@ -1746,8 +1746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2109,9 +2109,15 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>44201.566666666666</v>
+        <v>44215.571527777778</v>
+      </c>
+      <c r="B33">
+        <v>3190</v>
+      </c>
+      <c r="C33">
+        <v>3.1</v>
       </c>
     </row>
   </sheetData>
@@ -2528,10 +2534,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE7E974B-BCA0-45B0-95FE-63AB262733E9}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2728,6 +2734,28 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>44215.444444444445</v>
+      </c>
+      <c r="B18">
+        <v>1140</v>
+      </c>
+      <c r="C18">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>44222.418055555558</v>
+      </c>
+      <c r="B19">
+        <v>542.20000000000005</v>
+      </c>
+      <c r="C19">
+        <v>0.3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2735,10 +2763,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3100,6 +3128,28 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>44215.461805555555</v>
+      </c>
+      <c r="B33">
+        <v>643</v>
+      </c>
+      <c r="C33">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>44222.434027777781</v>
+      </c>
+      <c r="B34">
+        <v>308.60000000000002</v>
+      </c>
+      <c r="C34">
+        <v>0.3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3111,7 +3161,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3534,6 +3584,15 @@
       <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>44215.482638888891</v>
+      </c>
+      <c r="B32">
+        <v>1652</v>
+      </c>
+      <c r="C32">
+        <v>1.3</v>
+      </c>
       <c r="H32" s="1"/>
     </row>
   </sheetData>
@@ -3543,10 +3602,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C3"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3880,6 +3939,28 @@
         <v>1.6</v>
       </c>
     </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>44215.5</v>
+      </c>
+      <c r="B31">
+        <v>621</v>
+      </c>
+      <c r="C31">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>44222.463194444441</v>
+      </c>
+      <c r="B32">
+        <v>309.2</v>
+      </c>
+      <c r="C32">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3887,10 +3968,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4224,6 +4305,28 @@
         <v>1.6</v>
       </c>
     </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>44215.513888888891</v>
+      </c>
+      <c r="B31">
+        <v>900</v>
+      </c>
+      <c r="C31">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>44222.524305555555</v>
+      </c>
+      <c r="B32">
+        <v>440.9</v>
+      </c>
+      <c r="C32">
+        <v>0.3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4231,10 +4334,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4585,6 +4688,28 @@
         <v>2.4</v>
       </c>
     </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>44215.536111111112</v>
+      </c>
+      <c r="B32">
+        <v>916</v>
+      </c>
+      <c r="C32">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>44222.538888888892</v>
+      </c>
+      <c r="B33">
+        <v>455.9</v>
+      </c>
+      <c r="C33">
+        <v>0.3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4592,10 +4717,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4946,6 +5071,28 @@
         <v>3.5</v>
       </c>
     </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>44215.541666666664</v>
+      </c>
+      <c r="B32">
+        <v>891</v>
+      </c>
+      <c r="C32">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>44222.547222222223</v>
+      </c>
+      <c r="B33">
+        <v>419.9</v>
+      </c>
+      <c r="C33">
+        <v>0.6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4953,10 +5100,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5318,6 +5465,28 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>44215.5625</v>
+      </c>
+      <c r="B33">
+        <v>1422</v>
+      </c>
+      <c r="C33">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>44222.56527777778</v>
+      </c>
+      <c r="B34">
+        <v>657.4</v>
+      </c>
+      <c r="C34">
+        <v>0.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/conductivity_field.xlsx
+++ b/Data/conductivity_field.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linne\Box Sync\Chloride Research\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7FC1D46-25BF-4E5F-8E90-93B765DBADBC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E471B50-106B-490D-953C-D8B36F4EC9C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51930" yWindow="3195" windowWidth="11070" windowHeight="5730" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loggers" sheetId="12" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="37">
   <si>
     <t>datetime</t>
   </si>
@@ -1058,8 +1058,8 @@
   <dimension ref="A1:AR22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" topLeftCell="N1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T17" sqref="T17"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1071,12 +1071,12 @@
     <col min="5" max="5" width="19.88671875" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.33203125" style="3" customWidth="1"/>
     <col min="7" max="9" width="19.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="19" width="18.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="44" width="8.88671875" style="8"/>
+    <col min="10" max="20" width="18.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="44" width="8.88671875" style="8"/>
     <col min="45" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -1134,8 +1134,14 @@
       <c r="S1" s="8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>20758340</v>
       </c>
@@ -1152,7 +1158,7 @@
         <v>44141.5</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="18">
         <v>20758345</v>
       </c>
@@ -1166,7 +1172,7 @@
         <v>43963.53125</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="19">
         <v>20758346</v>
       </c>
@@ -1178,7 +1184,7 @@
         <v>44141.5</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>20758339</v>
       </c>
@@ -1236,8 +1242,11 @@
       <c r="S5" s="8">
         <v>44180.6875</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T5" s="8">
+        <v>44229.541666666664</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>20758341</v>
       </c>
@@ -1254,7 +1263,7 @@
         <v>44139.583333333336</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="18">
         <v>20758346</v>
       </c>
@@ -1268,7 +1277,7 @@
         <v>43922.40625</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="20">
         <v>20378151</v>
       </c>
@@ -1280,7 +1289,7 @@
         <v>44139.583333333336</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>20758338</v>
       </c>
@@ -1333,7 +1342,7 @@
         <v>44180.666666666664</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>20758344</v>
       </c>
@@ -1386,7 +1395,7 @@
         <v>44180.6875</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="19">
         <v>20882401</v>
       </c>
@@ -1407,7 +1416,7 @@
         <v>44180.541666666664</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="14">
         <v>20378151</v>
       </c>
@@ -1448,7 +1457,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>20758342</v>
       </c>
@@ -1501,7 +1510,7 @@
         <v>44180.645833333336</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>20758343</v>
       </c>
@@ -1554,7 +1563,7 @@
         <v>44180.625</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>20758347</v>
       </c>
@@ -1601,7 +1610,7 @@
         <v>44180.5625</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>20758348</v>
       </c>
@@ -1744,10 +1753,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="M42" sqref="M42"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2118,6 +2127,17 @@
       </c>
       <c r="C33">
         <v>3.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>44229.474305555559</v>
+      </c>
+      <c r="B34">
+        <v>1609</v>
+      </c>
+      <c r="C34">
+        <v>2.2000000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -2302,10 +2322,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{588D9C27-B403-4DE5-8B68-B5C4B22BE996}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2526,6 +2546,90 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>44230.435416666667</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>311.2</v>
+      </c>
+      <c r="D16">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>44230.432638888888</v>
+      </c>
+      <c r="B17" s="2">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>312.60000000000002</v>
+      </c>
+      <c r="D17">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>44230.431250000001</v>
+      </c>
+      <c r="B18" s="2">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>318.3</v>
+      </c>
+      <c r="D18">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>44230.427777777775</v>
+      </c>
+      <c r="B19" s="2">
+        <v>12</v>
+      </c>
+      <c r="C19">
+        <v>330.4</v>
+      </c>
+      <c r="D19">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>44230.425000000003</v>
+      </c>
+      <c r="B20" s="2">
+        <v>16</v>
+      </c>
+      <c r="C20">
+        <v>413.6</v>
+      </c>
+      <c r="D20">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>44230.421527777777</v>
+      </c>
+      <c r="B21" s="2">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>497.7</v>
+      </c>
+      <c r="D21">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2534,10 +2638,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE7E974B-BCA0-45B0-95FE-63AB262733E9}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2756,6 +2860,17 @@
         <v>0.3</v>
       </c>
     </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>44229.390277777777</v>
+      </c>
+      <c r="B20">
+        <v>561.79999999999995</v>
+      </c>
+      <c r="C20">
+        <v>1.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2763,6 +2878,1621 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>43818.686111111114</v>
+      </c>
+      <c r="B2">
+        <v>308.10000000000002</v>
+      </c>
+      <c r="C2">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>43830.505555555559</v>
+      </c>
+      <c r="B3">
+        <v>305.8</v>
+      </c>
+      <c r="C3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>43836.398611111108</v>
+      </c>
+      <c r="B4">
+        <v>299.7</v>
+      </c>
+      <c r="C4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>43844.568055555559</v>
+      </c>
+      <c r="B5">
+        <v>313.3</v>
+      </c>
+      <c r="C5">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>43851.578472222223</v>
+      </c>
+      <c r="B6">
+        <v>312.8</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>43858.57708333333</v>
+      </c>
+      <c r="B7">
+        <v>316.3</v>
+      </c>
+      <c r="C7">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>43864.621527777781</v>
+      </c>
+      <c r="B8">
+        <v>319.60000000000002</v>
+      </c>
+      <c r="C8">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>43865.577777777777</v>
+      </c>
+      <c r="B9">
+        <v>323.60000000000002</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>43872.574999999997</v>
+      </c>
+      <c r="B10">
+        <v>358.2</v>
+      </c>
+      <c r="C10">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>43879.581250000003</v>
+      </c>
+      <c r="B11">
+        <v>359.9</v>
+      </c>
+      <c r="C11">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>43886.572222222225</v>
+      </c>
+      <c r="B12">
+        <v>336.7</v>
+      </c>
+      <c r="C12">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>43893.57708333333</v>
+      </c>
+      <c r="B13">
+        <v>368.2</v>
+      </c>
+      <c r="C13">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>43900.530555555553</v>
+      </c>
+      <c r="B14">
+        <v>357.9</v>
+      </c>
+      <c r="C14">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>43906.355555555558</v>
+      </c>
+      <c r="B15">
+        <v>330.5</v>
+      </c>
+      <c r="C15">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>43999.611111111109</v>
+      </c>
+      <c r="B16">
+        <v>597.20000000000005</v>
+      </c>
+      <c r="C16">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>44012.388194444444</v>
+      </c>
+      <c r="B17">
+        <v>582.20000000000005</v>
+      </c>
+      <c r="C17">
+        <v>25.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>44026.480555555558</v>
+      </c>
+      <c r="B18">
+        <v>576.4</v>
+      </c>
+      <c r="C18">
+        <v>27.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>44034.446527777778</v>
+      </c>
+      <c r="B19">
+        <v>506.6</v>
+      </c>
+      <c r="C19">
+        <v>26.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>44040.458333333336</v>
+      </c>
+      <c r="B20">
+        <v>570.6</v>
+      </c>
+      <c r="C20">
+        <v>26.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>44054.487500000003</v>
+      </c>
+      <c r="B21">
+        <v>550.5</v>
+      </c>
+      <c r="C21">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>44069.559027777781</v>
+      </c>
+      <c r="B22">
+        <v>564.9</v>
+      </c>
+      <c r="C22">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>44082.489583333336</v>
+      </c>
+      <c r="B23">
+        <v>469.9</v>
+      </c>
+      <c r="C23">
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>44096.490972222222</v>
+      </c>
+      <c r="B24">
+        <v>491.1</v>
+      </c>
+      <c r="C24">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>44110.461805555555</v>
+      </c>
+      <c r="B25">
+        <v>460.5</v>
+      </c>
+      <c r="C25">
+        <v>16.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>44134.479166666664</v>
+      </c>
+      <c r="B26">
+        <v>379.9</v>
+      </c>
+      <c r="C26">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>44152.438888888886</v>
+      </c>
+      <c r="B27">
+        <v>347.4</v>
+      </c>
+      <c r="C27">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>44159.43472222222</v>
+      </c>
+      <c r="B28">
+        <v>358.9</v>
+      </c>
+      <c r="C28">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>44169.432638888888</v>
+      </c>
+      <c r="B29">
+        <v>332.4</v>
+      </c>
+      <c r="C29">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>44180.50277777778</v>
+      </c>
+      <c r="B30">
+        <v>310.8</v>
+      </c>
+      <c r="C30">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>44194.40625</v>
+      </c>
+      <c r="B31">
+        <v>300.8</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>44201.432638888888</v>
+      </c>
+      <c r="B32">
+        <v>315.89999999999998</v>
+      </c>
+      <c r="C32">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>44215.461805555555</v>
+      </c>
+      <c r="B33">
+        <v>643</v>
+      </c>
+      <c r="C33">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>44222.434027777781</v>
+      </c>
+      <c r="B34">
+        <v>308.60000000000002</v>
+      </c>
+      <c r="C34">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>44229.90347222222</v>
+      </c>
+      <c r="B35">
+        <v>311.5</v>
+      </c>
+      <c r="C35">
+        <v>0.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="18.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>43818.667361111111</v>
+      </c>
+      <c r="B2">
+        <v>664.2</v>
+      </c>
+      <c r="C2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>43830.530555555553</v>
+      </c>
+      <c r="B3">
+        <v>541.20000000000005</v>
+      </c>
+      <c r="C3">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>43836.398611111108</v>
+      </c>
+      <c r="B4">
+        <v>675.4</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>43844.586111111108</v>
+      </c>
+      <c r="B5">
+        <v>1016</v>
+      </c>
+      <c r="C5">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>43851.604166666664</v>
+      </c>
+      <c r="B6">
+        <v>767.8</v>
+      </c>
+      <c r="C6">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>43858.595138888886</v>
+      </c>
+      <c r="B7">
+        <v>1119</v>
+      </c>
+      <c r="C7">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>43864.65625</v>
+      </c>
+      <c r="B8">
+        <v>946.6</v>
+      </c>
+      <c r="C8">
+        <v>4.3</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>43865.592361111114</v>
+      </c>
+      <c r="B9">
+        <v>851.2</v>
+      </c>
+      <c r="C9">
+        <v>2.6</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>43872.594444444447</v>
+      </c>
+      <c r="B10">
+        <v>1366.6</v>
+      </c>
+      <c r="C10">
+        <v>1.9</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>43879.600694444445</v>
+      </c>
+      <c r="B11">
+        <v>1504</v>
+      </c>
+      <c r="C11">
+        <v>2.4</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>43886.588888888888</v>
+      </c>
+      <c r="B12">
+        <v>923.3</v>
+      </c>
+      <c r="C12">
+        <v>3.2</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>43893.597916666666</v>
+      </c>
+      <c r="B13">
+        <v>762.1</v>
+      </c>
+      <c r="C13">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>43900.546527777777</v>
+      </c>
+      <c r="B14">
+        <v>653.20000000000005</v>
+      </c>
+      <c r="C14">
+        <v>7</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>43906.375694444447</v>
+      </c>
+      <c r="B15">
+        <v>759.1</v>
+      </c>
+      <c r="C15">
+        <v>3.7</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>43999.588888888888</v>
+      </c>
+      <c r="B16">
+        <v>1116</v>
+      </c>
+      <c r="C16">
+        <v>23.5</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>44012.525694444441</v>
+      </c>
+      <c r="B17">
+        <v>688.5</v>
+      </c>
+      <c r="C17">
+        <v>227.1</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>44026.497916666667</v>
+      </c>
+      <c r="B18">
+        <v>783.5</v>
+      </c>
+      <c r="C18">
+        <v>24.3</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>44040.489583333336</v>
+      </c>
+      <c r="B19">
+        <v>526.5</v>
+      </c>
+      <c r="C19">
+        <v>24.3</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>44054.505555555559</v>
+      </c>
+      <c r="B20">
+        <v>1050</v>
+      </c>
+      <c r="C20">
+        <v>22.6</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>44069.591666666667</v>
+      </c>
+      <c r="B21">
+        <v>951.1</v>
+      </c>
+      <c r="C21">
+        <v>24.9</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>44082.511805555558</v>
+      </c>
+      <c r="B22">
+        <v>911.7</v>
+      </c>
+      <c r="C22">
+        <v>16</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>44096.511111111111</v>
+      </c>
+      <c r="B23">
+        <v>1064</v>
+      </c>
+      <c r="C23">
+        <v>17.5</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>44110.481249999997</v>
+      </c>
+      <c r="B24">
+        <v>954.4</v>
+      </c>
+      <c r="C24">
+        <v>12.5</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>44134.525694444441</v>
+      </c>
+      <c r="B25">
+        <v>746.5</v>
+      </c>
+      <c r="C25">
+        <v>6.7</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>44152.459027777775</v>
+      </c>
+      <c r="B26">
+        <v>682.5</v>
+      </c>
+      <c r="C26">
+        <v>3.9</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>44159.450694444444</v>
+      </c>
+      <c r="B27">
+        <v>769.7</v>
+      </c>
+      <c r="C27">
+        <v>4.7</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>44169.451388888891</v>
+      </c>
+      <c r="B28">
+        <v>785.8</v>
+      </c>
+      <c r="C28">
+        <v>3.5</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>44180.529166666667</v>
+      </c>
+      <c r="B29">
+        <v>756.8</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>44194.428472222222</v>
+      </c>
+      <c r="B30">
+        <v>758</v>
+      </c>
+      <c r="C30">
+        <v>0.2</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>44201.45</v>
+      </c>
+      <c r="B31">
+        <v>714</v>
+      </c>
+      <c r="C31">
+        <v>2.1</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>44215.482638888891</v>
+      </c>
+      <c r="B32">
+        <v>1652</v>
+      </c>
+      <c r="C32">
+        <v>1.3</v>
+      </c>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>44229.421527777777</v>
+      </c>
+      <c r="B33">
+        <v>799.9</v>
+      </c>
+      <c r="C33">
+        <v>0.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>43818.652777777781</v>
+      </c>
+      <c r="B2">
+        <v>290.5</v>
+      </c>
+      <c r="C2">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>43830.57708333333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>43836.429861111108</v>
+      </c>
+      <c r="B4">
+        <v>291.7</v>
+      </c>
+      <c r="C4">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>43844.600694444445</v>
+      </c>
+      <c r="B5">
+        <v>298.60000000000002</v>
+      </c>
+      <c r="C5">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>43851.118750000001</v>
+      </c>
+      <c r="B6">
+        <v>292.8</v>
+      </c>
+      <c r="C6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>43858.609722222223</v>
+      </c>
+      <c r="B7">
+        <v>299.60000000000002</v>
+      </c>
+      <c r="C7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>43865.606944444444</v>
+      </c>
+      <c r="B8">
+        <v>302</v>
+      </c>
+      <c r="C8">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>43872.607638888891</v>
+      </c>
+      <c r="B9">
+        <v>332.84</v>
+      </c>
+      <c r="C9">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>43879.617361111108</v>
+      </c>
+      <c r="B10">
+        <v>347.9</v>
+      </c>
+      <c r="C10">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>43886.603472222225</v>
+      </c>
+      <c r="B11">
+        <v>312.60000000000002</v>
+      </c>
+      <c r="C11">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>43893.614583333336</v>
+      </c>
+      <c r="B12">
+        <v>327.60000000000002</v>
+      </c>
+      <c r="C12">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>43900.560416666667</v>
+      </c>
+      <c r="B13">
+        <v>320.7</v>
+      </c>
+      <c r="C13">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>43906.38958333333</v>
+      </c>
+      <c r="B14">
+        <v>306.10000000000002</v>
+      </c>
+      <c r="C14">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>43999.572916666664</v>
+      </c>
+      <c r="B15">
+        <v>557</v>
+      </c>
+      <c r="C15">
+        <v>25.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>44012.412499999999</v>
+      </c>
+      <c r="B16">
+        <v>540.5</v>
+      </c>
+      <c r="C16">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>44026.440972222219</v>
+      </c>
+      <c r="B17">
+        <v>510.8</v>
+      </c>
+      <c r="C17">
+        <v>26.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>44040.352777777778</v>
+      </c>
+      <c r="B18">
+        <v>479.6</v>
+      </c>
+      <c r="C18">
+        <v>24.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>44054.390972222223</v>
+      </c>
+      <c r="B19">
+        <v>486.8</v>
+      </c>
+      <c r="C19">
+        <v>24.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>44069.406944444447</v>
+      </c>
+      <c r="B20">
+        <v>490.2</v>
+      </c>
+      <c r="C20">
+        <v>25.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>44082.39166666667</v>
+      </c>
+      <c r="B21">
+        <v>433.4</v>
+      </c>
+      <c r="C21">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>44096.402777777781</v>
+      </c>
+      <c r="B22">
+        <v>442.5</v>
+      </c>
+      <c r="C22">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>44110.375</v>
+      </c>
+      <c r="B23">
+        <v>405</v>
+      </c>
+      <c r="C23">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>44134.325694444444</v>
+      </c>
+      <c r="B24">
+        <v>360.2</v>
+      </c>
+      <c r="C24">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>44152.475694444445</v>
+      </c>
+      <c r="B25">
+        <v>343.1</v>
+      </c>
+      <c r="C25">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>44159.469444444447</v>
+      </c>
+      <c r="B26">
+        <v>346.4</v>
+      </c>
+      <c r="C26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>44169.467361111114</v>
+      </c>
+      <c r="B27">
+        <v>323.2</v>
+      </c>
+      <c r="C27">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>44180.553472222222</v>
+      </c>
+      <c r="B28">
+        <v>310.8</v>
+      </c>
+      <c r="C28">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>44194.375</v>
+      </c>
+      <c r="B29">
+        <v>296.60000000000002</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>44201.464583333334</v>
+      </c>
+      <c r="B30">
+        <v>309.8</v>
+      </c>
+      <c r="C30">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>44215.5</v>
+      </c>
+      <c r="B31">
+        <v>621</v>
+      </c>
+      <c r="C31">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>44222.463194444441</v>
+      </c>
+      <c r="B32">
+        <v>309.2</v>
+      </c>
+      <c r="C32">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>44229.434027777781</v>
+      </c>
+      <c r="B33">
+        <v>310.7</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:C33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>43818.638888888891</v>
+      </c>
+      <c r="B2">
+        <v>452.2</v>
+      </c>
+      <c r="C2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>43830.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>43836.447222222225</v>
+      </c>
+      <c r="B4">
+        <v>425.2</v>
+      </c>
+      <c r="C4">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>43844.600694444445</v>
+      </c>
+      <c r="B5">
+        <v>437.8</v>
+      </c>
+      <c r="C5">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>43851.635416666664</v>
+      </c>
+      <c r="B6">
+        <v>453.4</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>43858.625</v>
+      </c>
+      <c r="B7">
+        <v>457.6</v>
+      </c>
+      <c r="C7">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>43865.629166666666</v>
+      </c>
+      <c r="B8">
+        <v>432.1</v>
+      </c>
+      <c r="C8">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>43872.621527777781</v>
+      </c>
+      <c r="B9">
+        <v>512.36</v>
+      </c>
+      <c r="C9">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>43879.131249999999</v>
+      </c>
+      <c r="B10">
+        <v>442.3</v>
+      </c>
+      <c r="C10">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>43886.615972222222</v>
+      </c>
+      <c r="B11">
+        <v>451.3</v>
+      </c>
+      <c r="C11">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>43893.629166666666</v>
+      </c>
+      <c r="B12">
+        <v>476.7</v>
+      </c>
+      <c r="C12">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>43900.574305555558</v>
+      </c>
+      <c r="B13">
+        <v>353.7</v>
+      </c>
+      <c r="C13">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>43906.40625</v>
+      </c>
+      <c r="B14">
+        <v>409.7</v>
+      </c>
+      <c r="C14">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>43999.487500000003</v>
+      </c>
+      <c r="B15">
+        <v>487.5</v>
+      </c>
+      <c r="C15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>44012.429861111108</v>
+      </c>
+      <c r="B16">
+        <v>682.5</v>
+      </c>
+      <c r="C16">
+        <v>27.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>44026.414583333331</v>
+      </c>
+      <c r="B17">
+        <v>493.5</v>
+      </c>
+      <c r="C17">
+        <v>26.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>44040.37222222222</v>
+      </c>
+      <c r="B18">
+        <v>687.5</v>
+      </c>
+      <c r="C18">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>44054.408333333333</v>
+      </c>
+      <c r="B19">
+        <v>687.1</v>
+      </c>
+      <c r="C19">
+        <v>24.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>44069.425000000003</v>
+      </c>
+      <c r="B20">
+        <v>724.4</v>
+      </c>
+      <c r="C20">
+        <v>26.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>44082.409722222219</v>
+      </c>
+      <c r="B21">
+        <v>557.4</v>
+      </c>
+      <c r="C21">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>44096.418749999997</v>
+      </c>
+      <c r="B22">
+        <v>571.1</v>
+      </c>
+      <c r="C22">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>44110.392361111109</v>
+      </c>
+      <c r="B23">
+        <v>553.5</v>
+      </c>
+      <c r="C23">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>44134.345138888886</v>
+      </c>
+      <c r="B24">
+        <v>344.1</v>
+      </c>
+      <c r="C24">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>44152.529166666667</v>
+      </c>
+      <c r="B25">
+        <v>378</v>
+      </c>
+      <c r="C25">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>44159.513194444444</v>
+      </c>
+      <c r="B26">
+        <v>441.4</v>
+      </c>
+      <c r="C26">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>44169.482638888891</v>
+      </c>
+      <c r="B27">
+        <v>439</v>
+      </c>
+      <c r="C27">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>44180.623611111114</v>
+      </c>
+      <c r="B28">
+        <v>445.7</v>
+      </c>
+      <c r="C28">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>44194.457638888889</v>
+      </c>
+      <c r="B29">
+        <v>471.8</v>
+      </c>
+      <c r="C29">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>44201.527777777781</v>
+      </c>
+      <c r="B30">
+        <v>427.8</v>
+      </c>
+      <c r="C30">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>44215.513888888891</v>
+      </c>
+      <c r="B31">
+        <v>900</v>
+      </c>
+      <c r="C31">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>44222.524305555555</v>
+      </c>
+      <c r="B32">
+        <v>440.9</v>
+      </c>
+      <c r="C32">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>44229.57916666667</v>
+      </c>
+      <c r="B33">
+        <v>419.6</v>
+      </c>
+      <c r="C33">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2789,823 +4519,378 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>43818.686111111114</v>
+        <v>43818.631249999999</v>
       </c>
       <c r="B2">
-        <v>308.10000000000002</v>
+        <v>450.3</v>
       </c>
       <c r="C2">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>43830.505555555559</v>
-      </c>
-      <c r="B3">
-        <v>305.8</v>
-      </c>
-      <c r="C3">
-        <v>0.2</v>
+        <v>43830.619444444441</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>43836.398611111108</v>
+        <v>43836.461111111108</v>
       </c>
       <c r="B4">
-        <v>299.7</v>
+        <v>431.8</v>
       </c>
       <c r="C4">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>43844.568055555559</v>
+        <v>43844.62777777778</v>
       </c>
       <c r="B5">
-        <v>313.3</v>
+        <v>484.4</v>
       </c>
       <c r="C5">
-        <v>1.5</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>43851.578472222223</v>
+        <v>43851.649305555555</v>
       </c>
       <c r="B6">
-        <v>312.8</v>
+        <v>240.7</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>43858.57708333333</v>
+        <v>43858.634027777778</v>
       </c>
       <c r="B7">
-        <v>316.3</v>
+        <v>480.5</v>
       </c>
       <c r="C7">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>43864.621527777781</v>
+        <v>43865.643055555556</v>
       </c>
       <c r="B8">
-        <v>319.60000000000002</v>
+        <v>471</v>
       </c>
       <c r="C8">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>43865.577777777777</v>
+        <v>43872.629861111112</v>
       </c>
       <c r="B9">
-        <v>323.60000000000002</v>
+        <v>489.8</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>43872.574999999997</v>
+        <v>43879.640277777777</v>
       </c>
       <c r="B10">
-        <v>358.2</v>
+        <v>525.5</v>
       </c>
       <c r="C10">
-        <v>2.2999999999999998</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>43879.581250000003</v>
+        <v>43886.625</v>
       </c>
       <c r="B11">
-        <v>359.9</v>
+        <v>520.79999999999995</v>
       </c>
       <c r="C11">
-        <v>2.5</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>43886.572222222225</v>
+        <v>43893.638888888891</v>
       </c>
       <c r="B12">
-        <v>336.7</v>
+        <v>415.7</v>
       </c>
       <c r="C12">
-        <v>2.8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>43893.57708333333</v>
+        <v>43900.582638888889</v>
       </c>
       <c r="B13">
-        <v>368.2</v>
+        <v>374.8</v>
       </c>
       <c r="C13">
-        <v>3.9</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>43900.530555555553</v>
+        <v>43906.416666666664</v>
       </c>
       <c r="B14">
-        <v>357.9</v>
+        <v>452.8</v>
       </c>
       <c r="C14">
-        <v>6.2</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>43906.355555555558</v>
+        <v>43999.46875</v>
       </c>
       <c r="B15">
-        <v>330.5</v>
+        <v>708.6</v>
       </c>
       <c r="C15">
-        <v>2.9</v>
+        <v>22.4</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>43999.611111111109</v>
+        <v>44012.448611111111</v>
       </c>
       <c r="B16">
-        <v>597.20000000000005</v>
+        <v>683.1</v>
       </c>
       <c r="C16">
-        <v>25.4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>44012.388194444444</v>
+        <v>44026.395833333336</v>
       </c>
       <c r="B17">
-        <v>582.20000000000005</v>
+        <v>508.5</v>
       </c>
       <c r="C17">
-        <v>25.2</v>
+        <v>23.2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>44026.480555555558</v>
+        <v>44033.688194444447</v>
       </c>
       <c r="B18">
-        <v>576.4</v>
+        <v>657.5</v>
       </c>
       <c r="C18">
-        <v>27.1</v>
+        <v>22.9</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>44034.446527777778</v>
+        <v>44040.383333333331</v>
       </c>
       <c r="B19">
-        <v>506.6</v>
+        <v>701.5</v>
       </c>
       <c r="C19">
-        <v>26.3</v>
+        <v>22.3</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>44040.458333333336</v>
+        <v>44054.422222222223</v>
       </c>
       <c r="B20">
-        <v>570.6</v>
+        <v>716.3</v>
       </c>
       <c r="C20">
-        <v>26.3</v>
+        <v>20.7</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>44054.487500000003</v>
+        <v>44069.443055555559</v>
       </c>
       <c r="B21">
-        <v>550.5</v>
+        <v>818.4</v>
       </c>
       <c r="C21">
-        <v>22.6</v>
+        <v>22.9</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>44069.559027777781</v>
+        <v>44082.429166666669</v>
       </c>
       <c r="B22">
-        <v>564.9</v>
+        <v>660.2</v>
       </c>
       <c r="C22">
-        <v>27.4</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>44082.489583333336</v>
+        <v>44096.436111111114</v>
       </c>
       <c r="B23">
-        <v>469.9</v>
+        <v>674</v>
       </c>
       <c r="C23">
-        <v>17.8</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>44096.490972222222</v>
+        <v>44110.406944444447</v>
       </c>
       <c r="B24">
-        <v>491.1</v>
+        <v>651.79999999999995</v>
       </c>
       <c r="C24">
-        <v>19.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>44110.461805555555</v>
+        <v>44134.35833333333</v>
       </c>
       <c r="B25">
-        <v>460.5</v>
+        <v>440.1</v>
       </c>
       <c r="C25">
-        <v>16.3</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>44134.479166666664</v>
+        <v>44152.541666666664</v>
       </c>
       <c r="B26">
-        <v>379.9</v>
+        <v>433</v>
       </c>
       <c r="C26">
-        <v>8.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>44152.438888888886</v>
+        <v>44159.520833333336</v>
       </c>
       <c r="B27">
-        <v>347.4</v>
+        <v>469.8</v>
       </c>
       <c r="C27">
-        <v>4.7</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>44159.43472222222</v>
+        <v>44169.536805555559</v>
       </c>
       <c r="B28">
-        <v>358.9</v>
+        <v>498.3</v>
       </c>
       <c r="C28">
-        <v>5.4</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>44169.432638888888</v>
+        <v>44180.638194444444</v>
       </c>
       <c r="B29">
-        <v>332.4</v>
+        <v>457.5</v>
       </c>
       <c r="C29">
-        <v>3.4</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>44180.50277777778</v>
+        <v>44194.466666666667</v>
       </c>
       <c r="B30">
-        <v>310.8</v>
+        <v>474.1</v>
       </c>
       <c r="C30">
-        <v>0.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>44194.40625</v>
+        <v>44201.536805555559</v>
       </c>
       <c r="B31">
-        <v>300.8</v>
+        <v>472</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>44201.432638888888</v>
+        <v>44215.536111111112</v>
       </c>
       <c r="B32">
-        <v>315.89999999999998</v>
+        <v>916</v>
       </c>
       <c r="C32">
-        <v>1.1000000000000001</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>44215.461805555555</v>
+        <v>44222.538888888892</v>
       </c>
       <c r="B33">
-        <v>643</v>
+        <v>455.9</v>
       </c>
       <c r="C33">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>44222.434027777781</v>
+        <v>44229.59097222222</v>
       </c>
       <c r="B34">
-        <v>308.60000000000002</v>
+        <v>466.2</v>
       </c>
       <c r="C34">
-        <v>0.3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I32"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="18.109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>43818.667361111111</v>
-      </c>
-      <c r="B2">
-        <v>664.2</v>
-      </c>
-      <c r="C2">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>43830.530555555553</v>
-      </c>
-      <c r="B3">
-        <v>541.20000000000005</v>
-      </c>
-      <c r="C3">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>43836.398611111108</v>
-      </c>
-      <c r="B4">
-        <v>675.4</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>43844.586111111108</v>
-      </c>
-      <c r="B5">
-        <v>1016</v>
-      </c>
-      <c r="C5">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>43851.604166666664</v>
-      </c>
-      <c r="B6">
-        <v>767.8</v>
-      </c>
-      <c r="C6">
         <v>-0.1</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>43858.595138888886</v>
-      </c>
-      <c r="B7">
-        <v>1119</v>
-      </c>
-      <c r="C7">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>43864.65625</v>
-      </c>
-      <c r="B8">
-        <v>946.6</v>
-      </c>
-      <c r="C8">
-        <v>4.3</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>43865.592361111114</v>
-      </c>
-      <c r="B9">
-        <v>851.2</v>
-      </c>
-      <c r="C9">
-        <v>2.6</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>43872.594444444447</v>
-      </c>
-      <c r="B10">
-        <v>1366.6</v>
-      </c>
-      <c r="C10">
-        <v>1.9</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>43879.600694444445</v>
-      </c>
-      <c r="B11">
-        <v>1504</v>
-      </c>
-      <c r="C11">
-        <v>2.4</v>
-      </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>43886.588888888888</v>
-      </c>
-      <c r="B12">
-        <v>923.3</v>
-      </c>
-      <c r="C12">
-        <v>3.2</v>
-      </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>43893.597916666666</v>
-      </c>
-      <c r="B13">
-        <v>762.1</v>
-      </c>
-      <c r="C13">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>43900.546527777777</v>
-      </c>
-      <c r="B14">
-        <v>653.20000000000005</v>
-      </c>
-      <c r="C14">
-        <v>7</v>
-      </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>43906.375694444447</v>
-      </c>
-      <c r="B15">
-        <v>759.1</v>
-      </c>
-      <c r="C15">
-        <v>3.7</v>
-      </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>43999.588888888888</v>
-      </c>
-      <c r="B16">
-        <v>1116</v>
-      </c>
-      <c r="C16">
-        <v>23.5</v>
-      </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>44012.525694444441</v>
-      </c>
-      <c r="B17">
-        <v>688.5</v>
-      </c>
-      <c r="C17">
-        <v>227.1</v>
-      </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>44026.497916666667</v>
-      </c>
-      <c r="B18">
-        <v>783.5</v>
-      </c>
-      <c r="C18">
-        <v>24.3</v>
-      </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>44040.489583333336</v>
-      </c>
-      <c r="B19">
-        <v>526.5</v>
-      </c>
-      <c r="C19">
-        <v>24.3</v>
-      </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>44054.505555555559</v>
-      </c>
-      <c r="B20">
-        <v>1050</v>
-      </c>
-      <c r="C20">
-        <v>22.6</v>
-      </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>44069.591666666667</v>
-      </c>
-      <c r="B21">
-        <v>951.1</v>
-      </c>
-      <c r="C21">
-        <v>24.9</v>
-      </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>44082.511805555558</v>
-      </c>
-      <c r="B22">
-        <v>911.7</v>
-      </c>
-      <c r="C22">
-        <v>16</v>
-      </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>44096.511111111111</v>
-      </c>
-      <c r="B23">
-        <v>1064</v>
-      </c>
-      <c r="C23">
-        <v>17.5</v>
-      </c>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>44110.481249999997</v>
-      </c>
-      <c r="B24">
-        <v>954.4</v>
-      </c>
-      <c r="C24">
-        <v>12.5</v>
-      </c>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>44134.525694444441</v>
-      </c>
-      <c r="B25">
-        <v>746.5</v>
-      </c>
-      <c r="C25">
-        <v>6.7</v>
-      </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>44152.459027777775</v>
-      </c>
-      <c r="B26">
-        <v>682.5</v>
-      </c>
-      <c r="C26">
-        <v>3.9</v>
-      </c>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <v>44159.450694444444</v>
-      </c>
-      <c r="B27">
-        <v>769.7</v>
-      </c>
-      <c r="C27">
-        <v>4.7</v>
-      </c>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
-        <v>44169.451388888891</v>
-      </c>
-      <c r="B28">
-        <v>785.8</v>
-      </c>
-      <c r="C28">
-        <v>3.5</v>
-      </c>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
-        <v>44180.529166666667</v>
-      </c>
-      <c r="B29">
-        <v>756.8</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
-        <v>44194.428472222222</v>
-      </c>
-      <c r="B30">
-        <v>758</v>
-      </c>
-      <c r="C30">
-        <v>0.2</v>
-      </c>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
-        <v>44201.45</v>
-      </c>
-      <c r="B31">
-        <v>714</v>
-      </c>
-      <c r="C31">
-        <v>2.1</v>
-      </c>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
-        <v>44215.482638888891</v>
-      </c>
-      <c r="B32">
-        <v>1652</v>
-      </c>
-      <c r="C32">
-        <v>1.3</v>
-      </c>
-      <c r="H32" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C32"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3628,337 +4913,365 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>43818.652777777781</v>
+        <v>43818.62222222222</v>
       </c>
       <c r="B2">
-        <v>290.5</v>
+        <v>472</v>
       </c>
       <c r="C2">
-        <v>1.6</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>43830.57708333333</v>
+        <v>43830.627083333333</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>43836.429861111108</v>
+        <v>43836.46875</v>
       </c>
       <c r="B4">
-        <v>291.7</v>
+        <v>463.7</v>
       </c>
       <c r="C4">
-        <v>0.4</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>43844.600694444445</v>
+        <v>43844.637499999997</v>
       </c>
       <c r="B5">
-        <v>298.60000000000002</v>
+        <v>493.2</v>
       </c>
       <c r="C5">
-        <v>1.1000000000000001</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>43851.118750000001</v>
+        <v>43851.659722222219</v>
       </c>
       <c r="B6">
-        <v>292.8</v>
+        <v>435.5</v>
       </c>
       <c r="C6">
-        <v>0.1</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>43858.609722222223</v>
+        <v>43858.642361111109</v>
       </c>
       <c r="B7">
-        <v>299.60000000000002</v>
+        <v>490.2</v>
       </c>
       <c r="C7">
-        <v>0.3</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>43865.606944444444</v>
+        <v>43865.654166666667</v>
       </c>
       <c r="B8">
-        <v>302</v>
+        <v>506</v>
       </c>
       <c r="C8">
-        <v>1.4</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>43872.607638888891</v>
+        <v>43872.634722222225</v>
       </c>
       <c r="B9">
-        <v>332.84</v>
+        <v>494.6</v>
       </c>
       <c r="C9">
-        <v>1.4</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>43879.617361111108</v>
+        <v>43879.645833333336</v>
       </c>
       <c r="B10">
-        <v>347.9</v>
+        <v>574.4</v>
       </c>
       <c r="C10">
-        <v>1.6</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>43886.603472222225</v>
+        <v>43886.631249999999</v>
       </c>
       <c r="B11">
-        <v>312.60000000000002</v>
+        <v>783.8</v>
       </c>
       <c r="C11">
-        <v>1.8</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>43893.614583333336</v>
+        <v>43893.652777777781</v>
       </c>
       <c r="B12">
-        <v>327.60000000000002</v>
+        <v>389.7</v>
       </c>
       <c r="C12">
-        <v>3.8</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>43900.560416666667</v>
+        <v>43900.59097222222</v>
       </c>
       <c r="B13">
-        <v>320.7</v>
+        <v>432.3</v>
       </c>
       <c r="C13">
-        <v>5.3</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>43906.38958333333</v>
+        <v>43906.427083333336</v>
       </c>
       <c r="B14">
-        <v>306.10000000000002</v>
+        <v>491.8</v>
       </c>
       <c r="C14">
-        <v>2.8</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>43999.572916666664</v>
+        <v>43999.447916666664</v>
       </c>
       <c r="B15">
-        <v>557</v>
+        <v>716.6</v>
       </c>
       <c r="C15">
-        <v>25.2</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>44012.412499999999</v>
+        <v>44012.457638888889</v>
       </c>
       <c r="B16">
-        <v>540.5</v>
+        <v>588.1</v>
       </c>
       <c r="C16">
-        <v>25.5</v>
+        <v>21.3</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>44026.440972222219</v>
+        <v>44026.385416666664</v>
       </c>
       <c r="B17">
-        <v>510.8</v>
+        <v>722</v>
       </c>
       <c r="C17">
-        <v>26.3</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>44040.352777777778</v>
+        <v>44033.677083333336</v>
       </c>
       <c r="B18">
-        <v>479.6</v>
+        <v>758.7</v>
       </c>
       <c r="C18">
-        <v>24.8</v>
+        <v>20.2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>44054.390972222223</v>
+        <v>44040.393055555556</v>
       </c>
       <c r="B19">
-        <v>486.8</v>
+        <v>687.5</v>
       </c>
       <c r="C19">
-        <v>24.1</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>44069.406944444447</v>
+        <v>44054.429861111108</v>
       </c>
       <c r="B20">
-        <v>490.2</v>
+        <v>719.9</v>
       </c>
       <c r="C20">
-        <v>25.7</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>44082.39166666667</v>
+        <v>44069.454861111109</v>
       </c>
       <c r="B21">
-        <v>433.4</v>
+        <v>766.8</v>
       </c>
       <c r="C21">
-        <v>18.8</v>
+        <v>20.3</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>44096.402777777781</v>
+        <v>44082.439583333333</v>
       </c>
       <c r="B22">
-        <v>442.5</v>
+        <v>657.8</v>
       </c>
       <c r="C22">
-        <v>18.5</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>44110.375</v>
+        <v>44096.444444444445</v>
       </c>
       <c r="B23">
-        <v>405</v>
+        <v>679.2</v>
       </c>
       <c r="C23">
-        <v>14.2</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>44134.325694444444</v>
+        <v>44110.415277777778</v>
       </c>
       <c r="B24">
-        <v>360.2</v>
+        <v>621.70000000000005</v>
       </c>
       <c r="C24">
-        <v>7.5</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>44152.475694444445</v>
+        <v>44134.368055555555</v>
       </c>
       <c r="B25">
-        <v>343.1</v>
+        <v>514.9</v>
       </c>
       <c r="C25">
-        <v>5.9</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>44159.469444444447</v>
+        <v>44152.554861111108</v>
       </c>
       <c r="B26">
-        <v>346.4</v>
+        <v>510</v>
       </c>
       <c r="C26">
-        <v>6</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>44169.467361111114</v>
+        <v>44159.52847222222</v>
       </c>
       <c r="B27">
-        <v>323.2</v>
+        <v>483.3</v>
       </c>
       <c r="C27">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>44180.553472222222</v>
+        <v>44169.541666666664</v>
       </c>
       <c r="B28">
-        <v>310.8</v>
+        <v>507.9</v>
       </c>
       <c r="C28">
-        <v>1.9</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>44194.375</v>
+        <v>44180.649305555555</v>
       </c>
       <c r="B29">
-        <v>296.60000000000002</v>
+        <v>449.3</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>44201.464583333334</v>
+        <v>44194.474305555559</v>
       </c>
       <c r="B30">
-        <v>309.8</v>
+        <v>456</v>
       </c>
       <c r="C30">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>44215.5</v>
+        <v>44201.543055555558</v>
       </c>
       <c r="B31">
-        <v>621</v>
+        <v>476.3</v>
       </c>
       <c r="C31">
-        <v>1.6</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>44222.463194444441</v>
+        <v>44215.541666666664</v>
       </c>
       <c r="B32">
-        <v>309.2</v>
+        <v>891</v>
       </c>
       <c r="C32">
-        <v>1.1000000000000001</v>
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>44222.547222222223</v>
+      </c>
+      <c r="B33">
+        <v>419.9</v>
+      </c>
+      <c r="C33">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>44229.599305555559</v>
+      </c>
+      <c r="B34">
+        <v>479.1</v>
+      </c>
+      <c r="C34">
+        <v>3.9</v>
       </c>
     </row>
   </sheetData>
@@ -3966,12 +5279,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C32"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3994,1138 +5307,6 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>43818.638888888891</v>
-      </c>
-      <c r="B2">
-        <v>452.2</v>
-      </c>
-      <c r="C2">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>43830.6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>43836.447222222225</v>
-      </c>
-      <c r="B4">
-        <v>425.2</v>
-      </c>
-      <c r="C4">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>43844.600694444445</v>
-      </c>
-      <c r="B5">
-        <v>437.8</v>
-      </c>
-      <c r="C5">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>43851.635416666664</v>
-      </c>
-      <c r="B6">
-        <v>453.4</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>43858.625</v>
-      </c>
-      <c r="B7">
-        <v>457.6</v>
-      </c>
-      <c r="C7">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>43865.629166666666</v>
-      </c>
-      <c r="B8">
-        <v>432.1</v>
-      </c>
-      <c r="C8">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>43872.621527777781</v>
-      </c>
-      <c r="B9">
-        <v>512.36</v>
-      </c>
-      <c r="C9">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>43879.131249999999</v>
-      </c>
-      <c r="B10">
-        <v>442.3</v>
-      </c>
-      <c r="C10">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>43886.615972222222</v>
-      </c>
-      <c r="B11">
-        <v>451.3</v>
-      </c>
-      <c r="C11">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>43893.629166666666</v>
-      </c>
-      <c r="B12">
-        <v>476.7</v>
-      </c>
-      <c r="C12">
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>43900.574305555558</v>
-      </c>
-      <c r="B13">
-        <v>353.7</v>
-      </c>
-      <c r="C13">
-        <v>7.2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>43906.40625</v>
-      </c>
-      <c r="B14">
-        <v>409.7</v>
-      </c>
-      <c r="C14">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>43999.487500000003</v>
-      </c>
-      <c r="B15">
-        <v>487.5</v>
-      </c>
-      <c r="C15">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>44012.429861111108</v>
-      </c>
-      <c r="B16">
-        <v>682.5</v>
-      </c>
-      <c r="C16">
-        <v>27.3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>44026.414583333331</v>
-      </c>
-      <c r="B17">
-        <v>493.5</v>
-      </c>
-      <c r="C17">
-        <v>26.1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>44040.37222222222</v>
-      </c>
-      <c r="B18">
-        <v>687.5</v>
-      </c>
-      <c r="C18">
-        <v>25.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>44054.408333333333</v>
-      </c>
-      <c r="B19">
-        <v>687.1</v>
-      </c>
-      <c r="C19">
-        <v>24.6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>44069.425000000003</v>
-      </c>
-      <c r="B20">
-        <v>724.4</v>
-      </c>
-      <c r="C20">
-        <v>26.8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>44082.409722222219</v>
-      </c>
-      <c r="B21">
-        <v>557.4</v>
-      </c>
-      <c r="C21">
-        <v>17.2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>44096.418749999997</v>
-      </c>
-      <c r="B22">
-        <v>571.1</v>
-      </c>
-      <c r="C22">
-        <v>18.100000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>44110.392361111109</v>
-      </c>
-      <c r="B23">
-        <v>553.5</v>
-      </c>
-      <c r="C23">
-        <v>11.8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>44134.345138888886</v>
-      </c>
-      <c r="B24">
-        <v>344.1</v>
-      </c>
-      <c r="C24">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>44152.529166666667</v>
-      </c>
-      <c r="B25">
-        <v>378</v>
-      </c>
-      <c r="C25">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>44159.513194444444</v>
-      </c>
-      <c r="B26">
-        <v>441.4</v>
-      </c>
-      <c r="C26">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <v>44169.482638888891</v>
-      </c>
-      <c r="B27">
-        <v>439</v>
-      </c>
-      <c r="C27">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
-        <v>44180.623611111114</v>
-      </c>
-      <c r="B28">
-        <v>445.7</v>
-      </c>
-      <c r="C28">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
-        <v>44194.457638888889</v>
-      </c>
-      <c r="B29">
-        <v>471.8</v>
-      </c>
-      <c r="C29">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
-        <v>44201.527777777781</v>
-      </c>
-      <c r="B30">
-        <v>427.8</v>
-      </c>
-      <c r="C30">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
-        <v>44215.513888888891</v>
-      </c>
-      <c r="B31">
-        <v>900</v>
-      </c>
-      <c r="C31">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
-        <v>44222.524305555555</v>
-      </c>
-      <c r="B32">
-        <v>440.9</v>
-      </c>
-      <c r="C32">
-        <v>0.3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C33"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>43818.631249999999</v>
-      </c>
-      <c r="B2">
-        <v>450.3</v>
-      </c>
-      <c r="C2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>43830.619444444441</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>43836.461111111108</v>
-      </c>
-      <c r="B4">
-        <v>431.8</v>
-      </c>
-      <c r="C4">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>43844.62777777778</v>
-      </c>
-      <c r="B5">
-        <v>484.4</v>
-      </c>
-      <c r="C5">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>43851.649305555555</v>
-      </c>
-      <c r="B6">
-        <v>240.7</v>
-      </c>
-      <c r="C6">
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>43858.634027777778</v>
-      </c>
-      <c r="B7">
-        <v>480.5</v>
-      </c>
-      <c r="C7">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>43865.643055555556</v>
-      </c>
-      <c r="B8">
-        <v>471</v>
-      </c>
-      <c r="C8">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>43872.629861111112</v>
-      </c>
-      <c r="B9">
-        <v>489.8</v>
-      </c>
-      <c r="C9">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>43879.640277777777</v>
-      </c>
-      <c r="B10">
-        <v>525.5</v>
-      </c>
-      <c r="C10">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>43886.625</v>
-      </c>
-      <c r="B11">
-        <v>520.79999999999995</v>
-      </c>
-      <c r="C11">
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>43893.638888888891</v>
-      </c>
-      <c r="B12">
-        <v>415.7</v>
-      </c>
-      <c r="C12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>43900.582638888889</v>
-      </c>
-      <c r="B13">
-        <v>374.8</v>
-      </c>
-      <c r="C13">
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>43906.416666666664</v>
-      </c>
-      <c r="B14">
-        <v>452.8</v>
-      </c>
-      <c r="C14">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>43999.46875</v>
-      </c>
-      <c r="B15">
-        <v>708.6</v>
-      </c>
-      <c r="C15">
-        <v>22.4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>44012.448611111111</v>
-      </c>
-      <c r="B16">
-        <v>683.1</v>
-      </c>
-      <c r="C16">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>44026.395833333336</v>
-      </c>
-      <c r="B17">
-        <v>508.5</v>
-      </c>
-      <c r="C17">
-        <v>23.2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>44033.688194444447</v>
-      </c>
-      <c r="B18">
-        <v>657.5</v>
-      </c>
-      <c r="C18">
-        <v>22.9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>44040.383333333331</v>
-      </c>
-      <c r="B19">
-        <v>701.5</v>
-      </c>
-      <c r="C19">
-        <v>22.3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>44054.422222222223</v>
-      </c>
-      <c r="B20">
-        <v>716.3</v>
-      </c>
-      <c r="C20">
-        <v>20.7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>44069.443055555559</v>
-      </c>
-      <c r="B21">
-        <v>818.4</v>
-      </c>
-      <c r="C21">
-        <v>22.9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>44082.429166666669</v>
-      </c>
-      <c r="B22">
-        <v>660.2</v>
-      </c>
-      <c r="C22">
-        <v>14.4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>44096.436111111114</v>
-      </c>
-      <c r="B23">
-        <v>674</v>
-      </c>
-      <c r="C23">
-        <v>15.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>44110.406944444447</v>
-      </c>
-      <c r="B24">
-        <v>651.79999999999995</v>
-      </c>
-      <c r="C24">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>44134.35833333333</v>
-      </c>
-      <c r="B25">
-        <v>440.1</v>
-      </c>
-      <c r="C25">
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>44152.541666666664</v>
-      </c>
-      <c r="B26">
-        <v>433</v>
-      </c>
-      <c r="C26">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <v>44159.520833333336</v>
-      </c>
-      <c r="B27">
-        <v>469.8</v>
-      </c>
-      <c r="C27">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
-        <v>44169.536805555559</v>
-      </c>
-      <c r="B28">
-        <v>498.3</v>
-      </c>
-      <c r="C28">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
-        <v>44180.638194444444</v>
-      </c>
-      <c r="B29">
-        <v>457.5</v>
-      </c>
-      <c r="C29">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
-        <v>44194.466666666667</v>
-      </c>
-      <c r="B30">
-        <v>474.1</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
-        <v>44201.536805555559</v>
-      </c>
-      <c r="B31">
-        <v>472</v>
-      </c>
-      <c r="C31">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
-        <v>44215.536111111112</v>
-      </c>
-      <c r="B32">
-        <v>916</v>
-      </c>
-      <c r="C32">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
-        <v>44222.538888888892</v>
-      </c>
-      <c r="B33">
-        <v>455.9</v>
-      </c>
-      <c r="C33">
-        <v>0.3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C33"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>43818.62222222222</v>
-      </c>
-      <c r="B2">
-        <v>472</v>
-      </c>
-      <c r="C2">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>43830.627083333333</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>43836.46875</v>
-      </c>
-      <c r="B4">
-        <v>463.7</v>
-      </c>
-      <c r="C4">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>43844.637499999997</v>
-      </c>
-      <c r="B5">
-        <v>493.2</v>
-      </c>
-      <c r="C5">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>43851.659722222219</v>
-      </c>
-      <c r="B6">
-        <v>435.5</v>
-      </c>
-      <c r="C6">
-        <v>-0.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>43858.642361111109</v>
-      </c>
-      <c r="B7">
-        <v>490.2</v>
-      </c>
-      <c r="C7">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>43865.654166666667</v>
-      </c>
-      <c r="B8">
-        <v>506</v>
-      </c>
-      <c r="C8">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>43872.634722222225</v>
-      </c>
-      <c r="B9">
-        <v>494.6</v>
-      </c>
-      <c r="C9">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>43879.645833333336</v>
-      </c>
-      <c r="B10">
-        <v>574.4</v>
-      </c>
-      <c r="C10">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>43886.631249999999</v>
-      </c>
-      <c r="B11">
-        <v>783.8</v>
-      </c>
-      <c r="C11">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>43893.652777777781</v>
-      </c>
-      <c r="B12">
-        <v>389.7</v>
-      </c>
-      <c r="C12">
-        <v>5.3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>43900.59097222222</v>
-      </c>
-      <c r="B13">
-        <v>432.3</v>
-      </c>
-      <c r="C13">
-        <v>6.4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>43906.427083333336</v>
-      </c>
-      <c r="B14">
-        <v>491.8</v>
-      </c>
-      <c r="C14">
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>43999.447916666664</v>
-      </c>
-      <c r="B15">
-        <v>716.6</v>
-      </c>
-      <c r="C15">
-        <v>20.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>44012.457638888889</v>
-      </c>
-      <c r="B16">
-        <v>588.1</v>
-      </c>
-      <c r="C16">
-        <v>21.3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>44026.385416666664</v>
-      </c>
-      <c r="B17">
-        <v>722</v>
-      </c>
-      <c r="C17">
-        <v>19.8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>44033.677083333336</v>
-      </c>
-      <c r="B18">
-        <v>758.7</v>
-      </c>
-      <c r="C18">
-        <v>20.2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>44040.393055555556</v>
-      </c>
-      <c r="B19">
-        <v>687.5</v>
-      </c>
-      <c r="C19">
-        <v>18.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>44054.429861111108</v>
-      </c>
-      <c r="B20">
-        <v>719.9</v>
-      </c>
-      <c r="C20">
-        <v>17.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>44069.454861111109</v>
-      </c>
-      <c r="B21">
-        <v>766.8</v>
-      </c>
-      <c r="C21">
-        <v>20.3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>44082.439583333333</v>
-      </c>
-      <c r="B22">
-        <v>657.8</v>
-      </c>
-      <c r="C22">
-        <v>13.1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>44096.444444444445</v>
-      </c>
-      <c r="B23">
-        <v>679.2</v>
-      </c>
-      <c r="C23">
-        <v>14.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>44110.415277777778</v>
-      </c>
-      <c r="B24">
-        <v>621.70000000000005</v>
-      </c>
-      <c r="C24">
-        <v>11.2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>44134.368055555555</v>
-      </c>
-      <c r="B25">
-        <v>514.9</v>
-      </c>
-      <c r="C25">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>44152.554861111108</v>
-      </c>
-      <c r="B26">
-        <v>510</v>
-      </c>
-      <c r="C26">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <v>44159.52847222222</v>
-      </c>
-      <c r="B27">
-        <v>483.3</v>
-      </c>
-      <c r="C27">
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
-        <v>44169.541666666664</v>
-      </c>
-      <c r="B28">
-        <v>507.9</v>
-      </c>
-      <c r="C28">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
-        <v>44180.649305555555</v>
-      </c>
-      <c r="B29">
-        <v>449.3</v>
-      </c>
-      <c r="C29">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
-        <v>44194.474305555559</v>
-      </c>
-      <c r="B30">
-        <v>456</v>
-      </c>
-      <c r="C30">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
-        <v>44201.543055555558</v>
-      </c>
-      <c r="B31">
-        <v>476.3</v>
-      </c>
-      <c r="C31">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
-        <v>44215.541666666664</v>
-      </c>
-      <c r="B32">
-        <v>891</v>
-      </c>
-      <c r="C32">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
-        <v>44222.547222222223</v>
-      </c>
-      <c r="B33">
-        <v>419.9</v>
-      </c>
-      <c r="C33">
-        <v>0.6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C34"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
         <v>43818.609722222223</v>
       </c>
       <c r="B2">
@@ -5485,6 +5666,17 @@
       </c>
       <c r="C34">
         <v>0.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>44229.497916666667</v>
+      </c>
+      <c r="B35">
+        <v>718.6</v>
+      </c>
+      <c r="C35">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Data/conductivity_field.xlsx
+++ b/Data/conductivity_field.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linne\Box Sync\Chloride Research\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E471B50-106B-490D-953C-D8B36F4EC9C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0896549-07E6-445D-A7EA-EEBC4F3B9809}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24510" yWindow="2505" windowWidth="17280" windowHeight="8970" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loggers" sheetId="12" r:id="rId1"/>
@@ -1753,10 +1753,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2140,6 +2140,28 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>44243.590277777781</v>
+      </c>
+      <c r="B35">
+        <v>1313</v>
+      </c>
+      <c r="C35">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>44250.5625</v>
+      </c>
+      <c r="B36">
+        <v>3002</v>
+      </c>
+      <c r="C36">
+        <v>3.1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2147,10 +2169,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0CDB741-3836-4FA9-9852-A8110C8A5241}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2306,13 +2328,97 @@
         <v>44169.5</v>
       </c>
       <c r="B11" s="2">
-        <v>24</v>
+        <v>23.5</v>
       </c>
       <c r="C11">
         <v>343.2</v>
       </c>
       <c r="D11">
         <v>5.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>44244.642361111109</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>298.5</v>
+      </c>
+      <c r="D12">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>44244.658333333333</v>
+      </c>
+      <c r="B13" s="2">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>303.2</v>
+      </c>
+      <c r="D13">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>44244.655555555553</v>
+      </c>
+      <c r="B14" s="2">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>309.2</v>
+      </c>
+      <c r="D14">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>44244.658333333333</v>
+      </c>
+      <c r="B15" s="2">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>318.5</v>
+      </c>
+      <c r="D15">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>44244.652083333334</v>
+      </c>
+      <c r="B16" s="2">
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <v>353.8</v>
+      </c>
+      <c r="D16">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>44244.636805555558</v>
+      </c>
+      <c r="B17" s="2">
+        <v>23.5</v>
+      </c>
+      <c r="C17">
+        <v>389.4</v>
+      </c>
+      <c r="D17">
+        <v>2.9</v>
       </c>
     </row>
   </sheetData>
@@ -2324,7 +2430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{588D9C27-B403-4DE5-8B68-B5C4B22BE996}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -2638,10 +2744,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE7E974B-BCA0-45B0-95FE-63AB262733E9}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2871,6 +2977,28 @@
         <v>1.2</v>
       </c>
     </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>44243.427083333336</v>
+      </c>
+      <c r="B21">
+        <v>504.2</v>
+      </c>
+      <c r="C21">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>44250.439583333333</v>
+      </c>
+      <c r="B22">
+        <v>626.29999999999995</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2878,10 +3006,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3276,6 +3404,28 @@
         <v>0.6</v>
       </c>
     </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>44243.440972222219</v>
+      </c>
+      <c r="B36">
+        <v>287.39999999999998</v>
+      </c>
+      <c r="C36">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>44250.455555555556</v>
+      </c>
+      <c r="B37">
+        <v>337.8</v>
+      </c>
+      <c r="C37">
+        <v>2.6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3284,10 +3434,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3732,6 +3882,17 @@
         <v>0.1</v>
       </c>
     </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>44250.472222222219</v>
+      </c>
+      <c r="B34">
+        <v>1063</v>
+      </c>
+      <c r="C34">
+        <v>0.7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3739,10 +3900,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4107,6 +4268,17 @@
       </c>
       <c r="C33">
         <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>44250.478472222225</v>
+      </c>
+      <c r="B34">
+        <v>347.9</v>
+      </c>
+      <c r="C34">
+        <v>2.9</v>
       </c>
     </row>
   </sheetData>
@@ -4493,797 +4665,9 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>43818.631249999999</v>
-      </c>
-      <c r="B2">
-        <v>450.3</v>
-      </c>
-      <c r="C2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>43830.619444444441</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>43836.461111111108</v>
-      </c>
-      <c r="B4">
-        <v>431.8</v>
-      </c>
-      <c r="C4">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>43844.62777777778</v>
-      </c>
-      <c r="B5">
-        <v>484.4</v>
-      </c>
-      <c r="C5">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>43851.649305555555</v>
-      </c>
-      <c r="B6">
-        <v>240.7</v>
-      </c>
-      <c r="C6">
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>43858.634027777778</v>
-      </c>
-      <c r="B7">
-        <v>480.5</v>
-      </c>
-      <c r="C7">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>43865.643055555556</v>
-      </c>
-      <c r="B8">
-        <v>471</v>
-      </c>
-      <c r="C8">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>43872.629861111112</v>
-      </c>
-      <c r="B9">
-        <v>489.8</v>
-      </c>
-      <c r="C9">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>43879.640277777777</v>
-      </c>
-      <c r="B10">
-        <v>525.5</v>
-      </c>
-      <c r="C10">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>43886.625</v>
-      </c>
-      <c r="B11">
-        <v>520.79999999999995</v>
-      </c>
-      <c r="C11">
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>43893.638888888891</v>
-      </c>
-      <c r="B12">
-        <v>415.7</v>
-      </c>
-      <c r="C12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>43900.582638888889</v>
-      </c>
-      <c r="B13">
-        <v>374.8</v>
-      </c>
-      <c r="C13">
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>43906.416666666664</v>
-      </c>
-      <c r="B14">
-        <v>452.8</v>
-      </c>
-      <c r="C14">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>43999.46875</v>
-      </c>
-      <c r="B15">
-        <v>708.6</v>
-      </c>
-      <c r="C15">
-        <v>22.4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>44012.448611111111</v>
-      </c>
-      <c r="B16">
-        <v>683.1</v>
-      </c>
-      <c r="C16">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>44026.395833333336</v>
-      </c>
-      <c r="B17">
-        <v>508.5</v>
-      </c>
-      <c r="C17">
-        <v>23.2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>44033.688194444447</v>
-      </c>
-      <c r="B18">
-        <v>657.5</v>
-      </c>
-      <c r="C18">
-        <v>22.9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>44040.383333333331</v>
-      </c>
-      <c r="B19">
-        <v>701.5</v>
-      </c>
-      <c r="C19">
-        <v>22.3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>44054.422222222223</v>
-      </c>
-      <c r="B20">
-        <v>716.3</v>
-      </c>
-      <c r="C20">
-        <v>20.7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>44069.443055555559</v>
-      </c>
-      <c r="B21">
-        <v>818.4</v>
-      </c>
-      <c r="C21">
-        <v>22.9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>44082.429166666669</v>
-      </c>
-      <c r="B22">
-        <v>660.2</v>
-      </c>
-      <c r="C22">
-        <v>14.4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>44096.436111111114</v>
-      </c>
-      <c r="B23">
-        <v>674</v>
-      </c>
-      <c r="C23">
-        <v>15.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>44110.406944444447</v>
-      </c>
-      <c r="B24">
-        <v>651.79999999999995</v>
-      </c>
-      <c r="C24">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>44134.35833333333</v>
-      </c>
-      <c r="B25">
-        <v>440.1</v>
-      </c>
-      <c r="C25">
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>44152.541666666664</v>
-      </c>
-      <c r="B26">
-        <v>433</v>
-      </c>
-      <c r="C26">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <v>44159.520833333336</v>
-      </c>
-      <c r="B27">
-        <v>469.8</v>
-      </c>
-      <c r="C27">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
-        <v>44169.536805555559</v>
-      </c>
-      <c r="B28">
-        <v>498.3</v>
-      </c>
-      <c r="C28">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
-        <v>44180.638194444444</v>
-      </c>
-      <c r="B29">
-        <v>457.5</v>
-      </c>
-      <c r="C29">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
-        <v>44194.466666666667</v>
-      </c>
-      <c r="B30">
-        <v>474.1</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
-        <v>44201.536805555559</v>
-      </c>
-      <c r="B31">
-        <v>472</v>
-      </c>
-      <c r="C31">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
-        <v>44215.536111111112</v>
-      </c>
-      <c r="B32">
-        <v>916</v>
-      </c>
-      <c r="C32">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
-        <v>44222.538888888892</v>
-      </c>
-      <c r="B33">
-        <v>455.9</v>
-      </c>
-      <c r="C33">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
-        <v>44229.59097222222</v>
-      </c>
-      <c r="B34">
-        <v>466.2</v>
-      </c>
-      <c r="C34">
-        <v>-0.1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C34"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>43818.62222222222</v>
-      </c>
-      <c r="B2">
-        <v>472</v>
-      </c>
-      <c r="C2">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>43830.627083333333</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>43836.46875</v>
-      </c>
-      <c r="B4">
-        <v>463.7</v>
-      </c>
-      <c r="C4">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>43844.637499999997</v>
-      </c>
-      <c r="B5">
-        <v>493.2</v>
-      </c>
-      <c r="C5">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>43851.659722222219</v>
-      </c>
-      <c r="B6">
-        <v>435.5</v>
-      </c>
-      <c r="C6">
-        <v>-0.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>43858.642361111109</v>
-      </c>
-      <c r="B7">
-        <v>490.2</v>
-      </c>
-      <c r="C7">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>43865.654166666667</v>
-      </c>
-      <c r="B8">
-        <v>506</v>
-      </c>
-      <c r="C8">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>43872.634722222225</v>
-      </c>
-      <c r="B9">
-        <v>494.6</v>
-      </c>
-      <c r="C9">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>43879.645833333336</v>
-      </c>
-      <c r="B10">
-        <v>574.4</v>
-      </c>
-      <c r="C10">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>43886.631249999999</v>
-      </c>
-      <c r="B11">
-        <v>783.8</v>
-      </c>
-      <c r="C11">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>43893.652777777781</v>
-      </c>
-      <c r="B12">
-        <v>389.7</v>
-      </c>
-      <c r="C12">
-        <v>5.3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>43900.59097222222</v>
-      </c>
-      <c r="B13">
-        <v>432.3</v>
-      </c>
-      <c r="C13">
-        <v>6.4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>43906.427083333336</v>
-      </c>
-      <c r="B14">
-        <v>491.8</v>
-      </c>
-      <c r="C14">
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>43999.447916666664</v>
-      </c>
-      <c r="B15">
-        <v>716.6</v>
-      </c>
-      <c r="C15">
-        <v>20.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>44012.457638888889</v>
-      </c>
-      <c r="B16">
-        <v>588.1</v>
-      </c>
-      <c r="C16">
-        <v>21.3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>44026.385416666664</v>
-      </c>
-      <c r="B17">
-        <v>722</v>
-      </c>
-      <c r="C17">
-        <v>19.8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>44033.677083333336</v>
-      </c>
-      <c r="B18">
-        <v>758.7</v>
-      </c>
-      <c r="C18">
-        <v>20.2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>44040.393055555556</v>
-      </c>
-      <c r="B19">
-        <v>687.5</v>
-      </c>
-      <c r="C19">
-        <v>18.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>44054.429861111108</v>
-      </c>
-      <c r="B20">
-        <v>719.9</v>
-      </c>
-      <c r="C20">
-        <v>17.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>44069.454861111109</v>
-      </c>
-      <c r="B21">
-        <v>766.8</v>
-      </c>
-      <c r="C21">
-        <v>20.3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>44082.439583333333</v>
-      </c>
-      <c r="B22">
-        <v>657.8</v>
-      </c>
-      <c r="C22">
-        <v>13.1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>44096.444444444445</v>
-      </c>
-      <c r="B23">
-        <v>679.2</v>
-      </c>
-      <c r="C23">
-        <v>14.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>44110.415277777778</v>
-      </c>
-      <c r="B24">
-        <v>621.70000000000005</v>
-      </c>
-      <c r="C24">
-        <v>11.2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>44134.368055555555</v>
-      </c>
-      <c r="B25">
-        <v>514.9</v>
-      </c>
-      <c r="C25">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>44152.554861111108</v>
-      </c>
-      <c r="B26">
-        <v>510</v>
-      </c>
-      <c r="C26">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <v>44159.52847222222</v>
-      </c>
-      <c r="B27">
-        <v>483.3</v>
-      </c>
-      <c r="C27">
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
-        <v>44169.541666666664</v>
-      </c>
-      <c r="B28">
-        <v>507.9</v>
-      </c>
-      <c r="C28">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
-        <v>44180.649305555555</v>
-      </c>
-      <c r="B29">
-        <v>449.3</v>
-      </c>
-      <c r="C29">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
-        <v>44194.474305555559</v>
-      </c>
-      <c r="B30">
-        <v>456</v>
-      </c>
-      <c r="C30">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
-        <v>44201.543055555558</v>
-      </c>
-      <c r="B31">
-        <v>476.3</v>
-      </c>
-      <c r="C31">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
-        <v>44215.541666666664</v>
-      </c>
-      <c r="B32">
-        <v>891</v>
-      </c>
-      <c r="C32">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
-        <v>44222.547222222223</v>
-      </c>
-      <c r="B33">
-        <v>419.9</v>
-      </c>
-      <c r="C33">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
-        <v>44229.599305555559</v>
-      </c>
-      <c r="B34">
-        <v>479.1</v>
-      </c>
-      <c r="C34">
-        <v>3.9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C35"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
@@ -5307,6 +4691,816 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
+        <v>43818.631249999999</v>
+      </c>
+      <c r="B2">
+        <v>450.3</v>
+      </c>
+      <c r="C2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>43830.619444444441</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>43836.461111111108</v>
+      </c>
+      <c r="B4">
+        <v>431.8</v>
+      </c>
+      <c r="C4">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>43844.62777777778</v>
+      </c>
+      <c r="B5">
+        <v>484.4</v>
+      </c>
+      <c r="C5">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>43851.649305555555</v>
+      </c>
+      <c r="B6">
+        <v>240.7</v>
+      </c>
+      <c r="C6">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>43858.634027777778</v>
+      </c>
+      <c r="B7">
+        <v>480.5</v>
+      </c>
+      <c r="C7">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>43865.643055555556</v>
+      </c>
+      <c r="B8">
+        <v>471</v>
+      </c>
+      <c r="C8">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>43872.629861111112</v>
+      </c>
+      <c r="B9">
+        <v>489.8</v>
+      </c>
+      <c r="C9">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>43879.640277777777</v>
+      </c>
+      <c r="B10">
+        <v>525.5</v>
+      </c>
+      <c r="C10">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>43886.625</v>
+      </c>
+      <c r="B11">
+        <v>520.79999999999995</v>
+      </c>
+      <c r="C11">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>43893.638888888891</v>
+      </c>
+      <c r="B12">
+        <v>415.7</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>43900.582638888889</v>
+      </c>
+      <c r="B13">
+        <v>374.8</v>
+      </c>
+      <c r="C13">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>43906.416666666664</v>
+      </c>
+      <c r="B14">
+        <v>452.8</v>
+      </c>
+      <c r="C14">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>43999.46875</v>
+      </c>
+      <c r="B15">
+        <v>708.6</v>
+      </c>
+      <c r="C15">
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>44012.448611111111</v>
+      </c>
+      <c r="B16">
+        <v>683.1</v>
+      </c>
+      <c r="C16">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>44026.395833333336</v>
+      </c>
+      <c r="B17">
+        <v>508.5</v>
+      </c>
+      <c r="C17">
+        <v>23.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>44033.688194444447</v>
+      </c>
+      <c r="B18">
+        <v>657.5</v>
+      </c>
+      <c r="C18">
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>44040.383333333331</v>
+      </c>
+      <c r="B19">
+        <v>701.5</v>
+      </c>
+      <c r="C19">
+        <v>22.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>44054.422222222223</v>
+      </c>
+      <c r="B20">
+        <v>716.3</v>
+      </c>
+      <c r="C20">
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>44069.443055555559</v>
+      </c>
+      <c r="B21">
+        <v>818.4</v>
+      </c>
+      <c r="C21">
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>44082.429166666669</v>
+      </c>
+      <c r="B22">
+        <v>660.2</v>
+      </c>
+      <c r="C22">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>44096.436111111114</v>
+      </c>
+      <c r="B23">
+        <v>674</v>
+      </c>
+      <c r="C23">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>44110.406944444447</v>
+      </c>
+      <c r="B24">
+        <v>651.79999999999995</v>
+      </c>
+      <c r="C24">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>44134.35833333333</v>
+      </c>
+      <c r="B25">
+        <v>440.1</v>
+      </c>
+      <c r="C25">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>44152.541666666664</v>
+      </c>
+      <c r="B26">
+        <v>433</v>
+      </c>
+      <c r="C26">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>44159.520833333336</v>
+      </c>
+      <c r="B27">
+        <v>469.8</v>
+      </c>
+      <c r="C27">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>44169.536805555559</v>
+      </c>
+      <c r="B28">
+        <v>498.3</v>
+      </c>
+      <c r="C28">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>44180.638194444444</v>
+      </c>
+      <c r="B29">
+        <v>457.5</v>
+      </c>
+      <c r="C29">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>44194.466666666667</v>
+      </c>
+      <c r="B30">
+        <v>474.1</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>44201.536805555559</v>
+      </c>
+      <c r="B31">
+        <v>472</v>
+      </c>
+      <c r="C31">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>44215.536111111112</v>
+      </c>
+      <c r="B32">
+        <v>916</v>
+      </c>
+      <c r="C32">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>44222.538888888892</v>
+      </c>
+      <c r="B33">
+        <v>455.9</v>
+      </c>
+      <c r="C33">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>44229.59097222222</v>
+      </c>
+      <c r="B34">
+        <v>466.2</v>
+      </c>
+      <c r="C34">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>44250.53402777778</v>
+      </c>
+      <c r="B35">
+        <v>448.1</v>
+      </c>
+      <c r="C35">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:C35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>43818.62222222222</v>
+      </c>
+      <c r="B2">
+        <v>472</v>
+      </c>
+      <c r="C2">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>43830.627083333333</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>43836.46875</v>
+      </c>
+      <c r="B4">
+        <v>463.7</v>
+      </c>
+      <c r="C4">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>43844.637499999997</v>
+      </c>
+      <c r="B5">
+        <v>493.2</v>
+      </c>
+      <c r="C5">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>43851.659722222219</v>
+      </c>
+      <c r="B6">
+        <v>435.5</v>
+      </c>
+      <c r="C6">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>43858.642361111109</v>
+      </c>
+      <c r="B7">
+        <v>490.2</v>
+      </c>
+      <c r="C7">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>43865.654166666667</v>
+      </c>
+      <c r="B8">
+        <v>506</v>
+      </c>
+      <c r="C8">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>43872.634722222225</v>
+      </c>
+      <c r="B9">
+        <v>494.6</v>
+      </c>
+      <c r="C9">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>43879.645833333336</v>
+      </c>
+      <c r="B10">
+        <v>574.4</v>
+      </c>
+      <c r="C10">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>43886.631249999999</v>
+      </c>
+      <c r="B11">
+        <v>783.8</v>
+      </c>
+      <c r="C11">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>43893.652777777781</v>
+      </c>
+      <c r="B12">
+        <v>389.7</v>
+      </c>
+      <c r="C12">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>43900.59097222222</v>
+      </c>
+      <c r="B13">
+        <v>432.3</v>
+      </c>
+      <c r="C13">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>43906.427083333336</v>
+      </c>
+      <c r="B14">
+        <v>491.8</v>
+      </c>
+      <c r="C14">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>43999.447916666664</v>
+      </c>
+      <c r="B15">
+        <v>716.6</v>
+      </c>
+      <c r="C15">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>44012.457638888889</v>
+      </c>
+      <c r="B16">
+        <v>588.1</v>
+      </c>
+      <c r="C16">
+        <v>21.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>44026.385416666664</v>
+      </c>
+      <c r="B17">
+        <v>722</v>
+      </c>
+      <c r="C17">
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>44033.677083333336</v>
+      </c>
+      <c r="B18">
+        <v>758.7</v>
+      </c>
+      <c r="C18">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>44040.393055555556</v>
+      </c>
+      <c r="B19">
+        <v>687.5</v>
+      </c>
+      <c r="C19">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>44054.429861111108</v>
+      </c>
+      <c r="B20">
+        <v>719.9</v>
+      </c>
+      <c r="C20">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>44069.454861111109</v>
+      </c>
+      <c r="B21">
+        <v>766.8</v>
+      </c>
+      <c r="C21">
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>44082.439583333333</v>
+      </c>
+      <c r="B22">
+        <v>657.8</v>
+      </c>
+      <c r="C22">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>44096.444444444445</v>
+      </c>
+      <c r="B23">
+        <v>679.2</v>
+      </c>
+      <c r="C23">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>44110.415277777778</v>
+      </c>
+      <c r="B24">
+        <v>621.70000000000005</v>
+      </c>
+      <c r="C24">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>44134.368055555555</v>
+      </c>
+      <c r="B25">
+        <v>514.9</v>
+      </c>
+      <c r="C25">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>44152.554861111108</v>
+      </c>
+      <c r="B26">
+        <v>510</v>
+      </c>
+      <c r="C26">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>44159.52847222222</v>
+      </c>
+      <c r="B27">
+        <v>483.3</v>
+      </c>
+      <c r="C27">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>44169.541666666664</v>
+      </c>
+      <c r="B28">
+        <v>507.9</v>
+      </c>
+      <c r="C28">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>44180.649305555555</v>
+      </c>
+      <c r="B29">
+        <v>449.3</v>
+      </c>
+      <c r="C29">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>44194.474305555559</v>
+      </c>
+      <c r="B30">
+        <v>456</v>
+      </c>
+      <c r="C30">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>44201.543055555558</v>
+      </c>
+      <c r="B31">
+        <v>476.3</v>
+      </c>
+      <c r="C31">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>44215.541666666664</v>
+      </c>
+      <c r="B32">
+        <v>891</v>
+      </c>
+      <c r="C32">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>44222.547222222223</v>
+      </c>
+      <c r="B33">
+        <v>419.9</v>
+      </c>
+      <c r="C33">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>44229.599305555559</v>
+      </c>
+      <c r="B34">
+        <v>479.1</v>
+      </c>
+      <c r="C34">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>44250.540277777778</v>
+      </c>
+      <c r="B35">
+        <v>487.9</v>
+      </c>
+      <c r="C35">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:C36"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>43818.609722222223</v>
       </c>
       <c r="B2">
@@ -5677,6 +5871,17 @@
       </c>
       <c r="C35">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>44250.554861111108</v>
+      </c>
+      <c r="B36">
+        <v>953.7</v>
+      </c>
+      <c r="C36">
+        <v>2.4</v>
       </c>
     </row>
   </sheetData>

--- a/Data/conductivity_field.xlsx
+++ b/Data/conductivity_field.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linne\Box Sync\Chloride Research\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0896549-07E6-445D-A7EA-EEBC4F3B9809}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BDE8DC-CF15-413A-9BE3-270575DD20AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24510" yWindow="2505" windowWidth="17280" windowHeight="8970" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39885" yWindow="2220" windowWidth="17280" windowHeight="8970" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loggers" sheetId="12" r:id="rId1"/>
@@ -1753,10 +1753,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54:C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2162,6 +2162,17 @@
         <v>3.1</v>
       </c>
     </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>44257.583333333336</v>
+      </c>
+      <c r="B37">
+        <v>1439</v>
+      </c>
+      <c r="C37">
+        <v>3.8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2171,7 +2182,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0CDB741-3836-4FA9-9852-A8110C8A5241}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A12" sqref="A12:A17"/>
     </sheetView>
   </sheetViews>
@@ -2744,10 +2755,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE7E974B-BCA0-45B0-95FE-63AB262733E9}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2999,6 +3010,17 @@
         <v>2</v>
       </c>
     </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>44257.440972222219</v>
+      </c>
+      <c r="B23">
+        <v>677.2</v>
+      </c>
+      <c r="C23">
+        <v>1.7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3006,10 +3028,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3426,6 +3448,17 @@
         <v>2.6</v>
       </c>
     </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>44257.455555555556</v>
+      </c>
+      <c r="B38">
+        <v>340.2</v>
+      </c>
+      <c r="C38">
+        <v>2.1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3434,10 +3467,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3893,6 +3926,11 @@
         <v>0.7</v>
       </c>
     </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>44257.473611111112</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3900,10 +3938,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4281,6 +4319,17 @@
         <v>2.9</v>
       </c>
     </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>44257.489583333336</v>
+      </c>
+      <c r="B35">
+        <v>320.7</v>
+      </c>
+      <c r="C35">
+        <v>2.6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4288,10 +4337,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4658,6 +4707,17 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>44257.544444444444</v>
+      </c>
+      <c r="B34">
+        <v>461.8</v>
+      </c>
+      <c r="C34">
+        <v>1.6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4665,10 +4725,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5063,6 +5123,17 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>44257.554861111108</v>
+      </c>
+      <c r="B36">
+        <v>481.6</v>
+      </c>
+      <c r="C36">
+        <v>3.7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5070,10 +5141,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5468,6 +5539,17 @@
         <v>5</v>
       </c>
     </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>44257.560416666667</v>
+      </c>
+      <c r="B36">
+        <v>512.79999999999995</v>
+      </c>
+      <c r="C36">
+        <v>5.6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5475,10 +5557,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5884,6 +5966,17 @@
         <v>2.4</v>
       </c>
     </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>44257.574999999997</v>
+      </c>
+      <c r="B37">
+        <v>870.2</v>
+      </c>
+      <c r="C37">
+        <v>3.1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/conductivity_field.xlsx
+++ b/Data/conductivity_field.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linne\Box Sync\Chloride Research\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BDE8DC-CF15-413A-9BE3-270575DD20AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B19DFF74-5C1F-46F9-B3C2-2B469907C1E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39885" yWindow="2220" windowWidth="17280" windowHeight="8970" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31680" yWindow="2985" windowWidth="17280" windowHeight="8970" tabRatio="719" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loggers" sheetId="12" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="37">
   <si>
     <t>datetime</t>
   </si>
@@ -1057,9 +1057,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E111E348-178D-4A81-8338-72F6E909D9F1}">
   <dimension ref="A1:AR22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T6" sqref="T6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="S1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1071,12 +1071,12 @@
     <col min="5" max="5" width="19.88671875" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.33203125" style="3" customWidth="1"/>
     <col min="7" max="9" width="19.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="20" width="18.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="44" width="8.88671875" style="8"/>
+    <col min="10" max="23" width="18.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="44" width="8.88671875" style="8"/>
     <col min="45" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -1140,8 +1140,14 @@
       <c r="U1" s="8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>20758340</v>
       </c>
@@ -1158,7 +1164,7 @@
         <v>44141.5</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="18">
         <v>20758345</v>
       </c>
@@ -1172,7 +1178,7 @@
         <v>43963.53125</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="19">
         <v>20758346</v>
       </c>
@@ -1184,7 +1190,7 @@
         <v>44141.5</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>20758339</v>
       </c>
@@ -1245,8 +1251,17 @@
       <c r="T5" s="8">
         <v>44229.541666666664</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U5" s="8">
+        <v>44248.5</v>
+      </c>
+      <c r="V5" s="1">
+        <v>44264.583333333336</v>
+      </c>
+      <c r="W5" s="1">
+        <v>44264.604166666664</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>20758341</v>
       </c>
@@ -1263,7 +1278,7 @@
         <v>44139.583333333336</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="18">
         <v>20758346</v>
       </c>
@@ -1277,7 +1292,7 @@
         <v>43922.40625</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="20">
         <v>20378151</v>
       </c>
@@ -1289,7 +1304,7 @@
         <v>44139.583333333336</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>20758338</v>
       </c>
@@ -1341,8 +1356,14 @@
       <c r="Q9" s="8">
         <v>44180.666666666664</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R9" s="1">
+        <v>44264.5625</v>
+      </c>
+      <c r="S9" s="1">
+        <v>44264.583333333336</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>20758344</v>
       </c>
@@ -1394,8 +1415,14 @@
       <c r="Q10" s="8">
         <v>44180.6875</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R10" s="1">
+        <v>44264.583333333336</v>
+      </c>
+      <c r="S10" s="1">
+        <v>44264.604166666664</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="19">
         <v>20882401</v>
       </c>
@@ -1415,8 +1442,14 @@
       <c r="Q11" s="8">
         <v>44180.541666666664</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R11" s="1">
+        <v>44264.479166666664</v>
+      </c>
+      <c r="S11" s="1">
+        <v>44264.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="14">
         <v>20378151</v>
       </c>
@@ -1457,7 +1490,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>20758342</v>
       </c>
@@ -1509,8 +1542,14 @@
       <c r="Q13" s="8">
         <v>44180.645833333336</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R13" s="1">
+        <v>44264.541666666664</v>
+      </c>
+      <c r="S13" s="1">
+        <v>44264.5625</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>20758343</v>
       </c>
@@ -1562,8 +1601,14 @@
       <c r="Q14" s="8">
         <v>44180.625</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R14" s="1">
+        <v>44264.541666666664</v>
+      </c>
+      <c r="S14" s="1">
+        <v>44264.5625</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>20758347</v>
       </c>
@@ -1609,8 +1654,14 @@
       <c r="Q15" s="8">
         <v>44180.5625</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R15" s="1">
+        <v>44264.416666666664</v>
+      </c>
+      <c r="S15" s="1">
+        <v>44264.4375</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>20758348</v>
       </c>
@@ -1656,8 +1707,14 @@
       <c r="Q16" s="8">
         <v>44180.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R16" s="1">
+        <v>44264.458333333336</v>
+      </c>
+      <c r="S16" s="1">
+        <v>44264.479166666664</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="13">
         <v>20758345</v>
       </c>
@@ -1671,7 +1728,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>20882406</v>
       </c>
@@ -1687,19 +1744,25 @@
       <c r="Q18" s="8">
         <v>44180.479166666664</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R18" s="1">
+        <v>44257.4375</v>
+      </c>
+      <c r="S18" s="1">
+        <v>44257.458333333336</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <v>20484276</v>
       </c>
@@ -1738,6 +1801,12 @@
       </c>
       <c r="Q22" s="8">
         <v>44180.5</v>
+      </c>
+      <c r="R22" s="1">
+        <v>44264.458333333336</v>
+      </c>
+      <c r="S22" s="1">
+        <v>44264.479166666664</v>
       </c>
     </row>
   </sheetData>
@@ -1753,10 +1822,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54:C55"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2173,6 +2242,17 @@
         <v>3.8</v>
       </c>
     </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>44264.6</v>
+      </c>
+      <c r="B38">
+        <v>1320</v>
+      </c>
+      <c r="C38">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2182,7 +2262,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0CDB741-3836-4FA9-9852-A8110C8A5241}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A12" sqref="A12:A17"/>
     </sheetView>
   </sheetViews>
@@ -2755,10 +2835,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE7E974B-BCA0-45B0-95FE-63AB262733E9}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3021,6 +3101,17 @@
         <v>1.7</v>
       </c>
     </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>44264.453472222223</v>
+      </c>
+      <c r="B24">
+        <v>699.2</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3028,10 +3119,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3459,6 +3550,17 @@
         <v>2.1</v>
       </c>
     </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>44264.469444444447</v>
+      </c>
+      <c r="B39">
+        <v>349.9</v>
+      </c>
+      <c r="C39">
+        <v>3.8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3467,10 +3569,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3930,6 +4032,23 @@
       <c r="A35" s="1">
         <v>44257.473611111112</v>
       </c>
+      <c r="B35">
+        <v>866.8</v>
+      </c>
+      <c r="C35">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>44264.490277777775</v>
+      </c>
+      <c r="B36">
+        <v>677.1</v>
+      </c>
+      <c r="C36">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3938,10 +4057,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4330,6 +4449,17 @@
         <v>2.6</v>
       </c>
     </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>44264.4375</v>
+      </c>
+      <c r="B36">
+        <v>329.8</v>
+      </c>
+      <c r="C36">
+        <v>3.6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4337,10 +4467,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4718,6 +4848,17 @@
         <v>1.6</v>
       </c>
     </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>44264.54583333333</v>
+      </c>
+      <c r="B35">
+        <v>446</v>
+      </c>
+      <c r="C35">
+        <v>6.9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4725,10 +4866,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5134,6 +5275,17 @@
         <v>3.7</v>
       </c>
     </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>44264.561111111114</v>
+      </c>
+      <c r="B37">
+        <v>366.9</v>
+      </c>
+      <c r="C37">
+        <v>6.4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5141,10 +5293,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5550,6 +5702,17 @@
         <v>5.6</v>
       </c>
     </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>44264.572222222225</v>
+      </c>
+      <c r="B37">
+        <v>388.9</v>
+      </c>
+      <c r="C37">
+        <v>7.9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5557,10 +5720,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5977,6 +6140,17 @@
         <v>3.1</v>
       </c>
     </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>44264.587500000001</v>
+      </c>
+      <c r="B38">
+        <v>523</v>
+      </c>
+      <c r="C38">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/conductivity_field.xlsx
+++ b/Data/conductivity_field.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linne\Box Sync\Chloride Research\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B19DFF74-5C1F-46F9-B3C2-2B469907C1E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A1EC33-17AB-4CDD-A129-734ECC7CC134}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31680" yWindow="2985" windowWidth="17280" windowHeight="8970" tabRatio="719" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45270" yWindow="2835" windowWidth="17280" windowHeight="8970" tabRatio="719" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loggers" sheetId="12" r:id="rId1"/>
@@ -1057,7 +1057,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E111E348-178D-4A81-8338-72F6E909D9F1}">
   <dimension ref="A1:AR22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="S1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="U6" sqref="U6"/>
     </sheetView>
@@ -1822,10 +1822,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2251,6 +2251,28 @@
       </c>
       <c r="C38">
         <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>44271.579861111109</v>
+      </c>
+      <c r="B39">
+        <v>1374</v>
+      </c>
+      <c r="C39">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>44278.53402777778</v>
+      </c>
+      <c r="B40">
+        <v>1811</v>
+      </c>
+      <c r="C40">
+        <v>11.1</v>
       </c>
     </row>
   </sheetData>
@@ -2835,10 +2857,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE7E974B-BCA0-45B0-95FE-63AB262733E9}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3112,6 +3134,28 @@
         <v>5</v>
       </c>
     </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>44271.411111111112</v>
+      </c>
+      <c r="B25">
+        <v>552.20000000000005</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>44278.401388888888</v>
+      </c>
+      <c r="B26">
+        <v>704.5</v>
+      </c>
+      <c r="C26">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3119,10 +3163,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3561,6 +3605,28 @@
         <v>3.8</v>
       </c>
     </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>44271.425000000003</v>
+      </c>
+      <c r="B40">
+        <v>332.8</v>
+      </c>
+      <c r="C40">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>44278.413194444445</v>
+      </c>
+      <c r="B41">
+        <v>357.1</v>
+      </c>
+      <c r="C41">
+        <v>7.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3569,10 +3635,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4050,6 +4116,28 @@
         <v>6</v>
       </c>
     </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>44271.440972222219</v>
+      </c>
+      <c r="B37">
+        <v>1006</v>
+      </c>
+      <c r="C37">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>44278.430555555555</v>
+      </c>
+      <c r="B38">
+        <v>868.9</v>
+      </c>
+      <c r="C38">
+        <v>7.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4057,10 +4145,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4460,6 +4548,28 @@
         <v>3.6</v>
       </c>
     </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>44271.440972222219</v>
+      </c>
+      <c r="B37">
+        <v>323.5</v>
+      </c>
+      <c r="C37">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>44278.443055555559</v>
+      </c>
+      <c r="B38">
+        <v>357.4</v>
+      </c>
+      <c r="C38">
+        <v>5.9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4467,10 +4577,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4859,6 +4969,28 @@
         <v>6.9</v>
       </c>
     </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>44271.526388888888</v>
+      </c>
+      <c r="B36">
+        <v>397.3</v>
+      </c>
+      <c r="C36">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>44278.493750000001</v>
+      </c>
+      <c r="B37">
+        <v>518.29999999999995</v>
+      </c>
+      <c r="C37">
+        <v>9.6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4866,10 +4998,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5286,6 +5418,28 @@
         <v>6.4</v>
       </c>
     </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>44271.543749999997</v>
+      </c>
+      <c r="B38">
+        <v>455.4</v>
+      </c>
+      <c r="C38">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>44278.50277777778</v>
+      </c>
+      <c r="B39">
+        <v>528.79999999999995</v>
+      </c>
+      <c r="C39">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5293,10 +5447,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5713,6 +5867,28 @@
         <v>7.9</v>
       </c>
     </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>44271.552083333336</v>
+      </c>
+      <c r="B38">
+        <v>489.3</v>
+      </c>
+      <c r="C38">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>44278.509722222225</v>
+      </c>
+      <c r="B39">
+        <v>538.20000000000005</v>
+      </c>
+      <c r="C39">
+        <v>8.9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5720,10 +5896,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6151,6 +6327,28 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>44271.567361111112</v>
+      </c>
+      <c r="B39">
+        <v>840.8</v>
+      </c>
+      <c r="C39">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>44278.525000000001</v>
+      </c>
+      <c r="B40">
+        <v>936.7</v>
+      </c>
+      <c r="C40">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/conductivity_field.xlsx
+++ b/Data/conductivity_field.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linne\Box Sync\Chloride Research\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A1EC33-17AB-4CDD-A129-734ECC7CC134}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A934BC5-BE19-4D6E-9BBE-9E7D14A9E5C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45270" yWindow="2835" windowWidth="17280" windowHeight="8970" tabRatio="719" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30195" yWindow="1440" windowWidth="17280" windowHeight="8970" tabRatio="719" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loggers" sheetId="12" r:id="rId1"/>
@@ -1822,10 +1822,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2273,6 +2273,17 @@
       </c>
       <c r="C40">
         <v>11.1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>44285.538194444445</v>
+      </c>
+      <c r="B41">
+        <v>1606</v>
+      </c>
+      <c r="C41">
+        <v>15.7</v>
       </c>
     </row>
   </sheetData>
@@ -2857,10 +2868,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE7E974B-BCA0-45B0-95FE-63AB262733E9}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3156,6 +3167,17 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>44285.384027777778</v>
+      </c>
+      <c r="B27">
+        <v>734.6</v>
+      </c>
+      <c r="C27">
+        <v>10.6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3163,10 +3185,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3627,6 +3649,17 @@
         <v>7.2</v>
       </c>
     </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>44285.395833333336</v>
+      </c>
+      <c r="B42">
+        <v>422.6</v>
+      </c>
+      <c r="C42">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3635,10 +3668,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4138,6 +4171,17 @@
         <v>7.2</v>
       </c>
     </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>44285.415277777778</v>
+      </c>
+      <c r="B39">
+        <v>882.6</v>
+      </c>
+      <c r="C39">
+        <v>9.6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4145,10 +4189,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4570,6 +4614,17 @@
         <v>5.9</v>
       </c>
     </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>44285.429166666669</v>
+      </c>
+      <c r="B39">
+        <v>387.3</v>
+      </c>
+      <c r="C39">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4577,10 +4632,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4991,6 +5046,17 @@
         <v>9.6</v>
       </c>
     </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>44285.497916666667</v>
+      </c>
+      <c r="B38">
+        <v>522</v>
+      </c>
+      <c r="C38">
+        <v>12.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4998,10 +5064,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5440,6 +5506,17 @@
         <v>9</v>
       </c>
     </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>44285.507638888892</v>
+      </c>
+      <c r="B40">
+        <v>567</v>
+      </c>
+      <c r="C40">
+        <v>12.8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5447,10 +5524,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5889,6 +5966,17 @@
         <v>8.9</v>
       </c>
     </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>44285.513194444444</v>
+      </c>
+      <c r="B40">
+        <v>592</v>
+      </c>
+      <c r="C40">
+        <v>12.7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5896,7 +5984,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C41" sqref="C41"/>
@@ -6349,6 +6437,17 @@
         <v>10</v>
       </c>
     </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>44285.568749999999</v>
+      </c>
+      <c r="B41">
+        <v>1003</v>
+      </c>
+      <c r="C41">
+        <v>12.1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/conductivity_field.xlsx
+++ b/Data/conductivity_field.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linne\Box Sync\Chloride Research\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A934BC5-BE19-4D6E-9BBE-9E7D14A9E5C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{895E9614-EAD9-49BF-81B8-12D2F4C86784}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30195" yWindow="1440" windowWidth="17280" windowHeight="8970" tabRatio="719" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15192" yWindow="2196" windowWidth="13836" windowHeight="7176" tabRatio="719" firstSheet="3" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loggers" sheetId="12" r:id="rId1"/>
@@ -1822,10 +1822,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2284,6 +2284,17 @@
       </c>
       <c r="C41">
         <v>15.7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>44296.552083333336</v>
+      </c>
+      <c r="B42">
+        <v>1145</v>
+      </c>
+      <c r="C42">
+        <v>13.8</v>
       </c>
     </row>
   </sheetData>
@@ -2552,10 +2563,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{588D9C27-B403-4DE5-8B68-B5C4B22BE996}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2860,6 +2871,90 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>44296.304861111108</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>412.5</v>
+      </c>
+      <c r="D22">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>44296.304166666669</v>
+      </c>
+      <c r="B23" s="2">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>412.9</v>
+      </c>
+      <c r="D23">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>44296.302083333336</v>
+      </c>
+      <c r="B24" s="2">
+        <v>8</v>
+      </c>
+      <c r="C24">
+        <v>408.5</v>
+      </c>
+      <c r="D24">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>44296.299305555556</v>
+      </c>
+      <c r="B25" s="2">
+        <v>12</v>
+      </c>
+      <c r="C25">
+        <v>395.1</v>
+      </c>
+      <c r="D25">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>44296.296527777777</v>
+      </c>
+      <c r="B26" s="2">
+        <v>16</v>
+      </c>
+      <c r="C26">
+        <v>390.6</v>
+      </c>
+      <c r="D26">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>44296.293749999997</v>
+      </c>
+      <c r="B27" s="2">
+        <v>20</v>
+      </c>
+      <c r="C27">
+        <v>386.5</v>
+      </c>
+      <c r="D27">
+        <v>6.6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2868,10 +2963,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE7E974B-BCA0-45B0-95FE-63AB262733E9}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3178,6 +3273,17 @@
         <v>10.6</v>
       </c>
     </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>44296.418749999997</v>
+      </c>
+      <c r="B28">
+        <v>779.3</v>
+      </c>
+      <c r="C28">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3185,10 +3291,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3660,6 +3766,17 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>44296.442361111112</v>
+      </c>
+      <c r="B43">
+        <v>429</v>
+      </c>
+      <c r="C43">
+        <v>10.3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3668,10 +3785,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4182,6 +4299,17 @@
         <v>9.6</v>
       </c>
     </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>44296.474999999999</v>
+      </c>
+      <c r="B40">
+        <v>871.2</v>
+      </c>
+      <c r="C40">
+        <v>11.7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4189,10 +4317,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4625,6 +4753,17 @@
         <v>10</v>
       </c>
     </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>44296.490972222222</v>
+      </c>
+      <c r="B40">
+        <v>379.5</v>
+      </c>
+      <c r="C40">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4632,10 +4771,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5057,6 +5196,17 @@
         <v>12.2</v>
       </c>
     </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>44296.509722222225</v>
+      </c>
+      <c r="B39">
+        <v>586.6</v>
+      </c>
+      <c r="C39">
+        <v>14.4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5064,10 +5214,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5517,6 +5667,17 @@
         <v>12.8</v>
       </c>
     </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>44296.520833333336</v>
+      </c>
+      <c r="B41">
+        <v>581</v>
+      </c>
+      <c r="C41">
+        <v>12.1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5524,10 +5685,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5977,6 +6138,17 @@
         <v>12.7</v>
       </c>
     </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>44296.527777777781</v>
+      </c>
+      <c r="B41">
+        <v>588.20000000000005</v>
+      </c>
+      <c r="C41">
+        <v>11.4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5984,10 +6156,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6448,6 +6620,17 @@
         <v>12.1</v>
       </c>
     </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>44296.540277777778</v>
+      </c>
+      <c r="B42">
+        <v>968.9</v>
+      </c>
+      <c r="C42">
+        <v>13.3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/conductivity_field.xlsx
+++ b/Data/conductivity_field.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linne\Box Sync\Chloride Research\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{895E9614-EAD9-49BF-81B8-12D2F4C86784}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A59E9BE-3A98-4321-8126-BBDA0DC9FF1D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15192" yWindow="2196" windowWidth="13836" windowHeight="7176" tabRatio="719" firstSheet="3" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31110" yWindow="2385" windowWidth="17280" windowHeight="8970" tabRatio="719" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loggers" sheetId="12" r:id="rId1"/>
@@ -2304,10 +2304,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0CDB741-3836-4FA9-9852-A8110C8A5241}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2556,6 +2556,90 @@
         <v>2.9</v>
       </c>
     </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>44302.395833333336</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>367.9</v>
+      </c>
+      <c r="D18">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>44302.394444444442</v>
+      </c>
+      <c r="B19" s="2">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>367.7</v>
+      </c>
+      <c r="D19">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>44302.390972222223</v>
+      </c>
+      <c r="B20" s="2">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>368</v>
+      </c>
+      <c r="D20">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>44302.388194444444</v>
+      </c>
+      <c r="B21" s="2">
+        <v>15</v>
+      </c>
+      <c r="C21">
+        <v>367.8</v>
+      </c>
+      <c r="D21">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>44302.383333333331</v>
+      </c>
+      <c r="B22" s="2">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>368.6</v>
+      </c>
+      <c r="D22">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>44302.379861111112</v>
+      </c>
+      <c r="B23" s="2">
+        <v>23.5</v>
+      </c>
+      <c r="C23">
+        <v>369.6</v>
+      </c>
+      <c r="D23">
+        <v>7.3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2565,7 +2649,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{588D9C27-B403-4DE5-8B68-B5C4B22BE996}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
